--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="269">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -812,6 +812,21 @@
   </si>
   <si>
     <t xml:space="preserve">Total reactive nitrogen volume mixing ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrfso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not be produced by LPJ-GUESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrubFrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agesno</t>
   </si>
 </sst>
 </file>
@@ -895,7 +910,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -906,6 +921,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -925,10 +944,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F128" activeCellId="0" sqref="F128:F138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C116" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F143" activeCellId="0" sqref="F143:F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3561,6 +3580,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -119,21 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">total emission of anthropogenic  organic aerosol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emibvoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of biogenic nmvoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">definition of biogenic nmvoc not clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emivoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total emission rate of nmvoc</t>
   </si>
   <si>
     <t xml:space="preserve">hcho</t>
@@ -329,7 +314,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>33</v>
@@ -557,7 +542,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>11</v>
@@ -568,16 +553,16 @@
         <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>11</v>
@@ -591,10 +576,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>10</v>
@@ -611,10 +596,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>10</v>
@@ -631,13 +616,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>11</v>
@@ -648,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>44</v>
@@ -677,64 +662,64 @@
         <v>46</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>10</v>
@@ -745,97 +730,59 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="E30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>11</v>
+      <c r="E31" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -40,9 +40,54 @@
     <t xml:space="preserve">comment author</t>
   </si>
   <si>
+    <t xml:space="preserve">3hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdsdiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Diffuse Downwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, probably not. There is a GRIB code: 228242 (=242 in table 228), no idea if it can be used in EC-Earth. Give up this one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs &amp; Klaus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amon</t>
   </si>
   <si>
+    <t xml:space="preserve">cct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Pressure at Convective Cloud Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cloud top height in IFS output, thus no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs &amp; Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where convective cloud is present in the grid cell, the instantaneous cloud top altitude should be that of the top of the highest level containing convective cloud. Missing data should be reported in the absence of convective cloud. The time mean should be calculated from these quantities averaging over occasions when convective cloud is present only, and should contain missing data for occasions when no convective cloud is present during the meaning period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Time Shallow Convection Occurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not in IFS output, thus no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of time that shallow convection occurs in the grid cell.</t>
+  </si>
+  <si>
     <t xml:space="preserve">longitude latitude plev19 time</t>
   </si>
   <si>
@@ -92,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cloud Liquid Droplet Number Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time</t>
   </si>
   <si>
     <t xml:space="preserve">chepasoa</t>
@@ -311,10 +353,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,445 +389,507 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -97,22 +97,25 @@
     <t xml:space="preserve">Mole Fraction of N2O</t>
   </si>
   <si>
+    <t xml:space="preserve">Component not available in TM5. It is one of the prescribed greenhouse gases in IFS. WMO grib code: 210063, but not available in IFS output.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommi Bergman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6hrLev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol backscatter coefficient</t>
+  </si>
+  <si>
     <t xml:space="preserve">Component not available in TM5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tommi Bergman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6hrLev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bs550aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol backscatter coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">AERmon</t>
@@ -356,7 +359,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,7 +493,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>26</v>
@@ -499,19 +502,19 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>26</v>
@@ -519,19 +522,19 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>26</v>
@@ -539,19 +542,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>26</v>
@@ -559,19 +562,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>26</v>
@@ -579,19 +582,19 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>26</v>
@@ -599,19 +602,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>26</v>
@@ -619,19 +622,19 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>26</v>
@@ -639,19 +642,19 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>26</v>
@@ -659,19 +662,19 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>26</v>
@@ -679,19 +682,19 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>26</v>
@@ -699,19 +702,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>26</v>
@@ -719,19 +722,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>26</v>
@@ -739,19 +742,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>26</v>
@@ -759,19 +762,19 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>26</v>
@@ -779,19 +782,19 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>26</v>
@@ -799,19 +802,19 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>26</v>
@@ -819,19 +822,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>26</v>
@@ -839,19 +842,19 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>26</v>
@@ -859,35 +862,35 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="121">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -46,6 +46,39 @@
     <t xml:space="preserve">extensive variable description</t>
   </si>
   <si>
+    <t xml:space="preserve">Amon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Pressure at Convective Cloud Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too much effort?: convective cloud cover ccc[185] &gt; 0.5 or &gt; 0.0, this mask combine with cloud base height cbh[228023], therafter with surface pressure sp[134] and lapse rate the cct can be calculated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where convective cloud is present in the grid cell, the instantaneous cloud base altitude should be that of the bottom of the lowest level containing convective cloud. Missing data should be reported in the absence of convective cloud. The time mean should be calculated from these quantities averaging over occasions when convective cloud is present only, and should contain missing data for occasions when no convective cloud is present during the meaning period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevhalf time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective Mass Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too much effort?: IFS var in PEXTRA, the CUFLXN routine produces PFMU (MASSFLUX IN UPDRAFTS) and PFMD (MASSFLUX DOWNDRAFTS) KG/(M2*S) which can be combined. Which gib code?, via?: sources/ifs-36r4/src/ifs/phys_ec/callpar.F90 in variables PGFL(JL,JK,YERA40(5)%MP) and PGFL(JL,JK,YERA40(6)%MP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The net mass flux should represent the difference between the updraft and downdraft components.  The flux is computed as the mass divided by the area of the grid cell.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CF3hr</t>
   </si>
   <si>
@@ -65,12 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fraction of time that shallow convection occurs in the grid cell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time</t>
   </si>
   <si>
     <t xml:space="preserve">ci</t>
@@ -439,13 +466,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -469,10 +500,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -514,7 +545,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -527,209 +568,204 @@
       <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
-        <v>0</v>
+      <c r="E3" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <v>web</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="str">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
         <v>web</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="0" t="s">
+      <c r="H7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E12" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a77f2a-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
         <v>0</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="E13" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/98114e26-b896-11e6-a189-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>45</v>
+      <c r="G13" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>46</v>
@@ -738,103 +774,76 @@
         <v>47</v>
       </c>
       <c r="E15" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d5bdfd24b275f0530646361967483d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a77f2a-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4ffc1f50b844980dbbae006dbcfca869.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/98114e26-b896-11e6-a189-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea546e38aa8fc0e021f03e746e1adb10.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d5bdfd24b275f0530646361967483d.html","web")</f>
         <v>0</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>57</v>
@@ -843,14 +852,14 @@
         <v>58</v>
       </c>
       <c r="E19" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/691673a210102ac652eed2b784dd2ab4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
         <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>59</v>
@@ -858,10 +867,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>60</v>
@@ -870,14 +879,14 @@
         <v>61</v>
       </c>
       <c r="E20" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a4e52f0f3833b395c09c73f1b6f3f748.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4ffc1f50b844980dbbae006dbcfca869.html","web")</f>
         <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>62</v>
@@ -885,10 +894,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>63</v>
@@ -897,533 +906,614 @@
         <v>64</v>
       </c>
       <c r="E21" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe6bdb96-a41f-11e5-9025-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea546e38aa8fc0e021f03e746e1adb10.html","web")</f>
         <v>0</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/691673a210102ac652eed2b784dd2ab4.html","web")</f>
         <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E23" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2b133ea2-1b42-11e6-a696-35cd2d8034df.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a4e52f0f3833b395c09c73f1b6f3f748.html","web")</f>
         <v>0</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E24" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe6bdb96-a41f-11e5-9025-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E25" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/218a6b28-8995-11e6-b63d-5404a60d96b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
         <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a0c10a4b65d3b79db581a649058a08b1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2b133ea2-1b42-11e6-a696-35cd2d8034df.html","web")</f>
         <v>0</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E27" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a2609abee6ecd5d535a48e29ae70e852.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>80</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/218a6b28-8995-11e6-b63d-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E29" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a0c10a4b65d3b79db581a649058a08b1.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a2609abee6ecd5d535a48e29ae70e852.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="0" t="n">
+      <c r="H34" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
         <v>0</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>94</v>
+      <c r="F36" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E38" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="E41" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bdb1045bec7f58e9e6221cd39bb34c2f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="G41" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="H41" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="E43" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
         <v>0</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C45" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="E46" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="s">
+      <c r="G46" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="H46" s="0" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="E48" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="E50" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>34</v>
+      <c r="F53" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="473">
   <si>
     <t>Table</t>
   </si>
@@ -1039,7 +1039,10 @@
     <t>near-surface air temperature (2m above displacement height, i.e. t_ref) on land use tile</t>
   </si>
   <si>
-    <t>Can not be produced by LPJ-GUESS: H-TESSEL?</t>
+    <t>Can not be produced by either LPJ-GUESS or H-TESSEL.</t>
+  </si>
+  <si>
+    <t>David Warlind &amp; Andrea Alessandri</t>
   </si>
   <si>
     <t>tslsiLut</t>
@@ -5827,7 +5830,7 @@
         <v>341</v>
       </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5835,16 +5838,16 @@
         <v>194</v>
       </c>
       <c r="B151" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C151" t="s">
         <v>18</v>
       </c>
       <c r="D151" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E151" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F151">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -5854,10 +5857,10 @@
         <v>341</v>
       </c>
       <c r="H151" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="I151" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5865,7 +5868,7 @@
         <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C152" t="s">
         <v>18</v>
@@ -5874,7 +5877,7 @@
         <v>339</v>
       </c>
       <c r="E152" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F152">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -5884,10 +5887,10 @@
         <v>341</v>
       </c>
       <c r="H152" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
       <c r="I152" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5895,16 +5898,16 @@
         <v>194</v>
       </c>
       <c r="B153" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C153" t="s">
         <v>18</v>
       </c>
       <c r="D153" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F153">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -5914,7 +5917,7 @@
         <v>341</v>
       </c>
       <c r="H153" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5922,16 +5925,16 @@
         <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C154" t="s">
         <v>18</v>
       </c>
       <c r="D154" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E154" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F154">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -5941,7 +5944,7 @@
         <v>341</v>
       </c>
       <c r="H154" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5949,16 +5952,16 @@
         <v>194</v>
       </c>
       <c r="B155" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C155" t="s">
         <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E155" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F155">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -5968,7 +5971,7 @@
         <v>341</v>
       </c>
       <c r="H155" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5976,16 +5979,16 @@
         <v>194</v>
       </c>
       <c r="B156" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C156" t="s">
         <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F156">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -5995,7 +5998,7 @@
         <v>341</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6003,16 +6006,16 @@
         <v>194</v>
       </c>
       <c r="B157" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
         <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E157" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F157">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6022,7 +6025,7 @@
         <v>341</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6030,16 +6033,16 @@
         <v>194</v>
       </c>
       <c r="B158" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C158" t="s">
         <v>18</v>
       </c>
       <c r="D158" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E158" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F158">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
@@ -6049,7 +6052,7 @@
         <v>341</v>
       </c>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>342</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6057,7 +6060,7 @@
         <v>194</v>
       </c>
       <c r="B159" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C159" t="s">
         <v>18</v>
@@ -6066,20 +6069,20 @@
         <v>230</v>
       </c>
       <c r="E159" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F159">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H159" t="s">
         <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6114,16 +6117,16 @@
         <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E161" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F161">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6136,7 +6139,7 @@
         <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6144,7 +6147,7 @@
         <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
@@ -6153,7 +6156,7 @@
         <v>30</v>
       </c>
       <c r="E162" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F162">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6171,7 +6174,7 @@
         <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
@@ -6180,7 +6183,7 @@
         <v>30</v>
       </c>
       <c r="E163" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F163">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6198,7 +6201,7 @@
         <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
@@ -6207,7 +6210,7 @@
         <v>30</v>
       </c>
       <c r="E164" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F164">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6225,7 +6228,7 @@
         <v>194</v>
       </c>
       <c r="B165" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C165" t="s">
         <v>11</v>
@@ -6234,7 +6237,7 @@
         <v>30</v>
       </c>
       <c r="E165" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F165">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6252,7 +6255,7 @@
         <v>194</v>
       </c>
       <c r="B166" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
@@ -6261,7 +6264,7 @@
         <v>30</v>
       </c>
       <c r="E166" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F166">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6279,7 +6282,7 @@
         <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
@@ -6288,7 +6291,7 @@
         <v>30</v>
       </c>
       <c r="E167" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F167">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6306,7 +6309,7 @@
         <v>194</v>
       </c>
       <c r="B168" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C168" t="s">
         <v>11</v>
@@ -6315,7 +6318,7 @@
         <v>30</v>
       </c>
       <c r="E168" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F168">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6333,7 +6336,7 @@
         <v>194</v>
       </c>
       <c r="B169" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
@@ -6342,7 +6345,7 @@
         <v>30</v>
       </c>
       <c r="E169" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F169">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6360,7 +6363,7 @@
         <v>194</v>
       </c>
       <c r="B170" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C170" t="s">
         <v>11</v>
@@ -6369,7 +6372,7 @@
         <v>30</v>
       </c>
       <c r="E170" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F170">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -6384,7 +6387,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B172" t="s">
         <v>35</v>
@@ -6411,7 +6414,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B173" t="s">
         <v>39</v>
@@ -6441,7 +6444,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B174" t="s">
         <v>43</v>
@@ -6468,7 +6471,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B176" t="s">
         <v>48</v>
@@ -6495,7 +6498,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B178" t="s">
         <v>43</v>
@@ -6522,10 +6525,10 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B180" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C180" t="s">
         <v>18</v>
@@ -6534,7 +6537,7 @@
         <v>30</v>
       </c>
       <c r="E180" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F180">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
@@ -6547,42 +6550,42 @@
         <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B181" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C181" t="s">
         <v>18</v>
       </c>
       <c r="D181" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E181" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F181">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B182" t="s">
         <v>112</v>
@@ -6609,7 +6612,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B183" t="s">
         <v>115</v>
@@ -6639,7 +6642,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B184" t="s">
         <v>119</v>
@@ -6669,10 +6672,10 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B185" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C185" t="s">
         <v>18</v>
@@ -6681,28 +6684,28 @@
         <v>30</v>
       </c>
       <c r="E185" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F185">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H185" t="s">
         <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B186" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C186" t="s">
         <v>18</v>
@@ -6711,28 +6714,28 @@
         <v>30</v>
       </c>
       <c r="E186" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F186">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H186" t="s">
         <v>15</v>
       </c>
       <c r="I186" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B187" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C187" t="s">
         <v>18</v>
@@ -6741,28 +6744,28 @@
         <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F187">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H187" t="s">
         <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B188" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C188" t="s">
         <v>11</v>
@@ -6771,37 +6774,37 @@
         <v>30</v>
       </c>
       <c r="E188" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F188">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H188" t="s">
         <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B189" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C189" t="s">
         <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E189" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F189">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
@@ -6814,24 +6817,24 @@
         <v>15</v>
       </c>
       <c r="I189" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B190" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C190" t="s">
         <v>11</v>
       </c>
       <c r="D190" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E190" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F190">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
@@ -6844,24 +6847,24 @@
         <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B191" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C191" t="s">
         <v>11</v>
       </c>
       <c r="D191" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E191" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F191">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
@@ -6874,24 +6877,24 @@
         <v>15</v>
       </c>
       <c r="I191" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B192" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C192" t="s">
         <v>11</v>
       </c>
       <c r="D192" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E192" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F192">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
@@ -6904,24 +6907,24 @@
         <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B193" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C193" t="s">
         <v>11</v>
       </c>
       <c r="D193" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E193" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F193">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
@@ -6934,24 +6937,24 @@
         <v>15</v>
       </c>
       <c r="I193" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B194" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C194" t="s">
         <v>11</v>
       </c>
       <c r="D194" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E194" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F194">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
@@ -6964,15 +6967,15 @@
         <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B195" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C195" t="s">
         <v>11</v>
@@ -6981,14 +6984,14 @@
         <v>30</v>
       </c>
       <c r="E195" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F195">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H195" t="s">
         <v>15</v>
@@ -6996,10 +6999,10 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B196" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C196" t="s">
         <v>11</v>
@@ -7008,14 +7011,14 @@
         <v>30</v>
       </c>
       <c r="E196" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F196">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H196" t="s">
         <v>15</v>
@@ -7023,10 +7026,10 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B197" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C197" t="s">
         <v>11</v>
@@ -7035,7 +7038,7 @@
         <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F197">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
@@ -7048,15 +7051,15 @@
         <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B198" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C198" t="s">
         <v>11</v>
@@ -7065,7 +7068,7 @@
         <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F198">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
@@ -7078,15 +7081,15 @@
         <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B199" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C199" t="s">
         <v>11</v>
@@ -7095,7 +7098,7 @@
         <v>30</v>
       </c>
       <c r="E199" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F199">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
@@ -7108,15 +7111,15 @@
         <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B201" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C201" t="s">
         <v>18</v>
@@ -7125,25 +7128,25 @@
         <v>30</v>
       </c>
       <c r="E201" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F201">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H201" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I201" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B203" t="s">
         <v>43</v>
@@ -7152,7 +7155,7 @@
         <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E203" t="s">
         <v>45</v>
@@ -7170,7 +7173,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B204" t="s">
         <v>35</v>
@@ -7179,7 +7182,7 @@
         <v>18</v>
       </c>
       <c r="D204" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E204" t="s">
         <v>36</v>
@@ -7197,7 +7200,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B205" t="s">
         <v>39</v>
@@ -7206,7 +7209,7 @@
         <v>18</v>
       </c>
       <c r="D205" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E205" t="s">
         <v>40</v>
@@ -7227,7 +7230,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B206" t="s">
         <v>17</v>
@@ -7236,7 +7239,7 @@
         <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E206" t="s">
         <v>20</v>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B207" t="s">
         <v>24</v>
@@ -7266,7 +7269,7 @@
         <v>18</v>
       </c>
       <c r="D207" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E207" t="s">
         <v>25</v>
@@ -7287,10 +7290,10 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B209" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C209" t="s">
         <v>18</v>
@@ -7299,25 +7302,25 @@
         <v>230</v>
       </c>
       <c r="E209" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F209">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
       </c>
       <c r="I209" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B210" t="s">
         <v>229</v>
@@ -7347,7 +7350,7 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B211" t="s">
         <v>29</v>
@@ -7374,19 +7377,19 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B213" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C213" t="s">
         <v>18</v>
       </c>
       <c r="D213" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E213" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F213">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
@@ -7399,24 +7402,24 @@
         <v>52</v>
       </c>
       <c r="I213" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B214" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C214" t="s">
         <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E214" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F214">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
@@ -7429,12 +7432,12 @@
         <v>52</v>
       </c>
       <c r="I214" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B215" t="s">
         <v>178</v>
@@ -7443,7 +7446,7 @@
         <v>18</v>
       </c>
       <c r="D215" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E215" t="s">
         <v>179</v>
@@ -7461,7 +7464,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B216" t="s">
         <v>48</v>
@@ -7470,7 +7473,7 @@
         <v>18</v>
       </c>
       <c r="D216" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E216" t="s">
         <v>183</v>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="506">
   <si>
     <t>Table</t>
   </si>
@@ -118,6 +118,24 @@
     <t>Gijs &amp; Klaus</t>
   </si>
   <si>
+    <t>SImon</t>
+  </si>
+  <si>
+    <t>sisnconc</t>
+  </si>
+  <si>
+    <t>Snow area fraction</t>
+  </si>
+  <si>
+    <t>Not available in PISCES. Not available in LIM.</t>
+  </si>
+  <si>
+    <t>Raffaele Bernardello, David Docquier, Thomas Reerink</t>
+  </si>
+  <si>
+    <t>Fraction of sea ice, by area, which is covered by snow, giving equal weight to every square metre of sea ice . Exclude snow that lies on land or land ice.</t>
+  </si>
+  <si>
     <t>Amon</t>
   </si>
   <si>
@@ -196,12 +214,57 @@
     <t>Omon</t>
   </si>
   <si>
+    <t>dissicabioos</t>
+  </si>
+  <si>
+    <t>longitude latitude time depth0m</t>
+  </si>
+  <si>
+    <t>Surface Abiotic Dissolved Inorganic Carbon Concentration</t>
+  </si>
+  <si>
+    <t>Not available in PISCES</t>
+  </si>
+  <si>
+    <t>Raffaele Bernardello</t>
+  </si>
+  <si>
+    <t>Abiotic Dissolved inorganic carbon (CO3+HCO3+H2CO3) concentration</t>
+  </si>
+  <si>
+    <t>dissi13cos</t>
+  </si>
+  <si>
+    <t>Surface Dissolved Inorganic 13Carbon Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved inorganic 14carbon (CO3+HCO3+H2CO3) concentration</t>
+  </si>
+  <si>
+    <t>o2satos</t>
+  </si>
+  <si>
+    <t>Surface Dissolved Oxygen Concentration at Saturation</t>
+  </si>
+  <si>
+    <t>eparag100</t>
+  </si>
+  <si>
+    <t>longitude latitude time depth100m</t>
+  </si>
+  <si>
+    <t>Downward Flux of Aragonite</t>
+  </si>
+  <si>
+    <t>spco2abio</t>
+  </si>
+  <si>
+    <t>Abiotic Surface Aqueous Partial Pressure of CO2</t>
+  </si>
+  <si>
     <t>fgco2nat</t>
   </si>
   <si>
-    <t>longitude latitude time depth0m</t>
-  </si>
-  <si>
     <t>Surface Downward Flux of Natural CO2</t>
   </si>
   <si>
@@ -217,6 +280,12 @@
     <t>Surface Downward Flux of Abiotic CO2</t>
   </si>
   <si>
+    <t>Not available inLPJ-GUESS. Not available in PISCES, which means not available in NEMO.</t>
+  </si>
+  <si>
+    <t>David Warlind, Raffaele Bernardello</t>
+  </si>
+  <si>
     <t>Gas exchange flux of abiotic CO2 (positive into ocean)</t>
   </si>
   <si>
@@ -229,6 +298,12 @@
     <t>Gas exchange flux of abiotic 14CO2 (positive into ocean)</t>
   </si>
   <si>
+    <t>fg13co2</t>
+  </si>
+  <si>
+    <t>Surface Downward Flux of Abiotic 13CO2</t>
+  </si>
+  <si>
     <t>fgdms</t>
   </si>
   <si>
@@ -349,6 +424,30 @@
     <t>vertical integral of net biological terms in time rate of change of alkalinity</t>
   </si>
   <si>
+    <t>dissicabio</t>
+  </si>
+  <si>
+    <t>longitude latitude olevel time</t>
+  </si>
+  <si>
+    <t>Abiotic Dissolved Inorganic Carbon Concentration</t>
+  </si>
+  <si>
+    <t>dissi13c</t>
+  </si>
+  <si>
+    <t>Dissolved Inorganic 13Carbon Concentration</t>
+  </si>
+  <si>
+    <t>phabio</t>
+  </si>
+  <si>
+    <t>Abiotic pH</t>
+  </si>
+  <si>
+    <t>negative log10 of hydrogen ion concentration with the concentration expressed as mol H kg-1 (abiotic component)..</t>
+  </si>
+  <si>
     <t>E3hr</t>
   </si>
   <si>
@@ -391,9 +490,6 @@
     <t>expn</t>
   </si>
   <si>
-    <t>longitude latitude olevel time</t>
-  </si>
-  <si>
     <t>Sinking Particulate Organic Nitrogen Flux</t>
   </si>
   <si>
@@ -815,6 +911,9 @@
   </si>
   <si>
     <t>cSoilPools</t>
+  </si>
+  <si>
+    <t>longitude latitude soilpools time1</t>
   </si>
   <si>
     <t>Carbon mass in each model soil pool (summed over vertical levels)</t>
@@ -1773,7 +1872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1950,52 +2049,25 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d38b0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
       </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
       <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -2004,28 +2076,25 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -2034,79 +2103,112 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="F15">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
+      <c r="F16">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -2121,16 +2223,13 @@
         <v>56</v>
       </c>
       <c r="F17">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a77f2a-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2151,104 +2250,74 @@
         <v>62</v>
       </c>
       <c r="F19">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a77f2a-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96c5576-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
         <v>69</v>
       </c>
-      <c r="F21">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>73</v>
       </c>
       <c r="F22">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/190f38cb06f9a1f3133c3dcf66e0421e.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96c720e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
         <v>74</v>
@@ -2256,1210 +2325,1240 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
       <c r="F23">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96daba6-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>76</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
       </c>
       <c r="F24">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f43d7527cd48c992f075339b2bbbf9ef.html","web")</f>
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
       <c r="F25">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c972ffd4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
         <v>85</v>
-      </c>
-      <c r="F26">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
         <v>87</v>
       </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
         <v>88</v>
       </c>
-      <c r="F27">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
-      </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5b82-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/190f38cb06f9a1f3133c3dcf66e0421e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F31">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F32">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F33">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F36">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F37">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F38">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F40">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="I40" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F41">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="I41" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F42">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="I42" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F43">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/55febff83b78e06576947e1c0e5b7a7d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F44">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59175660-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F45">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c977c2da-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F47">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
-      </c>
-      <c r="I47" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F48">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F49">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="H49" t="s">
         <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="F51">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/55febff83b78e06576947e1c0e5b7a7d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="F52">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59175660-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c977c2da-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
         <v>69</v>
       </c>
-      <c r="F53">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>63</v>
-      </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>70</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F55">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/98114e26-b896-11e6-a189-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F56">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d5bdfd24b275f0530646361967483d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F57">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F58">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4ffc1f50b844980dbbae006dbcfca869.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F59">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea546e38aa8fc0e021f03e746e1adb10.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F60">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/691673a210102ac652eed2b784dd2ab4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F61">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a4e52f0f3833b395c09c73f1b6f3f748.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F62">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe6bdb96-a41f-11e5-9025-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="I62" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F63">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="I63" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F64">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2b133ea2-1b42-11e6-a696-35cd2d8034df.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="F65">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="F66">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/218a6b28-8995-11e6-b63d-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -3468,559 +3567,547 @@
         <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="F67">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a0c10a4b65d3b79db581a649058a08b1.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="F68">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a2609abee6ecd5d535a48e29ae70e852.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5b82-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E70" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F70">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
-        <v>0</v>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/98114e26-b896-11e6-a189-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>63</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I70" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F71">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d5bdfd24b275f0530646361967483d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" t="s">
         <v>194</v>
       </c>
-      <c r="B72" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" t="s">
-        <v>203</v>
-      </c>
       <c r="F72">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d6812-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I72" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
         <v>30</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F73">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4ffc1f50b844980dbbae006dbcfca869.html","web")</f>
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I73" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
         <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F74">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea546e38aa8fc0e021f03e746e1adb10.html","web")</f>
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I74" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F75">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/691673a210102ac652eed2b784dd2ab4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I75" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
         <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F76">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a4e52f0f3833b395c09c73f1b6f3f748.html","web")</f>
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I76" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E77" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F77">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe6bdb96-a41f-11e5-9025-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F78">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F79">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2b133ea2-1b42-11e6-a696-35cd2d8034df.html","web")</f>
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I79" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F80">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F81">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/218a6b28-8995-11e6-b63d-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I81" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F82">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a0c10a4b65d3b79db581a649058a08b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="H82" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I82" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" t="s">
+        <v>224</v>
+      </c>
+      <c r="F83">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a2609abee6ecd5d535a48e29ae70e852.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" t="s">
+        <v>58</v>
+      </c>
+      <c r="I83" t="s">
         <v>225</v>
-      </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" t="s">
-        <v>226</v>
-      </c>
-      <c r="F83">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>227</v>
-      </c>
-      <c r="H83" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" t="s">
-        <v>194</v>
-      </c>
-      <c r="B84" t="s">
-        <v>229</v>
-      </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>230</v>
-      </c>
-      <c r="E84" t="s">
-        <v>231</v>
-      </c>
-      <c r="F84">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>227</v>
-      </c>
-      <c r="H84" t="s">
-        <v>15</v>
-      </c>
-      <c r="I84" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F85">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>235</v>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
         <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F86">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
         <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F87">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d6812-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H87" t="s">
         <v>15</v>
-      </c>
-      <c r="I87" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -4029,14 +4116,14 @@
         <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F88">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H88" t="s">
         <v>15</v>
@@ -4044,10 +4131,10 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -4056,14 +4143,14 @@
         <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F89">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H89" t="s">
         <v>15</v>
@@ -4071,10 +4158,10 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
@@ -4083,14 +4170,14 @@
         <v>30</v>
       </c>
       <c r="E90" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F90">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H90" t="s">
         <v>15</v>
@@ -4098,10 +4185,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
@@ -4110,14 +4197,14 @@
         <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F91">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
@@ -4125,10 +4212,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
@@ -4137,14 +4224,14 @@
         <v>30</v>
       </c>
       <c r="E92" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F92">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
@@ -4152,10 +4239,10 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
@@ -4164,14 +4251,14 @@
         <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F93">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H93" t="s">
         <v>15</v>
@@ -4179,10 +4266,10 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
         <v>11</v>
@@ -4191,14 +4278,14 @@
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F94">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H94" t="s">
         <v>15</v>
@@ -4206,10 +4293,10 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -4218,14 +4305,14 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F95">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
@@ -4233,10 +4320,10 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
@@ -4245,14 +4332,14 @@
         <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F96">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H96" t="s">
         <v>15</v>
@@ -4260,130 +4347,127 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E97" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F97">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="H97" t="s">
         <v>15</v>
-      </c>
-      <c r="I97" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
         <v>30</v>
       </c>
       <c r="E98" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F98">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H98" t="s">
         <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="E99" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F99">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H99" t="s">
         <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
       </c>
       <c r="E100" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F100">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G100" t="s">
+        <v>267</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
         <v>268</v>
-      </c>
-      <c r="H100" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
@@ -4392,28 +4476,25 @@
         <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F101">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
-      </c>
-      <c r="I101" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
@@ -4422,14 +4503,14 @@
         <v>30</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F102">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>
@@ -4440,10 +4521,10 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -4452,28 +4533,25 @@
         <v>30</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F103">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H103" t="s">
         <v>15</v>
-      </c>
-      <c r="I103" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
@@ -4482,28 +4560,25 @@
         <v>30</v>
       </c>
       <c r="E104" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F104">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H104" t="s">
         <v>15</v>
-      </c>
-      <c r="I104" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C105" t="s">
         <v>11</v>
@@ -4512,28 +4587,25 @@
         <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F105">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H105" t="s">
         <v>15</v>
-      </c>
-      <c r="I105" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -4542,28 +4614,25 @@
         <v>30</v>
       </c>
       <c r="E106" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F106">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H106" t="s">
         <v>15</v>
-      </c>
-      <c r="I106" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C107" t="s">
         <v>11</v>
@@ -4572,28 +4641,25 @@
         <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F107">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H107" t="s">
         <v>15</v>
-      </c>
-      <c r="I107" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
@@ -4602,28 +4668,25 @@
         <v>30</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F108">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
-      </c>
-      <c r="I108" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
         <v>11</v>
@@ -4632,28 +4695,25 @@
         <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F109">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
-      </c>
-      <c r="I109" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
@@ -4662,28 +4722,25 @@
         <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F110">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
-      </c>
-      <c r="I110" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -4692,28 +4749,25 @@
         <v>30</v>
       </c>
       <c r="E111" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F111">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
-      </c>
-      <c r="I111" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -4722,79 +4776,88 @@
         <v>30</v>
       </c>
       <c r="E112" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F112">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="H112" t="s">
         <v>15</v>
+      </c>
+      <c r="I112" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="E113" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F113">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H113" t="s">
         <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="E114" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F114">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
@@ -4803,25 +4866,28 @@
         <v>30</v>
       </c>
       <c r="E115" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F115">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
+      </c>
+      <c r="I115" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -4830,25 +4896,28 @@
         <v>30</v>
       </c>
       <c r="E116" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F116">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
@@ -4857,52 +4926,58 @@
         <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F117">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
+      </c>
+      <c r="I117" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
         <v>30</v>
       </c>
       <c r="E118" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F118">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -4911,245 +4986,254 @@
         <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F119">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="C120" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="F120">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>63</v>
+        <v>317</v>
       </c>
       <c r="H120" t="s">
         <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
       <c r="C121" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E121" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="F121">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>144</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>325</v>
       </c>
       <c r="C122" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E122" t="s">
-        <v>146</v>
+        <v>326</v>
       </c>
       <c r="F122">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
       <c r="C123" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E123" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="F123">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>331</v>
       </c>
       <c r="C124" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E124" t="s">
-        <v>152</v>
+        <v>332</v>
       </c>
       <c r="F124">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="H124" t="s">
         <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>153</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c r="F125">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="H125" t="s">
         <v>15</v>
+      </c>
+      <c r="I125" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>338</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>128</v>
+        <v>339</v>
       </c>
       <c r="F126">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
+      </c>
+      <c r="I126" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>341</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>130</v>
+        <v>342</v>
       </c>
       <c r="F127">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5157,26 +5241,26 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>344</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>132</v>
+        <v>345</v>
       </c>
       <c r="F128">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -5184,176 +5268,161 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>346</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="F129">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>63</v>
+        <v>348</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
-      </c>
-      <c r="I129" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E130" t="s">
-        <v>137</v>
+        <v>350</v>
       </c>
       <c r="F130">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
-      </c>
-      <c r="I130" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>62</v>
+        <v>352</v>
       </c>
       <c r="F131">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
-      </c>
-      <c r="I131" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>354</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
+        <v>355</v>
       </c>
       <c r="F132">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
-      </c>
-      <c r="I132" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c r="C133" t="s">
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E133" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="F133">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
-      </c>
-      <c r="I133" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="C134" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="F134">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -5361,847 +5430,862 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="C135" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D135" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E135" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F135">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="C136" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D136" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="F136">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H136" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I136" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="C137" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D137" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E137" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="F137">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H137" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I137" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="C138" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D138" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>181</v>
+      </c>
+      <c r="F138">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
         <v>88</v>
       </c>
-      <c r="F138">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G138" t="s">
-        <v>63</v>
-      </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I138" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D139" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E139" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="F139">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C140" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E140" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="F140">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H140" t="s">
-        <v>15</v>
-      </c>
-      <c r="I140" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="C141" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E141" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="F141">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H141" t="s">
-        <v>15</v>
-      </c>
-      <c r="I141" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="C142" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D142" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E142" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="F142">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
-      </c>
-      <c r="I142" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E143" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F143">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
-      </c>
-      <c r="I143" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E144" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="F144">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E145" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="F145">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H145" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I145" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="C146" t="s">
         <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E146" t="s">
-        <v>328</v>
+        <v>83</v>
       </c>
       <c r="F146">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>329</v>
+        <v>84</v>
       </c>
       <c r="H146" t="s">
         <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>330</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C147" t="s">
         <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F147">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H147" t="s">
-        <v>33</v>
+        <v>89</v>
+      </c>
+      <c r="I147" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>331</v>
+        <v>91</v>
       </c>
       <c r="C148" t="s">
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E148" t="s">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="F148">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>329</v>
+        <v>84</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>333</v>
+        <v>93</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>334</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D149" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E149" t="s">
-        <v>335</v>
+        <v>102</v>
       </c>
       <c r="F149">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
-      </c>
-      <c r="I149" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D150" t="s">
-        <v>339</v>
+        <v>137</v>
       </c>
       <c r="E150" t="s">
-        <v>340</v>
+        <v>104</v>
       </c>
       <c r="F150">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="H150" t="s">
-        <v>342</v>
+        <v>15</v>
+      </c>
+      <c r="I150" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D151" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="E151" t="s">
-        <v>345</v>
+        <v>107</v>
       </c>
       <c r="F151">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="H151" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D152" t="s">
-        <v>339</v>
+        <v>137</v>
       </c>
       <c r="E152" t="s">
-        <v>348</v>
+        <v>110</v>
       </c>
       <c r="F152">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="H152" t="s">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>349</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>350</v>
+        <v>112</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D153" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="E153" t="s">
-        <v>351</v>
+        <v>113</v>
       </c>
       <c r="F153">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="H153" t="s">
-        <v>342</v>
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>352</v>
+        <v>115</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D154" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="E154" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="F154">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="H154" t="s">
-        <v>342</v>
+        <v>15</v>
+      </c>
+      <c r="I154" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>118</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D155" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="E155" t="s">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="F155">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="H155" t="s">
-        <v>342</v>
+        <v>89</v>
+      </c>
+      <c r="I155" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B156" t="s">
-        <v>356</v>
+        <v>121</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D156" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="E156" t="s">
-        <v>357</v>
+        <v>122</v>
       </c>
       <c r="F156">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="H156" t="s">
-        <v>342</v>
+        <v>89</v>
+      </c>
+      <c r="I156" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B157" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D157" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="E157" t="s">
-        <v>359</v>
+        <v>125</v>
       </c>
       <c r="F157">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="H157" t="s">
-        <v>342</v>
+        <v>89</v>
+      </c>
+      <c r="I157" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>360</v>
+        <v>127</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D158" t="s">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="E158" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="F158">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="H158" t="s">
-        <v>342</v>
+        <v>89</v>
+      </c>
+      <c r="I158" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D159" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="E159" t="s">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="F159">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>364</v>
+        <v>88</v>
       </c>
       <c r="H159" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I159" t="s">
-        <v>365</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D160" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F160">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="H160" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="I160" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B161" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D161" t="s">
-        <v>367</v>
+        <v>30</v>
       </c>
       <c r="E161" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F161">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H161" t="s">
         <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B162" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
         <v>30</v>
       </c>
       <c r="E162" t="s">
-        <v>371</v>
+        <v>31</v>
       </c>
       <c r="F162">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="H162" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
         <v>30</v>
       </c>
       <c r="E163" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F163">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>206</v>
+        <v>362</v>
       </c>
       <c r="H163" t="s">
         <v>15</v>
+      </c>
+      <c r="I163" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
@@ -6210,401 +6294,515 @@
         <v>30</v>
       </c>
       <c r="E164" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F164">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>206</v>
+        <v>369</v>
       </c>
       <c r="H164" t="s">
         <v>15</v>
+      </c>
+      <c r="I164" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B165" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
-        <v>30</v>
+        <v>372</v>
       </c>
       <c r="E165" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F165">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="H165" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B166" t="s">
+        <v>376</v>
+      </c>
+      <c r="C166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" t="s">
+        <v>377</v>
+      </c>
+      <c r="E166" t="s">
         <v>378</v>
       </c>
-      <c r="C166" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s">
-        <v>30</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="F166">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>374</v>
+      </c>
+      <c r="H166" t="s">
+        <v>375</v>
+      </c>
+      <c r="I166" t="s">
         <v>379</v>
-      </c>
-      <c r="F166">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G166" t="s">
-        <v>206</v>
-      </c>
-      <c r="H166" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B167" t="s">
         <v>380</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D167" t="s">
-        <v>30</v>
+        <v>372</v>
       </c>
       <c r="E167" t="s">
         <v>381</v>
       </c>
       <c r="F167">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="H167" t="s">
-        <v>15</v>
+        <v>375</v>
+      </c>
+      <c r="I167" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B168" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="E168" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F168">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="H168" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B169" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D169" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="E169" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F169">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="H169" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B170" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D170" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="E170" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F170">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="H170" t="s">
-        <v>15</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>226</v>
+      </c>
+      <c r="B171" t="s">
+        <v>389</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
+        <v>377</v>
+      </c>
+      <c r="E171" t="s">
+        <v>390</v>
+      </c>
+      <c r="F171">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>374</v>
+      </c>
+      <c r="H171" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="C172" t="s">
         <v>18</v>
       </c>
       <c r="D172" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>392</v>
       </c>
       <c r="F172">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
-      </c>
-      <c r="I172" t="s">
-        <v>38</v>
+        <v>374</v>
+      </c>
+      <c r="H172" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="C173" t="s">
         <v>18</v>
       </c>
       <c r="D173" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="E173" t="s">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="F173">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="H173" t="s">
-        <v>26</v>
-      </c>
-      <c r="I173" t="s">
-        <v>42</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="B174" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="C174" t="s">
         <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="E174" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="F174">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>46</v>
+        <v>397</v>
+      </c>
+      <c r="H174" t="s">
+        <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>226</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>389</v>
+        <v>226</v>
       </c>
       <c r="B176" t="s">
-        <v>48</v>
+        <v>399</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D176" t="s">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="E176" t="s">
-        <v>183</v>
+        <v>401</v>
       </c>
       <c r="F176">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="H176" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="I176" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>226</v>
+      </c>
+      <c r="B177" t="s">
+        <v>403</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" t="s">
+        <v>404</v>
+      </c>
+      <c r="F177">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>238</v>
+      </c>
+      <c r="H177" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>390</v>
+        <v>226</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
+        <v>405</v>
       </c>
       <c r="C178" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D178" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="F178">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
-      </c>
-      <c r="I178" t="s">
-        <v>47</v>
+        <v>238</v>
+      </c>
+      <c r="H178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>226</v>
+      </c>
+      <c r="B179" t="s">
+        <v>407</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>30</v>
+      </c>
+      <c r="E179" t="s">
+        <v>408</v>
+      </c>
+      <c r="F179">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>238</v>
+      </c>
+      <c r="H179" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="B180" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D180" t="s">
         <v>30</v>
       </c>
       <c r="E180" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="F180">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H180" t="s">
         <v>15</v>
-      </c>
-      <c r="I180" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="B181" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C181" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>396</v>
+        <v>30</v>
       </c>
       <c r="E181" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="F181">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="H181" t="s">
         <v>15</v>
-      </c>
-      <c r="I181" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="B182" t="s">
-        <v>112</v>
+        <v>413</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D182" t="s">
         <v>30</v>
       </c>
       <c r="E182" t="s">
-        <v>113</v>
+        <v>414</v>
       </c>
       <c r="F182">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="H182" t="s">
         <v>15</v>
@@ -6612,130 +6810,91 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="B183" t="s">
-        <v>115</v>
+        <v>415</v>
       </c>
       <c r="C183" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D183" t="s">
         <v>30</v>
       </c>
       <c r="E183" t="s">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="F183">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="H183" t="s">
         <v>15</v>
-      </c>
-      <c r="I183" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="B184" t="s">
-        <v>119</v>
+        <v>417</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D184" t="s">
         <v>30</v>
       </c>
       <c r="E184" t="s">
-        <v>120</v>
+        <v>418</v>
       </c>
       <c r="F184">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
-      </c>
-      <c r="I184" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>391</v>
+        <v>226</v>
       </c>
       <c r="B185" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D185" t="s">
         <v>30</v>
       </c>
       <c r="E185" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="F185">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>402</v>
+        <v>238</v>
       </c>
       <c r="H185" t="s">
         <v>15</v>
-      </c>
-      <c r="I185" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" t="s">
-        <v>391</v>
-      </c>
-      <c r="B186" t="s">
-        <v>404</v>
-      </c>
-      <c r="C186" t="s">
-        <v>18</v>
-      </c>
-      <c r="D186" t="s">
-        <v>30</v>
-      </c>
-      <c r="E186" t="s">
-        <v>405</v>
-      </c>
-      <c r="F186">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G186" t="s">
-        <v>406</v>
-      </c>
-      <c r="H186" t="s">
-        <v>15</v>
-      </c>
-      <c r="I186" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="B187" t="s">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
         <v>18</v>
@@ -6744,382 +6903,313 @@
         <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>409</v>
+        <v>42</v>
       </c>
       <c r="F187">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>410</v>
-      </c>
-      <c r="H187" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I187" t="s">
-        <v>411</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="B188" t="s">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D188" t="s">
         <v>30</v>
       </c>
       <c r="E188" t="s">
-        <v>413</v>
+        <v>46</v>
       </c>
       <c r="F188">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>414</v>
+        <v>47</v>
       </c>
       <c r="H188" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I188" t="s">
-        <v>415</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="B189" t="s">
-        <v>416</v>
+        <v>49</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>417</v>
+        <v>50</v>
       </c>
       <c r="E189" t="s">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="F189">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>268</v>
-      </c>
-      <c r="H189" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I189" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" t="s">
-        <v>391</v>
-      </c>
-      <c r="B190" t="s">
-        <v>420</v>
-      </c>
-      <c r="C190" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s">
-        <v>421</v>
-      </c>
-      <c r="E190" t="s">
-        <v>422</v>
-      </c>
-      <c r="F190">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G190" t="s">
-        <v>268</v>
-      </c>
-      <c r="H190" t="s">
-        <v>15</v>
-      </c>
-      <c r="I190" t="s">
-        <v>423</v>
+        <v>53</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="B191" t="s">
-        <v>424</v>
+        <v>54</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>425</v>
+        <v>61</v>
       </c>
       <c r="E191" t="s">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="F191">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="H191" t="s">
-        <v>15</v>
-      </c>
-      <c r="I191" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" t="s">
-        <v>391</v>
-      </c>
-      <c r="B192" t="s">
-        <v>428</v>
-      </c>
-      <c r="C192" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s">
-        <v>429</v>
-      </c>
-      <c r="E192" t="s">
-        <v>430</v>
-      </c>
-      <c r="F192">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G192" t="s">
-        <v>268</v>
-      </c>
-      <c r="H192" t="s">
-        <v>15</v>
-      </c>
-      <c r="I192" t="s">
-        <v>431</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="B193" t="s">
-        <v>432</v>
+        <v>49</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D193" t="s">
-        <v>433</v>
+        <v>61</v>
       </c>
       <c r="E193" t="s">
-        <v>434</v>
+        <v>51</v>
       </c>
       <c r="F193">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>268</v>
-      </c>
-      <c r="H193" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I193" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" t="s">
-        <v>391</v>
-      </c>
-      <c r="B194" t="s">
-        <v>436</v>
-      </c>
-      <c r="C194" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s">
-        <v>437</v>
-      </c>
-      <c r="E194" t="s">
-        <v>438</v>
-      </c>
-      <c r="F194">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G194" t="s">
-        <v>268</v>
-      </c>
-      <c r="H194" t="s">
-        <v>15</v>
-      </c>
-      <c r="I194" t="s">
-        <v>439</v>
+        <v>53</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B195" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D195" t="s">
         <v>30</v>
       </c>
       <c r="E195" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F195">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>442</v>
+        <v>259</v>
       </c>
       <c r="H195" t="s">
         <v>15</v>
+      </c>
+      <c r="I195" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B196" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="E196" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="F196">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H196" t="s">
         <v>15</v>
+      </c>
+      <c r="I196" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B197" t="s">
-        <v>446</v>
+        <v>145</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D197" t="s">
         <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>447</v>
+        <v>146</v>
       </c>
       <c r="F197">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
-      </c>
-      <c r="I197" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B198" t="s">
-        <v>449</v>
+        <v>148</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D198" t="s">
         <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>450</v>
+        <v>149</v>
       </c>
       <c r="F198">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="H198" t="s">
         <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>451</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="B199" t="s">
-        <v>452</v>
+        <v>152</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
         <v>30</v>
       </c>
       <c r="E199" t="s">
-        <v>453</v>
+        <v>153</v>
       </c>
       <c r="F199">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="H199" t="s">
         <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>454</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>424</v>
+      </c>
+      <c r="B200" t="s">
+        <v>433</v>
+      </c>
+      <c r="C200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" t="s">
+        <v>30</v>
+      </c>
+      <c r="E200" t="s">
+        <v>434</v>
+      </c>
+      <c r="F200">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>435</v>
+      </c>
+      <c r="H200" t="s">
+        <v>15</v>
+      </c>
+      <c r="I200" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="B201" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C201" t="s">
         <v>18</v>
@@ -7128,365 +7218,779 @@
         <v>30</v>
       </c>
       <c r="E201" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="F201">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="H201" t="s">
-        <v>459</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>460</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>424</v>
+      </c>
+      <c r="B202" t="s">
+        <v>441</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>30</v>
+      </c>
+      <c r="E202" t="s">
+        <v>442</v>
+      </c>
+      <c r="F202">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>443</v>
+      </c>
+      <c r="H202" t="s">
+        <v>15</v>
+      </c>
+      <c r="I202" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="B203" t="s">
-        <v>43</v>
+        <v>445</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D203" t="s">
-        <v>462</v>
+        <v>30</v>
       </c>
       <c r="E203" t="s">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="F203">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>46</v>
+        <v>447</v>
+      </c>
+      <c r="H203" t="s">
+        <v>15</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>448</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="B204" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D204" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E204" t="s">
-        <v>36</v>
+        <v>451</v>
       </c>
       <c r="F204">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>301</v>
+      </c>
+      <c r="H204" t="s">
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>38</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="B205" t="s">
-        <v>39</v>
+        <v>453</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D205" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E205" t="s">
-        <v>40</v>
+        <v>455</v>
       </c>
       <c r="F205">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="H205" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I205" t="s">
-        <v>42</v>
+        <v>456</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>457</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D206" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E206" t="s">
-        <v>20</v>
+        <v>459</v>
       </c>
       <c r="F206">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="H206" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I206" t="s">
-        <v>23</v>
+        <v>460</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
+        <v>424</v>
+      </c>
+      <c r="B207" t="s">
         <v>461</v>
       </c>
-      <c r="B207" t="s">
-        <v>24</v>
-      </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D207" t="s">
+        <v>462</v>
+      </c>
+      <c r="E207" t="s">
         <v>463</v>
       </c>
-      <c r="E207" t="s">
-        <v>25</v>
-      </c>
       <c r="F207">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="H207" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I207" t="s">
-        <v>27</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>424</v>
+      </c>
+      <c r="B208" t="s">
+        <v>465</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>466</v>
+      </c>
+      <c r="E208" t="s">
+        <v>467</v>
+      </c>
+      <c r="F208">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G208" t="s">
+        <v>301</v>
+      </c>
+      <c r="H208" t="s">
+        <v>15</v>
+      </c>
+      <c r="I208" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B209" t="s">
-        <v>362</v>
+        <v>469</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D209" t="s">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="E209" t="s">
-        <v>363</v>
+        <v>471</v>
       </c>
       <c r="F209">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
       <c r="H209" t="s">
         <v>15</v>
       </c>
       <c r="I209" t="s">
-        <v>365</v>
+        <v>472</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B210" t="s">
-        <v>229</v>
+        <v>473</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D210" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="E210" t="s">
-        <v>231</v>
+        <v>474</v>
       </c>
       <c r="F210">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>227</v>
+        <v>475</v>
       </c>
       <c r="H210" t="s">
         <v>15</v>
-      </c>
-      <c r="I210" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B211" t="s">
-        <v>29</v>
+        <v>476</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D211" t="s">
         <v>30</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>477</v>
       </c>
       <c r="F211">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="H211" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>424</v>
+      </c>
+      <c r="B212" t="s">
+        <v>479</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" t="s">
+        <v>480</v>
+      </c>
+      <c r="F212">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
+        <v>301</v>
+      </c>
+      <c r="H212" t="s">
+        <v>15</v>
+      </c>
+      <c r="I212" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="C213" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D213" t="s">
-        <v>467</v>
+        <v>30</v>
       </c>
       <c r="E213" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="F213">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="H213" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I213" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="B214" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C214" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D214" t="s">
-        <v>467</v>
+        <v>30</v>
       </c>
       <c r="E214" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="F214">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="H214" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I214" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
-      <c r="A215" t="s">
-        <v>465</v>
-      </c>
-      <c r="B215" t="s">
-        <v>178</v>
-      </c>
-      <c r="C215" t="s">
-        <v>18</v>
-      </c>
-      <c r="D215" t="s">
-        <v>467</v>
-      </c>
-      <c r="E215" t="s">
-        <v>179</v>
-      </c>
-      <c r="F215">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G215" t="s">
-        <v>57</v>
-      </c>
-      <c r="H215" t="s">
-        <v>52</v>
+        <v>487</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="B216" t="s">
+        <v>489</v>
+      </c>
+      <c r="C216" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" t="s">
+        <v>30</v>
+      </c>
+      <c r="E216" t="s">
+        <v>490</v>
+      </c>
+      <c r="F216">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G216" t="s">
+        <v>491</v>
+      </c>
+      <c r="H216" t="s">
+        <v>492</v>
+      </c>
+      <c r="I216" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>494</v>
+      </c>
+      <c r="B218" t="s">
+        <v>49</v>
+      </c>
+      <c r="C218" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" t="s">
+        <v>495</v>
+      </c>
+      <c r="E218" t="s">
+        <v>51</v>
+      </c>
+      <c r="F218">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>52</v>
+      </c>
+      <c r="I218" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>494</v>
+      </c>
+      <c r="B219" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" t="s">
+        <v>496</v>
+      </c>
+      <c r="E219" t="s">
+        <v>42</v>
+      </c>
+      <c r="F219">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>43</v>
+      </c>
+      <c r="I219" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>494</v>
+      </c>
+      <c r="B220" t="s">
+        <v>45</v>
+      </c>
+      <c r="C220" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" t="s">
+        <v>496</v>
+      </c>
+      <c r="E220" t="s">
+        <v>46</v>
+      </c>
+      <c r="F220">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>47</v>
+      </c>
+      <c r="H220" t="s">
+        <v>26</v>
+      </c>
+      <c r="I220" t="s">
         <v>48</v>
       </c>
-      <c r="C216" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216" t="s">
-        <v>467</v>
-      </c>
-      <c r="E216" t="s">
-        <v>183</v>
-      </c>
-      <c r="F216">
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>494</v>
+      </c>
+      <c r="B221" t="s">
+        <v>17</v>
+      </c>
+      <c r="C221" t="s">
+        <v>18</v>
+      </c>
+      <c r="D221" t="s">
+        <v>496</v>
+      </c>
+      <c r="E221" t="s">
+        <v>20</v>
+      </c>
+      <c r="F221">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G221" t="s">
+        <v>21</v>
+      </c>
+      <c r="H221" t="s">
+        <v>22</v>
+      </c>
+      <c r="I221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>494</v>
+      </c>
+      <c r="B222" t="s">
+        <v>24</v>
+      </c>
+      <c r="C222" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" t="s">
+        <v>496</v>
+      </c>
+      <c r="E222" t="s">
+        <v>25</v>
+      </c>
+      <c r="F222">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>21</v>
+      </c>
+      <c r="H222" t="s">
+        <v>26</v>
+      </c>
+      <c r="I222" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>497</v>
+      </c>
+      <c r="B224" t="s">
+        <v>395</v>
+      </c>
+      <c r="C224" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" t="s">
+        <v>262</v>
+      </c>
+      <c r="E224" t="s">
+        <v>396</v>
+      </c>
+      <c r="F224">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
+        <v>397</v>
+      </c>
+      <c r="H224" t="s">
+        <v>15</v>
+      </c>
+      <c r="I224" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>497</v>
+      </c>
+      <c r="B225" t="s">
+        <v>261</v>
+      </c>
+      <c r="C225" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" t="s">
+        <v>262</v>
+      </c>
+      <c r="E225" t="s">
+        <v>263</v>
+      </c>
+      <c r="F225">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>259</v>
+      </c>
+      <c r="H225" t="s">
+        <v>15</v>
+      </c>
+      <c r="I225" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>497</v>
+      </c>
+      <c r="B226" t="s">
+        <v>29</v>
+      </c>
+      <c r="C226" t="s">
+        <v>18</v>
+      </c>
+      <c r="D226" t="s">
+        <v>30</v>
+      </c>
+      <c r="E226" t="s">
+        <v>31</v>
+      </c>
+      <c r="F226">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>32</v>
+      </c>
+      <c r="H226" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>498</v>
+      </c>
+      <c r="B228" t="s">
+        <v>499</v>
+      </c>
+      <c r="C228" t="s">
+        <v>18</v>
+      </c>
+      <c r="D228" t="s">
+        <v>500</v>
+      </c>
+      <c r="E228" t="s">
+        <v>501</v>
+      </c>
+      <c r="F228">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>63</v>
+      </c>
+      <c r="H228" t="s">
+        <v>58</v>
+      </c>
+      <c r="I228" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>498</v>
+      </c>
+      <c r="B229" t="s">
+        <v>503</v>
+      </c>
+      <c r="C229" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" t="s">
+        <v>500</v>
+      </c>
+      <c r="E229" t="s">
+        <v>504</v>
+      </c>
+      <c r="F229">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>63</v>
+      </c>
+      <c r="H229" t="s">
+        <v>58</v>
+      </c>
+      <c r="I229" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>498</v>
+      </c>
+      <c r="B230" t="s">
+        <v>210</v>
+      </c>
+      <c r="C230" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" t="s">
+        <v>500</v>
+      </c>
+      <c r="E230" t="s">
+        <v>211</v>
+      </c>
+      <c r="F230">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>63</v>
+      </c>
+      <c r="H230" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>498</v>
+      </c>
+      <c r="B231" t="s">
+        <v>54</v>
+      </c>
+      <c r="C231" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" t="s">
+        <v>500</v>
+      </c>
+      <c r="E231" t="s">
+        <v>215</v>
+      </c>
+      <c r="F231">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G216" t="s">
-        <v>51</v>
-      </c>
-      <c r="H216" t="s">
-        <v>52</v>
+      <c r="G231" t="s">
+        <v>57</v>
+      </c>
+      <c r="H231" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="569">
   <si>
     <t>Table</t>
   </si>
@@ -211,9 +211,189 @@
     <t>Aerosol  Backscatter at 550nm and 180 degrees, computed from extinction and lidar ratio</t>
   </si>
   <si>
+    <t>Oyr</t>
+  </si>
+  <si>
+    <t>dissicabio</t>
+  </si>
+  <si>
+    <t>longitude latitude olevel time</t>
+  </si>
+  <si>
+    <t>Abiotic Dissolved Inorganic Carbon Concentration</t>
+  </si>
+  <si>
+    <t>Not available in PISCES</t>
+  </si>
+  <si>
+    <t>Raffaele Bernardello</t>
+  </si>
+  <si>
+    <t>Abiotic Dissolved inorganic carbon (CO3+HCO3+H2CO3) concentration</t>
+  </si>
+  <si>
+    <t>dissi13c</t>
+  </si>
+  <si>
+    <t>Dissolved Inorganic 13Carbon Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved inorganic 14carbon (CO3+HCO3+H2CO3) concentration</t>
+  </si>
+  <si>
+    <t>phabio</t>
+  </si>
+  <si>
+    <t>Abiotic pH</t>
+  </si>
+  <si>
+    <t>negative log10 of hydrogen ion concentration with the concentration expressed as mol H kg-1 (abiotic component)..</t>
+  </si>
+  <si>
+    <t>expn</t>
+  </si>
+  <si>
+    <t>Sinking Particulate Organic Nitrogen Flux</t>
+  </si>
+  <si>
+    <t>Not available inLPJ-GUESS. Not available in PISCES, which means not available in NEMO.</t>
+  </si>
+  <si>
+    <t>David Warlind, Raffaele Bernardello</t>
+  </si>
+  <si>
+    <t>expp</t>
+  </si>
+  <si>
+    <t>Sinking Particulate Organic Phosphorus Flux</t>
+  </si>
+  <si>
+    <t>expfe</t>
+  </si>
+  <si>
+    <t>Sinking Particulate Iron Flux</t>
+  </si>
+  <si>
+    <t>Can not be produced by LPJ-GUESS: Pisces?</t>
+  </si>
+  <si>
+    <t>expsi</t>
+  </si>
+  <si>
+    <t>Sinking Particulate Silica Flux</t>
+  </si>
+  <si>
+    <t>expcalc</t>
+  </si>
+  <si>
+    <t>Sinking Calcite Flux</t>
+  </si>
+  <si>
+    <t>Downward flux of Calcite</t>
+  </si>
+  <si>
+    <t>exparag</t>
+  </si>
+  <si>
+    <t>Sinking Aragonite Flux</t>
+  </si>
+  <si>
+    <t>Downward flux of Aragonite</t>
+  </si>
+  <si>
+    <t>ppdiat</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Net Primary Organic Carbon Production by Diatoms</t>
+  </si>
+  <si>
+    <t>Primary (organic carbon) production by the diatom component alone</t>
+  </si>
+  <si>
+    <t>ppdiaz</t>
+  </si>
+  <si>
+    <t>Net Primary Mole Productivity of Carbon by Diazotrophs</t>
+  </si>
+  <si>
+    <t>Primary (organic carbon) production by the diazotrophic phytoplankton component alone</t>
+  </si>
+  <si>
+    <t>ppcalc</t>
+  </si>
+  <si>
+    <t>Net Primary Mole Productivity of Carbon by Calcareous Phytoplankton</t>
+  </si>
+  <si>
+    <t>Primary (organic carbon) production by the calcite-producing phytoplankton component alone</t>
+  </si>
+  <si>
+    <t>pppico</t>
+  </si>
+  <si>
+    <t>Net Primary Mole Productivity of Carbon by Picophytoplankton</t>
+  </si>
+  <si>
+    <t>Primary (organic carbon) production by the picophytoplankton (&lt;2 um) component alone</t>
+  </si>
+  <si>
+    <t>ppmisc</t>
+  </si>
+  <si>
+    <t>Net Primary Organic Carbon Production by Other Phytoplankton</t>
+  </si>
+  <si>
+    <t>Primary (organic carbon) production by other phytoplankton components alone</t>
+  </si>
+  <si>
+    <t>fgco2nat</t>
+  </si>
+  <si>
+    <t>Surface Downward Flux of Natural CO2</t>
+  </si>
+  <si>
+    <t>Gas exchange flux of natural CO2 (positive into ocean)</t>
+  </si>
+  <si>
+    <t>fgco2abio</t>
+  </si>
+  <si>
+    <t>Surface Downward Flux of Abiotic CO2</t>
+  </si>
+  <si>
+    <t>Gas exchange flux of abiotic CO2 (positive into ocean)</t>
+  </si>
+  <si>
+    <t>fg14co2abio</t>
+  </si>
+  <si>
+    <t>Surface Downward Flux of Abiotic 14CO2</t>
+  </si>
+  <si>
+    <t>Gas exchange flux of abiotic 14CO2 (positive into ocean)</t>
+  </si>
+  <si>
+    <t>fg13co2</t>
+  </si>
+  <si>
+    <t>Surface Downward Flux of Abiotic 13CO2</t>
+  </si>
+  <si>
     <t>Omon</t>
   </si>
   <si>
+    <t>pso</t>
+  </si>
+  <si>
+    <t>Sea Water Pressure at Sea Water Surface</t>
+  </si>
+  <si>
+    <t>Not available in NEMO.</t>
+  </si>
+  <si>
     <t>dissicabioos</t>
   </si>
   <si>
@@ -223,30 +403,180 @@
     <t>Surface Abiotic Dissolved Inorganic Carbon Concentration</t>
   </si>
   <si>
-    <t>Not available in PISCES</t>
-  </si>
-  <si>
-    <t>Raffaele Bernardello</t>
-  </si>
-  <si>
-    <t>Abiotic Dissolved inorganic carbon (CO3+HCO3+H2CO3) concentration</t>
-  </si>
-  <si>
     <t>dissi13cos</t>
   </si>
   <si>
     <t>Surface Dissolved Inorganic 13Carbon Concentration</t>
   </si>
   <si>
-    <t>Dissolved inorganic 14carbon (CO3+HCO3+H2CO3) concentration</t>
-  </si>
-  <si>
     <t>o2satos</t>
   </si>
   <si>
     <t>Surface Dissolved Oxygen Concentration at Saturation</t>
   </si>
   <si>
+    <t>msftmz</t>
+  </si>
+  <si>
+    <t>latitude olevel basin time</t>
+  </si>
+  <si>
+    <t>Ocean Meridional Overturning Mass Streamfunction</t>
+  </si>
+  <si>
+    <t>Not available in NEMO-OPA before CMIP6 starts. zomsflgo requires the subasins.nc file and a namelist parameter (Poleward Transport Diagnostic) / basin-wide variables are: zomsfatl zomsfpac zomsfind zomsfipc. NEMO-OPA - volume meridional stream function is available (zomsfglo). Maybe mass streamfunction can be obtained multiplying it by potential density (sea_water_sigma_theta) in the file_def xml ?</t>
+  </si>
+  <si>
+    <t>Etienne Tourigny</t>
+  </si>
+  <si>
+    <t>Overturning mass streamfunction arising from all advective mass transport processes, resolved and parameterized.</t>
+  </si>
+  <si>
+    <t>msftmrho</t>
+  </si>
+  <si>
+    <t>latitude rho basin time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in NEMO-OPA before CMIP6 starts. NEMO-OPA - volume meridional stream function is available (zomsfglo). Maybe mass streamfunction can be obtained multiplying it by potential density (sea_water_sigma_theta) in the file_def xml ?  </t>
+  </si>
+  <si>
+    <t>msftyrho</t>
+  </si>
+  <si>
+    <t>Ocean Y Overturning Mass Streamfunction</t>
+  </si>
+  <si>
+    <t>Not available in NEMO-OPA before CMIP6 starts. NEMO-OPA - I guess it's the same as above only rotated in case y does not align exactly with north-south direction.</t>
+  </si>
+  <si>
+    <t>msftmzmpa</t>
+  </si>
+  <si>
+    <t>ocean meridional overturning mass streamfunction due to parameterized mesoscale advection</t>
+  </si>
+  <si>
+    <t>Not available in NEMO-OPA before CMIP6 starts.</t>
+  </si>
+  <si>
+    <t>CMIP5 called this 'due to Bolus Advection'.  Name change respects the more general physics of the mesoscale parameterizations.</t>
+  </si>
+  <si>
+    <t>msftmrhompa</t>
+  </si>
+  <si>
+    <t>msftyzmpa</t>
+  </si>
+  <si>
+    <t>ocean Y overturning mass streamfunction due to parameterized mesoscale advection</t>
+  </si>
+  <si>
+    <t>msftyrhompa</t>
+  </si>
+  <si>
+    <t>msftmzsmpa</t>
+  </si>
+  <si>
+    <t>ocean meridional overturning mass streamfunction due to parameterized submesoscale advection</t>
+  </si>
+  <si>
+    <t>Report only if there is a submesoscale eddy parameterization.</t>
+  </si>
+  <si>
+    <t>msftyzsmpa</t>
+  </si>
+  <si>
+    <t>ocean Y overturning mass streamfunction due to parameterized submesoscale advection</t>
+  </si>
+  <si>
+    <t>hfbasinpmdiff</t>
+  </si>
+  <si>
+    <t>latitude basin time</t>
+  </si>
+  <si>
+    <t>northward ocean heat transport due to parameterized mesoscale diffusion</t>
+  </si>
+  <si>
+    <t>Contributions to heat transport from parameterized mesoscale eddy-induced diffusive transport (i.e., neutral diffusion). Diagnosed here as a function of latitude and basin.</t>
+  </si>
+  <si>
+    <t>hfbasinpsmadv</t>
+  </si>
+  <si>
+    <t>northward ocean heat transport due to parameterized submesoscale advection</t>
+  </si>
+  <si>
+    <t>Contributions to heat transport from parameterized mesoscale eddy-induced advective transport. Diagnosed here as a function of latitude and basin.  Use Celsius for temperature scale.</t>
+  </si>
+  <si>
+    <t>hfbasinpadv</t>
+  </si>
+  <si>
+    <t>northward ocean heat transport due to parameterized eddy advection</t>
+  </si>
+  <si>
+    <t>Contributions to heat transport from parameterized eddy-induced advective transport due to any subgrid advective process. Diagnosed here as a function of latitude and basin.  Use Celsius for temperature scale.</t>
+  </si>
+  <si>
+    <t>wfcorr</t>
+  </si>
+  <si>
+    <t>Water Flux Correction</t>
+  </si>
+  <si>
+    <t>Not available in NEMO-OPA.</t>
+  </si>
+  <si>
+    <t>Positive flux implies correction adds water to ocean.</t>
+  </si>
+  <si>
+    <t>sfriver</t>
+  </si>
+  <si>
+    <t>Salt Flux into Sea Water from Rivers</t>
+  </si>
+  <si>
+    <t>Not available in NEMO-OPA, i.e. it makes no sence to make it availble because it is zero. It looks like it is assumed zero in NEMO, not 100% sure though.</t>
+  </si>
+  <si>
+    <t>This field is physical, and it arises when rivers carry a nonzero salt content.  Often this is zero, with rivers assumed to be fresh.</t>
+  </si>
+  <si>
+    <t>hfsifrazil</t>
+  </si>
+  <si>
+    <t>Heat Flux into Sea Water due to Frazil Ice Formation</t>
+  </si>
+  <si>
+    <t>Not available in NEMO-LIM, not in NEMO anywhere</t>
+  </si>
+  <si>
+    <t>hfsifrazil2d</t>
+  </si>
+  <si>
+    <t>hfcorr</t>
+  </si>
+  <si>
+    <t>Heat Flux Correction</t>
+  </si>
+  <si>
+    <t>tauucorr</t>
+  </si>
+  <si>
+    <t>Surface Downward X Stress Correction</t>
+  </si>
+  <si>
+    <t>This is the stress on the liquid ocean from overlying atmosphere, sea ice, ice shelf, etc.</t>
+  </si>
+  <si>
+    <t>tauvcorr</t>
+  </si>
+  <si>
+    <t>Surface Downward Y Stress Correction</t>
+  </si>
+  <si>
     <t>eparag100</t>
   </si>
   <si>
@@ -262,54 +592,9 @@
     <t>Abiotic Surface Aqueous Partial Pressure of CO2</t>
   </si>
   <si>
-    <t>fgco2nat</t>
-  </si>
-  <si>
-    <t>Surface Downward Flux of Natural CO2</t>
-  </si>
-  <si>
-    <t>Can not be produced by LPJ-GUESS: Pisces?</t>
-  </si>
-  <si>
-    <t>Gas exchange flux of natural CO2 (positive into ocean)</t>
-  </si>
-  <si>
-    <t>fgco2abio</t>
-  </si>
-  <si>
-    <t>Surface Downward Flux of Abiotic CO2</t>
-  </si>
-  <si>
-    <t>Not available inLPJ-GUESS. Not available in PISCES, which means not available in NEMO.</t>
-  </si>
-  <si>
-    <t>David Warlind, Raffaele Bernardello</t>
-  </si>
-  <si>
-    <t>Gas exchange flux of abiotic CO2 (positive into ocean)</t>
-  </si>
-  <si>
-    <t>fg14co2abio</t>
-  </si>
-  <si>
-    <t>Surface Downward Flux of Abiotic 14CO2</t>
-  </si>
-  <si>
-    <t>Gas exchange flux of abiotic 14CO2 (positive into ocean)</t>
-  </si>
-  <si>
-    <t>fg13co2</t>
-  </si>
-  <si>
-    <t>Surface Downward Flux of Abiotic 13CO2</t>
-  </si>
-  <si>
     <t>fgdms</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Surface Upward Flux of DMS</t>
   </si>
   <si>
@@ -424,30 +709,6 @@
     <t>vertical integral of net biological terms in time rate of change of alkalinity</t>
   </si>
   <si>
-    <t>dissicabio</t>
-  </si>
-  <si>
-    <t>longitude latitude olevel time</t>
-  </si>
-  <si>
-    <t>Abiotic Dissolved Inorganic Carbon Concentration</t>
-  </si>
-  <si>
-    <t>dissi13c</t>
-  </si>
-  <si>
-    <t>Dissolved Inorganic 13Carbon Concentration</t>
-  </si>
-  <si>
-    <t>phabio</t>
-  </si>
-  <si>
-    <t>Abiotic pH</t>
-  </si>
-  <si>
-    <t>negative log10 of hydrogen ion concentration with the concentration expressed as mol H kg-1 (abiotic component)..</t>
-  </si>
-  <si>
     <t>E3hr</t>
   </si>
   <si>
@@ -484,94 +745,7 @@
     <t>Carbon mass flux per unit area into atmosphere due to heterotrophic respiration on land (respiration by consumers)</t>
   </si>
   <si>
-    <t>Oyr</t>
-  </si>
-  <si>
-    <t>expn</t>
-  </si>
-  <si>
-    <t>Sinking Particulate Organic Nitrogen Flux</t>
-  </si>
-  <si>
-    <t>expp</t>
-  </si>
-  <si>
-    <t>Sinking Particulate Organic Phosphorus Flux</t>
-  </si>
-  <si>
-    <t>expfe</t>
-  </si>
-  <si>
-    <t>Sinking Particulate Iron Flux</t>
-  </si>
-  <si>
-    <t>expsi</t>
-  </si>
-  <si>
-    <t>Sinking Particulate Silica Flux</t>
-  </si>
-  <si>
-    <t>expcalc</t>
-  </si>
-  <si>
-    <t>Sinking Calcite Flux</t>
-  </si>
-  <si>
-    <t>Downward flux of Calcite</t>
-  </si>
-  <si>
-    <t>exparag</t>
-  </si>
-  <si>
-    <t>Sinking Aragonite Flux</t>
-  </si>
-  <si>
-    <t>Downward flux of Aragonite</t>
-  </si>
-  <si>
-    <t>ppdiat</t>
-  </si>
-  <si>
-    <t>Net Primary Organic Carbon Production by Diatoms</t>
-  </si>
-  <si>
-    <t>Primary (organic carbon) production by the diatom component alone</t>
-  </si>
-  <si>
-    <t>ppdiaz</t>
-  </si>
-  <si>
-    <t>Net Primary Mole Productivity of Carbon by Diazotrophs</t>
-  </si>
-  <si>
-    <t>Primary (organic carbon) production by the diazotrophic phytoplankton component alone</t>
-  </si>
-  <si>
-    <t>ppcalc</t>
-  </si>
-  <si>
-    <t>Net Primary Mole Productivity of Carbon by Calcareous Phytoplankton</t>
-  </si>
-  <si>
-    <t>Primary (organic carbon) production by the calcite-producing phytoplankton component alone</t>
-  </si>
-  <si>
-    <t>pppico</t>
-  </si>
-  <si>
-    <t>Net Primary Mole Productivity of Carbon by Picophytoplankton</t>
-  </si>
-  <si>
-    <t>Primary (organic carbon) production by the picophytoplankton (&lt;2 um) component alone</t>
-  </si>
-  <si>
-    <t>ppmisc</t>
-  </si>
-  <si>
-    <t>Net Primary Organic Carbon Production by Other Phytoplankton</t>
-  </si>
-  <si>
-    <t>Primary (organic carbon) production by other phytoplankton components alone</t>
+    <t>Odec</t>
   </si>
   <si>
     <t>AERmon</t>
@@ -1207,7 +1381,7 @@
     <t>Liquid water content of soil layer</t>
   </si>
   <si>
-    <t>Can not be produced by LPJ-GUESS: Same as mrsol</t>
+    <t>Can not be produced by LPJ-GUESS: No frozen fraction of water, so same as mrsol</t>
   </si>
   <si>
     <t>in each soil layer, the mass of water in liquid phase.  Reported as 'missing' for grid cells occupied entirely by 'sea'</t>
@@ -1505,6 +1679,21 @@
   </si>
   <si>
     <t>site time1</t>
+  </si>
+  <si>
+    <t>Ofx</t>
+  </si>
+  <si>
+    <t>volcello</t>
+  </si>
+  <si>
+    <t>longitude latitude olevel</t>
+  </si>
+  <si>
+    <t>Ocean Grid-Cell Volume</t>
+  </si>
+  <si>
+    <t>grid-cell volume ca. 2000.</t>
   </si>
   <si>
     <t>Eday</t>
@@ -1872,7 +2061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2280,7 +2469,7 @@
         <v>68</v>
       </c>
       <c r="F21">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96c5576-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/55febff83b78e06576947e1c0e5b7a7d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G21" t="s">
@@ -2310,7 +2499,7 @@
         <v>73</v>
       </c>
       <c r="F22">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96c720e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59175660-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G22" t="s">
@@ -2340,7 +2529,7 @@
         <v>76</v>
       </c>
       <c r="F23">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96daba6-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c977c2da-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G23" t="s">
@@ -2348,6 +2537,9 @@
       </c>
       <c r="H23" t="s">
         <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2355,26 +2547,26 @@
         <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
       </c>
       <c r="F24">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f43d7527cd48c992f075339b2bbbf9ef.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2382,26 +2574,26 @@
         <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
       </c>
       <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
         <v>81</v>
-      </c>
-      <c r="F25">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c972ffd4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2409,29 +2601,26 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F26">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2439,29 +2628,26 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F27">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2469,29 +2655,29 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2499,26 +2685,29 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F29">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5b82-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2526,29 +2715,29 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>67</v>
       </c>
       <c r="E30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
         <v>98</v>
-      </c>
-      <c r="F30">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/190f38cb06f9a1f3133c3dcf66e0421e.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2556,26 +2745,29 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
         <v>100</v>
       </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
         <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2583,29 +2775,29 @@
         <v>65</v>
       </c>
       <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
         <v>103</v>
       </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s">
         <v>104</v>
-      </c>
-      <c r="F32">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2613,29 +2805,29 @@
         <v>65</v>
       </c>
       <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
         <v>106</v>
       </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" t="s">
         <v>107</v>
-      </c>
-      <c r="F33">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2643,29 +2835,29 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
         <v>109</v>
       </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
         <v>110</v>
-      </c>
-      <c r="F34">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2673,29 +2865,29 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
         <v>112</v>
       </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F35">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
         <v>113</v>
-      </c>
-      <c r="F35">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2703,29 +2895,29 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
         <v>115</v>
       </c>
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
         <v>116</v>
-      </c>
-      <c r="F36">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2733,29 +2925,29 @@
         <v>65</v>
       </c>
       <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
         <v>118</v>
       </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
         <v>119</v>
-      </c>
-      <c r="F37">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" t="s">
-        <v>89</v>
-      </c>
-      <c r="I37" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2763,169 +2955,130 @@
         <v>65</v>
       </c>
       <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
         <v>121</v>
       </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
       <c r="F38">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5b82-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F40">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d94709e6b579bccccccc914ba3531feb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s">
-        <v>89</v>
-      </c>
-      <c r="I40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F41">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96c5576-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F42">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96c720e-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F43">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/55febff83b78e06576947e1c0e5b7a7d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c96daba6-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G43" t="s">
@@ -2934,73 +3087,100 @@
       <c r="H43" t="s">
         <v>70</v>
       </c>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe8d7416c92bdae56503590599286800.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" t="s">
         <v>137</v>
       </c>
-      <c r="E44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59175660-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" t="s">
-        <v>70</v>
-      </c>
       <c r="I44" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/faeffb2438794e8400143533d61d1623.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
         <v>141</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c977c2da-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>69</v>
       </c>
       <c r="H45" t="s">
         <v>70</v>
       </c>
       <c r="I45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" t="s">
         <v>143</v>
+      </c>
+      <c r="F46">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29a3aaf848070fb8ff4ecb7aa2dfa2eb.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
         <v>145</v>
@@ -3009,595 +3189,625 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
         <v>146</v>
       </c>
       <c r="F47">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd75f065fbaddd5d92f4767c6d6baaff.html","web")</f>
         <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>147</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/54bc1fc90fca4b22cd73cc18e3f6ec07.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
         <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/481469b8223841a5382d43e7c6ae204e.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s">
         <v>152</v>
       </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s">
-        <v>155</v>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/66a6e45b205b239932b72fa67a6500ed.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F51">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/55febff83b78e06576947e1c0e5b7a7d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/136d81b44d45d8f7c549469ff69a74a7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="H51" t="s">
         <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
         <v>156</v>
       </c>
-      <c r="B52" t="s">
-        <v>139</v>
-      </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F52">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59175660-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ac2d8645abddc0eb9fe53a7ea680465.html","web")</f>
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="H52" t="s">
         <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F53">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c977c2da-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/88f1496a06008de969d5913384e6cb17.html","web")</f>
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="H53" t="s">
         <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F54">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfc72744e73c1f6116661e251316c04f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="H54" t="s">
-        <v>89</v>
+        <v>70</v>
+      </c>
+      <c r="I54" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
         <v>159</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>137</v>
-      </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F55">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2e3e882a650986c1fdc5df05f5f10263.html","web")</f>
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>70</v>
+      </c>
+      <c r="I55" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F56">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/604242476d85346b48bd6d791ed05583.html","web")</f>
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="I56" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F57">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ced45b8b1f2797c54425755202dce533.html","web")</f>
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="I57" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F58">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1b7e762395c4de9ec5c5c7bda3ce3781.html","web")</f>
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F59">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1b7e762395c4de9ec5c5c7bda3ce3781.html","web")</f>
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
-      </c>
-      <c r="I59" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F60">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0312fb7cbaaff353e66b17c21fb13482.html","web")</f>
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F61">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/06942529e05aac1e9a39ca1f5737af2f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I61" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F62">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab495084beb82a29c24bf6c226fd0e57.html","web")</f>
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I62" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F63">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f43d7527cd48c992f075339b2bbbf9ef.html","web")</f>
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
-      </c>
-      <c r="I63" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F64">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c972ffd4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F65">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s">
         <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F66">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="F67">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s">
         <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F68">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5b82-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
@@ -3610,447 +3820,489 @@
         <v>70</v>
       </c>
     </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/190f38cb06f9a1f3133c3dcf66e0421e.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s">
+        <v>194</v>
+      </c>
+    </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F70">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/98114e26-b896-11e6-a189-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" t="s">
-        <v>190</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E71" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F71">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d5bdfd24b275f0530646361967483d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E72" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F72">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" t="s">
         <v>196</v>
       </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>30</v>
-      </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F73">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4ffc1f50b844980dbbae006dbcfca869.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="E74" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F74">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea546e38aa8fc0e021f03e746e1adb10.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="E75" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F75">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/691673a210102ac652eed2b784dd2ab4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F76">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a4e52f0f3833b395c09c73f1b6f3f748.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F77">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe6bdb96-a41f-11e5-9025-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s">
-        <v>58</v>
+        <v>81</v>
+      </c>
+      <c r="I77" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F78">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s">
-        <v>58</v>
+        <v>81</v>
+      </c>
+      <c r="I78" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F79">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2b133ea2-1b42-11e6-a696-35cd2d8034df.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E80" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F80">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s">
-        <v>58</v>
+        <v>81</v>
+      </c>
+      <c r="I80" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E81" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F81">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/218a6b28-8995-11e6-b63d-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I81" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="F82">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a0c10a4b65d3b79db581a649058a08b1.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/55febff83b78e06576947e1c0e5b7a7d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H82" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I82" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="F83">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a2609abee6ecd5d535a48e29ae70e852.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59175660-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H83" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I83" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
         <v>11</v>
       </c>
-      <c r="D85" t="s">
-        <v>188</v>
-      </c>
-      <c r="E85" t="s">
-        <v>228</v>
-      </c>
-      <c r="F85">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>15</v>
-      </c>
-      <c r="I85" t="s">
-        <v>229</v>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F84">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c977c2da-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" t="s">
+        <v>70</v>
+      </c>
+      <c r="I84" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -4059,28 +4311,25 @@
         <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F86">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
-      </c>
-      <c r="I86" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -4089,295 +4338,265 @@
         <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F87">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d6812-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H87" t="s">
         <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F88">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H88" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>226</v>
-      </c>
-      <c r="B89" t="s">
-        <v>239</v>
-      </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" t="s">
-        <v>240</v>
-      </c>
-      <c r="F89">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>238</v>
-      </c>
-      <c r="H89" t="s">
-        <v>15</v>
+      <c r="I88" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="F90">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe8d7416c92bdae56503590599286800.html","web")</f>
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>137</v>
+      </c>
+      <c r="I90" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
         <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="F91">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ced45b8b1f2797c54425755202dce533.html","web")</f>
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" t="s">
-        <v>226</v>
-      </c>
-      <c r="B92" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s">
-        <v>30</v>
-      </c>
-      <c r="E92" t="s">
-        <v>246</v>
-      </c>
-      <c r="F92">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>238</v>
-      </c>
-      <c r="H92" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="I91" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>246</v>
+      </c>
+      <c r="E93" t="s">
         <v>247</v>
       </c>
-      <c r="C93" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s">
-        <v>30</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="F93">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/98114e26-b896-11e6-a189-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" t="s">
         <v>248</v>
-      </c>
-      <c r="F93">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>238</v>
-      </c>
-      <c r="H93" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B94" t="s">
         <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="E94" t="s">
         <v>250</v>
       </c>
       <c r="F94">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d5bdfd24b275f0530646361967483d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H94" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B95" t="s">
         <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="E95" t="s">
         <v>252</v>
       </c>
       <c r="F95">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I95" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
         <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F96">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4ffc1f50b844980dbbae006dbcfca869.html","web")</f>
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I96" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F97">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea546e38aa8fc0e021f03e746e1adb10.html","web")</f>
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I97" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -4386,350 +4605,332 @@
         <v>30</v>
       </c>
       <c r="E98" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F98">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/691673a210102ac652eed2b784dd2ab4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I98" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B99" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="E99" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F99">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a4e52f0f3833b395c09c73f1b6f3f748.html","web")</f>
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I99" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="E100" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F100">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe6bdb96-a41f-11e5-9025-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B101" t="s">
+        <v>268</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" t="s">
         <v>269</v>
       </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>30</v>
-      </c>
-      <c r="E101" t="s">
-        <v>270</v>
-      </c>
       <c r="F101">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="H101" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B102" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>246</v>
+      </c>
+      <c r="E102" t="s">
+        <v>271</v>
+      </c>
+      <c r="F102">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2b133ea2-1b42-11e6-a696-35cd2d8034df.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>63</v>
+      </c>
+      <c r="H102" t="s">
+        <v>58</v>
+      </c>
+      <c r="I102" t="s">
         <v>272</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s">
-        <v>30</v>
-      </c>
-      <c r="E102" t="s">
-        <v>273</v>
-      </c>
-      <c r="F102">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>274</v>
-      </c>
-      <c r="H102" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F103">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="H103" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B104" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="E104" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F104">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/218a6b28-8995-11e6-b63d-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H104" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I104" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
         <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F105">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a0c10a4b65d3b79db581a649058a08b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>278</v>
+        <v>63</v>
       </c>
       <c r="H105" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="I105" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B106" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>246</v>
+      </c>
+      <c r="E106" t="s">
+        <v>282</v>
+      </c>
+      <c r="F106">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a2609abee6ecd5d535a48e29ae70e852.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" t="s">
+        <v>58</v>
+      </c>
+      <c r="I106" t="s">
         <v>283</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" t="s">
-        <v>284</v>
-      </c>
-      <c r="F106">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>278</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s">
-        <v>30</v>
-      </c>
-      <c r="E107" t="s">
-        <v>286</v>
-      </c>
-      <c r="F107">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G107" t="s">
-        <v>278</v>
-      </c>
-      <c r="H107" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B108" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="E108" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F108">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G108" t="s">
-        <v>278</v>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
+      </c>
+      <c r="I108" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B109" t="s">
+        <v>288</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
         <v>289</v>
       </c>
-      <c r="C109" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s">
-        <v>30</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F109">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
         <v>290</v>
       </c>
-      <c r="F109">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>278</v>
-      </c>
       <c r="H109" t="s">
         <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
         <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F110">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d6812-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
@@ -4737,10 +4938,10 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -4749,14 +4950,14 @@
         <v>30</v>
       </c>
       <c r="E111" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F111">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
@@ -4764,10 +4965,10 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -4776,88 +4977,79 @@
         <v>30</v>
       </c>
       <c r="E112" t="s">
+        <v>298</v>
+      </c>
+      <c r="F112">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
         <v>296</v>
       </c>
-      <c r="F112">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>232</v>
-      </c>
       <c r="H112" t="s">
         <v>15</v>
-      </c>
-      <c r="I112" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B113" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="E113" t="s">
         <v>300</v>
       </c>
       <c r="F113">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H113" t="s">
         <v>15</v>
-      </c>
-      <c r="I113" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B114" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F114">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
-      </c>
-      <c r="I114" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B115" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
@@ -4866,28 +5058,25 @@
         <v>30</v>
       </c>
       <c r="E115" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F115">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
-      </c>
-      <c r="I115" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B116" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -4896,28 +5085,25 @@
         <v>30</v>
       </c>
       <c r="E116" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F116">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
-      </c>
-      <c r="I116" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B117" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
@@ -4926,28 +5112,25 @@
         <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F117">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
-      </c>
-      <c r="I117" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
@@ -4956,28 +5139,25 @@
         <v>30</v>
       </c>
       <c r="E118" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F118">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H118" t="s">
         <v>15</v>
-      </c>
-      <c r="I118" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -4986,148 +5166,142 @@
         <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F119">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
-      </c>
-      <c r="I119" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B120" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E120" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F120">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="H120" t="s">
         <v>15</v>
-      </c>
-      <c r="I120" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
         <v>30</v>
       </c>
       <c r="E121" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F121">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D122" t="s">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="E122" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F122">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B123" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
         <v>30</v>
       </c>
       <c r="E123" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F123">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B124" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -5136,28 +5310,25 @@
         <v>30</v>
       </c>
       <c r="E124" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F124">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H124" t="s">
         <v>15</v>
-      </c>
-      <c r="I124" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B125" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
@@ -5166,28 +5337,28 @@
         <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F125">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G125" t="s">
+        <v>332</v>
+      </c>
+      <c r="H125" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" t="s">
         <v>333</v>
-      </c>
-      <c r="H125" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B126" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
@@ -5196,28 +5367,25 @@
         <v>30</v>
       </c>
       <c r="E126" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F126">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
-      </c>
-      <c r="I126" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B127" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
@@ -5226,14 +5394,14 @@
         <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F127">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5241,10 +5409,10 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
@@ -5253,14 +5421,14 @@
         <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F128">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -5268,10 +5436,10 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B129" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -5280,14 +5448,14 @@
         <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F129">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -5295,10 +5463,10 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B130" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -5307,14 +5475,14 @@
         <v>30</v>
       </c>
       <c r="E130" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F130">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -5322,10 +5490,10 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B131" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -5334,14 +5502,14 @@
         <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F131">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -5349,10 +5517,10 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B132" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
@@ -5361,14 +5529,14 @@
         <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F132">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
@@ -5376,26 +5544,26 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B133" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
         <v>30</v>
       </c>
       <c r="E133" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F133">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
@@ -5403,10 +5571,10 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B134" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
@@ -5415,14 +5583,14 @@
         <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F134">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -5430,1846 +5598,1975 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="C135" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>137</v>
+        <v>320</v>
       </c>
       <c r="E135" t="s">
-        <v>172</v>
+        <v>354</v>
       </c>
       <c r="F135">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>173</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B136" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
       <c r="C136" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="E136" t="s">
-        <v>175</v>
+        <v>358</v>
       </c>
       <c r="F136">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>88</v>
+        <v>359</v>
       </c>
       <c r="H136" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B137" t="s">
-        <v>177</v>
+        <v>361</v>
       </c>
       <c r="C137" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="E137" t="s">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="F137">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>88</v>
+        <v>359</v>
       </c>
       <c r="H137" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>179</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>364</v>
       </c>
       <c r="C138" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>181</v>
+        <v>365</v>
       </c>
       <c r="F138">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>88</v>
+        <v>359</v>
       </c>
       <c r="H138" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>182</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B139" t="s">
-        <v>183</v>
+        <v>367</v>
       </c>
       <c r="C139" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="F139">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>84</v>
+        <v>359</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s">
-        <v>157</v>
+        <v>369</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>158</v>
+        <v>370</v>
       </c>
       <c r="F140">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>88</v>
+        <v>359</v>
       </c>
       <c r="H140" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="I140" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B141" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E141" t="s">
-        <v>160</v>
+        <v>372</v>
       </c>
       <c r="F141">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>88</v>
+        <v>359</v>
       </c>
       <c r="H141" t="s">
-        <v>89</v>
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>373</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>374</v>
       </c>
       <c r="F142">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="H142" t="s">
         <v>15</v>
+      </c>
+      <c r="I142" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B143" t="s">
-        <v>163</v>
+        <v>377</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="F143">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
+      </c>
+      <c r="I143" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>379</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E144" t="s">
-        <v>166</v>
+        <v>380</v>
       </c>
       <c r="F144">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>84</v>
+        <v>381</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>167</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>383</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E145" t="s">
-        <v>169</v>
+        <v>384</v>
       </c>
       <c r="F145">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
       <c r="H145" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>170</v>
+        <v>385</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B146" t="s">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E146" t="s">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="F146">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>84</v>
+        <v>381</v>
       </c>
       <c r="H146" t="s">
         <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>85</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B147" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E147" t="s">
-        <v>87</v>
+        <v>390</v>
       </c>
       <c r="F147">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
       <c r="H147" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>90</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B148" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E148" t="s">
-        <v>92</v>
+        <v>394</v>
       </c>
       <c r="F148">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>93</v>
+        <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="C149" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E149" t="s">
-        <v>102</v>
+        <v>397</v>
       </c>
       <c r="F149">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
+      </c>
+      <c r="I149" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B150" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="C150" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E150" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="F150">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>84</v>
+        <v>401</v>
       </c>
       <c r="H150" t="s">
         <v>15</v>
-      </c>
-      <c r="I150" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B151" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="C151" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E151" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
       <c r="F151">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>84</v>
+        <v>381</v>
       </c>
       <c r="H151" t="s">
         <v>15</v>
-      </c>
-      <c r="I151" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B152" t="s">
-        <v>109</v>
+        <v>404</v>
       </c>
       <c r="C152" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E152" t="s">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="F152">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="H152" t="s">
         <v>15</v>
-      </c>
-      <c r="I152" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B153" t="s">
-        <v>112</v>
+        <v>407</v>
       </c>
       <c r="C153" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E153" t="s">
-        <v>113</v>
+        <v>408</v>
       </c>
       <c r="F153">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>84</v>
+        <v>401</v>
       </c>
       <c r="H153" t="s">
         <v>15</v>
-      </c>
-      <c r="I153" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>409</v>
       </c>
       <c r="C154" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E154" t="s">
-        <v>116</v>
+        <v>410</v>
       </c>
       <c r="F154">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>84</v>
+        <v>411</v>
       </c>
       <c r="H154" t="s">
         <v>15</v>
-      </c>
-      <c r="I154" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s">
-        <v>118</v>
+        <v>412</v>
       </c>
       <c r="C155" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E155" t="s">
-        <v>119</v>
+        <v>413</v>
       </c>
       <c r="F155">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>88</v>
+        <v>411</v>
       </c>
       <c r="H155" t="s">
-        <v>89</v>
-      </c>
-      <c r="I155" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B156" t="s">
-        <v>121</v>
+        <v>414</v>
       </c>
       <c r="C156" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E156" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="F156">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>88</v>
+        <v>411</v>
       </c>
       <c r="H156" t="s">
-        <v>89</v>
-      </c>
-      <c r="I156" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
-        <v>124</v>
+        <v>416</v>
       </c>
       <c r="C157" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E157" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="F157">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>88</v>
+        <v>411</v>
       </c>
       <c r="H157" t="s">
-        <v>89</v>
-      </c>
-      <c r="I157" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C158" t="s">
+        <v>96</v>
+      </c>
+      <c r="D158" t="s">
+        <v>67</v>
+      </c>
+      <c r="E158" t="s">
         <v>97</v>
       </c>
-      <c r="D158" t="s">
-        <v>137</v>
-      </c>
-      <c r="E158" t="s">
-        <v>128</v>
-      </c>
       <c r="F158">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H158" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B159" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C159" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D159" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="E159" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F159">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H159" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I159" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C160" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D160" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="E160" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F160">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H160" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I160" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>360</v>
+        <v>105</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E161" t="s">
-        <v>361</v>
+        <v>106</v>
       </c>
       <c r="F161">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="H161" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I161" t="s">
-        <v>363</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B162" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D162" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E162" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="F162">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H162" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="I162" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E163" t="s">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="F163">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="H163" t="s">
-        <v>15</v>
-      </c>
-      <c r="I163" t="s">
-        <v>366</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
       </c>
       <c r="D164" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E164" t="s">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="F164">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="H164" t="s">
-        <v>15</v>
-      </c>
-      <c r="I164" t="s">
-        <v>370</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B165" t="s">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="C165" t="s">
         <v>18</v>
       </c>
       <c r="D165" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="E165" t="s">
-        <v>373</v>
+        <v>85</v>
       </c>
       <c r="F165">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
       <c r="H165" t="s">
-        <v>375</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B166" t="s">
-        <v>376</v>
+        <v>87</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="E166" t="s">
-        <v>378</v>
+        <v>88</v>
       </c>
       <c r="F166">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
       <c r="H166" t="s">
-        <v>375</v>
-      </c>
-      <c r="I166" t="s">
-        <v>379</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="E167" t="s">
-        <v>381</v>
+        <v>90</v>
       </c>
       <c r="F167">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
       <c r="H167" t="s">
-        <v>375</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>382</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B168" t="s">
-        <v>383</v>
+        <v>92</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="E168" t="s">
-        <v>384</v>
+        <v>93</v>
       </c>
       <c r="F168">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="H168" t="s">
-        <v>375</v>
+        <v>81</v>
+      </c>
+      <c r="I168" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B169" t="s">
-        <v>385</v>
+        <v>111</v>
       </c>
       <c r="C169" t="s">
         <v>18</v>
       </c>
       <c r="D169" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="E169" t="s">
-        <v>386</v>
+        <v>112</v>
       </c>
       <c r="F169">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
       <c r="H169" t="s">
-        <v>375</v>
+        <v>15</v>
+      </c>
+      <c r="I169" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B170" t="s">
-        <v>387</v>
+        <v>114</v>
       </c>
       <c r="C170" t="s">
         <v>18</v>
       </c>
       <c r="D170" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="E170" t="s">
-        <v>388</v>
+        <v>115</v>
       </c>
       <c r="F170">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="H170" t="s">
-        <v>375</v>
+        <v>81</v>
+      </c>
+      <c r="I170" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B171" t="s">
-        <v>389</v>
+        <v>117</v>
       </c>
       <c r="C171" t="s">
         <v>18</v>
       </c>
       <c r="D171" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="E171" t="s">
-        <v>390</v>
+        <v>118</v>
       </c>
       <c r="F171">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
       <c r="H171" t="s">
-        <v>375</v>
+        <v>15</v>
+      </c>
+      <c r="I171" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B172" t="s">
-        <v>391</v>
+        <v>195</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D172" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="E172" t="s">
-        <v>392</v>
+        <v>197</v>
       </c>
       <c r="F172">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
       <c r="H172" t="s">
-        <v>375</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B173" t="s">
-        <v>393</v>
+        <v>198</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D173" t="s">
-        <v>377</v>
+        <v>67</v>
       </c>
       <c r="E173" t="s">
-        <v>394</v>
+        <v>199</v>
       </c>
       <c r="F173">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>374</v>
+        <v>86</v>
       </c>
       <c r="H173" t="s">
-        <v>375</v>
+        <v>15</v>
+      </c>
+      <c r="I173" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B174" t="s">
-        <v>395</v>
+        <v>201</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D174" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="E174" t="s">
-        <v>396</v>
+        <v>202</v>
       </c>
       <c r="F174">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>397</v>
+        <v>86</v>
       </c>
       <c r="H174" t="s">
         <v>15</v>
       </c>
       <c r="I174" t="s">
-        <v>398</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D175" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E175" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="F175">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="H175" t="s">
         <v>15</v>
+      </c>
+      <c r="I175" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B176" t="s">
-        <v>399</v>
+        <v>207</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D176" t="s">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="E176" t="s">
-        <v>401</v>
+        <v>208</v>
       </c>
       <c r="F176">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>353</v>
+        <v>86</v>
       </c>
       <c r="H176" t="s">
         <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>402</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D177" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E177" t="s">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="F177">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="H177" t="s">
         <v>15</v>
+      </c>
+      <c r="I177" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
-        <v>405</v>
+        <v>213</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D178" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E178" t="s">
-        <v>406</v>
+        <v>214</v>
       </c>
       <c r="F178">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="H178" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I178" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>216</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D179" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E179" t="s">
-        <v>408</v>
+        <v>217</v>
       </c>
       <c r="F179">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="H179" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I179" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B180" t="s">
-        <v>409</v>
+        <v>219</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D180" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E180" t="s">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="F180">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="H180" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I180" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B181" t="s">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D181" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E181" t="s">
-        <v>412</v>
+        <v>223</v>
       </c>
       <c r="F181">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="H181" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I181" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
+        <v>284</v>
+      </c>
+      <c r="B182" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" t="s">
+        <v>96</v>
+      </c>
+      <c r="D182" t="s">
+        <v>67</v>
+      </c>
+      <c r="E182" t="s">
         <v>226</v>
       </c>
-      <c r="B182" t="s">
-        <v>413</v>
-      </c>
-      <c r="C182" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s">
-        <v>30</v>
-      </c>
-      <c r="E182" t="s">
-        <v>414</v>
-      </c>
       <c r="F182">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="H182" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I182" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D183" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E183" t="s">
-        <v>416</v>
+        <v>229</v>
       </c>
       <c r="F183">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="H183" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I183" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B184" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D184" t="s">
         <v>30</v>
       </c>
       <c r="E184" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F184">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>238</v>
+        <v>420</v>
       </c>
       <c r="H184" t="s">
         <v>15</v>
+      </c>
+      <c r="I184" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
-        <v>419</v>
+        <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
         <v>30</v>
       </c>
       <c r="E185" t="s">
+        <v>31</v>
+      </c>
+      <c r="F185">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>32</v>
+      </c>
+      <c r="H185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>284</v>
+      </c>
+      <c r="B186" t="s">
+        <v>422</v>
+      </c>
+      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" t="s">
+        <v>30</v>
+      </c>
+      <c r="E186" t="s">
+        <v>423</v>
+      </c>
+      <c r="F186">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
         <v>420</v>
       </c>
-      <c r="F185">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G185" t="s">
-        <v>238</v>
-      </c>
-      <c r="H185" t="s">
-        <v>15</v>
+      <c r="H186" t="s">
+        <v>15</v>
+      </c>
+      <c r="I186" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
-        <v>41</v>
+        <v>425</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D187" t="s">
         <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>426</v>
       </c>
       <c r="F187">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>427</v>
+      </c>
+      <c r="H187" t="s">
+        <v>15</v>
       </c>
       <c r="I187" t="s">
-        <v>44</v>
+        <v>428</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="C188" t="s">
         <v>18</v>
       </c>
       <c r="D188" t="s">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>431</v>
       </c>
       <c r="F188">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>47</v>
+        <v>432</v>
       </c>
       <c r="H188" t="s">
-        <v>26</v>
-      </c>
-      <c r="I188" t="s">
-        <v>48</v>
+        <v>433</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>421</v>
+        <v>284</v>
       </c>
       <c r="B189" t="s">
-        <v>49</v>
+        <v>434</v>
       </c>
       <c r="C189" t="s">
         <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>50</v>
+        <v>435</v>
       </c>
       <c r="E189" t="s">
-        <v>51</v>
+        <v>436</v>
       </c>
       <c r="F189">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>52</v>
+        <v>432</v>
+      </c>
+      <c r="H189" t="s">
+        <v>433</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>284</v>
+      </c>
+      <c r="B190" t="s">
+        <v>438</v>
+      </c>
+      <c r="C190" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" t="s">
+        <v>430</v>
+      </c>
+      <c r="E190" t="s">
+        <v>439</v>
+      </c>
+      <c r="F190">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>432</v>
+      </c>
+      <c r="H190" t="s">
+        <v>433</v>
+      </c>
+      <c r="I190" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>422</v>
+        <v>284</v>
       </c>
       <c r="B191" t="s">
-        <v>54</v>
+        <v>441</v>
       </c>
       <c r="C191" t="s">
         <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>61</v>
+        <v>435</v>
       </c>
       <c r="E191" t="s">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="F191">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>57</v>
+        <v>432</v>
       </c>
       <c r="H191" t="s">
-        <v>58</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>284</v>
+      </c>
+      <c r="B192" t="s">
+        <v>443</v>
+      </c>
+      <c r="C192" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" t="s">
+        <v>435</v>
+      </c>
+      <c r="E192" t="s">
+        <v>444</v>
+      </c>
+      <c r="F192">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>432</v>
+      </c>
+      <c r="H192" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>423</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
-        <v>49</v>
+        <v>445</v>
       </c>
       <c r="C193" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="D193" t="s">
-        <v>61</v>
+        <v>435</v>
       </c>
       <c r="E193" t="s">
-        <v>51</v>
+        <v>446</v>
       </c>
       <c r="F193">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>52</v>
-      </c>
-      <c r="I193" t="s">
-        <v>53</v>
+        <v>432</v>
+      </c>
+      <c r="H193" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>284</v>
+      </c>
+      <c r="B194" t="s">
+        <v>447</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>435</v>
+      </c>
+      <c r="E194" t="s">
+        <v>448</v>
+      </c>
+      <c r="F194">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>432</v>
+      </c>
+      <c r="H194" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B195" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="C195" t="s">
         <v>18</v>
       </c>
       <c r="D195" t="s">
-        <v>30</v>
+        <v>435</v>
       </c>
       <c r="E195" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="F195">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>259</v>
+        <v>432</v>
       </c>
       <c r="H195" t="s">
-        <v>15</v>
-      </c>
-      <c r="I195" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B196" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C196" t="s">
         <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E196" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="F196">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H196" t="s">
-        <v>15</v>
-      </c>
-      <c r="I196" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B197" t="s">
-        <v>145</v>
+        <v>453</v>
       </c>
       <c r="C197" t="s">
         <v>18</v>
       </c>
       <c r="D197" t="s">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="E197" t="s">
-        <v>146</v>
+        <v>454</v>
       </c>
       <c r="F197">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>147</v>
+        <v>455</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
+      </c>
+      <c r="I197" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B198" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D198" t="s">
         <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="F198">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
         <v>15</v>
-      </c>
-      <c r="I198" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B199" t="s">
-        <v>152</v>
+        <v>457</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D199" t="s">
-        <v>30</v>
+        <v>458</v>
       </c>
       <c r="E199" t="s">
-        <v>153</v>
+        <v>459</v>
       </c>
       <c r="F199">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>154</v>
+        <v>411</v>
       </c>
       <c r="H199" t="s">
         <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>155</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D200" t="s">
         <v>30</v>
       </c>
       <c r="E200" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="F200">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>435</v>
+        <v>296</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
-      </c>
-      <c r="I200" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B201" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D201" t="s">
         <v>30</v>
       </c>
       <c r="E201" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="F201">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>439</v>
+        <v>296</v>
       </c>
       <c r="H201" t="s">
         <v>15</v>
-      </c>
-      <c r="I201" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B202" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="C202" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D202" t="s">
         <v>30</v>
       </c>
       <c r="E202" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="F202">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>443</v>
+        <v>296</v>
       </c>
       <c r="H202" t="s">
         <v>15</v>
-      </c>
-      <c r="I202" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="C203" t="s">
         <v>11</v>
@@ -7278,718 +7575,1285 @@
         <v>30</v>
       </c>
       <c r="E203" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="F203">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>447</v>
+        <v>296</v>
       </c>
       <c r="H203" t="s">
         <v>15</v>
-      </c>
-      <c r="I203" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B204" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C204" t="s">
         <v>11</v>
       </c>
       <c r="D204" t="s">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="E204" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="F204">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H204" t="s">
         <v>15</v>
-      </c>
-      <c r="I204" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B205" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="C205" t="s">
         <v>11</v>
       </c>
       <c r="D205" t="s">
-        <v>454</v>
+        <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="F205">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H205" t="s">
         <v>15</v>
-      </c>
-      <c r="I205" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="C206" t="s">
         <v>11</v>
       </c>
       <c r="D206" t="s">
-        <v>458</v>
+        <v>30</v>
       </c>
       <c r="E206" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="F206">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H206" t="s">
         <v>15</v>
-      </c>
-      <c r="I206" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="C207" t="s">
         <v>11</v>
       </c>
       <c r="D207" t="s">
-        <v>462</v>
+        <v>30</v>
       </c>
       <c r="E207" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="F207">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H207" t="s">
         <v>15</v>
-      </c>
-      <c r="I207" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="B208" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C208" t="s">
         <v>11</v>
       </c>
       <c r="D208" t="s">
-        <v>466</v>
+        <v>30</v>
       </c>
       <c r="E208" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="F208">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H208" t="s">
         <v>15</v>
-      </c>
-      <c r="I208" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" t="s">
-        <v>424</v>
-      </c>
-      <c r="B209" t="s">
-        <v>469</v>
-      </c>
-      <c r="C209" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s">
-        <v>470</v>
-      </c>
-      <c r="E209" t="s">
-        <v>471</v>
-      </c>
-      <c r="F209">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G209" t="s">
-        <v>301</v>
-      </c>
-      <c r="H209" t="s">
-        <v>15</v>
-      </c>
-      <c r="I209" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="B210" t="s">
-        <v>473</v>
+        <v>41</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D210" t="s">
         <v>30</v>
       </c>
       <c r="E210" t="s">
-        <v>474</v>
+        <v>42</v>
       </c>
       <c r="F210">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>475</v>
-      </c>
-      <c r="H210" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="I210" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="B211" t="s">
-        <v>476</v>
+        <v>45</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D211" t="s">
         <v>30</v>
       </c>
       <c r="E211" t="s">
-        <v>477</v>
+        <v>46</v>
       </c>
       <c r="F211">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>478</v>
+        <v>47</v>
       </c>
       <c r="H211" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="I211" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="B212" t="s">
-        <v>479</v>
+        <v>49</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E212" t="s">
-        <v>480</v>
+        <v>51</v>
       </c>
       <c r="F212">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>301</v>
-      </c>
-      <c r="H212" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I212" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" t="s">
-        <v>424</v>
-      </c>
-      <c r="B213" t="s">
-        <v>482</v>
-      </c>
-      <c r="C213" t="s">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s">
-        <v>30</v>
-      </c>
-      <c r="E213" t="s">
-        <v>483</v>
-      </c>
-      <c r="F213">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G213" t="s">
-        <v>301</v>
-      </c>
-      <c r="H213" t="s">
-        <v>15</v>
-      </c>
-      <c r="I213" t="s">
-        <v>484</v>
+        <v>53</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="B214" t="s">
-        <v>485</v>
+        <v>54</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E214" t="s">
-        <v>486</v>
+        <v>273</v>
       </c>
       <c r="F214">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>301</v>
+        <v>57</v>
       </c>
       <c r="H214" t="s">
-        <v>15</v>
-      </c>
-      <c r="I214" t="s">
-        <v>487</v>
+        <v>58</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B216" t="s">
-        <v>489</v>
+        <v>49</v>
       </c>
       <c r="C216" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D216" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E216" t="s">
-        <v>490</v>
+        <v>51</v>
       </c>
       <c r="F216">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>491</v>
-      </c>
-      <c r="H216" t="s">
-        <v>492</v>
+        <v>52</v>
       </c>
       <c r="I216" t="s">
-        <v>493</v>
+        <v>53</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B218" t="s">
-        <v>49</v>
+        <v>483</v>
       </c>
       <c r="C218" t="s">
         <v>18</v>
       </c>
       <c r="D218" t="s">
-        <v>495</v>
+        <v>30</v>
       </c>
       <c r="E218" t="s">
-        <v>51</v>
+        <v>484</v>
       </c>
       <c r="F218">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>52</v>
+        <v>317</v>
+      </c>
+      <c r="H218" t="s">
+        <v>15</v>
       </c>
       <c r="I218" t="s">
-        <v>53</v>
+        <v>485</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B219" t="s">
-        <v>41</v>
+        <v>486</v>
       </c>
       <c r="C219" t="s">
         <v>18</v>
       </c>
       <c r="D219" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E219" t="s">
-        <v>42</v>
+        <v>488</v>
       </c>
       <c r="F219">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>43</v>
+        <v>489</v>
+      </c>
+      <c r="H219" t="s">
+        <v>15</v>
       </c>
       <c r="I219" t="s">
-        <v>44</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="C220" t="s">
         <v>18</v>
       </c>
       <c r="D220" t="s">
-        <v>496</v>
+        <v>30</v>
       </c>
       <c r="E220" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="F220">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="H220" t="s">
-        <v>26</v>
-      </c>
-      <c r="I220" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="C221" t="s">
         <v>18</v>
       </c>
       <c r="D221" t="s">
-        <v>496</v>
+        <v>30</v>
       </c>
       <c r="E221" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="F221">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="H221" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I221" t="s">
-        <v>23</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
+        <v>482</v>
+      </c>
+      <c r="B222" t="s">
+        <v>239</v>
+      </c>
+      <c r="C222" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" t="s">
+        <v>30</v>
+      </c>
+      <c r="E222" t="s">
+        <v>240</v>
+      </c>
+      <c r="F222">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>241</v>
+      </c>
+      <c r="H222" t="s">
+        <v>15</v>
+      </c>
+      <c r="I222" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>482</v>
+      </c>
+      <c r="B223" t="s">
+        <v>491</v>
+      </c>
+      <c r="C223" t="s">
+        <v>18</v>
+      </c>
+      <c r="D223" t="s">
+        <v>30</v>
+      </c>
+      <c r="E223" t="s">
+        <v>492</v>
+      </c>
+      <c r="F223">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
+        <v>493</v>
+      </c>
+      <c r="H223" t="s">
+        <v>15</v>
+      </c>
+      <c r="I223" t="s">
         <v>494</v>
-      </c>
-      <c r="B222" t="s">
-        <v>24</v>
-      </c>
-      <c r="C222" t="s">
-        <v>18</v>
-      </c>
-      <c r="D222" t="s">
-        <v>496</v>
-      </c>
-      <c r="E222" t="s">
-        <v>25</v>
-      </c>
-      <c r="F222">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G222" t="s">
-        <v>21</v>
-      </c>
-      <c r="H222" t="s">
-        <v>26</v>
-      </c>
-      <c r="I222" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
+        <v>482</v>
+      </c>
+      <c r="B224" t="s">
+        <v>495</v>
+      </c>
+      <c r="C224" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" t="s">
+        <v>30</v>
+      </c>
+      <c r="E224" t="s">
+        <v>496</v>
+      </c>
+      <c r="F224">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
         <v>497</v>
       </c>
-      <c r="B224" t="s">
-        <v>395</v>
-      </c>
-      <c r="C224" t="s">
-        <v>18</v>
-      </c>
-      <c r="D224" t="s">
-        <v>262</v>
-      </c>
-      <c r="E224" t="s">
-        <v>396</v>
-      </c>
-      <c r="F224">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G224" t="s">
-        <v>397</v>
-      </c>
       <c r="H224" t="s">
         <v>15</v>
       </c>
       <c r="I224" t="s">
-        <v>398</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B225" t="s">
-        <v>261</v>
+        <v>499</v>
       </c>
       <c r="C225" t="s">
         <v>18</v>
       </c>
       <c r="D225" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="E225" t="s">
-        <v>263</v>
+        <v>500</v>
       </c>
       <c r="F225">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>259</v>
+        <v>501</v>
       </c>
       <c r="H225" t="s">
         <v>15</v>
       </c>
       <c r="I225" t="s">
-        <v>264</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B226" t="s">
-        <v>29</v>
+        <v>503</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D226" t="s">
         <v>30</v>
       </c>
       <c r="E226" t="s">
-        <v>31</v>
+        <v>504</v>
       </c>
       <c r="F226">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>505</v>
       </c>
       <c r="H226" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="I226" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>482</v>
+      </c>
+      <c r="B227" t="s">
+        <v>507</v>
+      </c>
+      <c r="C227" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s">
+        <v>508</v>
+      </c>
+      <c r="E227" t="s">
+        <v>509</v>
+      </c>
+      <c r="F227">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>359</v>
+      </c>
+      <c r="H227" t="s">
+        <v>15</v>
+      </c>
+      <c r="I227" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B228" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D228" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="E228" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="F228">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="H228" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I228" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B229" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C229" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="E229" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="F229">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="H229" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="I229" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>519</v>
       </c>
       <c r="C230" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D230" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="E230" t="s">
-        <v>211</v>
+        <v>521</v>
       </c>
       <c r="F230">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>63</v>
+        <v>359</v>
       </c>
       <c r="H230" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="I230" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="B231" t="s">
+        <v>523</v>
+      </c>
+      <c r="C231" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s">
+        <v>524</v>
+      </c>
+      <c r="E231" t="s">
+        <v>525</v>
+      </c>
+      <c r="F231">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>359</v>
+      </c>
+      <c r="H231" t="s">
+        <v>15</v>
+      </c>
+      <c r="I231" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>482</v>
+      </c>
+      <c r="B232" t="s">
+        <v>527</v>
+      </c>
+      <c r="C232" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>528</v>
+      </c>
+      <c r="E232" t="s">
+        <v>529</v>
+      </c>
+      <c r="F232">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>359</v>
+      </c>
+      <c r="H232" t="s">
+        <v>15</v>
+      </c>
+      <c r="I232" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>482</v>
+      </c>
+      <c r="B233" t="s">
+        <v>531</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>30</v>
+      </c>
+      <c r="E233" t="s">
+        <v>532</v>
+      </c>
+      <c r="F233">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>533</v>
+      </c>
+      <c r="H233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>482</v>
+      </c>
+      <c r="B234" t="s">
+        <v>534</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s">
+        <v>30</v>
+      </c>
+      <c r="E234" t="s">
+        <v>535</v>
+      </c>
+      <c r="F234">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G234" t="s">
+        <v>536</v>
+      </c>
+      <c r="H234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>482</v>
+      </c>
+      <c r="B235" t="s">
+        <v>537</v>
+      </c>
+      <c r="C235" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s">
+        <v>30</v>
+      </c>
+      <c r="E235" t="s">
+        <v>538</v>
+      </c>
+      <c r="F235">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>359</v>
+      </c>
+      <c r="H235" t="s">
+        <v>15</v>
+      </c>
+      <c r="I235" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>482</v>
+      </c>
+      <c r="B236" t="s">
+        <v>540</v>
+      </c>
+      <c r="C236" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s">
+        <v>30</v>
+      </c>
+      <c r="E236" t="s">
+        <v>541</v>
+      </c>
+      <c r="F236">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>359</v>
+      </c>
+      <c r="H236" t="s">
+        <v>15</v>
+      </c>
+      <c r="I236" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>482</v>
+      </c>
+      <c r="B237" t="s">
+        <v>543</v>
+      </c>
+      <c r="C237" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>30</v>
+      </c>
+      <c r="E237" t="s">
+        <v>544</v>
+      </c>
+      <c r="F237">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>359</v>
+      </c>
+      <c r="H237" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>546</v>
+      </c>
+      <c r="B239" t="s">
+        <v>547</v>
+      </c>
+      <c r="C239" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" t="s">
+        <v>30</v>
+      </c>
+      <c r="E239" t="s">
+        <v>548</v>
+      </c>
+      <c r="F239">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>549</v>
+      </c>
+      <c r="H239" t="s">
+        <v>550</v>
+      </c>
+      <c r="I239" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>552</v>
+      </c>
+      <c r="B241" t="s">
+        <v>49</v>
+      </c>
+      <c r="C241" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" t="s">
+        <v>553</v>
+      </c>
+      <c r="E241" t="s">
+        <v>51</v>
+      </c>
+      <c r="F241">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>52</v>
+      </c>
+      <c r="I241" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>552</v>
+      </c>
+      <c r="B242" t="s">
+        <v>41</v>
+      </c>
+      <c r="C242" t="s">
+        <v>18</v>
+      </c>
+      <c r="D242" t="s">
+        <v>554</v>
+      </c>
+      <c r="E242" t="s">
+        <v>42</v>
+      </c>
+      <c r="F242">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>43</v>
+      </c>
+      <c r="I242" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>552</v>
+      </c>
+      <c r="B243" t="s">
+        <v>45</v>
+      </c>
+      <c r="C243" t="s">
+        <v>18</v>
+      </c>
+      <c r="D243" t="s">
+        <v>554</v>
+      </c>
+      <c r="E243" t="s">
+        <v>46</v>
+      </c>
+      <c r="F243">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>47</v>
+      </c>
+      <c r="H243" t="s">
+        <v>26</v>
+      </c>
+      <c r="I243" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>552</v>
+      </c>
+      <c r="B244" t="s">
+        <v>17</v>
+      </c>
+      <c r="C244" t="s">
+        <v>18</v>
+      </c>
+      <c r="D244" t="s">
+        <v>554</v>
+      </c>
+      <c r="E244" t="s">
+        <v>20</v>
+      </c>
+      <c r="F244">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>21</v>
+      </c>
+      <c r="H244" t="s">
+        <v>22</v>
+      </c>
+      <c r="I244" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>552</v>
+      </c>
+      <c r="B245" t="s">
+        <v>24</v>
+      </c>
+      <c r="C245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" t="s">
+        <v>554</v>
+      </c>
+      <c r="E245" t="s">
+        <v>25</v>
+      </c>
+      <c r="F245">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>21</v>
+      </c>
+      <c r="H245" t="s">
+        <v>26</v>
+      </c>
+      <c r="I245" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>555</v>
+      </c>
+      <c r="B247" t="s">
+        <v>556</v>
+      </c>
+      <c r="C247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" t="s">
+        <v>557</v>
+      </c>
+      <c r="E247" t="s">
+        <v>558</v>
+      </c>
+      <c r="F247">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4c69515bfc84c5cb5624e94228f58351.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>170</v>
+      </c>
+      <c r="H247" t="s">
+        <v>70</v>
+      </c>
+      <c r="I247" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>560</v>
+      </c>
+      <c r="B249" t="s">
+        <v>453</v>
+      </c>
+      <c r="C249" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" t="s">
+        <v>320</v>
+      </c>
+      <c r="E249" t="s">
+        <v>454</v>
+      </c>
+      <c r="F249">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>455</v>
+      </c>
+      <c r="H249" t="s">
+        <v>15</v>
+      </c>
+      <c r="I249" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>560</v>
+      </c>
+      <c r="B250" t="s">
+        <v>319</v>
+      </c>
+      <c r="C250" t="s">
+        <v>18</v>
+      </c>
+      <c r="D250" t="s">
+        <v>320</v>
+      </c>
+      <c r="E250" t="s">
+        <v>321</v>
+      </c>
+      <c r="F250">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>317</v>
+      </c>
+      <c r="H250" t="s">
+        <v>15</v>
+      </c>
+      <c r="I250" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>560</v>
+      </c>
+      <c r="B251" t="s">
+        <v>29</v>
+      </c>
+      <c r="C251" t="s">
+        <v>18</v>
+      </c>
+      <c r="D251" t="s">
+        <v>30</v>
+      </c>
+      <c r="E251" t="s">
+        <v>31</v>
+      </c>
+      <c r="F251">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>32</v>
+      </c>
+      <c r="H251" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>561</v>
+      </c>
+      <c r="B253" t="s">
+        <v>562</v>
+      </c>
+      <c r="C253" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" t="s">
+        <v>563</v>
+      </c>
+      <c r="E253" t="s">
+        <v>564</v>
+      </c>
+      <c r="F253">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>63</v>
+      </c>
+      <c r="H253" t="s">
+        <v>58</v>
+      </c>
+      <c r="I253" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>561</v>
+      </c>
+      <c r="B254" t="s">
+        <v>566</v>
+      </c>
+      <c r="C254" t="s">
+        <v>18</v>
+      </c>
+      <c r="D254" t="s">
+        <v>563</v>
+      </c>
+      <c r="E254" t="s">
+        <v>567</v>
+      </c>
+      <c r="F254">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>63</v>
+      </c>
+      <c r="H254" t="s">
+        <v>58</v>
+      </c>
+      <c r="I254" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>561</v>
+      </c>
+      <c r="B255" t="s">
+        <v>268</v>
+      </c>
+      <c r="C255" t="s">
+        <v>18</v>
+      </c>
+      <c r="D255" t="s">
+        <v>563</v>
+      </c>
+      <c r="E255" t="s">
+        <v>269</v>
+      </c>
+      <c r="F255">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>63</v>
+      </c>
+      <c r="H255" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>561</v>
+      </c>
+      <c r="B256" t="s">
         <v>54</v>
       </c>
-      <c r="C231" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" t="s">
-        <v>500</v>
-      </c>
-      <c r="E231" t="s">
-        <v>215</v>
-      </c>
-      <c r="F231">
+      <c r="C256" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256" t="s">
+        <v>563</v>
+      </c>
+      <c r="E256" t="s">
+        <v>273</v>
+      </c>
+      <c r="F256">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G256" t="s">
         <v>57</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H256" t="s">
         <v>58</v>
       </c>
     </row>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="562">
   <si>
     <t>Table</t>
   </si>
@@ -520,54 +520,39 @@
     <t>Contributions to heat transport from parameterized eddy-induced advective transport due to any subgrid advective process. Diagnosed here as a function of latitude and basin.  Use Celsius for temperature scale.</t>
   </si>
   <si>
-    <t>wfcorr</t>
-  </si>
-  <si>
-    <t>Water Flux Correction</t>
+    <t>sfriver</t>
+  </si>
+  <si>
+    <t>Salt Flux into Sea Water from Rivers</t>
+  </si>
+  <si>
+    <t>Not available in NEMO-OPA, i.e. it makes no sence to make it availble because it is zero. It looks like it is assumed zero in NEMO, not 100% sure though.</t>
+  </si>
+  <si>
+    <t>This field is physical, and it arises when rivers carry a nonzero salt content.  Often this is zero, with rivers assumed to be fresh.</t>
+  </si>
+  <si>
+    <t>hfsifrazil</t>
+  </si>
+  <si>
+    <t>Heat Flux into Sea Water due to Frazil Ice Formation</t>
+  </si>
+  <si>
+    <t>Not available in NEMO-LIM, not in NEMO anywhere</t>
+  </si>
+  <si>
+    <t>hfsifrazil2d</t>
+  </si>
+  <si>
+    <t>tauucorr</t>
+  </si>
+  <si>
+    <t>Surface Downward X Stress Correction</t>
   </si>
   <si>
     <t>Not available in NEMO-OPA.</t>
   </si>
   <si>
-    <t>Positive flux implies correction adds water to ocean.</t>
-  </si>
-  <si>
-    <t>sfriver</t>
-  </si>
-  <si>
-    <t>Salt Flux into Sea Water from Rivers</t>
-  </si>
-  <si>
-    <t>Not available in NEMO-OPA, i.e. it makes no sence to make it availble because it is zero. It looks like it is assumed zero in NEMO, not 100% sure though.</t>
-  </si>
-  <si>
-    <t>This field is physical, and it arises when rivers carry a nonzero salt content.  Often this is zero, with rivers assumed to be fresh.</t>
-  </si>
-  <si>
-    <t>hfsifrazil</t>
-  </si>
-  <si>
-    <t>Heat Flux into Sea Water due to Frazil Ice Formation</t>
-  </si>
-  <si>
-    <t>Not available in NEMO-LIM, not in NEMO anywhere</t>
-  </si>
-  <si>
-    <t>hfsifrazil2d</t>
-  </si>
-  <si>
-    <t>hfcorr</t>
-  </si>
-  <si>
-    <t>Heat Flux Correction</t>
-  </si>
-  <si>
-    <t>tauucorr</t>
-  </si>
-  <si>
-    <t>Surface Downward X Stress Correction</t>
-  </si>
-  <si>
     <t>This is the stress on the liquid ocean from overlying atmosphere, sea ice, ice shelf, etc.</t>
   </si>
   <si>
@@ -890,12 +875,6 @@
   </si>
   <si>
     <t>Report missing data over ocean grid cells. For fractional land report value averaged over the land fraction.</t>
-  </si>
-  <si>
-    <t>cSoilBelow1m</t>
-  </si>
-  <si>
-    <t>Carbon Mass in Soil Pool below 1m Depth</t>
   </si>
   <si>
     <t>c14Veg</t>
@@ -2061,7 +2040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3465,7 +3444,7 @@
         <v>169</v>
       </c>
       <c r="F56">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/604242476d85346b48bd6d791ed05583.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ced45b8b1f2797c54425755202dce533.html","web")</f>
         <v>0</v>
       </c>
       <c r="G56" t="s">
@@ -3489,13 +3468,13 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
         <v>173</v>
       </c>
       <c r="F57">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ced45b8b1f2797c54425755202dce533.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1b7e762395c4de9ec5c5c7bda3ce3781.html","web")</f>
         <v>0</v>
       </c>
       <c r="G57" t="s">
@@ -3503,9 +3482,6 @@
       </c>
       <c r="H57" t="s">
         <v>70</v>
-      </c>
-      <c r="I57" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3513,23 +3489,23 @@
         <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F58">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1b7e762395c4de9ec5c5c7bda3ce3781.html","web")</f>
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H58" t="s">
         <v>70</v>
@@ -3540,7 +3516,7 @@
         <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -3552,7 +3528,7 @@
         <v>177</v>
       </c>
       <c r="F59">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1b7e762395c4de9ec5c5c7bda3ce3781.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/06942529e05aac1e9a39ca1f5737af2f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G59" t="s">
@@ -3560,6 +3536,9 @@
       </c>
       <c r="H59" t="s">
         <v>70</v>
+      </c>
+      <c r="I59" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3579,14 +3558,17 @@
         <v>181</v>
       </c>
       <c r="F60">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0312fb7cbaaff353e66b17c21fb13482.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab495084beb82a29c24bf6c226fd0e57.html","web")</f>
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H60" t="s">
         <v>70</v>
+      </c>
+      <c r="I60" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3600,23 +3582,20 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F61">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/06942529e05aac1e9a39ca1f5737af2f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f43d7527cd48c992f075339b2bbbf9ef.html","web")</f>
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="H61" t="s">
         <v>70</v>
-      </c>
-      <c r="I61" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3630,23 +3609,20 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
         <v>186</v>
       </c>
       <c r="F62">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab495084beb82a29c24bf6c226fd0e57.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c972ffd4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="H62" t="s">
         <v>70</v>
-      </c>
-      <c r="I62" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3654,26 +3630,29 @@
         <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="E63" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="F63">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f43d7527cd48c992f075339b2bbbf9ef.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>15</v>
+      </c>
+      <c r="I63" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3681,7 +3660,7 @@
         <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -3690,17 +3669,20 @@
         <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F64">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c972ffd4-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="I64" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3708,7 +3690,7 @@
         <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -3717,10 +3699,10 @@
         <v>127</v>
       </c>
       <c r="E65" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F65">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G65" t="s">
@@ -3730,7 +3712,7 @@
         <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3738,7 +3720,7 @@
         <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -3747,20 +3729,17 @@
         <v>127</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F66">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5b82-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-      <c r="I66" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3768,29 +3747,29 @@
         <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
         <v>127</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="F67">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/190f38cb06f9a1f3133c3dcf66e0421e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3798,26 +3777,26 @@
         <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F68">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5b82-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3825,29 +3804,29 @@
         <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
         <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F69">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/190f38cb06f9a1f3133c3dcf66e0421e.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3855,19 +3834,19 @@
         <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
         <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E70" t="s">
         <v>197</v>
       </c>
       <c r="F70">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G70" t="s">
@@ -3875,6 +3854,9 @@
       </c>
       <c r="H70" t="s">
         <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3882,19 +3864,19 @@
         <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
         <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F71">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
         <v>0</v>
       </c>
       <c r="G71" t="s">
@@ -3904,7 +3886,7 @@
         <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3912,19 +3894,19 @@
         <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
         <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F72">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G72" t="s">
@@ -3934,7 +3916,7 @@
         <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3942,19 +3924,19 @@
         <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
         <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F73">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G73" t="s">
@@ -3964,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3972,29 +3954,29 @@
         <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
         <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F74">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4002,29 +3984,29 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C75" t="s">
         <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F75">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4032,19 +4014,19 @@
         <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
         <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F76">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G76" t="s">
@@ -4054,7 +4036,7 @@
         <v>81</v>
       </c>
       <c r="I76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4062,19 +4044,19 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F77">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G77" t="s">
@@ -4084,7 +4066,7 @@
         <v>81</v>
       </c>
       <c r="I77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4092,19 +4074,19 @@
         <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C78" t="s">
         <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F78">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
         <v>0</v>
       </c>
       <c r="G78" t="s">
@@ -4114,7 +4096,7 @@
         <v>81</v>
       </c>
       <c r="I78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4122,19 +4104,19 @@
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C79" t="s">
         <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F79">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
         <v>0</v>
       </c>
       <c r="G79" t="s">
@@ -4144,7 +4126,7 @@
         <v>81</v>
       </c>
       <c r="I79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4152,29 +4134,29 @@
         <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="F80">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/55febff83b78e06576947e1c0e5b7a7d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H80" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I80" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4182,29 +4164,29 @@
         <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="F81">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59175660-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I81" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4212,7 +4194,7 @@
         <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -4221,10 +4203,10 @@
         <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F82">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/55febff83b78e06576947e1c0e5b7a7d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c977c2da-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G82" t="s">
@@ -4234,75 +4216,72 @@
         <v>70</v>
       </c>
       <c r="I82" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" t="s">
-        <v>73</v>
-      </c>
-      <c r="F83">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59175660-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>69</v>
-      </c>
-      <c r="H83" t="s">
-        <v>70</v>
-      </c>
-      <c r="I83" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E84" t="s">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="F84">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c977c2da-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
-      </c>
-      <c r="I84" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F85">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>232</v>
+      </c>
+      <c r="H85" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -4311,157 +4290,157 @@
         <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F86">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H86" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s">
-        <v>231</v>
-      </c>
-      <c r="B87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" t="s">
-        <v>236</v>
-      </c>
-      <c r="F87">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="I86" t="s">
         <v>237</v>
-      </c>
-      <c r="H87" t="s">
-        <v>15</v>
-      </c>
-      <c r="I87" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="F88">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe8d7416c92bdae56503590599286800.html","web")</f>
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="I88" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>243</v>
-      </c>
-      <c r="B90" t="s">
-        <v>133</v>
-      </c>
-      <c r="C90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" t="s">
-        <v>135</v>
-      </c>
-      <c r="F90">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe8d7416c92bdae56503590599286800.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
-        <v>136</v>
-      </c>
-      <c r="H90" t="s">
-        <v>137</v>
-      </c>
-      <c r="I90" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ced45b8b1f2797c54425755202dce533.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>170</v>
+      </c>
+      <c r="H89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" t="s">
+        <v>242</v>
+      </c>
+      <c r="F91">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/98114e26-b896-11e6-a189-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>63</v>
+      </c>
+      <c r="H91" t="s">
+        <v>58</v>
+      </c>
+      <c r="I91" t="s">
         <v>243</v>
       </c>
-      <c r="B91" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" t="s">
-        <v>30</v>
-      </c>
-      <c r="E91" t="s">
-        <v>173</v>
-      </c>
-      <c r="F91">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ced45b8b1f2797c54425755202dce533.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G91" t="s">
-        <v>174</v>
-      </c>
-      <c r="H91" t="s">
-        <v>70</v>
-      </c>
-      <c r="I91" t="s">
-        <v>175</v>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" t="s">
+        <v>245</v>
+      </c>
+      <c r="F92">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d5bdfd24b275f0530646361967483d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>63</v>
+      </c>
+      <c r="H92" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E93" t="s">
         <v>247</v>
       </c>
       <c r="F93">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/98114e26-b896-11e6-a189-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
         <v>0</v>
       </c>
       <c r="G93" t="s">
@@ -4476,7 +4455,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
         <v>249</v>
@@ -4485,13 +4464,13 @@
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="E94" t="s">
         <v>250</v>
       </c>
       <c r="F94">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d5bdfd24b275f0530646361967483d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4ffc1f50b844980dbbae006dbcfca869.html","web")</f>
         <v>0</v>
       </c>
       <c r="G94" t="s">
@@ -4500,25 +4479,28 @@
       <c r="H94" t="s">
         <v>58</v>
       </c>
+      <c r="I94" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F95">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cfe4bddb7dbbfc57c19837e7f99d2dda.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea546e38aa8fc0e021f03e746e1adb10.html","web")</f>
         <v>0</v>
       </c>
       <c r="G95" t="s">
@@ -4528,15 +4510,15 @@
         <v>58</v>
       </c>
       <c r="I95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -4545,10 +4527,10 @@
         <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F96">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4ffc1f50b844980dbbae006dbcfca869.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/691673a210102ac652eed2b784dd2ab4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G96" t="s">
@@ -4558,15 +4540,15 @@
         <v>58</v>
       </c>
       <c r="I96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -4575,10 +4557,10 @@
         <v>30</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F97">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea546e38aa8fc0e021f03e746e1adb10.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a4e52f0f3833b395c09c73f1b6f3f748.html","web")</f>
         <v>0</v>
       </c>
       <c r="G97" t="s">
@@ -4588,27 +4570,27 @@
         <v>58</v>
       </c>
       <c r="I97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="E98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F98">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/691673a210102ac652eed2b784dd2ab4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe6bdb96-a41f-11e5-9025-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G98" t="s">
@@ -4617,13 +4599,10 @@
       <c r="H98" t="s">
         <v>58</v>
       </c>
-      <c r="I98" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B99" t="s">
         <v>263</v>
@@ -4632,13 +4611,13 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="E99" t="s">
         <v>264</v>
       </c>
       <c r="F99">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a4e52f0f3833b395c09c73f1b6f3f748.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G99" t="s">
@@ -4647,28 +4626,25 @@
       <c r="H99" t="s">
         <v>58</v>
       </c>
-      <c r="I99" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B100" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100" t="s">
         <v>266</v>
       </c>
-      <c r="C100" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" t="s">
-        <v>246</v>
-      </c>
-      <c r="E100" t="s">
-        <v>267</v>
-      </c>
       <c r="F100">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fe6bdb96-a41f-11e5-9025-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2b133ea2-1b42-11e6-a696-35cd2d8034df.html","web")</f>
         <v>0</v>
       </c>
       <c r="G100" t="s">
@@ -4677,29 +4653,32 @@
       <c r="H100" t="s">
         <v>58</v>
       </c>
+      <c r="I100" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>241</v>
+      </c>
+      <c r="E101" t="s">
         <v>268</v>
       </c>
-      <c r="C101" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" t="s">
-        <v>246</v>
-      </c>
-      <c r="E101" t="s">
-        <v>269</v>
-      </c>
       <c r="F101">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H101" t="s">
         <v>58</v>
@@ -4707,26 +4686,26 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" t="s">
         <v>270</v>
       </c>
-      <c r="C102" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" t="s">
-        <v>246</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F102">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/218a6b28-8995-11e6-b63d-5404a60d96b5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
         <v>271</v>
-      </c>
-      <c r="F102">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2b133ea2-1b42-11e6-a696-35cd2d8034df.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>63</v>
       </c>
       <c r="H102" t="s">
         <v>58</v>
@@ -4737,187 +4716,184 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="E103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F103">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a0c10a4b65d3b79db581a649058a08b1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H103" t="s">
         <v>58</v>
       </c>
+      <c r="I103" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E104" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F104">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/218a6b28-8995-11e6-b63d-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a2609abee6ecd5d535a48e29ae70e852.html","web")</f>
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="H104" t="s">
         <v>58</v>
       </c>
       <c r="I104" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" t="s">
-        <v>244</v>
-      </c>
-      <c r="B105" t="s">
         <v>278</v>
-      </c>
-      <c r="C105" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" t="s">
-        <v>30</v>
-      </c>
-      <c r="E105" t="s">
-        <v>279</v>
-      </c>
-      <c r="F105">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a0c10a4b65d3b79db581a649058a08b1.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G105" t="s">
-        <v>63</v>
-      </c>
-      <c r="H105" t="s">
-        <v>58</v>
-      </c>
-      <c r="I105" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="B106" t="s">
+        <v>280</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>241</v>
+      </c>
+      <c r="E106" t="s">
         <v>281</v>
       </c>
-      <c r="C106" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" t="s">
-        <v>246</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" t="s">
         <v>282</v>
       </c>
-      <c r="F106">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a2609abee6ecd5d535a48e29ae70e852.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G106" t="s">
-        <v>63</v>
-      </c>
-      <c r="H106" t="s">
-        <v>58</v>
-      </c>
-      <c r="I106" t="s">
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" t="s">
         <v>283</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" t="s">
+        <v>284</v>
+      </c>
+      <c r="F107">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>285</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B108" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C108" t="s">
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="E108" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F108">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
-        <v>0</v>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>289</v>
       </c>
       <c r="H108" t="s">
         <v>15</v>
-      </c>
-      <c r="I108" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B109" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
         <v>30</v>
       </c>
       <c r="E109" t="s">
+        <v>291</v>
+      </c>
+      <c r="F109">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
         <v>289</v>
       </c>
-      <c r="F109">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G109" t="s">
-        <v>290</v>
-      </c>
       <c r="H109" t="s">
         <v>15</v>
-      </c>
-      <c r="I109" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B110" t="s">
         <v>292</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
         <v>30</v>
@@ -4926,11 +4902,11 @@
         <v>293</v>
       </c>
       <c r="F110">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d6812-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H110" t="s">
         <v>15</v>
@@ -4938,7 +4914,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B111" t="s">
         <v>294</v>
@@ -4953,11 +4929,11 @@
         <v>295</v>
       </c>
       <c r="F111">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H111" t="s">
         <v>15</v>
@@ -4965,10 +4941,10 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B112" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -4977,14 +4953,14 @@
         <v>30</v>
       </c>
       <c r="E112" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F112">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H112" t="s">
         <v>15</v>
@@ -4992,10 +4968,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B113" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -5004,14 +4980,14 @@
         <v>30</v>
       </c>
       <c r="E113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F113">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H113" t="s">
         <v>15</v>
@@ -5019,10 +4995,10 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
@@ -5031,14 +5007,14 @@
         <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F114">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H114" t="s">
         <v>15</v>
@@ -5046,10 +5022,10 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
@@ -5058,14 +5034,14 @@
         <v>30</v>
       </c>
       <c r="E115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F115">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H115" t="s">
         <v>15</v>
@@ -5073,10 +5049,10 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
@@ -5085,14 +5061,14 @@
         <v>30</v>
       </c>
       <c r="E116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F116">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H116" t="s">
         <v>15</v>
@@ -5100,26 +5076,26 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B117" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F117">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
@@ -5127,181 +5103,184 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
         <v>309</v>
       </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>30</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="F118">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
         <v>310</v>
       </c>
-      <c r="F118">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G118" t="s">
-        <v>296</v>
-      </c>
       <c r="H118" t="s">
         <v>15</v>
+      </c>
+      <c r="I118" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="E119" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F119">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="H119" t="s">
         <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B120" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F120">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="H120" t="s">
         <v>15</v>
+      </c>
+      <c r="I120" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
         <v>30</v>
       </c>
       <c r="E121" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F121">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
-      </c>
-      <c r="I121" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B122" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="E122" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F122">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B123" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
         <v>30</v>
       </c>
       <c r="E123" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F123">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H123" t="s">
         <v>15</v>
-      </c>
-      <c r="I123" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B124" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -5310,10 +5289,10 @@
         <v>30</v>
       </c>
       <c r="E124" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F124">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G124" t="s">
@@ -5325,10 +5304,10 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B125" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
@@ -5337,25 +5316,22 @@
         <v>30</v>
       </c>
       <c r="E125" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F125">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H125" t="s">
         <v>15</v>
-      </c>
-      <c r="I125" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B126" t="s">
         <v>334</v>
@@ -5370,11 +5346,11 @@
         <v>335</v>
       </c>
       <c r="F126">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
@@ -5382,10 +5358,10 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B127" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
@@ -5394,14 +5370,14 @@
         <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F127">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -5409,10 +5385,10 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
@@ -5421,14 +5397,14 @@
         <v>30</v>
       </c>
       <c r="E128" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F128">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H128" t="s">
         <v>15</v>
@@ -5436,10 +5412,10 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B129" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
@@ -5448,14 +5424,14 @@
         <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F129">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -5463,10 +5439,10 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B130" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
@@ -5475,14 +5451,14 @@
         <v>30</v>
       </c>
       <c r="E130" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F130">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H130" t="s">
         <v>15</v>
@@ -5490,10 +5466,10 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B131" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -5502,14 +5478,14 @@
         <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F131">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -5517,34 +5493,37 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B132" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="E132" t="s">
+        <v>347</v>
+      </c>
+      <c r="F132">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>285</v>
+      </c>
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
         <v>348</v>
-      </c>
-      <c r="F132">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G132" t="s">
-        <v>336</v>
-      </c>
-      <c r="H132" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B133" t="s">
         <v>349</v>
@@ -5553,142 +5532,148 @@
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="E133" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F133">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
+      </c>
+      <c r="I133" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B134" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="E134" t="s">
+        <v>355</v>
+      </c>
+      <c r="F134">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
         <v>352</v>
       </c>
-      <c r="F134">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G134" t="s">
-        <v>336</v>
-      </c>
       <c r="H134" t="s">
         <v>15</v>
+      </c>
+      <c r="I134" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B135" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F135">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="H135" t="s">
         <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B136" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>357</v>
+        <v>30</v>
       </c>
       <c r="E136" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F136">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G136" t="s">
+        <v>352</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" t="s">
         <v>359</v>
-      </c>
-      <c r="H136" t="s">
-        <v>15</v>
-      </c>
-      <c r="I136" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B137" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>357</v>
+        <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F137">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G137" t="s">
+        <v>352</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" t="s">
         <v>359</v>
-      </c>
-      <c r="H137" t="s">
-        <v>15</v>
-      </c>
-      <c r="I137" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B138" t="s">
         <v>364</v>
@@ -5703,25 +5688,25 @@
         <v>365</v>
       </c>
       <c r="F138">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G138" t="s">
+        <v>352</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" t="s">
         <v>359</v>
-      </c>
-      <c r="H138" t="s">
-        <v>15</v>
-      </c>
-      <c r="I138" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
@@ -5730,28 +5715,28 @@
         <v>30</v>
       </c>
       <c r="E139" t="s">
+        <v>367</v>
+      </c>
+      <c r="F139">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
         <v>368</v>
       </c>
-      <c r="F139">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G139" t="s">
-        <v>359</v>
-      </c>
       <c r="H139" t="s">
         <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
@@ -5760,28 +5745,28 @@
         <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F140">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H140" t="s">
         <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B141" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
@@ -5790,28 +5775,28 @@
         <v>30</v>
       </c>
       <c r="E141" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F141">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B142" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -5820,28 +5805,28 @@
         <v>30</v>
       </c>
       <c r="E142" t="s">
+        <v>377</v>
+      </c>
+      <c r="F142">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
         <v>374</v>
       </c>
-      <c r="F142">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G142" t="s">
-        <v>375</v>
-      </c>
       <c r="H142" t="s">
         <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B143" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
@@ -5850,28 +5835,28 @@
         <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F143">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H143" t="s">
         <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B144" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
@@ -5880,28 +5865,28 @@
         <v>30</v>
       </c>
       <c r="E144" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F144">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H144" t="s">
         <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B145" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
@@ -5910,28 +5895,28 @@
         <v>30</v>
       </c>
       <c r="E145" t="s">
+        <v>387</v>
+      </c>
+      <c r="F145">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
         <v>384</v>
       </c>
-      <c r="F145">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G145" t="s">
-        <v>381</v>
-      </c>
       <c r="H145" t="s">
         <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B146" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
@@ -5940,28 +5925,28 @@
         <v>30</v>
       </c>
       <c r="E146" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F146">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H146" t="s">
         <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B147" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
@@ -5970,28 +5955,25 @@
         <v>30</v>
       </c>
       <c r="E147" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F147">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H147" t="s">
         <v>15</v>
-      </c>
-      <c r="I147" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B148" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
@@ -6000,28 +5982,25 @@
         <v>30</v>
       </c>
       <c r="E148" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F148">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="H148" t="s">
         <v>15</v>
-      </c>
-      <c r="I148" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B149" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
@@ -6030,28 +6009,25 @@
         <v>30</v>
       </c>
       <c r="E149" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F149">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H149" t="s">
         <v>15</v>
-      </c>
-      <c r="I149" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B150" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
@@ -6060,14 +6036,14 @@
         <v>30</v>
       </c>
       <c r="E150" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F150">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H150" t="s">
         <v>15</v>
@@ -6075,7 +6051,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B151" t="s">
         <v>402</v>
@@ -6090,11 +6066,11 @@
         <v>403</v>
       </c>
       <c r="F151">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="H151" t="s">
         <v>15</v>
@@ -6102,10 +6078,10 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B152" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
@@ -6114,14 +6090,14 @@
         <v>30</v>
       </c>
       <c r="E152" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F152">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H152" t="s">
         <v>15</v>
@@ -6129,13 +6105,13 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B153" t="s">
         <v>407</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
         <v>30</v>
@@ -6144,11 +6120,11 @@
         <v>408</v>
       </c>
       <c r="F153">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H153" t="s">
         <v>15</v>
@@ -6156,7 +6132,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B154" t="s">
         <v>409</v>
@@ -6171,11 +6147,11 @@
         <v>410</v>
       </c>
       <c r="F154">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H154" t="s">
         <v>15</v>
@@ -6183,91 +6159,100 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B155" t="s">
-        <v>412</v>
+        <v>95</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D155" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E155" t="s">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="F155">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>411</v>
+        <v>86</v>
       </c>
       <c r="H155" t="s">
         <v>15</v>
+      </c>
+      <c r="I155" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B156" t="s">
-        <v>414</v>
+        <v>99</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D156" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E156" t="s">
-        <v>415</v>
+        <v>100</v>
       </c>
       <c r="F156">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I156" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>416</v>
+        <v>102</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D157" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E157" t="s">
-        <v>417</v>
+        <v>103</v>
       </c>
       <c r="F157">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="H157" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I157" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B158" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C158" t="s">
         <v>96</v>
@@ -6276,28 +6261,28 @@
         <v>67</v>
       </c>
       <c r="E158" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F158">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H158" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I158" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B159" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C159" t="s">
         <v>96</v>
@@ -6306,40 +6291,40 @@
         <v>67</v>
       </c>
       <c r="E159" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F159">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C160" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
         <v>67</v>
       </c>
       <c r="E160" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F160">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
         <v>0</v>
       </c>
       <c r="G160" t="s">
@@ -6348,28 +6333,25 @@
       <c r="H160" t="s">
         <v>81</v>
       </c>
-      <c r="I160" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B161" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C161" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
         <v>67</v>
       </c>
       <c r="E161" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F161">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G161" t="s">
@@ -6378,28 +6360,25 @@
       <c r="H161" t="s">
         <v>81</v>
       </c>
-      <c r="I161" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B162" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C162" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D162" t="s">
         <v>67</v>
       </c>
       <c r="E162" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F162">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G162" t="s">
@@ -6408,16 +6387,13 @@
       <c r="H162" t="s">
         <v>15</v>
       </c>
-      <c r="I162" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B163" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
@@ -6426,25 +6402,25 @@
         <v>67</v>
       </c>
       <c r="E163" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F163">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H163" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B164" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
@@ -6453,64 +6429,70 @@
         <v>67</v>
       </c>
       <c r="E164" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F164">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H164" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="I164" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B165" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
         <v>67</v>
       </c>
       <c r="E165" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F165">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H165" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="I165" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B166" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
         <v>67</v>
       </c>
       <c r="E166" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F166">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
         <v>0</v>
       </c>
       <c r="G166" t="s">
@@ -6519,85 +6501,88 @@
       <c r="H166" t="s">
         <v>15</v>
       </c>
+      <c r="I166" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B167" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D167" t="s">
         <v>67</v>
       </c>
       <c r="E167" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F167">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H167" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I167" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B168" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D168" t="s">
         <v>67</v>
       </c>
       <c r="E168" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="F168">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H168" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B169" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D169" t="s">
         <v>67</v>
       </c>
       <c r="E169" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="F169">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G169" t="s">
@@ -6606,58 +6591,55 @@
       <c r="H169" t="s">
         <v>15</v>
       </c>
-      <c r="I169" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B170" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D170" t="s">
         <v>67</v>
       </c>
       <c r="E170" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="F170">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H170" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D171" t="s">
         <v>67</v>
       </c>
       <c r="E171" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="F171">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G171" t="s">
@@ -6667,15 +6649,15 @@
         <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C172" t="s">
         <v>96</v>
@@ -6684,10 +6666,10 @@
         <v>67</v>
       </c>
       <c r="E172" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F172">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G172" t="s">
@@ -6696,13 +6678,16 @@
       <c r="H172" t="s">
         <v>15</v>
       </c>
+      <c r="I172" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B173" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C173" t="s">
         <v>96</v>
@@ -6711,10 +6696,10 @@
         <v>67</v>
       </c>
       <c r="E173" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F173">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G173" t="s">
@@ -6724,15 +6709,15 @@
         <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C174" t="s">
         <v>96</v>
@@ -6741,28 +6726,28 @@
         <v>67</v>
       </c>
       <c r="E174" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F174">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H174" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I174" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B175" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C175" t="s">
         <v>96</v>
@@ -6771,28 +6756,28 @@
         <v>67</v>
       </c>
       <c r="E175" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F175">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df087f7801b9ca8b671eba159de9b6e7.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H175" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I175" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
         <v>96</v>
@@ -6801,28 +6786,28 @@
         <v>67</v>
       </c>
       <c r="E176" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F176">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H176" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I176" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B177" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C177" t="s">
         <v>96</v>
@@ -6831,604 +6816,589 @@
         <v>67</v>
       </c>
       <c r="E177" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F177">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H177" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="I177" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B178" t="s">
-        <v>213</v>
+        <v>411</v>
       </c>
       <c r="C178" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D178" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E178" t="s">
-        <v>214</v>
+        <v>412</v>
       </c>
       <c r="F178">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="H178" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>215</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="C179" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E179" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="F179">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H179" t="s">
-        <v>81</v>
-      </c>
-      <c r="I179" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B180" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="C180" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D180" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E180" t="s">
-        <v>220</v>
+        <v>416</v>
       </c>
       <c r="F180">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="H180" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>221</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
-        <v>222</v>
+        <v>418</v>
       </c>
       <c r="C181" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E181" t="s">
-        <v>223</v>
+        <v>419</v>
       </c>
       <c r="F181">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52ebeea7464b9fc011a92f21e65d6a7a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="H181" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>224</v>
+        <v>421</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
-        <v>225</v>
+        <v>422</v>
       </c>
       <c r="C182" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D182" t="s">
-        <v>67</v>
+        <v>423</v>
       </c>
       <c r="E182" t="s">
-        <v>226</v>
+        <v>424</v>
       </c>
       <c r="F182">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="H182" t="s">
-        <v>81</v>
-      </c>
-      <c r="I182" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B183" t="s">
-        <v>228</v>
+        <v>427</v>
       </c>
       <c r="C183" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D183" t="s">
-        <v>67</v>
+        <v>428</v>
       </c>
       <c r="E183" t="s">
-        <v>229</v>
+        <v>429</v>
       </c>
       <c r="F183">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d66b7d75af3d1ed4e83b2f15a51ca731.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="H183" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="I183" t="s">
-        <v>230</v>
+        <v>430</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B184" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C184" t="s">
         <v>18</v>
       </c>
       <c r="D184" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="E184" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="F184">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59152142-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H184" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="I184" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B185" t="s">
-        <v>29</v>
+        <v>434</v>
       </c>
       <c r="C185" t="s">
         <v>18</v>
       </c>
       <c r="D185" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="E185" t="s">
-        <v>31</v>
+        <v>435</v>
       </c>
       <c r="F185">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>425</v>
       </c>
       <c r="H185" t="s">
-        <v>33</v>
+        <v>426</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B186" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C186" t="s">
         <v>18</v>
       </c>
       <c r="D186" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="E186" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="F186">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b71c89e6003d19738e44474eaacf8ef0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H186" t="s">
-        <v>15</v>
-      </c>
-      <c r="I186" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B187" t="s">
+        <v>438</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="s">
+        <v>428</v>
+      </c>
+      <c r="E187" t="s">
+        <v>439</v>
+      </c>
+      <c r="F187">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
         <v>425</v>
       </c>
-      <c r="C187" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s">
-        <v>30</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="H187" t="s">
         <v>426</v>
-      </c>
-      <c r="F187">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G187" t="s">
-        <v>427</v>
-      </c>
-      <c r="H187" t="s">
-        <v>15</v>
-      </c>
-      <c r="I187" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C188" t="s">
         <v>18</v>
       </c>
       <c r="D188" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E188" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F188">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G188" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H188" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C189" t="s">
         <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E189" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="F189">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H189" t="s">
-        <v>433</v>
-      </c>
-      <c r="I189" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B190" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C190" t="s">
         <v>18</v>
       </c>
       <c r="D190" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E190" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F190">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H190" t="s">
-        <v>433</v>
-      </c>
-      <c r="I190" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B191" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C191" t="s">
         <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>435</v>
+        <v>313</v>
       </c>
       <c r="E191" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F191">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="H191" t="s">
-        <v>433</v>
+        <v>15</v>
+      </c>
+      <c r="I191" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B192" t="s">
-        <v>443</v>
+        <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D192" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="E192" t="s">
-        <v>444</v>
+        <v>13</v>
       </c>
       <c r="F192">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>432</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B193" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D193" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="E193" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F193">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="H193" t="s">
-        <v>433</v>
+        <v>15</v>
+      </c>
+      <c r="I193" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B194" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D194" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="E194" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F194">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="H194" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B195" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C195" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D195" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="E195" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F195">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="H195" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B196" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C196" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D196" t="s">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="E196" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F196">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="H196" t="s">
-        <v>433</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B197" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D197" t="s">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="E197" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F197">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>455</v>
+        <v>289</v>
       </c>
       <c r="H197" t="s">
         <v>15</v>
-      </c>
-      <c r="I197" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>462</v>
       </c>
       <c r="C198" t="s">
         <v>11</v>
@@ -7437,14 +7407,14 @@
         <v>30</v>
       </c>
       <c r="E198" t="s">
-        <v>13</v>
+        <v>463</v>
       </c>
       <c r="F198">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G198" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="H198" t="s">
         <v>15</v>
@@ -7452,40 +7422,37 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B199" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C199" t="s">
         <v>11</v>
       </c>
       <c r="D199" t="s">
-        <v>458</v>
+        <v>30</v>
       </c>
       <c r="E199" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F199">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>411</v>
+        <v>289</v>
       </c>
       <c r="H199" t="s">
         <v>15</v>
-      </c>
-      <c r="I199" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B200" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C200" t="s">
         <v>11</v>
@@ -7494,14 +7461,14 @@
         <v>30</v>
       </c>
       <c r="E200" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F200">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H200" t="s">
         <v>15</v>
@@ -7509,10 +7476,10 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C201" t="s">
         <v>11</v>
@@ -7521,14 +7488,14 @@
         <v>30</v>
       </c>
       <c r="E201" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F201">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H201" t="s">
         <v>15</v>
@@ -7536,10 +7503,10 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B202" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C202" t="s">
         <v>11</v>
@@ -7548,325 +7515,340 @@
         <v>30</v>
       </c>
       <c r="E202" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F202">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H202" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" t="s">
-        <v>284</v>
-      </c>
-      <c r="B203" t="s">
-        <v>467</v>
-      </c>
-      <c r="C203" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s">
-        <v>30</v>
-      </c>
-      <c r="E203" t="s">
-        <v>468</v>
-      </c>
-      <c r="F203">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G203" t="s">
-        <v>296</v>
-      </c>
-      <c r="H203" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>284</v>
+        <v>472</v>
       </c>
       <c r="B204" t="s">
-        <v>469</v>
+        <v>41</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D204" t="s">
         <v>30</v>
       </c>
       <c r="E204" t="s">
-        <v>470</v>
+        <v>42</v>
       </c>
       <c r="F204">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>296</v>
-      </c>
-      <c r="H204" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="I204" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>284</v>
+        <v>472</v>
       </c>
       <c r="B205" t="s">
-        <v>471</v>
+        <v>45</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D205" t="s">
         <v>30</v>
       </c>
       <c r="E205" t="s">
-        <v>472</v>
+        <v>46</v>
       </c>
       <c r="F205">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="H205" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="I205" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>284</v>
+        <v>472</v>
       </c>
       <c r="B206" t="s">
-        <v>473</v>
+        <v>49</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E206" t="s">
-        <v>474</v>
+        <v>51</v>
       </c>
       <c r="F206">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>296</v>
-      </c>
-      <c r="H206" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" t="s">
-        <v>284</v>
-      </c>
-      <c r="B207" t="s">
-        <v>475</v>
-      </c>
-      <c r="C207" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s">
-        <v>30</v>
-      </c>
-      <c r="E207" t="s">
-        <v>476</v>
-      </c>
-      <c r="F207">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G207" t="s">
-        <v>296</v>
-      </c>
-      <c r="H207" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="I206" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>284</v>
+        <v>473</v>
       </c>
       <c r="B208" t="s">
-        <v>477</v>
+        <v>54</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D208" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E208" t="s">
-        <v>478</v>
+        <v>268</v>
       </c>
       <c r="F208">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>296</v>
+        <v>57</v>
       </c>
       <c r="H208" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B210" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D210" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E210" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F210">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I210" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
-      <c r="A211" t="s">
-        <v>479</v>
-      </c>
-      <c r="B211" t="s">
-        <v>45</v>
-      </c>
-      <c r="C211" t="s">
-        <v>18</v>
-      </c>
-      <c r="D211" t="s">
-        <v>30</v>
-      </c>
-      <c r="E211" t="s">
-        <v>46</v>
-      </c>
-      <c r="F211">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G211" t="s">
-        <v>47</v>
-      </c>
-      <c r="H211" t="s">
-        <v>26</v>
-      </c>
-      <c r="I211" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
+        <v>475</v>
+      </c>
+      <c r="B212" t="s">
+        <v>476</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" t="s">
+        <v>477</v>
+      </c>
+      <c r="F212">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G212" t="s">
+        <v>310</v>
+      </c>
+      <c r="H212" t="s">
+        <v>15</v>
+      </c>
+      <c r="I212" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>475</v>
+      </c>
+      <c r="B213" t="s">
         <v>479</v>
       </c>
-      <c r="B212" t="s">
-        <v>49</v>
-      </c>
-      <c r="C212" t="s">
-        <v>18</v>
-      </c>
-      <c r="D212" t="s">
-        <v>50</v>
-      </c>
-      <c r="E212" t="s">
-        <v>51</v>
-      </c>
-      <c r="F212">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G212" t="s">
-        <v>52</v>
-      </c>
-      <c r="I212" t="s">
-        <v>53</v>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" t="s">
+        <v>480</v>
+      </c>
+      <c r="E213" t="s">
+        <v>481</v>
+      </c>
+      <c r="F213">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G213" t="s">
+        <v>482</v>
+      </c>
+      <c r="H213" t="s">
+        <v>15</v>
+      </c>
+      <c r="I213" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B214" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="C214" t="s">
         <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E214" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="F214">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="H214" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>475</v>
+      </c>
+      <c r="B215" t="s">
+        <v>230</v>
+      </c>
+      <c r="C215" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" t="s">
+        <v>30</v>
+      </c>
+      <c r="E215" t="s">
+        <v>231</v>
+      </c>
+      <c r="F215">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G215" t="s">
+        <v>232</v>
+      </c>
+      <c r="H215" t="s">
+        <v>15</v>
+      </c>
+      <c r="I215" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B216" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="C216" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E216" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="F216">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>52</v>
+        <v>236</v>
+      </c>
+      <c r="H216" t="s">
+        <v>15</v>
       </c>
       <c r="I216" t="s">
-        <v>53</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>475</v>
+      </c>
+      <c r="B217" t="s">
+        <v>484</v>
+      </c>
+      <c r="C217" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" t="s">
+        <v>30</v>
+      </c>
+      <c r="E217" t="s">
+        <v>485</v>
+      </c>
+      <c r="F217">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>486</v>
+      </c>
+      <c r="H217" t="s">
+        <v>15</v>
+      </c>
+      <c r="I217" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B218" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C218" t="s">
         <v>18</v>
@@ -7875,985 +7857,808 @@
         <v>30</v>
       </c>
       <c r="E218" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="F218">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>317</v>
+        <v>490</v>
       </c>
       <c r="H218" t="s">
         <v>15</v>
       </c>
       <c r="I218" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B219" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C219" t="s">
         <v>18</v>
       </c>
       <c r="D219" t="s">
-        <v>487</v>
+        <v>30</v>
       </c>
       <c r="E219" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="F219">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H219" t="s">
         <v>15</v>
       </c>
       <c r="I219" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B220" t="s">
-        <v>232</v>
+        <v>496</v>
       </c>
       <c r="C220" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D220" t="s">
         <v>30</v>
       </c>
       <c r="E220" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="F220">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>234</v>
+        <v>498</v>
       </c>
       <c r="H220" t="s">
         <v>15</v>
+      </c>
+      <c r="I220" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B221" t="s">
-        <v>235</v>
+        <v>500</v>
       </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D221" t="s">
-        <v>30</v>
+        <v>501</v>
       </c>
       <c r="E221" t="s">
-        <v>236</v>
+        <v>502</v>
       </c>
       <c r="F221">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="H221" t="s">
         <v>15</v>
       </c>
       <c r="I221" t="s">
-        <v>238</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B222" t="s">
-        <v>239</v>
+        <v>504</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D222" t="s">
-        <v>30</v>
+        <v>505</v>
       </c>
       <c r="E222" t="s">
-        <v>240</v>
+        <v>506</v>
       </c>
       <c r="F222">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="H222" t="s">
         <v>15</v>
       </c>
       <c r="I222" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B223" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D223" t="s">
-        <v>30</v>
+        <v>509</v>
       </c>
       <c r="E223" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="F223">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be3bec2766baa15a7d57b8c2689fdf3d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>493</v>
+        <v>352</v>
       </c>
       <c r="H223" t="s">
         <v>15</v>
       </c>
       <c r="I223" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B224" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="C224" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D224" t="s">
-        <v>30</v>
+        <v>513</v>
       </c>
       <c r="E224" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="F224">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f126552ec807a8280d6d43ed084f2fc9.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>497</v>
+        <v>352</v>
       </c>
       <c r="H224" t="s">
         <v>15</v>
       </c>
       <c r="I224" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B225" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D225" t="s">
-        <v>30</v>
+        <v>517</v>
       </c>
       <c r="E225" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="F225">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>501</v>
+        <v>352</v>
       </c>
       <c r="H225" t="s">
         <v>15</v>
       </c>
       <c r="I225" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B226" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="C226" t="s">
         <v>11</v>
       </c>
       <c r="D226" t="s">
-        <v>30</v>
+        <v>521</v>
       </c>
       <c r="E226" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="F226">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d6623215ad4c16c43b649e0c17ebad7e.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>505</v>
+        <v>352</v>
       </c>
       <c r="H226" t="s">
         <v>15</v>
       </c>
       <c r="I226" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B227" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="C227" t="s">
         <v>11</v>
       </c>
       <c r="D227" t="s">
-        <v>508</v>
+        <v>30</v>
       </c>
       <c r="E227" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="F227">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>359</v>
+        <v>526</v>
       </c>
       <c r="H227" t="s">
         <v>15</v>
-      </c>
-      <c r="I227" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B228" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="C228" t="s">
         <v>11</v>
       </c>
       <c r="D228" t="s">
-        <v>512</v>
+        <v>30</v>
       </c>
       <c r="E228" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="F228">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>359</v>
+        <v>529</v>
       </c>
       <c r="H228" t="s">
         <v>15</v>
-      </c>
-      <c r="I228" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B229" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="C229" t="s">
         <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>516</v>
+        <v>30</v>
       </c>
       <c r="E229" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F229">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H229" t="s">
         <v>15</v>
       </c>
       <c r="I229" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B230" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="C230" t="s">
         <v>11</v>
       </c>
       <c r="D230" t="s">
-        <v>520</v>
+        <v>30</v>
       </c>
       <c r="E230" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="F230">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H230" t="s">
         <v>15</v>
       </c>
       <c r="I230" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B231" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="C231" t="s">
         <v>11</v>
       </c>
       <c r="D231" t="s">
-        <v>524</v>
+        <v>30</v>
       </c>
       <c r="E231" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="F231">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H231" t="s">
         <v>15</v>
       </c>
       <c r="I231" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232" t="s">
-        <v>482</v>
-      </c>
-      <c r="B232" t="s">
-        <v>527</v>
-      </c>
-      <c r="C232" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s">
-        <v>528</v>
-      </c>
-      <c r="E232" t="s">
-        <v>529</v>
-      </c>
-      <c r="F232">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G232" t="s">
-        <v>359</v>
-      </c>
-      <c r="H232" t="s">
-        <v>15</v>
-      </c>
-      <c r="I232" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="B233" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D233" t="s">
         <v>30</v>
       </c>
       <c r="E233" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F233">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f7237f04672f809d49922d1b995f281f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="H233" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234" t="s">
-        <v>482</v>
-      </c>
-      <c r="B234" t="s">
-        <v>534</v>
-      </c>
-      <c r="C234" t="s">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s">
-        <v>30</v>
-      </c>
-      <c r="E234" t="s">
-        <v>535</v>
-      </c>
-      <c r="F234">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/640213ff812312e3ac8bf134f483ed0d.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G234" t="s">
-        <v>536</v>
-      </c>
-      <c r="H234" t="s">
-        <v>15</v>
+        <v>543</v>
+      </c>
+      <c r="I233" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="B235" t="s">
-        <v>537</v>
+        <v>49</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D235" t="s">
-        <v>30</v>
+        <v>546</v>
       </c>
       <c r="E235" t="s">
-        <v>538</v>
+        <v>51</v>
       </c>
       <c r="F235">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>359</v>
-      </c>
-      <c r="H235" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I235" t="s">
-        <v>539</v>
+        <v>53</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="B236" t="s">
-        <v>540</v>
+        <v>41</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D236" t="s">
-        <v>30</v>
+        <v>547</v>
       </c>
       <c r="E236" t="s">
-        <v>541</v>
+        <v>42</v>
       </c>
       <c r="F236">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>359</v>
-      </c>
-      <c r="H236" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I236" t="s">
-        <v>542</v>
+        <v>44</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="B237" t="s">
-        <v>543</v>
+        <v>45</v>
       </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D237" t="s">
-        <v>30</v>
+        <v>547</v>
       </c>
       <c r="E237" t="s">
-        <v>544</v>
+        <v>46</v>
       </c>
       <c r="F237">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>359</v>
+        <v>47</v>
       </c>
       <c r="H237" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I237" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
         <v>545</v>
+      </c>
+      <c r="B238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C238" t="s">
+        <v>18</v>
+      </c>
+      <c r="D238" t="s">
+        <v>547</v>
+      </c>
+      <c r="E238" t="s">
+        <v>20</v>
+      </c>
+      <c r="F238">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>21</v>
+      </c>
+      <c r="H238" t="s">
+        <v>22</v>
+      </c>
+      <c r="I238" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B239" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" t="s">
+        <v>18</v>
+      </c>
+      <c r="D239" t="s">
         <v>547</v>
       </c>
-      <c r="C239" t="s">
-        <v>18</v>
-      </c>
-      <c r="D239" t="s">
-        <v>30</v>
-      </c>
       <c r="E239" t="s">
-        <v>548</v>
+        <v>25</v>
       </c>
       <c r="F239">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>549</v>
+        <v>21</v>
       </c>
       <c r="H239" t="s">
-        <v>550</v>
+        <v>26</v>
       </c>
       <c r="I239" t="s">
-        <v>551</v>
+        <v>27</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" t="s">
+        <v>548</v>
+      </c>
+      <c r="B241" t="s">
+        <v>549</v>
+      </c>
+      <c r="C241" t="s">
+        <v>18</v>
+      </c>
+      <c r="D241" t="s">
+        <v>550</v>
+      </c>
+      <c r="E241" t="s">
+        <v>551</v>
+      </c>
+      <c r="F241">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4c69515bfc84c5cb5624e94228f58351.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>178</v>
+      </c>
+      <c r="H241" t="s">
+        <v>70</v>
+      </c>
+      <c r="I241" t="s">
         <v>552</v>
-      </c>
-      <c r="B241" t="s">
-        <v>49</v>
-      </c>
-      <c r="C241" t="s">
-        <v>18</v>
-      </c>
-      <c r="D241" t="s">
-        <v>553</v>
-      </c>
-      <c r="E241" t="s">
-        <v>51</v>
-      </c>
-      <c r="F241">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G241" t="s">
-        <v>52</v>
-      </c>
-      <c r="I241" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
-      <c r="A242" t="s">
-        <v>552</v>
-      </c>
-      <c r="B242" t="s">
-        <v>41</v>
-      </c>
-      <c r="C242" t="s">
-        <v>18</v>
-      </c>
-      <c r="D242" t="s">
-        <v>554</v>
-      </c>
-      <c r="E242" t="s">
-        <v>42</v>
-      </c>
-      <c r="F242">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/13484743dd3369c69df93379e6dafbb5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G242" t="s">
-        <v>43</v>
-      </c>
-      <c r="I242" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B243" t="s">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="C243" t="s">
         <v>18</v>
       </c>
       <c r="D243" t="s">
-        <v>554</v>
+        <v>313</v>
       </c>
       <c r="E243" t="s">
-        <v>46</v>
+        <v>447</v>
       </c>
       <c r="F243">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0062272a6a4176b8c32af87642b062c5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>448</v>
       </c>
       <c r="H243" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I243" t="s">
-        <v>48</v>
+        <v>449</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B244" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="C244" t="s">
         <v>18</v>
       </c>
       <c r="D244" t="s">
-        <v>554</v>
+        <v>313</v>
       </c>
       <c r="E244" t="s">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="F244">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="H244" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I244" t="s">
-        <v>23</v>
+        <v>315</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B245" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C245" t="s">
         <v>18</v>
       </c>
       <c r="D245" t="s">
-        <v>554</v>
+        <v>30</v>
       </c>
       <c r="E245" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F245">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H245" t="s">
-        <v>26</v>
-      </c>
-      <c r="I245" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" t="s">
+        <v>554</v>
+      </c>
+      <c r="B247" t="s">
         <v>555</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" t="s">
         <v>556</v>
       </c>
-      <c r="C247" t="s">
-        <v>18</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>557</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>63</v>
+      </c>
+      <c r="H247" t="s">
+        <v>58</v>
+      </c>
+      <c r="I247" t="s">
         <v>558</v>
       </c>
-      <c r="F247">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4c69515bfc84c5cb5624e94228f58351.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G247" t="s">
-        <v>170</v>
-      </c>
-      <c r="H247" t="s">
-        <v>70</v>
-      </c>
-      <c r="I247" t="s">
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>554</v>
+      </c>
+      <c r="B248" t="s">
         <v>559</v>
+      </c>
+      <c r="C248" t="s">
+        <v>18</v>
+      </c>
+      <c r="D248" t="s">
+        <v>556</v>
+      </c>
+      <c r="E248" t="s">
+        <v>560</v>
+      </c>
+      <c r="F248">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>63</v>
+      </c>
+      <c r="H248" t="s">
+        <v>58</v>
+      </c>
+      <c r="I248" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B249" t="s">
-        <v>453</v>
+        <v>263</v>
       </c>
       <c r="C249" t="s">
         <v>18</v>
       </c>
       <c r="D249" t="s">
-        <v>320</v>
+        <v>556</v>
       </c>
       <c r="E249" t="s">
-        <v>454</v>
+        <v>264</v>
       </c>
       <c r="F249">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914640a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>455</v>
+        <v>63</v>
       </c>
       <c r="H249" t="s">
-        <v>15</v>
-      </c>
-      <c r="I249" t="s">
-        <v>456</v>
+        <v>58</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B250" t="s">
-        <v>319</v>
+        <v>54</v>
       </c>
       <c r="C250" t="s">
         <v>18</v>
       </c>
       <c r="D250" t="s">
-        <v>320</v>
+        <v>556</v>
       </c>
       <c r="E250" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="F250">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="H250" t="s">
-        <v>15</v>
-      </c>
-      <c r="I250" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" t="s">
-        <v>560</v>
-      </c>
-      <c r="B251" t="s">
-        <v>29</v>
-      </c>
-      <c r="C251" t="s">
-        <v>18</v>
-      </c>
-      <c r="D251" t="s">
-        <v>30</v>
-      </c>
-      <c r="E251" t="s">
-        <v>31</v>
-      </c>
-      <c r="F251">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G251" t="s">
-        <v>32</v>
-      </c>
-      <c r="H251" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" t="s">
-        <v>561</v>
-      </c>
-      <c r="B253" t="s">
-        <v>562</v>
-      </c>
-      <c r="C253" t="s">
-        <v>18</v>
-      </c>
-      <c r="D253" t="s">
-        <v>563</v>
-      </c>
-      <c r="E253" t="s">
-        <v>564</v>
-      </c>
-      <c r="F253">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G253" t="s">
-        <v>63</v>
-      </c>
-      <c r="H253" t="s">
-        <v>58</v>
-      </c>
-      <c r="I253" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" t="s">
-        <v>561</v>
-      </c>
-      <c r="B254" t="s">
-        <v>566</v>
-      </c>
-      <c r="C254" t="s">
-        <v>18</v>
-      </c>
-      <c r="D254" t="s">
-        <v>563</v>
-      </c>
-      <c r="E254" t="s">
-        <v>567</v>
-      </c>
-      <c r="F254">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G254" t="s">
-        <v>63</v>
-      </c>
-      <c r="H254" t="s">
-        <v>58</v>
-      </c>
-      <c r="I254" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" t="s">
-        <v>561</v>
-      </c>
-      <c r="B255" t="s">
-        <v>268</v>
-      </c>
-      <c r="C255" t="s">
-        <v>18</v>
-      </c>
-      <c r="D255" t="s">
-        <v>563</v>
-      </c>
-      <c r="E255" t="s">
-        <v>269</v>
-      </c>
-      <c r="F255">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G255" t="s">
-        <v>63</v>
-      </c>
-      <c r="H255" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" t="s">
-        <v>561</v>
-      </c>
-      <c r="B256" t="s">
-        <v>54</v>
-      </c>
-      <c r="C256" t="s">
-        <v>18</v>
-      </c>
-      <c r="D256" t="s">
-        <v>563</v>
-      </c>
-      <c r="E256" t="s">
-        <v>273</v>
-      </c>
-      <c r="F256">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G256" t="s">
-        <v>57</v>
-      </c>
-      <c r="H256" t="s">
         <v>58</v>
       </c>
     </row>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="1171">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2014,6 +2014,21 @@
     <t xml:space="preserve">proposed name: photolysis_rate_of_ozone_to_O1D</t>
   </si>
   <si>
+    <t xml:space="preserve">pod0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytotoxic ozone dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in TM5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommi, Twan &amp; Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accumulated stomatal ozone flux over the threshold of 0 mol m-2 s-1; Computation: Time Integral of (hourly above canopy ozone concentration * stomatal conductance * Rc/(Rb+Rc) )</t>
+  </si>
+  <si>
     <t xml:space="preserve">reffclwtop</t>
   </si>
   <si>
@@ -3269,6 +3284,21 @@
   </si>
   <si>
     <t xml:space="preserve">proposed name: toa_instantaneous_longwave_forcing_due_to_ambient_aerosol_assuming_clear_sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od443dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical thickness at 443 nm Dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in TM5. Although it would be possible at a very near frequency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">od865dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical thickness at 865 nm Dust</t>
   </si>
   <si>
     <t xml:space="preserve">lwtoacsdust</t>
@@ -3622,10 +3652,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J474"/>
+  <dimension ref="A1:J477"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A450" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B473" activeCellId="0" sqref="469:474"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A453" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A472" activeCellId="0" sqref="472:477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11318,20 +11348,20 @@
         <v>665</v>
       </c>
       <c r="F249" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/83d1d066c3325c7402b6265eee068056.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c9a5b6b8-c5f0-11e6-ac20-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G249" s="0" t="s">
         <v>666</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>668</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11339,32 +11369,32 @@
         <v>608</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>571</v>
+        <v>669</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>572</v>
+        <v>670</v>
       </c>
       <c r="F250" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917483c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/83d1d066c3325c7402b6265eee068056.html","web")</f>
         <v>0</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="H250" s="0" t="s">
-        <v>188</v>
+        <v>620</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>574</v>
+        <v>672</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11372,7 +11402,7 @@
         <v>608</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C251" s="0" t="s">
         <v>20</v>
@@ -11381,10 +11411,10 @@
         <v>341</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F251" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59173c0c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917483c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G251" s="0" t="s">
@@ -11394,10 +11424,10 @@
         <v>188</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11405,185 +11435,188 @@
         <v>608</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>670</v>
+        <v>575</v>
       </c>
       <c r="C252" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D252" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="F252" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59173c0c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G252" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="H252" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I252" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="J252" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D253" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E252" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="F252" s="0" t="n">
+      <c r="E253" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F253" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c26eed24b27782de78cfab86e3d3b2d2.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G252" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="H252" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="I252" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="J252" s="0" t="s">
+      <c r="G253" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="H253" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="I253" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="J253" s="0" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D254" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F254" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/400e5707b65c01e31f2ec6a59dd3983b.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G254" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="H254" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="I254" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="J254" s="0" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>678</v>
+        <v>173</v>
       </c>
       <c r="C255" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>680</v>
+        <v>175</v>
       </c>
       <c r="F255" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/400e5707b65c01e31f2ec6a59dd3983b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G255" s="0" t="s">
-        <v>681</v>
+        <v>176</v>
       </c>
       <c r="H255" s="0" t="s">
         <v>177</v>
       </c>
       <c r="I255" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="J255" s="0" t="s">
         <v>682</v>
-      </c>
-      <c r="J255" s="0" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>179</v>
+        <v>683</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>394</v>
+        <v>685</v>
       </c>
       <c r="F256" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fa7666d61b92de5bad1ad76561b8b850.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G256" s="0" t="s">
-        <v>176</v>
+        <v>686</v>
       </c>
       <c r="H256" s="0" t="s">
         <v>177</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>182</v>
+        <v>687</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>162</v>
+        <v>682</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>684</v>
+        <v>179</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>686</v>
+        <v>394</v>
       </c>
       <c r="F257" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59139cfa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fa7666d61b92de5bad1ad76561b8b850.html","web")</f>
         <v>0</v>
       </c>
       <c r="G257" s="0" t="s">
-        <v>687</v>
+        <v>176</v>
       </c>
       <c r="H257" s="0" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="I257" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C258" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F258" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3f16-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59139cfa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H258" s="0" t="s">
         <v>188</v>
@@ -11594,65 +11627,62 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B259" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D259" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="C259" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D259" s="0" t="s">
-        <v>685</v>
-      </c>
       <c r="E259" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F259" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/af7306dc-a0da-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f3f16-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G259" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H259" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I259" s="0" t="s">
-        <v>692</v>
-      </c>
       <c r="J259" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C260" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F260" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afd8ba4a-a0da-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/af7306dc-a0da-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G260" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H260" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I260" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J260" s="0" t="s">
         <v>26</v>
@@ -11660,32 +11690,32 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C261" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F261" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b02eb8b4-a0da-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afd8ba4a-a0da-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G261" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H261" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="J261" s="0" t="s">
         <v>26</v>
@@ -11693,95 +11723,95 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C262" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F262" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b089240c-a0da-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b02eb8b4-a0da-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G262" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H262" s="0" t="s">
         <v>188</v>
       </c>
+      <c r="I262" s="0" t="s">
+        <v>704</v>
+      </c>
       <c r="J262" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C263" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F263" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3819950e-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b089240c-a0da-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G263" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H263" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I263" s="0" t="s">
-        <v>704</v>
-      </c>
       <c r="J263" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C264" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F264" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/386fb33a-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3819950e-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G264" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H264" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="J264" s="0" t="s">
         <v>26</v>
@@ -11789,26 +11819,26 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C265" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F265" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/38bd2912-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/386fb33a-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G265" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H265" s="0" t="s">
         <v>188</v>
@@ -11822,32 +11852,32 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C266" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F266" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3912bdc8-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/38bd2912-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G266" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H266" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J266" s="0" t="s">
         <v>26</v>
@@ -11855,32 +11885,32 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C267" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F267" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/398683d4-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3912bdc8-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G267" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H267" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="J267" s="0" t="s">
         <v>26</v>
@@ -11888,32 +11918,32 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C268" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F268" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/39d8c78e-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/398683d4-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G268" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H268" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="J268" s="0" t="s">
         <v>26</v>
@@ -11921,32 +11951,32 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C269" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F269" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea313ee8-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/39d8c78e-a0dc-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G269" s="0" t="s">
-        <v>241</v>
+        <v>692</v>
       </c>
       <c r="H269" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="J269" s="0" t="s">
         <v>26</v>
@@ -11954,22 +11984,22 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C270" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F270" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea83846e-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea313ee8-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G270" s="0" t="s">
@@ -11979,7 +12009,7 @@
         <v>188</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="J270" s="0" t="s">
         <v>26</v>
@@ -11987,32 +12017,32 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B271" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D271" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="C271" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D271" s="0" t="s">
-        <v>694</v>
-      </c>
       <c r="E271" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F271" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ead5a730-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ea83846e-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G271" s="0" t="s">
-        <v>687</v>
+        <v>241</v>
       </c>
       <c r="H271" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="J271" s="0" t="s">
         <v>26</v>
@@ -12020,32 +12050,32 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C272" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F272" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/eb28c564-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ead5a730-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G272" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H272" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="J272" s="0" t="s">
         <v>26</v>
@@ -12053,32 +12083,32 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C273" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F273" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/eb85339e-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/eb28c564-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G273" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H273" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="J273" s="0" t="s">
         <v>26</v>
@@ -12086,32 +12116,32 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C274" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F274" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebd63780-a0de-11e6-bc63-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/eb85339e-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G274" s="0" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H274" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="J274" s="0" t="s">
         <v>26</v>
@@ -12119,32 +12149,32 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>239</v>
+        <v>734</v>
       </c>
       <c r="C275" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>240</v>
+        <v>735</v>
       </c>
       <c r="F275" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/eb72b66b6365daed79aefeda9d3d30b5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebd63780-a0de-11e6-bc63-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G275" s="0" t="s">
-        <v>241</v>
+        <v>692</v>
       </c>
       <c r="H275" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I275" s="0" t="s">
-        <v>242</v>
+        <v>717</v>
       </c>
       <c r="J275" s="0" t="s">
         <v>26</v>
@@ -12152,22 +12182,22 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C276" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F276" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/38806cec3ba894d7745fada80c9f6fe6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/eb72b66b6365daed79aefeda9d3d30b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G276" s="0" t="s">
@@ -12177,7 +12207,7 @@
         <v>188</v>
       </c>
       <c r="I276" s="0" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J276" s="0" t="s">
         <v>26</v>
@@ -12185,76 +12215,76 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>591</v>
+        <v>246</v>
       </c>
       <c r="C277" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>651</v>
+        <v>247</v>
       </c>
       <c r="F277" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/38806cec3ba894d7745fada80c9f6fe6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G277" s="0" t="s">
-        <v>594</v>
+        <v>241</v>
       </c>
       <c r="H277" s="0" t="s">
-        <v>595</v>
+        <v>188</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>596</v>
+        <v>248</v>
       </c>
       <c r="J277" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D279" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="E279" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="F279" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917483c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G279" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="H279" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I279" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="J279" s="0" t="s">
-        <v>677</v>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="F278" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G278" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="H278" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="I278" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="J278" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C280" s="0" t="s">
         <v>108</v>
@@ -12263,10 +12293,10 @@
         <v>250</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F280" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59173c0c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917483c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G280" s="0" t="s">
@@ -12276,51 +12306,51 @@
         <v>188</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J280" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D281" s="0" t="s">
         <v>250</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F281" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170a02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59173c0c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G281" s="0" t="s">
-        <v>187</v>
+        <v>573</v>
       </c>
       <c r="H281" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="I281" s="0" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J281" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C282" s="0" t="s">
         <v>20</v>
@@ -12329,10 +12359,10 @@
         <v>250</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F282" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d86e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170a02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G282" s="0" t="s">
@@ -12342,18 +12372,18 @@
         <v>166</v>
       </c>
       <c r="I282" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J282" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C283" s="0" t="s">
         <v>20</v>
@@ -12362,10 +12392,10 @@
         <v>250</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F283" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d602-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d86e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G283" s="0" t="s">
@@ -12374,109 +12404,109 @@
       <c r="H283" s="0" t="s">
         <v>166</v>
       </c>
+      <c r="I283" s="0" t="s">
+        <v>581</v>
+      </c>
       <c r="J283" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B284" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d602-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G284" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H284" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J284" s="0" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="B285" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="C285" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D284" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="E284" s="0" t="s">
+      <c r="D285" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="E285" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F284" s="0" t="n">
+      <c r="F285" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6d790fe4caa7feff46a41ae7b3811e52.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G284" s="0" t="s">
+      <c r="G285" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="I284" s="0" t="s">
+      <c r="I285" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="J284" s="0" t="s">
+      <c r="J285" s="0" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="C286" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D286" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E286" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="F286" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/db3d77eebc6dc2fbcab4e0f894e46037.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G286" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="H286" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="I286" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="J286" s="0" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>735</v>
+        <v>630</v>
       </c>
       <c r="C287" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>736</v>
+        <v>145</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>737</v>
+        <v>631</v>
       </c>
       <c r="F287" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0cde14f7745a201d47b856579bf6e759.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/db3d77eebc6dc2fbcab4e0f894e46037.html","web")</f>
         <v>0</v>
       </c>
       <c r="G287" s="0" t="s">
-        <v>738</v>
+        <v>187</v>
       </c>
       <c r="H287" s="0" t="s">
-        <v>188</v>
+        <v>632</v>
       </c>
       <c r="I287" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="J287" s="0" t="s">
         <v>739</v>
-      </c>
-      <c r="J287" s="0" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B288" s="0" t="s">
         <v>740</v>
@@ -12485,46 +12515,46 @@
         <v>20</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F288" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc0bedbaf6d676fb85fe189310c871a8.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0cde14f7745a201d47b856579bf6e759.html","web")</f>
         <v>0</v>
       </c>
       <c r="G288" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H288" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I288" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J288" s="0" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C289" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E289" s="0" t="s">
         <v>746</v>
       </c>
       <c r="F289" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b1644981b0abd369ad35fac3fc930873.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc0bedbaf6d676fb85fe189310c871a8.html","web")</f>
         <v>0</v>
       </c>
       <c r="G289" s="0" t="s">
@@ -12537,57 +12567,60 @@
         <v>748</v>
       </c>
       <c r="J289" s="0" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B290" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="C290" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="C291" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D291" s="0" t="s">
+      <c r="E290" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="E291" s="0" t="s">
+      <c r="F290" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b1644981b0abd369ad35fac3fc930873.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G290" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="F291" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4fb426293126d528f2bbf902b6ede847.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G291" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H291" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="J291" s="0" t="s">
+      <c r="H290" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I290" s="0" t="s">
         <v>753</v>
+      </c>
+      <c r="J290" s="0" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C292" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F292" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1763f47c438dc252b1317c9861792f50.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4fb426293126d528f2bbf902b6ede847.html","web")</f>
         <v>0</v>
       </c>
       <c r="G292" s="0" t="s">
@@ -12597,27 +12630,27 @@
         <v>50</v>
       </c>
       <c r="J292" s="0" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C293" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F293" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d00cab8104f1a9e853ebfa511d725462.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1763f47c438dc252b1317c9861792f50.html","web")</f>
         <v>0</v>
       </c>
       <c r="G293" s="0" t="s">
@@ -12627,27 +12660,27 @@
         <v>50</v>
       </c>
       <c r="J293" s="0" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C294" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F294" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f94930c327a257dddea9ef9d0e260ed3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d00cab8104f1a9e853ebfa511d725462.html","web")</f>
         <v>0</v>
       </c>
       <c r="G294" s="0" t="s">
@@ -12657,27 +12690,27 @@
         <v>50</v>
       </c>
       <c r="J294" s="0" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C295" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F295" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62cb333ec6550e64596f563d114977af.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f94930c327a257dddea9ef9d0e260ed3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G295" s="0" t="s">
@@ -12687,114 +12720,111 @@
         <v>50</v>
       </c>
       <c r="J295" s="0" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="C297" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D297" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="E297" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>754</v>
+      </c>
+      <c r="B296" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="F297" s="0" t="n">
+      <c r="C296" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62cb333ec6550e64596f563d114977af.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H296" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J296" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="F298" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4c69515bfc84c5cb5624e94228f58351.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G297" s="0" t="s">
+      <c r="G298" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="H297" s="0" t="s">
+      <c r="H298" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I297" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="J297" s="0" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>769</v>
-      </c>
-      <c r="C299" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D299" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="E299" s="0" t="s">
+      <c r="I298" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="F299" s="0" t="n">
+      <c r="J298" s="0" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="F300" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917b704-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G299" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="H299" s="0" t="s">
+      <c r="G300" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="H300" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="I299" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="J299" s="0" t="s">
+      <c r="I300" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="J300" s="0" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="E301" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="F301" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G301" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="H301" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I301" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="J301" s="0" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>678</v>
+        <v>780</v>
       </c>
       <c r="C302" s="0" t="s">
         <v>20</v>
@@ -12803,64 +12833,64 @@
         <v>781</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>680</v>
+        <v>782</v>
       </c>
       <c r="F302" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G302" s="0" t="s">
-        <v>681</v>
+        <v>783</v>
       </c>
       <c r="H302" s="0" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I302" s="0" t="s">
-        <v>682</v>
+        <v>784</v>
       </c>
       <c r="J302" s="0" t="s">
-        <v>677</v>
+        <v>785</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>782</v>
+        <v>683</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>145</v>
+        <v>786</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>783</v>
+        <v>685</v>
       </c>
       <c r="F303" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ef7b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G303" s="0" t="s">
-        <v>784</v>
+        <v>686</v>
       </c>
       <c r="H303" s="0" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="I303" s="0" t="s">
-        <v>785</v>
+        <v>687</v>
       </c>
       <c r="J303" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>303</v>
+        <v>787</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>20</v>
@@ -12869,28 +12899,31 @@
         <v>145</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>304</v>
+        <v>788</v>
       </c>
       <c r="F304" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ef7b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G304" s="0" t="s">
-        <v>305</v>
+        <v>789</v>
       </c>
       <c r="H304" s="0" t="s">
-        <v>306</v>
+        <v>188</v>
+      </c>
+      <c r="I304" s="0" t="s">
+        <v>790</v>
       </c>
       <c r="J304" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>599</v>
+        <v>303</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>20</v>
@@ -12899,86 +12932,83 @@
         <v>145</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>600</v>
+        <v>304</v>
       </c>
       <c r="F305" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7553003ead183dd3276108b6311a337f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="G305" s="0" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
       <c r="H305" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="I305" s="0" t="s">
-        <v>601</v>
+        <v>306</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>786</v>
+        <v>682</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>787</v>
+        <v>599</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>788</v>
+        <v>145</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>789</v>
+        <v>600</v>
       </c>
       <c r="F306" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/170ff384-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7553003ead183dd3276108b6311a337f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G306" s="0" t="s">
-        <v>790</v>
+        <v>187</v>
       </c>
       <c r="H306" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I306" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="J306" s="0" t="s">
         <v>791</v>
-      </c>
-      <c r="I306" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="J306" s="0" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B307" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D307" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="E307" s="0" t="s">
         <v>794</v>
       </c>
       <c r="F307" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1758307c-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/170ff384-b622-11e6-bbe2-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G307" s="0" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="H307" s="0" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="I307" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="J307" s="0" t="s">
         <v>607</v>
@@ -12986,76 +13016,76 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B308" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="F308" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1758307c-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G308" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="H308" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="C308" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D308" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="E308" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="F308" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf56baca-c14c-11e6-bb6a-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G308" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="H308" s="0" t="s">
-        <v>791</v>
-      </c>
       <c r="I308" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J308" s="0" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="C310" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D310" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E310" s="0" t="s">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B309" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="F310" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G310" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="H310" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="I310" s="0" t="s">
+      <c r="C309" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="E309" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="J310" s="0" t="s">
-        <v>734</v>
+      <c r="F309" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf56baca-c14c-11e6-bb6a-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G309" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="H309" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="I309" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="J309" s="0" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C311" s="0" t="s">
         <v>20</v>
@@ -13064,10 +13094,10 @@
         <v>185</v>
       </c>
       <c r="E311" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F311" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G311" s="0" t="s">
@@ -13077,18 +13107,18 @@
         <v>595</v>
       </c>
       <c r="I311" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J311" s="0" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>645</v>
+        <v>808</v>
       </c>
       <c r="C312" s="0" t="s">
         <v>20</v>
@@ -13097,10 +13127,10 @@
         <v>185</v>
       </c>
       <c r="E312" s="0" t="s">
-        <v>646</v>
+        <v>809</v>
       </c>
       <c r="F312" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G312" s="0" t="s">
@@ -13110,18 +13140,18 @@
         <v>595</v>
       </c>
       <c r="I312" s="0" t="s">
-        <v>647</v>
+        <v>810</v>
       </c>
       <c r="J312" s="0" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>806</v>
+        <v>645</v>
       </c>
       <c r="C313" s="0" t="s">
         <v>20</v>
@@ -13130,31 +13160,31 @@
         <v>185</v>
       </c>
       <c r="E313" s="0" t="s">
-        <v>807</v>
+        <v>646</v>
       </c>
       <c r="F313" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e703d0fcbdd5f975485b3404a331ed91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G313" s="0" t="s">
-        <v>808</v>
+        <v>611</v>
       </c>
       <c r="H313" s="0" t="s">
-        <v>188</v>
+        <v>595</v>
       </c>
       <c r="I313" s="0" t="s">
-        <v>809</v>
+        <v>647</v>
       </c>
       <c r="J313" s="0" t="s">
-        <v>810</v>
+        <v>739</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>591</v>
+        <v>811</v>
       </c>
       <c r="C314" s="0" t="s">
         <v>20</v>
@@ -13163,223 +13193,226 @@
         <v>185</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>651</v>
+        <v>812</v>
       </c>
       <c r="F314" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e703d0fcbdd5f975485b3404a331ed91.html","web")</f>
         <v>0</v>
       </c>
       <c r="G314" s="0" t="s">
-        <v>594</v>
+        <v>813</v>
       </c>
       <c r="H314" s="0" t="s">
-        <v>595</v>
+        <v>188</v>
       </c>
       <c r="I314" s="0" t="s">
-        <v>596</v>
+        <v>814</v>
       </c>
       <c r="J314" s="0" t="s">
-        <v>734</v>
+        <v>815</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>811</v>
+        <v>591</v>
       </c>
       <c r="C315" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>812</v>
+        <v>185</v>
       </c>
       <c r="E315" s="0" t="s">
-        <v>813</v>
+        <v>651</v>
       </c>
       <c r="F315" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G315" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="H315" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="I315" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="J315" s="0" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="C316" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="F316" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/76248ae1d72c976495be67161d5a8d7d.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G315" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="H315" s="0" t="s">
+      <c r="G316" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="H316" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I315" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="J315" s="0" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="C317" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D317" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="E317" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="F317" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1aefc13bd27020244fe1cfd706ce1041.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G317" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="H317" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="I317" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="J317" s="0" t="s">
-        <v>677</v>
+      <c r="I316" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="J316" s="0" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C318" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="E318" s="0" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F318" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2cd1940e7201d5adb02ba157a74fc33e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1aefc13bd27020244fe1cfd706ce1041.html","web")</f>
         <v>0</v>
       </c>
       <c r="G318" s="0" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="H318" s="0" t="s">
-        <v>282</v>
+        <v>166</v>
+      </c>
+      <c r="I318" s="0" t="s">
+        <v>347</v>
       </c>
       <c r="J318" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>816</v>
+        <v>723</v>
       </c>
       <c r="E319" s="0" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="F319" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2cd1940e7201d5adb02ba157a74fc33e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G319" s="0" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="H319" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="I319" s="0" t="s">
-        <v>283</v>
-      </c>
       <c r="J319" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C320" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="E320" s="0" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F320" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
         <v>0</v>
       </c>
       <c r="G320" s="0" t="s">
         <v>281</v>
       </c>
       <c r="H320" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="I320" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="J320" s="0" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C321" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G321" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="H321" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="I320" s="0" t="s">
+      <c r="I321" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="J320" s="0" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D322" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E322" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="F322" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G322" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="H322" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J322" s="0" t="s">
-        <v>780</v>
+      <c r="J321" s="0" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C323" s="0" t="s">
         <v>20</v>
@@ -13388,31 +13421,28 @@
         <v>145</v>
       </c>
       <c r="E323" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F323" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G323" s="0" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="H323" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I323" s="0" t="s">
-        <v>824</v>
-      </c>
       <c r="J323" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C324" s="0" t="s">
         <v>20</v>
@@ -13421,31 +13451,31 @@
         <v>145</v>
       </c>
       <c r="E324" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F324" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G324" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H324" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I324" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="J324" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C325" s="0" t="s">
         <v>20</v>
@@ -13454,77 +13484,77 @@
         <v>145</v>
       </c>
       <c r="E325" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F325" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G325" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="H325" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I325" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="J325" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C326" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="F326" s="0" t="n">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d6e02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
-      <c r="G325" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="H325" s="0" t="s">
+      <c r="G326" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="H326" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="I325" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="J325" s="0" t="s">
+      <c r="I326" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="J326" s="0" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="E327" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="F327" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H327" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I327" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="J327" s="0" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>838</v>
+        <v>341</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F328" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G328" s="0" t="s">
-        <v>840</v>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H328" s="0" t="s">
         <v>16</v>
@@ -13533,27 +13563,27 @@
         <v>841</v>
       </c>
       <c r="J328" s="0" t="s">
-        <v>842</v>
+        <v>785</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B329" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D329" s="0" t="s">
         <v>843</v>
-      </c>
-      <c r="C329" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D329" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="E329" s="0" t="s">
         <v>844</v>
       </c>
       <c r="F329" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G329" s="0" t="s">
@@ -13571,7 +13601,7 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B330" s="0" t="s">
         <v>848</v>
@@ -13586,28 +13616,28 @@
         <v>849</v>
       </c>
       <c r="F330" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G330" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H330" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I330" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J330" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C331" s="0" t="s">
         <v>12</v>
@@ -13616,31 +13646,31 @@
         <v>145</v>
       </c>
       <c r="E331" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F331" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G331" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H331" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I331" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="J331" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>12</v>
@@ -13649,31 +13679,31 @@
         <v>145</v>
       </c>
       <c r="E332" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F332" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G332" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H332" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I332" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="J332" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>12</v>
@@ -13682,31 +13712,31 @@
         <v>145</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F333" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G333" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H333" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I333" s="0" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="J333" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C334" s="0" t="s">
         <v>12</v>
@@ -13715,31 +13745,31 @@
         <v>145</v>
       </c>
       <c r="E334" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F334" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G334" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H334" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I334" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="J334" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C335" s="0" t="s">
         <v>12</v>
@@ -13748,31 +13778,31 @@
         <v>145</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F335" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G335" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H335" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I335" s="0" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="J335" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C336" s="0" t="s">
         <v>12</v>
@@ -13781,28 +13811,31 @@
         <v>145</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F336" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G336" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H336" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I336" s="0" t="s">
+        <v>870</v>
+      </c>
       <c r="J336" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="C337" s="0" t="s">
         <v>12</v>
@@ -13811,193 +13844,190 @@
         <v>145</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F337" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G337" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H337" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J337" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C338" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="F338" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G338" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H338" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I338" s="0" t="s">
-        <v>872</v>
-      </c>
       <c r="J338" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="E339" s="0" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F339" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G339" s="0" t="s">
-        <v>778</v>
+        <v>850</v>
       </c>
       <c r="H339" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I339" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J339" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>775</v>
+        <v>878</v>
       </c>
       <c r="C340" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>776</v>
+        <v>145</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>777</v>
+        <v>879</v>
       </c>
       <c r="F340" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G340" s="0" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="H340" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I340" s="0" t="s">
-        <v>779</v>
+        <v>880</v>
       </c>
       <c r="J340" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>876</v>
+        <v>780</v>
       </c>
       <c r="C341" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>145</v>
+        <v>781</v>
       </c>
       <c r="E341" s="0" t="s">
-        <v>877</v>
+        <v>782</v>
       </c>
       <c r="F341" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G341" s="0" t="s">
-        <v>878</v>
+        <v>783</v>
       </c>
       <c r="H341" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I341" s="0" t="s">
-        <v>879</v>
+        <v>784</v>
       </c>
       <c r="J341" s="0" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D342" s="0" t="s">
         <v>145</v>
       </c>
       <c r="E342" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F342" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G342" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H342" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I342" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J342" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C343" s="0" t="s">
         <v>12</v>
@@ -14006,20 +14036,20 @@
         <v>145</v>
       </c>
       <c r="E343" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F343" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G343" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H343" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I343" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="J343" s="0" t="s">
         <v>847</v>
@@ -14027,10 +14057,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C344" s="0" t="s">
         <v>12</v>
@@ -14039,31 +14069,31 @@
         <v>145</v>
       </c>
       <c r="E344" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F344" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G344" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H344" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I344" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="J344" s="0" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C345" s="0" t="s">
         <v>12</v>
@@ -14072,31 +14102,31 @@
         <v>145</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F345" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G345" s="0" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="H345" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I345" s="0" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="J345" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C346" s="0" t="s">
         <v>12</v>
@@ -14105,31 +14135,31 @@
         <v>145</v>
       </c>
       <c r="E346" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="F346" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G346" s="0" t="s">
         <v>895</v>
-      </c>
-      <c r="F346" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G346" s="0" t="s">
-        <v>890</v>
       </c>
       <c r="H346" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I346" s="0" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="J346" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C347" s="0" t="s">
         <v>12</v>
@@ -14138,31 +14168,31 @@
         <v>145</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="F347" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G347" s="0" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="H347" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I347" s="0" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J347" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>12</v>
@@ -14171,31 +14201,31 @@
         <v>145</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F348" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G348" s="0" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="H348" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I348" s="0" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="J348" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C349" s="0" t="s">
         <v>12</v>
@@ -14204,31 +14234,31 @@
         <v>145</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F349" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G349" s="0" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="H349" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I349" s="0" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="J349" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C350" s="0" t="s">
         <v>12</v>
@@ -14237,31 +14267,31 @@
         <v>145</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="F350" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G350" s="0" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="H350" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I350" s="0" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J350" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C351" s="0" t="s">
         <v>12</v>
@@ -14270,31 +14300,31 @@
         <v>145</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F351" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G351" s="0" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="H351" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I351" s="0" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="J351" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C352" s="0" t="s">
         <v>12</v>
@@ -14303,80 +14333,80 @@
         <v>145</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F352" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G352" s="0" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="H352" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I352" s="0" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="J352" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C353" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>776</v>
+        <v>145</v>
       </c>
       <c r="E353" s="0" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F353" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G353" s="0" t="s">
-        <v>840</v>
+        <v>895</v>
       </c>
       <c r="H353" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I353" s="0" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J353" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C354" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>914</v>
+        <v>781</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F354" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G354" s="0" t="s">
-        <v>916</v>
+        <v>845</v>
       </c>
       <c r="H354" s="0" t="s">
         <v>16</v>
@@ -14385,12 +14415,12 @@
         <v>917</v>
       </c>
       <c r="J354" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>918</v>
@@ -14399,67 +14429,67 @@
         <v>12</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F355" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G355" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H355" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I355" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="J355" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C356" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>145</v>
+        <v>919</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="F356" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G356" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H356" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I356" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="J356" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C357" s="0" t="s">
         <v>12</v>
@@ -14468,31 +14498,31 @@
         <v>145</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F357" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G357" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H357" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I357" s="0" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="J357" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C358" s="0" t="s">
         <v>12</v>
@@ -14501,31 +14531,31 @@
         <v>145</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="F358" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G358" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H358" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I358" s="0" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="J358" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C359" s="0" t="s">
         <v>12</v>
@@ -14534,31 +14564,31 @@
         <v>145</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="F359" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G359" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H359" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I359" s="0" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="J359" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>12</v>
@@ -14567,31 +14597,31 @@
         <v>145</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F360" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G360" s="0" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="H360" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I360" s="0" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="J360" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>12</v>
@@ -14600,31 +14630,31 @@
         <v>145</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F361" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G361" s="0" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="H361" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I361" s="0" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="J361" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>12</v>
@@ -14633,31 +14663,31 @@
         <v>145</v>
       </c>
       <c r="E362" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G362" s="0" t="s">
         <v>937</v>
-      </c>
-      <c r="F362" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G362" s="0" t="s">
-        <v>938</v>
       </c>
       <c r="H362" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I362" s="0" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J362" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C363" s="0" t="s">
         <v>12</v>
@@ -14666,31 +14696,31 @@
         <v>145</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F363" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G363" s="0" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="H363" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I363" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J363" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C364" s="0" t="s">
         <v>12</v>
@@ -14699,31 +14729,31 @@
         <v>145</v>
       </c>
       <c r="E364" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F364" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G364" s="0" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="H364" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I364" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J364" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C365" s="0" t="s">
         <v>12</v>
@@ -14732,31 +14762,31 @@
         <v>145</v>
       </c>
       <c r="E365" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F365" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G365" s="0" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="H365" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I365" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="J365" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>12</v>
@@ -14765,31 +14795,31 @@
         <v>145</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F366" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G366" s="0" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="H366" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I366" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J366" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>12</v>
@@ -14798,31 +14828,31 @@
         <v>145</v>
       </c>
       <c r="E367" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="F367" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G367" s="0" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="H367" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I367" s="0" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C368" s="0" t="s">
         <v>12</v>
@@ -14831,20 +14861,20 @@
         <v>145</v>
       </c>
       <c r="E368" s="0" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F368" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G368" s="0" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H368" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I368" s="0" t="s">
-        <v>17</v>
+        <v>960</v>
       </c>
       <c r="J368" s="0" t="s">
         <v>847</v>
@@ -14852,10 +14882,10 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C369" s="0" t="s">
         <v>12</v>
@@ -14864,14 +14894,14 @@
         <v>145</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="F369" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G369" s="0" t="s">
-        <v>938</v>
+        <v>963</v>
       </c>
       <c r="H369" s="0" t="s">
         <v>16</v>
@@ -14880,15 +14910,15 @@
         <v>17</v>
       </c>
       <c r="J369" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C370" s="0" t="s">
         <v>12</v>
@@ -14897,14 +14927,14 @@
         <v>145</v>
       </c>
       <c r="E370" s="0" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="F370" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G370" s="0" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="H370" s="0" t="s">
         <v>16</v>
@@ -14913,15 +14943,15 @@
         <v>17</v>
       </c>
       <c r="J370" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C371" s="0" t="s">
         <v>12</v>
@@ -14930,14 +14960,14 @@
         <v>145</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F371" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G371" s="0" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="H371" s="0" t="s">
         <v>16</v>
@@ -14946,15 +14976,15 @@
         <v>17</v>
       </c>
       <c r="J371" s="0" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="C372" s="0" t="s">
         <v>12</v>
@@ -14963,28 +14993,31 @@
         <v>145</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="F372" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G372" s="0" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="H372" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I372" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="J372" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C373" s="0" t="s">
         <v>12</v>
@@ -14993,124 +15026,121 @@
         <v>145</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="F373" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G373" s="0" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="H373" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I373" s="0" t="s">
-        <v>971</v>
-      </c>
       <c r="J373" s="0" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>145</v>
       </c>
       <c r="E374" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="F374" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G374" s="0" t="s">
         <v>973</v>
-      </c>
-      <c r="F374" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G374" s="0" t="s">
-        <v>968</v>
       </c>
       <c r="H374" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I374" s="0" t="s">
+        <v>976</v>
+      </c>
       <c r="J374" s="0" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>145</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="F375" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G375" s="0" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="H375" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J375" s="0" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>107</v>
+        <v>979</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>109</v>
+        <v>980</v>
       </c>
       <c r="F376" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G376" s="0" t="s">
-        <v>94</v>
+        <v>973</v>
       </c>
       <c r="H376" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I376" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="J376" s="0" t="s">
-        <v>780</v>
+        <v>847</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C377" s="0" t="s">
         <v>108</v>
@@ -15119,31 +15149,31 @@
         <v>38</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F377" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G377" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H377" s="0" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I377" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J377" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C378" s="0" t="s">
         <v>108</v>
@@ -15152,10 +15182,10 @@
         <v>38</v>
       </c>
       <c r="E378" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F378" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G378" s="0" t="s">
@@ -15165,18 +15195,18 @@
         <v>88</v>
       </c>
       <c r="I378" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J378" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C379" s="0" t="s">
         <v>108</v>
@@ -15185,10 +15215,10 @@
         <v>38</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F379" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G379" s="0" t="s">
@@ -15198,18 +15228,18 @@
         <v>88</v>
       </c>
       <c r="I379" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J379" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C380" s="0" t="s">
         <v>108</v>
@@ -15218,64 +15248,64 @@
         <v>38</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F380" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G380" s="0" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H380" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I380" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J380" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F381" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G381" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H381" s="0" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I381" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="J381" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>12</v>
@@ -15284,10 +15314,10 @@
         <v>38</v>
       </c>
       <c r="E382" s="0" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F382" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
         <v>0</v>
       </c>
       <c r="G382" s="0" t="s">
@@ -15300,60 +15330,60 @@
         <v>89</v>
       </c>
       <c r="J382" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F383" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G383" s="0" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H383" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I383" s="0" t="s">
         <v>89</v>
       </c>
       <c r="J383" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F384" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G384" s="0" t="s">
@@ -15366,15 +15396,15 @@
         <v>89</v>
       </c>
       <c r="J384" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>12</v>
@@ -15383,10 +15413,10 @@
         <v>38</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F385" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G385" s="0" t="s">
@@ -15396,18 +15426,18 @@
         <v>16</v>
       </c>
       <c r="I385" s="0" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J385" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C386" s="0" t="s">
         <v>12</v>
@@ -15416,64 +15446,64 @@
         <v>38</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F386" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G386" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H386" s="0" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I386" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J386" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="F387" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G387" s="0" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H387" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I387" s="0" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="J387" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>20</v>
@@ -15482,31 +15512,31 @@
         <v>38</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F388" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
         <v>0</v>
       </c>
       <c r="G388" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H388" s="0" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I388" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J388" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C389" s="0" t="s">
         <v>20</v>
@@ -15515,43 +15545,43 @@
         <v>38</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F389" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G389" s="0" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H389" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I389" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J389" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>509</v>
+        <v>151</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E390" s="0" t="s">
-        <v>511</v>
+        <v>152</v>
       </c>
       <c r="F390" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G390" s="0" t="s">
@@ -15561,18 +15591,18 @@
         <v>16</v>
       </c>
       <c r="I390" s="0" t="s">
-        <v>512</v>
+        <v>153</v>
       </c>
       <c r="J390" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C391" s="0" t="s">
         <v>108</v>
@@ -15581,10 +15611,10 @@
         <v>38</v>
       </c>
       <c r="E391" s="0" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F391" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G391" s="0" t="s">
@@ -15594,18 +15624,18 @@
         <v>16</v>
       </c>
       <c r="I391" s="0" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J391" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>108</v>
@@ -15614,10 +15644,10 @@
         <v>38</v>
       </c>
       <c r="E392" s="0" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F392" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G392" s="0" t="s">
@@ -15627,18 +15657,18 @@
         <v>16</v>
       </c>
       <c r="I392" s="0" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J392" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>108</v>
@@ -15647,10 +15677,10 @@
         <v>38</v>
       </c>
       <c r="E393" s="0" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F393" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G393" s="0" t="s">
@@ -15660,18 +15690,18 @@
         <v>16</v>
       </c>
       <c r="I393" s="0" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J393" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>108</v>
@@ -15680,10 +15710,10 @@
         <v>38</v>
       </c>
       <c r="E394" s="0" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F394" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G394" s="0" t="s">
@@ -15693,18 +15723,18 @@
         <v>16</v>
       </c>
       <c r="I394" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J394" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>108</v>
@@ -15713,31 +15743,31 @@
         <v>38</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>124</v>
+        <v>526</v>
       </c>
       <c r="F395" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G395" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H395" s="0" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I395" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J395" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>108</v>
@@ -15746,10 +15776,10 @@
         <v>38</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>531</v>
+        <v>124</v>
       </c>
       <c r="F396" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G396" s="0" t="s">
@@ -15759,18 +15789,18 @@
         <v>88</v>
       </c>
       <c r="I396" s="0" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J396" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C397" s="0" t="s">
         <v>108</v>
@@ -15779,10 +15809,10 @@
         <v>38</v>
       </c>
       <c r="E397" s="0" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F397" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
         <v>0</v>
       </c>
       <c r="G397" s="0" t="s">
@@ -15792,18 +15822,18 @@
         <v>88</v>
       </c>
       <c r="I397" s="0" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J397" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>108</v>
@@ -15812,10 +15842,10 @@
         <v>38</v>
       </c>
       <c r="E398" s="0" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F398" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G398" s="0" t="s">
@@ -15825,84 +15855,84 @@
         <v>88</v>
       </c>
       <c r="I398" s="0" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="J398" s="0" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>678</v>
+        <v>538</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>781</v>
+        <v>38</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>680</v>
+        <v>539</v>
       </c>
       <c r="F399" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
         <v>0</v>
       </c>
       <c r="G399" s="0" t="s">
-        <v>681</v>
+        <v>87</v>
       </c>
       <c r="H399" s="0" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="I399" s="0" t="s">
-        <v>682</v>
+        <v>540</v>
       </c>
       <c r="J399" s="0" t="s">
-        <v>162</v>
+        <v>785</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>578</v>
+        <v>683</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>341</v>
+        <v>786</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>579</v>
+        <v>685</v>
       </c>
       <c r="F400" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170a02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G400" s="0" t="s">
-        <v>187</v>
+        <v>686</v>
       </c>
       <c r="H400" s="0" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="I400" s="0" t="s">
-        <v>579</v>
+        <v>687</v>
       </c>
       <c r="J400" s="0" t="s">
-        <v>677</v>
+        <v>162</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C401" s="0" t="s">
         <v>20</v>
@@ -15911,10 +15941,10 @@
         <v>341</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F401" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d86e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170a02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G401" s="0" t="s">
@@ -15924,18 +15954,18 @@
         <v>166</v>
       </c>
       <c r="I401" s="0" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J401" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>20</v>
@@ -15944,10 +15974,10 @@
         <v>341</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F402" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d602-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d86e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G402" s="0" t="s">
@@ -15956,49 +15986,49 @@
       <c r="H402" s="0" t="s">
         <v>166</v>
       </c>
+      <c r="I402" s="0" t="s">
+        <v>581</v>
+      </c>
       <c r="J402" s="0" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>207</v>
+        <v>582</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>592</v>
+        <v>341</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>208</v>
+        <v>583</v>
       </c>
       <c r="F403" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e85a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d602-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G403" s="0" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H403" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I403" s="0" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="J403" s="0" t="s">
-        <v>976</v>
+        <v>682</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>977</v>
+        <v>207</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>20</v>
@@ -16007,43 +16037,43 @@
         <v>592</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>978</v>
+        <v>208</v>
       </c>
       <c r="F404" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5d432c16b179052a4e94c63af356c67c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e85a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G404" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H404" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="I404" s="0" t="s">
-        <v>979</v>
+        <v>209</v>
       </c>
       <c r="J404" s="0" t="s">
-        <v>552</v>
+        <v>981</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>599</v>
+        <v>982</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>145</v>
+        <v>592</v>
       </c>
       <c r="E405" s="0" t="s">
-        <v>600</v>
+        <v>983</v>
       </c>
       <c r="F405" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7553003ead183dd3276108b6311a337f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5d432c16b179052a4e94c63af356c67c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G405" s="0" t="s">
@@ -16053,81 +16083,84 @@
         <v>166</v>
       </c>
       <c r="I405" s="0" t="s">
-        <v>601</v>
+        <v>984</v>
       </c>
       <c r="J405" s="0" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>203</v>
+        <v>599</v>
       </c>
       <c r="C406" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>592</v>
+        <v>145</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>204</v>
+        <v>600</v>
       </c>
       <c r="F406" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed5a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7553003ead183dd3276108b6311a337f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G406" s="0" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I406" s="0" t="s">
-        <v>206</v>
+        <v>601</v>
       </c>
       <c r="J406" s="0" t="s">
-        <v>976</v>
+        <v>602</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D407" s="0" t="s">
-        <v>145</v>
+        <v>592</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="F407" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed5a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G407" s="0" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="H407" s="0" t="s">
-        <v>306</v>
+        <v>188</v>
+      </c>
+      <c r="I407" s="0" t="s">
+        <v>206</v>
       </c>
       <c r="J407" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>782</v>
+        <v>303</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>20</v>
@@ -16136,391 +16169,388 @@
         <v>145</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>783</v>
+        <v>304</v>
       </c>
       <c r="F408" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ef7b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="G408" s="0" t="s">
-        <v>784</v>
+        <v>305</v>
       </c>
       <c r="H408" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I408" s="0" t="s">
-        <v>785</v>
+        <v>306</v>
       </c>
       <c r="J408" s="0" t="s">
-        <v>585</v>
+        <v>985</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>981</v>
+        <v>787</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>145</v>
       </c>
       <c r="E409" s="0" t="s">
-        <v>982</v>
+        <v>788</v>
       </c>
       <c r="F409" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ef7b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G409" s="0" t="s">
-        <v>983</v>
+        <v>789</v>
       </c>
       <c r="H409" s="0" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I409" s="0" t="s">
-        <v>984</v>
+        <v>790</v>
       </c>
       <c r="J409" s="0" t="s">
-        <v>985</v>
+        <v>585</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B410" s="0" t="s">
         <v>986</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D410" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E410" s="0" t="s">
         <v>987</v>
       </c>
-      <c r="E410" s="0" t="s">
+      <c r="F410" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G410" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="F410" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G410" s="0" t="s">
+      <c r="H410" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I410" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="H410" s="0" t="s">
+      <c r="J410" s="0" t="s">
         <v>990</v>
-      </c>
-      <c r="I410" s="0" t="s">
-        <v>991</v>
-      </c>
-      <c r="J410" s="0" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B411" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="E411" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="C411" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D411" s="0" t="s">
+      <c r="F411" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G411" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="E411" s="0" t="s">
+      <c r="H411" s="0" t="s">
         <v>995</v>
-      </c>
-      <c r="F411" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G411" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="H411" s="0" t="s">
-        <v>990</v>
       </c>
       <c r="I411" s="0" t="s">
         <v>996</v>
       </c>
       <c r="J411" s="0" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B412" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E412" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F412" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G412" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="H412" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="I412" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J412" s="0" t="s">
         <v>997</v>
-      </c>
-      <c r="C412" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D412" s="0" t="s">
-        <v>987</v>
-      </c>
-      <c r="E412" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="F412" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G412" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="H412" s="0" t="s">
-        <v>990</v>
-      </c>
-      <c r="I412" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="J412" s="0" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D413" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="E413" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F413" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G413" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="E413" s="0" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F413" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G413" s="0" t="s">
-        <v>989</v>
-      </c>
       <c r="H413" s="0" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="I413" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="J413" s="0" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D414" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F414" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G414" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="E414" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F414" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G414" s="0" t="s">
-        <v>989</v>
-      </c>
       <c r="H414" s="0" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="I414" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="J414" s="0" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C415" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D415" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E415" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F415" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G415" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="E415" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F415" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G415" s="0" t="s">
-        <v>989</v>
-      </c>
       <c r="H415" s="0" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="I415" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="J415" s="0" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="C416" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D416" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F416" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G416" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="E416" s="0" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F416" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G416" s="0" t="s">
-        <v>989</v>
-      </c>
       <c r="H416" s="0" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="I416" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="J416" s="0" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D417" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F417" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G417" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="E417" s="0" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F417" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G417" s="0" t="s">
-        <v>989</v>
-      </c>
       <c r="H417" s="0" t="s">
-        <v>990</v>
+        <v>995</v>
+      </c>
+      <c r="I417" s="0" t="s">
+        <v>1016</v>
       </c>
       <c r="J417" s="0" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C418" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D418" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="E418" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F418" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G418" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="E418" s="0" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F418" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G418" s="0" t="s">
-        <v>989</v>
-      </c>
       <c r="H418" s="0" t="s">
-        <v>990</v>
-      </c>
-      <c r="I418" s="0" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="J418" s="0" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>145</v>
+        <v>999</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="F419" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4408-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G419" s="0" t="s">
-        <v>808</v>
+        <v>994</v>
       </c>
       <c r="H419" s="0" t="s">
-        <v>188</v>
+        <v>995</v>
       </c>
       <c r="I419" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="J419" s="0" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>20</v>
@@ -16529,31 +16559,31 @@
         <v>145</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F420" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591763b2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4408-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G420" s="0" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H420" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I420" s="0" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="J420" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>20</v>
@@ -16562,31 +16592,31 @@
         <v>145</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="F421" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e105a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591763b2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G421" s="0" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H421" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I421" s="0" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="J421" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>20</v>
@@ -16595,31 +16625,31 @@
         <v>145</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="F422" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912fb88-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e105a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G422" s="0" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H422" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I422" s="0" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="J422" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C423" s="0" t="s">
         <v>20</v>
@@ -16628,31 +16658,31 @@
         <v>145</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="F423" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f10b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912fb88-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G423" s="0" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H423" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I423" s="0" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="J423" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C424" s="0" t="s">
         <v>20</v>
@@ -16661,64 +16691,64 @@
         <v>145</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="F424" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591401a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f10b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G424" s="0" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H424" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I424" s="0" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="J424" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C425" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D425" s="0" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F425" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d4440-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591401a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G425" s="0" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H425" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I425" s="0" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="J425" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C426" s="0" t="s">
         <v>20</v>
@@ -16727,31 +16757,31 @@
         <v>341</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="F426" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f7e72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d4440-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G426" s="0" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H426" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I426" s="0" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="J426" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C427" s="0" t="s">
         <v>20</v>
@@ -16760,163 +16790,163 @@
         <v>341</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F427" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914fd52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f7e72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G427" s="0" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H427" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I427" s="0" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="J427" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C428" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="F428" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca539fe3d21e4555ac39018c99b357d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914fd52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G428" s="0" t="s">
-        <v>1039</v>
+        <v>813</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="I428" s="0" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="J428" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>11</v>
+        <v>1042</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D429" s="0" t="s">
         <v>145</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>14</v>
+        <v>1043</v>
       </c>
       <c r="F429" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca539fe3d21e4555ac39018c99b357d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G429" s="0" t="s">
-        <v>15</v>
+        <v>1044</v>
       </c>
       <c r="H429" s="0" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I429" s="0" t="s">
-        <v>17</v>
+        <v>1045</v>
       </c>
       <c r="J429" s="0" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1042</v>
+        <v>11</v>
       </c>
       <c r="C430" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>1043</v>
+        <v>145</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>1044</v>
+        <v>14</v>
       </c>
       <c r="F430" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G430" s="0" t="s">
-        <v>968</v>
+        <v>15</v>
       </c>
       <c r="H430" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I430" s="0" t="s">
-        <v>1045</v>
+        <v>17</v>
       </c>
       <c r="J430" s="0" t="s">
-        <v>847</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C431" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>145</v>
+        <v>1048</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F431" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G431" s="0" t="s">
-        <v>845</v>
+        <v>973</v>
       </c>
       <c r="H431" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I431" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="J431" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C432" s="0" t="s">
         <v>12</v>
@@ -16925,28 +16955,31 @@
         <v>145</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="F432" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G432" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H432" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I432" s="0" t="s">
+        <v>1053</v>
+      </c>
       <c r="J432" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>12</v>
@@ -16955,28 +16988,28 @@
         <v>145</v>
       </c>
       <c r="E433" s="0" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="F433" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G433" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H433" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J433" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C434" s="0" t="s">
         <v>12</v>
@@ -16985,28 +17018,28 @@
         <v>145</v>
       </c>
       <c r="E434" s="0" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="F434" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G434" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H434" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J434" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C435" s="0" t="s">
         <v>12</v>
@@ -17015,28 +17048,28 @@
         <v>145</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="F435" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G435" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H435" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J435" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C436" s="0" t="s">
         <v>12</v>
@@ -17045,28 +17078,28 @@
         <v>145</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="F436" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G436" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H436" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J436" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C437" s="0" t="s">
         <v>12</v>
@@ -17075,28 +17108,28 @@
         <v>145</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="F437" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G437" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H437" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J437" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="C438" s="0" t="s">
         <v>12</v>
@@ -17105,28 +17138,28 @@
         <v>145</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="F438" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G438" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H438" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J438" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C439" s="0" t="s">
         <v>12</v>
@@ -17135,97 +17168,94 @@
         <v>145</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="F439" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G439" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="H439" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I439" s="0" t="s">
-        <v>1065</v>
-      </c>
       <c r="J439" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D440" s="0" t="s">
-        <v>657</v>
+        <v>145</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="F440" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914cf30-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G440" s="0" t="s">
-        <v>1068</v>
+        <v>850</v>
       </c>
       <c r="H440" s="0" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="J440" s="0" t="s">
-        <v>1020</v>
+        <v>852</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C441" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>145</v>
+        <v>657</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F441" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/332db812bf06c7af2de1b9d1e0cf58c9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914cf30-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G441" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H441" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="J441" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C442" s="0" t="s">
         <v>20</v>
@@ -17234,31 +17264,31 @@
         <v>145</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F442" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4cabf9607859a83bcb3bc00fa8d0698c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/332db812bf06c7af2de1b9d1e0cf58c9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G442" s="0" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="H442" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="J442" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C443" s="0" t="s">
         <v>20</v>
@@ -17267,31 +17297,31 @@
         <v>145</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F443" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f9f66ff437154f86913937f9e2d9a26d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4cabf9607859a83bcb3bc00fa8d0698c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G443" s="0" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="H443" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I443" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="J443" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C444" s="0" t="s">
         <v>20</v>
@@ -17300,31 +17330,31 @@
         <v>145</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="F444" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab57604d6acd918c08aa6252145c608e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f9f66ff437154f86913937f9e2d9a26d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G444" s="0" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="H444" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I444" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="J444" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="C445" s="0" t="s">
         <v>20</v>
@@ -17333,31 +17363,31 @@
         <v>145</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="F445" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59134bf6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab57604d6acd918c08aa6252145c608e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G445" s="0" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="H445" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="J445" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C446" s="0" t="s">
         <v>20</v>
@@ -17366,31 +17396,31 @@
         <v>145</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="F446" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cf46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130948-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G446" s="0" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="H446" s="0" t="s">
-        <v>188</v>
+        <v>667</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="J446" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C447" s="0" t="s">
         <v>20</v>
@@ -17399,31 +17429,31 @@
         <v>145</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="F447" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f465a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c0ee-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G447" s="0" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="H447" s="0" t="s">
-        <v>188</v>
+        <v>667</v>
       </c>
       <c r="I447" s="0" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="J447" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="C448" s="0" t="s">
         <v>20</v>
@@ -17432,31 +17462,31 @@
         <v>145</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="F448" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591497a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59134bf6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G448" s="0" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="H448" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I448" s="0" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="J448" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="C449" s="0" t="s">
         <v>20</v>
@@ -17465,226 +17495,229 @@
         <v>145</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="F449" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ede4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cf46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G449" s="0" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="H449" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="J449" s="0" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>787</v>
+        <v>1097</v>
       </c>
       <c r="C450" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D450" s="0" t="s">
-        <v>788</v>
+        <v>145</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>789</v>
+        <v>1098</v>
       </c>
       <c r="F450" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/170ff384-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f465a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G450" s="0" t="s">
-        <v>790</v>
+        <v>1077</v>
       </c>
       <c r="H450" s="0" t="s">
-        <v>791</v>
+        <v>188</v>
       </c>
       <c r="I450" s="0" t="s">
-        <v>792</v>
+        <v>1074</v>
       </c>
       <c r="J450" s="0" t="s">
-        <v>607</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>793</v>
+        <v>1099</v>
       </c>
       <c r="C451" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>788</v>
+        <v>145</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>794</v>
+        <v>1100</v>
       </c>
       <c r="F451" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1758307c-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591497a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G451" s="0" t="s">
-        <v>790</v>
+        <v>1077</v>
       </c>
       <c r="H451" s="0" t="s">
-        <v>791</v>
+        <v>188</v>
       </c>
       <c r="I451" s="0" t="s">
-        <v>795</v>
+        <v>1074</v>
       </c>
       <c r="J451" s="0" t="s">
-        <v>607</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B452" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C452" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D452" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E452" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F452" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ede4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G452" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H452" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="I452" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J452" s="0" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="F453" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/170ff384-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G453" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="H453" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="C452" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D452" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="E452" s="0" t="s">
+      <c r="I453" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="F452" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf56baca-c14c-11e6-bb6a-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G452" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="H452" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="I452" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="J452" s="0" t="s">
+      <c r="J453" s="0" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>1093</v>
+        <v>838</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>1094</v>
+        <v>798</v>
       </c>
       <c r="C454" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D454" s="0" t="s">
-        <v>145</v>
+        <v>793</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>1095</v>
+        <v>799</v>
       </c>
       <c r="F454" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1758307c-b622-11e6-bbe2-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G454" s="0" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="H454" s="0" t="s">
-        <v>16</v>
+        <v>796</v>
       </c>
       <c r="I454" s="0" t="s">
-        <v>1096</v>
+        <v>800</v>
       </c>
       <c r="J454" s="0" t="s">
-        <v>1097</v>
+        <v>607</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>1093</v>
+        <v>838</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>1098</v>
+        <v>801</v>
       </c>
       <c r="C455" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>1099</v>
+        <v>793</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>1100</v>
+        <v>802</v>
       </c>
       <c r="F455" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf56baca-c14c-11e6-bb6a-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G455" s="0" t="s">
-        <v>1101</v>
+        <v>795</v>
       </c>
       <c r="H455" s="0" t="s">
-        <v>16</v>
+        <v>796</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>1102</v>
+        <v>803</v>
       </c>
       <c r="J455" s="0" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="C456" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D456" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="E456" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="F456" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G456" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="H456" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J456" s="0" t="s">
-        <v>1104</v>
+        <v>607</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>821</v>
+        <v>1104</v>
       </c>
       <c r="C457" s="0" t="s">
         <v>20</v>
@@ -17693,64 +17726,64 @@
         <v>145</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>822</v>
+        <v>1105</v>
       </c>
       <c r="F457" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G457" s="0" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
       <c r="H457" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>824</v>
+        <v>1106</v>
       </c>
       <c r="J457" s="0" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>825</v>
+        <v>1108</v>
       </c>
       <c r="C458" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D458" s="0" t="s">
-        <v>145</v>
+        <v>1109</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>826</v>
+        <v>1110</v>
       </c>
       <c r="F458" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G458" s="0" t="s">
-        <v>827</v>
+        <v>1111</v>
       </c>
       <c r="H458" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I458" s="0" t="s">
-        <v>828</v>
+        <v>1112</v>
       </c>
       <c r="J458" s="0" t="s">
-        <v>1104</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>1105</v>
+        <v>823</v>
       </c>
       <c r="C459" s="0" t="s">
         <v>20</v>
@@ -17759,53 +17792,50 @@
         <v>145</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>1106</v>
+        <v>824</v>
       </c>
       <c r="F459" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G459" s="0" t="s">
-        <v>1107</v>
+        <v>825</v>
       </c>
       <c r="H459" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I459" s="0" t="s">
-        <v>1108</v>
-      </c>
       <c r="J459" s="0" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>1110</v>
+        <v>826</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D460" s="0" t="s">
-        <v>1111</v>
+        <v>145</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>1112</v>
+        <v>827</v>
       </c>
       <c r="F460" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G460" s="0" t="s">
-        <v>916</v>
+        <v>828</v>
       </c>
       <c r="H460" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I460" s="0" t="s">
-        <v>1113</v>
+        <v>829</v>
       </c>
       <c r="J460" s="0" t="s">
         <v>1114</v>
@@ -17813,32 +17843,32 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>1115</v>
+        <v>830</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>1116</v>
+        <v>145</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>1117</v>
+        <v>831</v>
       </c>
       <c r="F461" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>0</v>
       </c>
       <c r="G461" s="0" t="s">
-        <v>916</v>
+        <v>832</v>
       </c>
       <c r="H461" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I461" s="0" t="s">
-        <v>1118</v>
+        <v>833</v>
       </c>
       <c r="J461" s="0" t="s">
         <v>1114</v>
@@ -17846,224 +17876,224 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D462" s="0" t="s">
-        <v>1120</v>
+        <v>145</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F462" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="G462" s="0" t="s">
-        <v>916</v>
+        <v>1117</v>
       </c>
       <c r="H462" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I462" s="0" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="J462" s="0" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C463" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D463" s="0" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F463" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
         <v>0</v>
       </c>
       <c r="G463" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H463" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="J463" s="0" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C464" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D464" s="0" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F464" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G464" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H464" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I464" s="0" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J464" s="0" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C465" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F465" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G465" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H465" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="J465" s="0" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C466" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D466" s="0" t="s">
-        <v>145</v>
+        <v>1134</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F466" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
         <v>0</v>
       </c>
       <c r="G466" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H466" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="J466" s="0" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C467" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>145</v>
+        <v>1138</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F467" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
         <v>0</v>
       </c>
       <c r="G467" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H467" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="J467" s="0" t="s">
-        <v>1114</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D468" s="0" t="s">
-        <v>145</v>
+        <v>1143</v>
       </c>
       <c r="E468" s="0" t="s">
         <v>1144</v>
       </c>
       <c r="F468" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G468" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="H468" s="0" t="s">
         <v>16</v>
@@ -18072,109 +18102,208 @@
         <v>1145</v>
       </c>
       <c r="J468" s="0" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F469" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G469" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="H469" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I469" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J469" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F470" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G470" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="H470" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I470" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J470" s="0" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>1146</v>
+        <v>1103</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D471" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E471" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F471" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G471" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="H471" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I471" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J471" s="0" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D474" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E471" s="0" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F471" s="0" t="str">
+      <c r="E474" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F474" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
         <v>web</v>
       </c>
-      <c r="G471" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H471" s="0" t="s">
+      <c r="G474" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H474" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="I471" s="0" t="s">
-        <v>1150</v>
-      </c>
-      <c r="J471" s="0" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C473" s="0" t="s">
+      <c r="I474" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J474" s="0" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C476" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D473" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E473" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F473" s="0" t="str">
+      <c r="D476" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E476" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F476" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="G473" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H473" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I473" s="0" t="s">
+      <c r="G476" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H476" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I476" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="J473" s="0" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C474" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D474" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E474" s="0" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F474" s="0" t="str">
+      <c r="J476" s="0" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D477" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F477" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
         <v>web</v>
       </c>
-      <c r="G474" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H474" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I474" s="0" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J474" s="0" t="s">
-        <v>1151</v>
+      <c r="G477" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H477" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I477" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J477" s="0" t="s">
+        <v>1161</v>
       </c>
     </row>
   </sheetData>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="1221">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -2579,6 +2579,21 @@
   </si>
   <si>
     <t xml:space="preserve">minimum near-surface (usually, 2 meter) relative humidity (add cell_method attribute 'time: min')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bare soil evaporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in LPJ-GUESS. LPJ-GUESS doesn't seperate between cover and bare soil - not possibe to calculate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS3MIP</t>
   </si>
   <si>
     <t xml:space="preserve">AERmonZ</t>
@@ -3791,10 +3806,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J491"/>
+  <dimension ref="A1:J493"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="89:101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A326" activeCellId="0" sqref="326:326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3807,7 +3822,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
@@ -13639,76 +13654,39 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="B326" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="C326" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E326" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="C326" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D326" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="E326" s="0" t="s">
+      <c r="F326" s="0" t="s">
         <v>855</v>
       </c>
-      <c r="F326" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
       <c r="G326" s="0" t="s">
-        <v>671</v>
+        <v>856</v>
       </c>
       <c r="H326" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="I326" s="0" t="s">
-        <v>856</v>
+        <v>16</v>
       </c>
       <c r="J326" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="B327" s="0" t="s">
         <v>857</v>
-      </c>
-      <c r="C327" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D327" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="E327" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="F327" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G327" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="H327" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="I327" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="J327" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>699</v>
+        <v>859</v>
       </c>
       <c r="C328" s="0" t="s">
         <v>20</v>
@@ -13717,10 +13695,10 @@
         <v>192</v>
       </c>
       <c r="E328" s="0" t="s">
-        <v>700</v>
+        <v>860</v>
       </c>
       <c r="F328" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96a44ea6-b096-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G328" s="0" t="s">
@@ -13730,7 +13708,7 @@
         <v>316</v>
       </c>
       <c r="I328" s="0" t="s">
-        <v>701</v>
+        <v>861</v>
       </c>
       <c r="J328" s="0" t="s">
         <v>42</v>
@@ -13738,10 +13716,10 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C329" s="0" t="s">
         <v>20</v>
@@ -13750,31 +13728,31 @@
         <v>192</v>
       </c>
       <c r="E329" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F329" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e703d0fcbdd5f975485b3404a331ed91.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/afef6490-b096-11e6-aab6-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G329" s="0" t="s">
-        <v>862</v>
+        <v>671</v>
       </c>
       <c r="H329" s="0" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="I329" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J329" s="0" t="s">
-        <v>864</v>
+        <v>42</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="C330" s="0" t="s">
         <v>20</v>
@@ -13783,20 +13761,20 @@
         <v>192</v>
       </c>
       <c r="E330" s="0" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F330" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc8f92a2635774d636748ec8007c4bab.html","web")</f>
         <v>0</v>
       </c>
       <c r="G330" s="0" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="H330" s="0" t="s">
         <v>316</v>
       </c>
       <c r="I330" s="0" t="s">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="J330" s="0" t="s">
         <v>42</v>
@@ -13804,7 +13782,7 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>865</v>
@@ -13813,17 +13791,17 @@
         <v>20</v>
       </c>
       <c r="D331" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E331" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="E331" s="0" t="s">
+      <c r="F331" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e703d0fcbdd5f975485b3404a331ed91.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G331" s="0" t="s">
         <v>867</v>
-      </c>
-      <c r="F331" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/76248ae1d72c976495be67161d5a8d7d.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G331" s="0" t="s">
-        <v>801</v>
       </c>
       <c r="H331" s="0" t="s">
         <v>24</v>
@@ -13832,100 +13810,103 @@
         <v>868</v>
       </c>
       <c r="J331" s="0" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="F332" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/942125e5a461fef57b1477b9a2bd5fa0.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G332" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="H332" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="I332" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="J332" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>396</v>
+        <v>870</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>773</v>
+        <v>871</v>
       </c>
       <c r="E333" s="0" t="s">
-        <v>397</v>
+        <v>872</v>
       </c>
       <c r="F333" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1aefc13bd27020244fe1cfd706ce1041.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/76248ae1d72c976495be67161d5a8d7d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G333" s="0" t="s">
-        <v>194</v>
+        <v>801</v>
       </c>
       <c r="H333" s="0" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="I333" s="0" t="s">
-        <v>398</v>
+        <v>873</v>
       </c>
       <c r="J333" s="0" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="C334" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D334" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="E334" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="F334" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2cd1940e7201d5adb02ba157a74fc33e.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G334" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="H334" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="J334" s="0" t="s">
-        <v>732</v>
+        <v>42</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>870</v>
+        <v>773</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="F335" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1aefc13bd27020244fe1cfd706ce1041.html","web")</f>
         <v>0</v>
       </c>
       <c r="G335" s="0" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="H335" s="0" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="I335" s="0" t="s">
-        <v>289</v>
+        <v>398</v>
       </c>
       <c r="J335" s="0" t="s">
         <v>732</v>
@@ -13933,106 +13914,106 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>870</v>
+        <v>773</v>
       </c>
       <c r="E336" s="0" t="s">
-        <v>291</v>
+        <v>400</v>
       </c>
       <c r="F336" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2cd1940e7201d5adb02ba157a74fc33e.html","web")</f>
         <v>0</v>
       </c>
       <c r="G336" s="0" t="s">
-        <v>287</v>
+        <v>401</v>
       </c>
       <c r="H336" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="I336" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J336" s="0" t="s">
         <v>732</v>
       </c>
     </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F337" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/29fae9ea0f236a3eb144026e1bafde28.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G337" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="H337" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="I337" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="J337" s="0" t="s">
+        <v>732</v>
+      </c>
+    </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>872</v>
+        <v>290</v>
       </c>
       <c r="C338" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>152</v>
+        <v>875</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>873</v>
+        <v>291</v>
       </c>
       <c r="F338" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8de0f30b91b15720398fc10fd712a182.html","web")</f>
         <v>0</v>
       </c>
       <c r="G338" s="0" t="s">
-        <v>874</v>
+        <v>287</v>
       </c>
       <c r="H338" s="0" t="s">
-        <v>16</v>
+        <v>173</v>
+      </c>
+      <c r="I338" s="0" t="s">
+        <v>292</v>
       </c>
       <c r="J338" s="0" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>871</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="C339" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D339" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E339" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="F339" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G339" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="H339" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I339" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="J339" s="0" t="s">
-        <v>834</v>
+        <v>732</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C340" s="0" t="s">
         <v>20</v>
@@ -14041,31 +14022,28 @@
         <v>152</v>
       </c>
       <c r="E340" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F340" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G340" s="0" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H340" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I340" s="0" t="s">
-        <v>882</v>
-      </c>
       <c r="J340" s="0" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C341" s="0" t="s">
         <v>20</v>
@@ -14074,139 +14052,139 @@
         <v>152</v>
       </c>
       <c r="E341" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="F341" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G341" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="H341" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I341" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="J341" s="0" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="B342" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="F341" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d6e02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G341" s="0" t="s">
+      <c r="C342" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E342" s="0" t="s">
         <v>885</v>
       </c>
-      <c r="H341" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I341" s="0" t="s">
+      <c r="F342" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G342" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="J341" s="0" t="s">
-        <v>636</v>
+      <c r="H342" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I342" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="J342" s="0" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="B343" s="0" t="s">
         <v>888</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>392</v>
+        <v>152</v>
       </c>
       <c r="E343" s="0" t="s">
         <v>889</v>
       </c>
       <c r="F343" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
-        <v>0</v>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d6e02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G343" s="0" t="s">
+        <v>890</v>
       </c>
       <c r="H343" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I343" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J343" s="0" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="C344" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D344" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="E344" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="F344" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G344" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="H344" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I344" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="J344" s="0" t="s">
-        <v>896</v>
+        <v>636</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C345" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>152</v>
+        <v>392</v>
       </c>
       <c r="E345" s="0" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F345" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G345" s="0" t="s">
-        <v>899</v>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
+        <v>0</v>
       </c>
       <c r="H345" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I345" s="0" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="J345" s="0" t="s">
-        <v>901</v>
+        <v>834</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>152</v>
+        <v>897</v>
       </c>
       <c r="E346" s="0" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="F346" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f91c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G346" s="0" t="s">
@@ -14216,7 +14194,7 @@
         <v>16</v>
       </c>
       <c r="I346" s="0" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="J346" s="0" t="s">
         <v>901</v>
@@ -14224,10 +14202,10 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C347" s="0" t="s">
         <v>12</v>
@@ -14236,31 +14214,31 @@
         <v>152</v>
       </c>
       <c r="E347" s="0" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F347" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149524-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G347" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H347" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I347" s="0" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J347" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C348" s="0" t="s">
         <v>12</v>
@@ -14269,31 +14247,31 @@
         <v>152</v>
       </c>
       <c r="E348" s="0" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F348" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e29c8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G348" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H348" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I348" s="0" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J348" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C349" s="0" t="s">
         <v>12</v>
@@ -14302,31 +14280,31 @@
         <v>152</v>
       </c>
       <c r="E349" s="0" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F349" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d382-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G349" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H349" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I349" s="0" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J349" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C350" s="0" t="s">
         <v>12</v>
@@ -14335,31 +14313,31 @@
         <v>152</v>
       </c>
       <c r="E350" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F350" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144c36-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G350" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H350" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I350" s="0" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J350" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C351" s="0" t="s">
         <v>12</v>
@@ -14368,31 +14346,31 @@
         <v>152</v>
       </c>
       <c r="E351" s="0" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F351" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de850-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G351" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H351" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I351" s="0" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J351" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C352" s="0" t="s">
         <v>12</v>
@@ -14401,25 +14379,28 @@
         <v>152</v>
       </c>
       <c r="E352" s="0" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F352" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f5e1a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G352" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H352" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I352" s="0" t="s">
+        <v>921</v>
+      </c>
       <c r="J352" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>922</v>
@@ -14434,61 +14415,61 @@
         <v>923</v>
       </c>
       <c r="F353" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f49fc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G353" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H353" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I353" s="0" t="s">
+        <v>924</v>
+      </c>
       <c r="J353" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C354" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="E354" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F354" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G354" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H354" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I354" s="0" t="s">
-        <v>926</v>
-      </c>
       <c r="J354" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>927</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>152</v>
@@ -14497,61 +14478,58 @@
         <v>928</v>
       </c>
       <c r="F355" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G355" s="0" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
       <c r="H355" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I355" s="0" t="s">
-        <v>929</v>
-      </c>
       <c r="J355" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>829</v>
+        <v>929</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>830</v>
+        <v>45</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>831</v>
+        <v>930</v>
       </c>
       <c r="F356" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59144254-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G356" s="0" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
       <c r="H356" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I356" s="0" t="s">
-        <v>833</v>
+        <v>931</v>
       </c>
       <c r="J356" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C357" s="0" t="s">
         <v>20</v>
@@ -14560,86 +14538,86 @@
         <v>152</v>
       </c>
       <c r="E357" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F357" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G357" s="0" t="s">
-        <v>932</v>
+        <v>832</v>
       </c>
       <c r="H357" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I357" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="J357" s="0" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>934</v>
+        <v>829</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>152</v>
+        <v>830</v>
       </c>
       <c r="E358" s="0" t="s">
-        <v>935</v>
+        <v>831</v>
       </c>
       <c r="F358" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G358" s="0" t="s">
-        <v>936</v>
+        <v>832</v>
       </c>
       <c r="H358" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I358" s="0" t="s">
-        <v>937</v>
+        <v>833</v>
       </c>
       <c r="J358" s="0" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D359" s="0" t="s">
         <v>152</v>
       </c>
       <c r="E359" s="0" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F359" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G359" s="0" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H359" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I359" s="0" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J359" s="0" t="s">
         <v>901</v>
@@ -14647,10 +14625,10 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>12</v>
@@ -14659,31 +14637,31 @@
         <v>152</v>
       </c>
       <c r="E360" s="0" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F360" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G360" s="0" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H360" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I360" s="0" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J360" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>12</v>
@@ -14692,31 +14670,31 @@
         <v>152</v>
       </c>
       <c r="E361" s="0" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F361" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G361" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H361" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I361" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="J361" s="0" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>12</v>
@@ -14725,31 +14703,31 @@
         <v>152</v>
       </c>
       <c r="E362" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ff48-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G362" s="0" t="s">
         <v>949</v>
-      </c>
-      <c r="F362" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G362" s="0" t="s">
-        <v>944</v>
       </c>
       <c r="H362" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I362" s="0" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="J362" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C363" s="0" t="s">
         <v>12</v>
@@ -14758,28 +14736,28 @@
         <v>152</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F363" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c19a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G363" s="0" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="H363" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I363" s="0" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J363" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B364" s="0" t="s">
         <v>953</v>
@@ -14794,25 +14772,25 @@
         <v>954</v>
       </c>
       <c r="F364" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ac28-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G364" s="0" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="H364" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I364" s="0" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J364" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B365" s="0" t="s">
         <v>955</v>
@@ -14827,28 +14805,28 @@
         <v>956</v>
       </c>
       <c r="F365" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a5d4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G365" s="0" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="H365" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I365" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="J365" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>12</v>
@@ -14857,28 +14835,28 @@
         <v>152</v>
       </c>
       <c r="E366" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F366" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84efa3fa-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G366" s="0" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="H366" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I366" s="0" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J366" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B367" s="0" t="s">
         <v>960</v>
@@ -14893,25 +14871,25 @@
         <v>961</v>
       </c>
       <c r="F367" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f62e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G367" s="0" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="H367" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I367" s="0" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B368" s="0" t="s">
         <v>962</v>
@@ -14926,58 +14904,58 @@
         <v>963</v>
       </c>
       <c r="F368" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0e418-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G368" s="0" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="H368" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I368" s="0" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="J368" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C369" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>830</v>
+        <v>152</v>
       </c>
       <c r="E369" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F369" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f10b8c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G369" s="0" t="s">
-        <v>894</v>
+        <v>949</v>
       </c>
       <c r="H369" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I369" s="0" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J369" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B370" s="0" t="s">
         <v>967</v>
@@ -14986,130 +14964,130 @@
         <v>12</v>
       </c>
       <c r="D370" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E370" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="E370" s="0" t="s">
-        <v>969</v>
-      </c>
       <c r="F370" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0d158-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G370" s="0" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="H370" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I370" s="0" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="J370" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C371" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>968</v>
+        <v>830</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F371" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0a8f4-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G371" s="0" t="s">
-        <v>970</v>
+        <v>899</v>
       </c>
       <c r="H371" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I371" s="0" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J371" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C372" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>152</v>
+        <v>973</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F372" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0fc3c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G372" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H372" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I372" s="0" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J372" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C373" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>152</v>
+        <v>973</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F373" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G373" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H373" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I373" s="0" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="J373" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B374" s="0" t="s">
         <v>980</v>
@@ -15124,28 +15102,28 @@
         <v>981</v>
       </c>
       <c r="F374" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G374" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H374" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I374" s="0" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="J374" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C375" s="0" t="s">
         <v>12</v>
@@ -15154,31 +15132,31 @@
         <v>152</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F375" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G375" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H375" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I375" s="0" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="J375" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C376" s="0" t="s">
         <v>12</v>
@@ -15187,31 +15165,31 @@
         <v>152</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F376" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G376" s="0" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="H376" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I376" s="0" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="J376" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C377" s="0" t="s">
         <v>12</v>
@@ -15220,31 +15198,31 @@
         <v>152</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F377" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G377" s="0" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="H377" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I377" s="0" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="J377" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C378" s="0" t="s">
         <v>12</v>
@@ -15253,31 +15231,31 @@
         <v>152</v>
       </c>
       <c r="E378" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="F378" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G378" s="0" t="s">
         <v>991</v>
-      </c>
-      <c r="F378" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G378" s="0" t="s">
-        <v>992</v>
       </c>
       <c r="H378" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I378" s="0" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J378" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C379" s="0" t="s">
         <v>12</v>
@@ -15286,31 +15264,31 @@
         <v>152</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F379" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G379" s="0" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H379" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I379" s="0" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="J379" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C380" s="0" t="s">
         <v>12</v>
@@ -15319,31 +15297,31 @@
         <v>152</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F380" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G380" s="0" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="H380" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I380" s="0" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J380" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C381" s="0" t="s">
         <v>12</v>
@@ -15352,31 +15330,31 @@
         <v>152</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F381" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G381" s="0" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="H381" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I381" s="0" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="J381" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C382" s="0" t="s">
         <v>12</v>
@@ -15385,31 +15363,31 @@
         <v>152</v>
       </c>
       <c r="E382" s="0" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F382" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G382" s="0" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="H382" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I382" s="0" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="J382" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C383" s="0" t="s">
         <v>12</v>
@@ -15418,31 +15396,31 @@
         <v>152</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F383" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G383" s="0" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="H383" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I383" s="0" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J383" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C384" s="0" t="s">
         <v>12</v>
@@ -15451,20 +15429,20 @@
         <v>152</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F384" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G384" s="0" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="H384" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I384" s="0" t="s">
-        <v>17</v>
+        <v>1011</v>
       </c>
       <c r="J384" s="0" t="s">
         <v>901</v>
@@ -15472,10 +15450,10 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C385" s="0" t="s">
         <v>12</v>
@@ -15484,20 +15462,20 @@
         <v>152</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F385" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G385" s="0" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="H385" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I385" s="0" t="s">
-        <v>17</v>
+        <v>1014</v>
       </c>
       <c r="J385" s="0" t="s">
         <v>901</v>
@@ -15505,7 +15483,7 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B386" s="0" t="s">
         <v>1015</v>
@@ -15520,7 +15498,7 @@
         <v>1016</v>
       </c>
       <c r="F386" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G386" s="0" t="s">
@@ -15533,12 +15511,12 @@
         <v>17</v>
       </c>
       <c r="J386" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B387" s="0" t="s">
         <v>1018</v>
@@ -15553,11 +15531,11 @@
         <v>1019</v>
       </c>
       <c r="F387" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G387" s="0" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="H387" s="0" t="s">
         <v>16</v>
@@ -15566,12 +15544,12 @@
         <v>17</v>
       </c>
       <c r="J387" s="0" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B388" s="0" t="s">
         <v>1020</v>
@@ -15586,7 +15564,7 @@
         <v>1021</v>
       </c>
       <c r="F388" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G388" s="0" t="s">
@@ -15595,13 +15573,16 @@
       <c r="H388" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I388" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="J388" s="0" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>1023</v>
@@ -15616,44 +15597,44 @@
         <v>1024</v>
       </c>
       <c r="F389" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G389" s="0" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="H389" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I389" s="0" t="s">
-        <v>1025</v>
+        <v>17</v>
       </c>
       <c r="J389" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>152</v>
       </c>
       <c r="E390" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F390" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G390" s="0" t="s">
         <v>1027</v>
-      </c>
-      <c r="F390" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G390" s="0" t="s">
-        <v>1022</v>
       </c>
       <c r="H390" s="0" t="s">
         <v>16</v>
@@ -15664,7 +15645,7 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>1028</v>
@@ -15679,91 +15660,88 @@
         <v>1029</v>
       </c>
       <c r="F391" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G391" s="0" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="H391" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I391" s="0" t="s">
+        <v>1030</v>
+      </c>
       <c r="J391" s="0" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>114</v>
+        <v>1031</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="E392" s="0" t="s">
-        <v>116</v>
+        <v>1032</v>
       </c>
       <c r="F392" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G392" s="0" t="s">
-        <v>101</v>
+        <v>1027</v>
       </c>
       <c r="H392" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I392" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="J392" s="0" t="s">
-        <v>834</v>
+        <v>906</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>118</v>
+        <v>1033</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="E393" s="0" t="s">
-        <v>119</v>
+        <v>1034</v>
       </c>
       <c r="F393" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G393" s="0" t="s">
-        <v>94</v>
+        <v>1027</v>
       </c>
       <c r="H393" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I393" s="0" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="J393" s="0" t="s">
-        <v>834</v>
+        <v>901</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>115</v>
@@ -15772,20 +15750,20 @@
         <v>45</v>
       </c>
       <c r="E394" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F394" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e525bed4-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G394" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H394" s="0" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I394" s="0" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J394" s="0" t="s">
         <v>834</v>
@@ -15793,10 +15771,10 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>115</v>
@@ -15805,10 +15783,10 @@
         <v>45</v>
       </c>
       <c r="E395" s="0" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F395" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G395" s="0" t="s">
@@ -15818,7 +15796,7 @@
         <v>95</v>
       </c>
       <c r="I395" s="0" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J395" s="0" t="s">
         <v>834</v>
@@ -15826,10 +15804,10 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>115</v>
@@ -15838,20 +15816,20 @@
         <v>45</v>
       </c>
       <c r="E396" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F396" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G396" s="0" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H396" s="0" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I396" s="0" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J396" s="0" t="s">
         <v>834</v>
@@ -15859,22 +15837,22 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D397" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E397" s="0" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F397" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G397" s="0" t="s">
@@ -15884,7 +15862,7 @@
         <v>95</v>
       </c>
       <c r="I397" s="0" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="J397" s="0" t="s">
         <v>834</v>
@@ -15892,32 +15870,32 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E398" s="0" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="F398" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e5278b06-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G398" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H398" s="0" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I398" s="0" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="J398" s="0" t="s">
         <v>834</v>
@@ -15925,29 +15903,29 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F399" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6fc1dd9341ca569ad866695db9878618.html","web")</f>
         <v>0</v>
       </c>
       <c r="G399" s="0" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H399" s="0" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I399" s="0" t="s">
         <v>96</v>
@@ -15958,10 +15936,10 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>12</v>
@@ -15970,17 +15948,17 @@
         <v>45</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F400" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/60f0a8f8a0311f9c386e64e0b62cf3bd.html","web")</f>
         <v>0</v>
       </c>
       <c r="G400" s="0" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H400" s="0" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I400" s="0" t="s">
         <v>96</v>
@@ -15991,22 +15969,22 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D401" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E401" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F401" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52528e8-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G401" s="0" t="s">
@@ -16016,7 +15994,7 @@
         <v>16</v>
       </c>
       <c r="I401" s="0" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J401" s="0" t="s">
         <v>834</v>
@@ -16024,10 +16002,10 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>12</v>
@@ -16036,20 +16014,20 @@
         <v>45</v>
       </c>
       <c r="E402" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F402" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/236430ceeb7aa3d23577b3a03d13f7fb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G402" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H402" s="0" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I402" s="0" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J402" s="0" t="s">
         <v>834</v>
@@ -16057,22 +16035,22 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E403" s="0" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="F403" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/71480abb30ae62d262fcea6cfdd753cf.html","web")</f>
         <v>0</v>
       </c>
       <c r="G403" s="0" t="s">
@@ -16082,7 +16060,7 @@
         <v>16</v>
       </c>
       <c r="I403" s="0" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="J403" s="0" t="s">
         <v>834</v>
@@ -16090,22 +16068,22 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E404" s="0" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="F404" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/684d3f3543045a89ecbb0ca81ba6705f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G404" s="0" t="s">
@@ -16115,7 +16093,7 @@
         <v>95</v>
       </c>
       <c r="I404" s="0" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="J404" s="0" t="s">
         <v>834</v>
@@ -16123,10 +16101,10 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>20</v>
@@ -16135,10 +16113,10 @@
         <v>45</v>
       </c>
       <c r="E405" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F405" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/97c037c3357f24c4e06c07123224b400.html","web")</f>
         <v>0</v>
       </c>
       <c r="G405" s="0" t="s">
@@ -16148,7 +16126,7 @@
         <v>16</v>
       </c>
       <c r="I405" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J405" s="0" t="s">
         <v>834</v>
@@ -16156,32 +16134,32 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>560</v>
+        <v>155</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>562</v>
+        <v>156</v>
       </c>
       <c r="F406" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/042e575e61a271e122d317ca7b39dcb4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G406" s="0" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H406" s="0" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I406" s="0" t="s">
-        <v>563</v>
+        <v>157</v>
       </c>
       <c r="J406" s="0" t="s">
         <v>834</v>
@@ -16189,22 +16167,22 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>564</v>
+        <v>158</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>45</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>565</v>
+        <v>159</v>
       </c>
       <c r="F407" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f36046ab9a8a24ce4d7431e2defd9cf6.html","web")</f>
         <v>0</v>
       </c>
       <c r="G407" s="0" t="s">
@@ -16214,7 +16192,7 @@
         <v>16</v>
       </c>
       <c r="I407" s="0" t="s">
-        <v>566</v>
+        <v>160</v>
       </c>
       <c r="J407" s="0" t="s">
         <v>834</v>
@@ -16222,10 +16200,10 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>115</v>
@@ -16234,10 +16212,10 @@
         <v>45</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F408" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1333394a296e7f8af6c9bad15cb9778d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G408" s="0" t="s">
@@ -16247,7 +16225,7 @@
         <v>16</v>
       </c>
       <c r="I408" s="0" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="J408" s="0" t="s">
         <v>834</v>
@@ -16255,10 +16233,10 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>115</v>
@@ -16267,10 +16245,10 @@
         <v>45</v>
       </c>
       <c r="E409" s="0" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F409" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d3e6e20c91db32a83bcf3d8d8d9dafd3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G409" s="0" t="s">
@@ -16280,7 +16258,7 @@
         <v>16</v>
       </c>
       <c r="I409" s="0" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="J409" s="0" t="s">
         <v>834</v>
@@ -16288,10 +16266,10 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C410" s="0" t="s">
         <v>115</v>
@@ -16300,10 +16278,10 @@
         <v>45</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F410" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a2832b0619764647393e3815ff399b.html","web")</f>
         <v>0</v>
       </c>
       <c r="G410" s="0" t="s">
@@ -16313,7 +16291,7 @@
         <v>16</v>
       </c>
       <c r="I410" s="0" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="J410" s="0" t="s">
         <v>834</v>
@@ -16321,10 +16299,10 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>115</v>
@@ -16333,20 +16311,20 @@
         <v>45</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>131</v>
+        <v>574</v>
       </c>
       <c r="F411" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ee10c562c1164acf3bf03955dd6fc00d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G411" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H411" s="0" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I411" s="0" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J411" s="0" t="s">
         <v>834</v>
@@ -16354,10 +16332,10 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>115</v>
@@ -16366,20 +16344,20 @@
         <v>45</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F412" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3e0c9853afc682db9a950cc5bc3c1c3a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G412" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H412" s="0" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I412" s="0" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="J412" s="0" t="s">
         <v>834</v>
@@ -16387,10 +16365,10 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>115</v>
@@ -16399,10 +16377,10 @@
         <v>45</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>585</v>
+        <v>131</v>
       </c>
       <c r="F413" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0f19e65613afd83f8d9b888d2067ced4.html","web")</f>
         <v>0</v>
       </c>
       <c r="G413" s="0" t="s">
@@ -16412,7 +16390,7 @@
         <v>95</v>
       </c>
       <c r="I413" s="0" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="J413" s="0" t="s">
         <v>834</v>
@@ -16420,10 +16398,10 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>115</v>
@@ -16432,10 +16410,10 @@
         <v>45</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F414" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6c19638a0652fcbc6c6ff8455c536445.html","web")</f>
         <v>0</v>
       </c>
       <c r="G414" s="0" t="s">
@@ -16445,7 +16423,7 @@
         <v>95</v>
       </c>
       <c r="I414" s="0" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J414" s="0" t="s">
         <v>834</v>
@@ -16453,109 +16431,109 @@
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>733</v>
+        <v>584</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>835</v>
+        <v>45</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>735</v>
+        <v>585</v>
       </c>
       <c r="F415" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2f046f30404d6cfcd5286a2a7f12d8fa.html","web")</f>
         <v>0</v>
       </c>
       <c r="G415" s="0" t="s">
-        <v>736</v>
+        <v>94</v>
       </c>
       <c r="H415" s="0" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="I415" s="0" t="s">
-        <v>737</v>
+        <v>586</v>
       </c>
       <c r="J415" s="0" t="s">
-        <v>169</v>
+        <v>834</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D416" s="0" t="s">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="F416" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170a02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/18060c6741a6b65c90435d19adfbbc98.html","web")</f>
         <v>0</v>
       </c>
       <c r="G416" s="0" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="H416" s="0" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="I416" s="0" t="s">
-        <v>630</v>
+        <v>591</v>
       </c>
       <c r="J416" s="0" t="s">
-        <v>732</v>
+        <v>834</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>631</v>
+        <v>733</v>
       </c>
       <c r="C417" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>392</v>
+        <v>835</v>
       </c>
       <c r="E417" s="0" t="s">
-        <v>632</v>
+        <v>735</v>
       </c>
       <c r="F417" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d86e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
         <v>0</v>
       </c>
       <c r="G417" s="0" t="s">
-        <v>194</v>
+        <v>736</v>
       </c>
       <c r="H417" s="0" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="I417" s="0" t="s">
-        <v>632</v>
+        <v>737</v>
       </c>
       <c r="J417" s="0" t="s">
-        <v>732</v>
+        <v>169</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C418" s="0" t="s">
         <v>20</v>
@@ -16564,10 +16542,10 @@
         <v>392</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F418" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d602-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170a02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G418" s="0" t="s">
@@ -16576,61 +16554,64 @@
       <c r="H418" s="0" t="s">
         <v>173</v>
       </c>
+      <c r="I418" s="0" t="s">
+        <v>630</v>
+      </c>
       <c r="J418" s="0" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>213</v>
+        <v>631</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>643</v>
+        <v>392</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>214</v>
+        <v>632</v>
       </c>
       <c r="F419" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e85a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d86e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G419" s="0" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H419" s="0" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="I419" s="0" t="s">
-        <v>215</v>
+        <v>632</v>
       </c>
       <c r="J419" s="0" t="s">
-        <v>1030</v>
+        <v>732</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1031</v>
+        <v>633</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>643</v>
+        <v>392</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>1032</v>
+        <v>634</v>
       </c>
       <c r="F420" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5d432c16b179052a4e94c63af356c67c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d602-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G420" s="0" t="s">
@@ -16639,52 +16620,49 @@
       <c r="H420" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="I420" s="0" t="s">
-        <v>1033</v>
-      </c>
       <c r="J420" s="0" t="s">
-        <v>603</v>
+        <v>732</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>659</v>
+        <v>213</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D421" s="0" t="s">
-        <v>152</v>
+        <v>643</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>660</v>
+        <v>214</v>
       </c>
       <c r="F421" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7553003ead183dd3276108b6311a337f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e85a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G421" s="0" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H421" s="0" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="I421" s="0" t="s">
-        <v>661</v>
+        <v>215</v>
       </c>
       <c r="J421" s="0" t="s">
-        <v>662</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>209</v>
+        <v>1036</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>20</v>
@@ -16693,31 +16671,31 @@
         <v>643</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>210</v>
+        <v>1037</v>
       </c>
       <c r="F422" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed5a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5d432c16b179052a4e94c63af356c67c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G422" s="0" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H422" s="0" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="I422" s="0" t="s">
-        <v>212</v>
+        <v>1038</v>
       </c>
       <c r="J422" s="0" t="s">
-        <v>1030</v>
+        <v>603</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>354</v>
+        <v>659</v>
       </c>
       <c r="C423" s="0" t="s">
         <v>20</v>
@@ -16726,83 +16704,83 @@
         <v>152</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>355</v>
+        <v>660</v>
       </c>
       <c r="F423" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7553003ead183dd3276108b6311a337f.html","web")</f>
         <v>0</v>
       </c>
       <c r="G423" s="0" t="s">
-        <v>356</v>
+        <v>194</v>
       </c>
       <c r="H423" s="0" t="s">
-        <v>357</v>
+        <v>173</v>
+      </c>
+      <c r="I423" s="0" t="s">
+        <v>661</v>
       </c>
       <c r="J423" s="0" t="s">
-        <v>1034</v>
+        <v>662</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>836</v>
+        <v>209</v>
       </c>
       <c r="C424" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>152</v>
+        <v>643</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>837</v>
+        <v>210</v>
       </c>
       <c r="F424" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ef7b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed5a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G424" s="0" t="s">
-        <v>838</v>
+        <v>211</v>
       </c>
       <c r="H424" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I424" s="0" t="s">
-        <v>839</v>
+        <v>212</v>
       </c>
       <c r="J424" s="0" t="s">
-        <v>636</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>1035</v>
+        <v>354</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>152</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>1036</v>
+        <v>355</v>
       </c>
       <c r="F425" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="G425" s="0" t="s">
-        <v>1037</v>
+        <v>356</v>
       </c>
       <c r="H425" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I425" s="0" t="s">
-        <v>1038</v>
+        <v>357</v>
       </c>
       <c r="J425" s="0" t="s">
         <v>1039</v>
@@ -16810,268 +16788,271 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1040</v>
+        <v>836</v>
       </c>
       <c r="C426" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D426" s="0" t="s">
-        <v>1041</v>
+        <v>152</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>1042</v>
+        <v>837</v>
       </c>
       <c r="F426" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ef7b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G426" s="0" t="s">
-        <v>1043</v>
+        <v>838</v>
       </c>
       <c r="H426" s="0" t="s">
-        <v>1044</v>
+        <v>24</v>
       </c>
       <c r="I426" s="0" t="s">
-        <v>1045</v>
+        <v>839</v>
       </c>
       <c r="J426" s="0" t="s">
-        <v>1046</v>
+        <v>636</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>1048</v>
+        <v>152</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="F427" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f3532407075647328e7da9c24f00193d.html","web")</f>
         <v>0</v>
       </c>
       <c r="G427" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H427" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I427" s="0" t="s">
         <v>1043</v>
       </c>
-      <c r="H427" s="0" t="s">
+      <c r="J427" s="0" t="s">
         <v>1044</v>
-      </c>
-      <c r="I427" s="0" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J427" s="0" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B428" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F428" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G428" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H428" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I428" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J428" s="0" t="s">
         <v>1051</v>
-      </c>
-      <c r="C428" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D428" s="0" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E428" s="0" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F428" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G428" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H428" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I428" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J428" s="0" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B429" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E429" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="C429" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D429" s="0" t="s">
+      <c r="F429" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G429" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="E429" s="0" t="s">
+      <c r="H429" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I429" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="F429" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G429" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H429" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I429" s="0" t="s">
-        <v>1056</v>
-      </c>
       <c r="J429" s="0" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B430" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E430" s="0" t="s">
         <v>1057</v>
       </c>
-      <c r="C430" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D430" s="0" t="s">
+      <c r="F430" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G430" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="E430" s="0" t="s">
+      <c r="H430" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I430" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="F430" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G430" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H430" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I430" s="0" t="s">
-        <v>1059</v>
-      </c>
       <c r="J430" s="0" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B431" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E431" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="C431" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D431" s="0" t="s">
+      <c r="F431" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G431" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="E431" s="0" t="s">
+      <c r="H431" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I431" s="0" t="s">
         <v>1061</v>
       </c>
-      <c r="F431" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G431" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H431" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I431" s="0" t="s">
-        <v>1062</v>
-      </c>
       <c r="J431" s="0" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B432" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E432" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="C432" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D432" s="0" t="s">
+      <c r="F432" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G432" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="E432" s="0" t="s">
+      <c r="H432" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I432" s="0" t="s">
         <v>1064</v>
       </c>
-      <c r="F432" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G432" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H432" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I432" s="0" t="s">
-        <v>1065</v>
-      </c>
       <c r="J432" s="0" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B433" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E433" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="C433" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D433" s="0" t="s">
+      <c r="F433" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G433" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="E433" s="0" t="s">
+      <c r="H433" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I433" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="F433" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G433" s="0" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H433" s="0" t="s">
-        <v>1044</v>
-      </c>
       <c r="J433" s="0" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>1068</v>
@@ -17080,31 +17061,31 @@
         <v>20</v>
       </c>
       <c r="D434" s="0" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="E434" s="0" t="s">
         <v>1069</v>
       </c>
       <c r="F434" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G434" s="0" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="H434" s="0" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="I434" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="J434" s="0" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>1071</v>
@@ -17113,67 +17094,64 @@
         <v>20</v>
       </c>
       <c r="D435" s="0" t="s">
-        <v>152</v>
+        <v>1053</v>
       </c>
       <c r="E435" s="0" t="s">
         <v>1072</v>
       </c>
       <c r="F435" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4408-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G435" s="0" t="s">
-        <v>862</v>
+        <v>1048</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I435" s="0" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="J435" s="0" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B436" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E436" s="0" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F436" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G436" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H436" s="0" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I436" s="0" t="s">
         <v>1075</v>
       </c>
-      <c r="C436" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D436" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E436" s="0" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F436" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591763b2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G436" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="H436" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I436" s="0" t="s">
-        <v>1073</v>
-      </c>
       <c r="J436" s="0" t="s">
-        <v>1074</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C437" s="0" t="s">
         <v>20</v>
@@ -17182,31 +17160,31 @@
         <v>152</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F437" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e105a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4408-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G437" s="0" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H437" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I437" s="0" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="J437" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C438" s="0" t="s">
         <v>20</v>
@@ -17215,31 +17193,31 @@
         <v>152</v>
       </c>
       <c r="E438" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F438" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912fb88-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591763b2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G438" s="0" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H438" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I438" s="0" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="J438" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C439" s="0" t="s">
         <v>20</v>
@@ -17248,31 +17226,31 @@
         <v>152</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F439" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f10b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e105a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G439" s="0" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H439" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="J439" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C440" s="0" t="s">
         <v>20</v>
@@ -17281,97 +17259,97 @@
         <v>152</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F440" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591401a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912fb88-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G440" s="0" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H440" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="J440" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C441" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>392</v>
+        <v>152</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F441" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d4440-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f10b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G441" s="0" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H441" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="J441" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C442" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>392</v>
+        <v>152</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="F442" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f7e72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591401a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G442" s="0" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H442" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="J442" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C443" s="0" t="s">
         <v>20</v>
@@ -17380,97 +17358,97 @@
         <v>392</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="F443" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914fd52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d4440-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G443" s="0" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="H443" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I443" s="0" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="J443" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>11</v>
+        <v>1092</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D444" s="0" t="s">
-        <v>152</v>
+        <v>392</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>14</v>
+        <v>1093</v>
       </c>
       <c r="F444" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f7e72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G444" s="0" t="s">
-        <v>15</v>
+        <v>867</v>
       </c>
       <c r="H444" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I444" s="0" t="s">
-        <v>17</v>
+        <v>1078</v>
       </c>
       <c r="J444" s="0" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>1093</v>
+        <v>392</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F445" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914fd52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G445" s="0" t="s">
-        <v>1022</v>
+        <v>867</v>
       </c>
       <c r="H445" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
       <c r="J445" s="0" t="s">
-        <v>901</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>1096</v>
+        <v>11</v>
       </c>
       <c r="C446" s="0" t="s">
         <v>12</v>
@@ -17479,58 +17457,61 @@
         <v>152</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>1097</v>
+        <v>14</v>
       </c>
       <c r="F446" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G446" s="0" t="s">
-        <v>899</v>
+        <v>15</v>
       </c>
       <c r="H446" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>1098</v>
+        <v>17</v>
       </c>
       <c r="J446" s="0" t="s">
-        <v>901</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C447" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D447" s="0" t="s">
-        <v>152</v>
+        <v>1098</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F447" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G447" s="0" t="s">
-        <v>899</v>
+        <v>1027</v>
       </c>
       <c r="H447" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I447" s="0" t="s">
+        <v>1100</v>
+      </c>
       <c r="J447" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>1101</v>
@@ -17545,25 +17526,28 @@
         <v>1102</v>
       </c>
       <c r="F448" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f885e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G448" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H448" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I448" s="0" t="s">
+        <v>1103</v>
+      </c>
       <c r="J448" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C449" s="0" t="s">
         <v>12</v>
@@ -17572,28 +17556,28 @@
         <v>152</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F449" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G449" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H449" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J449" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C450" s="0" t="s">
         <v>12</v>
@@ -17602,28 +17586,28 @@
         <v>152</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F450" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G450" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H450" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J450" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C451" s="0" t="s">
         <v>12</v>
@@ -17632,28 +17616,28 @@
         <v>152</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F451" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G451" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H451" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J451" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C452" s="0" t="s">
         <v>12</v>
@@ -17662,28 +17646,28 @@
         <v>152</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F452" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G452" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H452" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J452" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C453" s="0" t="s">
         <v>12</v>
@@ -17692,28 +17676,28 @@
         <v>152</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F453" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G453" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H453" s="0" t="s">
         <v>16</v>
       </c>
       <c r="J453" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C454" s="0" t="s">
         <v>12</v>
@@ -17722,130 +17706,124 @@
         <v>152</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F454" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G454" s="0" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="H454" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I454" s="0" t="s">
-        <v>1115</v>
-      </c>
       <c r="J454" s="0" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>1116</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="E455" s="0" t="s">
         <v>1117</v>
       </c>
       <c r="F455" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914cf30-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G455" s="0" t="s">
-        <v>1118</v>
+        <v>904</v>
       </c>
       <c r="H455" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I455" s="0" t="s">
-        <v>1119</v>
+        <v>16</v>
       </c>
       <c r="J455" s="0" t="s">
-        <v>1074</v>
+        <v>906</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D456" s="0" t="s">
         <v>152</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F456" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/332db812bf06c7af2de1b9d1e0cf58c9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G456" s="0" t="s">
-        <v>1122</v>
+        <v>904</v>
       </c>
       <c r="H456" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="J456" s="0" t="s">
-        <v>1074</v>
+        <v>906</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C457" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D457" s="0" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F457" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4cabf9607859a83bcb3bc00fa8d0698c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914cf30-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G457" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H457" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J457" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C458" s="0" t="s">
         <v>20</v>
@@ -17854,31 +17832,31 @@
         <v>152</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F458" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f9f66ff437154f86913937f9e2d9a26d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/332db812bf06c7af2de1b9d1e0cf58c9.html","web")</f>
         <v>0</v>
       </c>
       <c r="G458" s="0" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="H458" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I458" s="0" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J458" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C459" s="0" t="s">
         <v>20</v>
@@ -17887,31 +17865,31 @@
         <v>152</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F459" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab57604d6acd918c08aa6252145c608e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4cabf9607859a83bcb3bc00fa8d0698c.html","web")</f>
         <v>0</v>
       </c>
       <c r="G459" s="0" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="H459" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I459" s="0" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J459" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C460" s="0" t="s">
         <v>20</v>
@@ -17920,31 +17898,31 @@
         <v>152</v>
       </c>
       <c r="E460" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F460" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f9f66ff437154f86913937f9e2d9a26d.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G460" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H460" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I460" s="0" t="s">
         <v>1134</v>
       </c>
-      <c r="F460" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130948-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G460" s="0" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H460" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="I460" s="0" t="s">
-        <v>1119</v>
-      </c>
       <c r="J460" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C461" s="0" t="s">
         <v>20</v>
@@ -17953,28 +17931,28 @@
         <v>152</v>
       </c>
       <c r="E461" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F461" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab57604d6acd918c08aa6252145c608e.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G461" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H461" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I461" s="0" t="s">
         <v>1137</v>
       </c>
-      <c r="F461" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c0ee-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G461" s="0" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H461" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="I461" s="0" t="s">
-        <v>1119</v>
-      </c>
       <c r="J461" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>1138</v>
@@ -17989,28 +17967,28 @@
         <v>1139</v>
       </c>
       <c r="F462" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59134bf6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130948-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G462" s="0" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
       <c r="H462" s="0" t="s">
-        <v>24</v>
+        <v>716</v>
       </c>
       <c r="I462" s="0" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="J462" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C463" s="0" t="s">
         <v>20</v>
@@ -18019,31 +17997,31 @@
         <v>152</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F463" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cf46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c0ee-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G463" s="0" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
       <c r="H463" s="0" t="s">
-        <v>24</v>
+        <v>716</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="J463" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C464" s="0" t="s">
         <v>20</v>
@@ -18052,31 +18030,31 @@
         <v>152</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F464" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f465a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59134bf6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G464" s="0" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="H464" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I464" s="0" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="J464" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C465" s="0" t="s">
         <v>20</v>
@@ -18085,31 +18063,31 @@
         <v>152</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F465" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591497a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cf46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G465" s="0" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="H465" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="J465" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C466" s="0" t="s">
         <v>20</v>
@@ -18118,97 +18096,97 @@
         <v>152</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F466" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ede4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f465a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G466" s="0" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="H466" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="J466" s="0" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>841</v>
+        <v>1149</v>
       </c>
       <c r="C467" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>842</v>
+        <v>152</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>843</v>
+        <v>1150</v>
       </c>
       <c r="F467" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/170ff384-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591497a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G467" s="0" t="s">
-        <v>844</v>
+        <v>1127</v>
       </c>
       <c r="H467" s="0" t="s">
-        <v>845</v>
+        <v>24</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>846</v>
+        <v>1124</v>
       </c>
       <c r="J467" s="0" t="s">
-        <v>667</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>847</v>
+        <v>1151</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D468" s="0" t="s">
-        <v>842</v>
+        <v>152</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>848</v>
+        <v>1152</v>
       </c>
       <c r="F468" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1758307c-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ede4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G468" s="0" t="s">
-        <v>844</v>
+        <v>1127</v>
       </c>
       <c r="H468" s="0" t="s">
-        <v>845</v>
+        <v>24</v>
       </c>
       <c r="I468" s="0" t="s">
-        <v>849</v>
+        <v>1124</v>
       </c>
       <c r="J468" s="0" t="s">
-        <v>667</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C469" s="0" t="s">
         <v>20</v>
@@ -18217,10 +18195,10 @@
         <v>842</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F469" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf56baca-c14c-11e6-bb6a-ac72891c3257.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/170ff384-b622-11e6-bbe2-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G469" s="0" t="s">
@@ -18230,84 +18208,84 @@
         <v>845</v>
       </c>
       <c r="I469" s="0" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="J469" s="0" t="s">
         <v>667</v>
       </c>
     </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="F470" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1758307c-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G470" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="H470" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="I470" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="J470" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>1148</v>
+        <v>892</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>1149</v>
+        <v>850</v>
       </c>
       <c r="C471" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>152</v>
+        <v>842</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>1150</v>
+        <v>851</v>
       </c>
       <c r="F471" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf56baca-c14c-11e6-bb6a-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="G471" s="0" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="H471" s="0" t="s">
-        <v>16</v>
+        <v>845</v>
       </c>
       <c r="I471" s="0" t="s">
-        <v>1151</v>
+        <v>852</v>
       </c>
       <c r="J471" s="0" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C472" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D472" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E472" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F472" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="G472" s="0" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H472" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I472" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="J472" s="0" t="s">
-        <v>1158</v>
+        <v>667</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>872</v>
+        <v>1154</v>
       </c>
       <c r="C473" s="0" t="s">
         <v>20</v>
@@ -18316,61 +18294,64 @@
         <v>152</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>873</v>
+        <v>1155</v>
       </c>
       <c r="F473" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G473" s="0" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="H473" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I473" s="0" t="s">
+        <v>1156</v>
+      </c>
       <c r="J473" s="0" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>875</v>
+        <v>1158</v>
       </c>
       <c r="C474" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D474" s="0" t="s">
-        <v>152</v>
+        <v>1159</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>876</v>
+        <v>1160</v>
       </c>
       <c r="F474" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G474" s="0" t="s">
-        <v>877</v>
+        <v>1161</v>
       </c>
       <c r="H474" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I474" s="0" t="s">
-        <v>878</v>
+        <v>1162</v>
       </c>
       <c r="J474" s="0" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C475" s="0" t="s">
         <v>20</v>
@@ -18379,31 +18360,28 @@
         <v>152</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F475" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="G475" s="0" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H475" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I475" s="0" t="s">
-        <v>882</v>
-      </c>
       <c r="J475" s="0" t="s">
-        <v>1159</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="C476" s="0" t="s">
         <v>20</v>
@@ -18412,20 +18390,20 @@
         <v>152</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>1161</v>
+        <v>881</v>
       </c>
       <c r="F476" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G476" s="0" t="s">
-        <v>1162</v>
+        <v>882</v>
       </c>
       <c r="H476" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I476" s="0" t="s">
-        <v>1163</v>
+        <v>883</v>
       </c>
       <c r="J476" s="0" t="s">
         <v>1164</v>
@@ -18433,65 +18411,65 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>1165</v>
+        <v>884</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>1166</v>
+        <v>152</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>1167</v>
+        <v>885</v>
       </c>
       <c r="F477" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>0</v>
       </c>
       <c r="G477" s="0" t="s">
-        <v>970</v>
+        <v>886</v>
       </c>
       <c r="H477" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I477" s="0" t="s">
-        <v>1168</v>
+        <v>887</v>
       </c>
       <c r="J477" s="0" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D478" s="0" t="s">
-        <v>1171</v>
+        <v>152</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="F478" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="G478" s="0" t="s">
-        <v>970</v>
+        <v>1167</v>
       </c>
       <c r="H478" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I478" s="0" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="J478" s="0" t="s">
         <v>1169</v>
@@ -18499,208 +18477,208 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C479" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="F479" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
         <v>0</v>
       </c>
       <c r="G479" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H479" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I479" s="0" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="J479" s="0" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C480" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D480" s="0" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F480" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="G480" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H480" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I480" s="0" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="J480" s="0" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C481" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="F481" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="G481" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H481" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I481" s="0" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J481" s="0" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="C482" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F482" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
         <v>0</v>
       </c>
       <c r="G482" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H482" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I482" s="0" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="J482" s="0" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C483" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>152</v>
+        <v>1188</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F483" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
         <v>0</v>
       </c>
       <c r="G483" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H483" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I483" s="0" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="J483" s="0" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C484" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D484" s="0" t="s">
-        <v>152</v>
+        <v>1193</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F484" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
         <v>0</v>
       </c>
       <c r="G484" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H484" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I484" s="0" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="J484" s="0" t="s">
-        <v>1169</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C485" s="0" t="s">
         <v>12</v>
@@ -18709,122 +18687,188 @@
         <v>152</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="F485" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
         <v>0</v>
       </c>
       <c r="G485" s="0" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="H485" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I485" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J485" s="0" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B486" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="J485" s="0" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
+      <c r="C486" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D486" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E486" s="0" t="s">
         <v>1201</v>
       </c>
-      <c r="B488" s="0" t="s">
+      <c r="F486" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G486" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="H486" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I486" s="0" t="s">
         <v>1202</v>
       </c>
-      <c r="C488" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D488" s="0" t="s">
+      <c r="J486" s="0" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E487" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F487" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="G487" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="H487" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I487" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J487" s="0" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D490" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E488" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F488" s="0" t="str">
+      <c r="E490" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F490" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9b495e2-5989-11e6-a4be-ac72891c3257.html","web")</f>
         <v>web</v>
       </c>
-      <c r="G488" s="3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H488" s="0" t="s">
+      <c r="G490" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H490" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="I488" s="0" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J488" s="0" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C490" s="0" t="s">
+      <c r="I490" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J490" s="0" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C492" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D490" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E490" s="0" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F490" s="0" t="str">
+      <c r="D492" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E492" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F492" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="G490" s="3" t="s">
+      <c r="G492" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H492" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I492" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="J492" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="H490" s="0" t="s">
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="I490" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="J490" s="0" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C491" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D491" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E491" s="0" t="s">
+      <c r="B493" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D493" s="0" t="s">
         <v>1214</v>
       </c>
-      <c r="F491" s="0" t="str">
+      <c r="E493" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F493" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
         <v>web</v>
       </c>
-      <c r="G491" s="3" t="s">
+      <c r="G493" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H493" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I493" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J493" s="0" t="s">
         <v>1211</v>
-      </c>
-      <c r="H491" s="0" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I491" s="0" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J491" s="0" t="s">
-        <v>1206</v>
       </c>
     </row>
   </sheetData>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="1220">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -3638,6 +3638,48 @@
   </si>
   <si>
     <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IyrAnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelCellAreai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cell area of the ice sheet model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xant yant time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Grid Cell Covered with Glacier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xant yant time typegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grounded Ice Sheet  Area Fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of grid cell covered by grounded ice sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alevhalf spectband</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in IFS: All Up and downwelling radiation is only at the TOA and the surface available in IFS standard output. In IFS it is not possible to distinguish output in spectral intervals. Note here also global area and time averages are asked. Or maybe output at a certain diagnostic time step is meant? (No grib code available on table 128 -  Grib 1 for different spectral bands). Would it be possible to output 2 spectral bands: UV and NIR both of them diffuse and parallel. We need to ask expert of the radiation code.</t>
   </si>
 </sst>
 </file>
@@ -3757,10 +3799,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K452"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A432" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A437" activeCellId="0" sqref="437:452"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A453" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A458" activeCellId="0" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3774,7 +3816,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -18759,6 +18801,263 @@
         <v>240</v>
       </c>
     </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D454" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E454" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F454" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G454" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I454" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J454" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K454" s="0" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F455" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G455" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I455" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J455" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K455" s="0" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C456" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D456" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E456" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F456" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G456" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I456" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="J456" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K456" s="0" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C458" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E458" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F458" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G458" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bcfeacf77d49ef51a6ee66a1ab0ebcb4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H458" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I458" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J458" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="K458" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D459" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E459" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F459" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G459" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c323f38340e4846931ad4891232d839d.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H459" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I459" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J459" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="K459" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E460" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F460" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G460" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c432bfbfc0e7f4403f91af39736ff61c.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H460" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I460" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J460" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="K460" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D461" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F461" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G461" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/eb9ac643cd9c73cae960d6d2db7b901d.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H461" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I461" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J461" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="K461" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="1220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1274">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -3680,6 +3680,168 @@
   </si>
   <si>
     <t xml:space="preserve">Not available in IFS: All Up and downwelling radiation is only at the TOA and the surface available in IFS standard output. In IFS it is not possible to distinguish output in spectral intervals. Note here also global area and time averages are asked. Or maybe output at a certain diagnostic time step is meant? (No grib code available on table 128 -  Grib 1 for different spectral bands). Would it be possible to output 2 spectral bands: UV and NIR both of them diffuse and parallel. We need to ask expert of the radiation code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfdsnb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward heat flux at snow base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in IFS output, however it is computed in H-TESSEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs, Andrea, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat flux from snow into the ice or land under the snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS3MIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat transferred to snowpack by rainfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuel Dutra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat transferred to a snow cover by rain..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Water Evaporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'Water' means water in all phases, including frozen i.e. ice and snow. Evaporation is the conversion of liquid or solid into vapor. (The conversion of solid alone into vapor is called 'sublimation'). The quantity with standard name surface_water_evaporation_flux does not include transpiration from vegetation. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. Unless indicated in the cell_methods attribute, a quantity is assumed to apply to the whole area of each horizontal grid box. Previously, the qualifier where_type was used to specify that the quantity applies only to the part of the grid box of the named type. Names containing the where_type qualifier are deprecated and newly created data should use the cell_methods attribute to indicate the horizontal area to which the quantity applies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sblnosn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublimation of the snow free area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'tendency_of_X' means derivative of X with respect to time. 'Content' indicates a quantity per unit area. The 'atmosphere content' of a quantity refers to the vertical integral from the surface to the top of the atmosphere. For the content between specified levels in the atmosphere, standard names including content_of_atmosphere_layer are used. Atmosphere water vapor content is sometimes referred to as 'precipitable water', although this term does not imply the water could all be precipitated. The specification of a physical process by the phrase due_to_process means that the quantity named is a single term in a sum of terms which together compose the general quantity named by omitting the phrase. Sublimation is the conversion of solid into vapor. Unless indicated in the cell_methods attribute, a quantity is assumed to apply to the whole area of each horizontal grid box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snrefr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-freezing of water in the snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. The surface called 'surface' means the lower boundary of the atmosphere. 'Surface snow and ice refreezing flux' means the mass flux of surface  meltwater which refreezes within the snow or firn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qgwr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundwater recharge from soil layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not represented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. Groundwater is subsurface water below the depth of the water table. The quantity with standard name liquid_water_mass_flux_from_soil_to_groundwater is the downward flux of liquid water within soil at the depth of the water table, or downward flux from the base of the soil model if the water table depth is greater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outflow of River Water from Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Inflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflow of River Water into Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in Groundwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'change_over_time_in_X' means change in a quantity X over a time-interval, which should be defined by the bounds of the time coordinate. 'Water' means water in all phases. Groundwater is subsurface water below the depth of the water table. 'Amount' means mass per unit area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drivw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in River Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'change_over_time_in_X' means change in a quantity X over a time-interval, which should be defined by the bounds of the time coordinate. 'Water' means water in all phases. 'River' refers to the water in the fluvial system (stream and floodplain). 'Amount' means mass per unit area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snwc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE intercepted by the vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no represented: equal to zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total water mass of the snowpack (liquid or frozen), averaged over a grid cell and interecepted by the canopy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Water Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not represented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total liquid water storage, other than soil, snow or interception storage (i.e. lakes, river channel or depression storage).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water table depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prrsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of rainfall on snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of the grid averaged rainfall which falls on the snow pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsnsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of snowfall (including hail and graupel) on snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of the snowfall which falls on the snow pack</t>
   </si>
 </sst>
 </file>
@@ -3801,8 +3963,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A453" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A458" activeCellId="0" sqref="A458"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A458" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A463" activeCellId="0" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19053,6 +19215,599 @@
         <v>703</v>
       </c>
     </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F463" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G463" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712494ba-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H463" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I463" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J463" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K463" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E464" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F464" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G464" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913462e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H464" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I464" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J464" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K464" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D465" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F465" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G465" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917ca14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H465" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I465" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J465" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K465" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D466" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E466" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F466" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G466" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f541a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H466" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I466" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J466" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K466" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D467" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E467" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F467" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G467" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171af6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H467" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I467" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J467" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K467" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E468" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F468" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G468" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591768a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H468" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I468" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J468" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K468" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F469" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G469" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e05c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H469" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I469" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J469" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K469" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F470" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G470" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e034e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H470" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I470" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J470" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K470" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E471" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F471" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G471" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148822-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H471" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I471" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J471" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K471" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E472" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F472" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G472" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591313de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H472" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I472" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J472" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K472" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F473" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G473" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e536c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H473" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I473" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J473" s="0" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K473" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E474" s="0" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F474" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G474" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eaf60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H474" s="0" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I474" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J474" s="0" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K474" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E475" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F475" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G475" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H475" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I475" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J475" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="K475" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D476" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E476" s="0" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F476" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G476" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e3260-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H476" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I476" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J476" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K476" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D477" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F477" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G477" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917ed1e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H477" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I477" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J477" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K477" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D478" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E478" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F478" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G478" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H478" s="0" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I478" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J478" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="K478" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4509" uniqueCount="1312">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -3356,6 +3356,120 @@
   </si>
   <si>
     <t xml:space="preserve">All-sky Surface Longwave radiative flux due to Dust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdscsdiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Diffuse Downwelling Clear Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in IFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'.  In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. 'Diffuse' radiation is radiation that has been scattered by particles in the atmosphere such as cloud droplets and aerosols. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called  'flux density' in physics. The surface called 'surface' means the lower boundary of the atmosphere. A phrase 'assuming_condition' indicates that the named quantity is the value which would obtain if all aspects of the system were unaltered except for the assumption of the circumstances specified by the condition. 'shortwave' means shortwave radiation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr18O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation Flux of Water containing Oxygen-18 (H2 18O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation mass flux of water molecules that contain the oxygen-18 isotope (H2 18O), including solid and liquid phases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsn18O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation Flux of Snow and Ice containing Oxygen-18 (H2 18O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation mass flux of water molecules that contain the oxygen-18 isotope (H2 18O), including solid phase only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation Flux of Water containing Deuterium (1H 2H O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation mass flux of water molecules that contain one atom of the hydrogen-2 isotope (1H 2H O), including solid and liquid phases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsn2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation Flux of Snow and Ice containing Deuterium (1H 2H O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation mass flux of water molecules that contain one atom of the hydrogen-2 isotope (1H 2H O), including solid phase only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr17O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation Flux of Water containing Oxygen-17 (H2 17O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation mass flux of water molecules that contain the oxygen-17 isotope (H2 17O), including solid and liquid phases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsn17O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation Flux of Snow and Ice containing Oxygen-17 (H2 17O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation mass flux of water molecules that contain the oxygen-17 isotope (H2 17O), including solid phase only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prw17O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass of Water containing Oxygen-17 (H2 17O) in Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water vapor path for water molecules that contain oxygen-17 (H2 17O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prw2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass of Water containing Deuterium (1H 2H O) in Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water vapor path for water molecules that contain one atom of the hydrogen-2 isotope (1H 2H O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw18O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isotopic Ratio of Oxygen-17 in Sea Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of abundance of oxygen-17 (17O) atoms to oxgen-16 (16O) atoms in sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isotopic Ratio of Deuterium in Sea Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of abundance of hydrogen-2 (2H) atoms to hydrogen-1 (1H) atoms in sea water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prw18O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isotopic Ratio of Oxygen-18 in Sea Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of abundance of oxygen-18 (18O) atoms to oxgen-16 (16O) atoms in sea water</t>
   </si>
   <si>
     <t xml:space="preserve">Lmon</t>
@@ -3963,11 +4077,11 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A458" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A463" activeCellId="0" sqref="A463"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A404" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A421" activeCellId="0" sqref="A421"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -4018,6 +4132,7 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
@@ -4054,6 +4169,7 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>21</v>
@@ -4090,6 +4206,7 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>31</v>
@@ -5278,6 +5395,7 @@
         <v>39</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>151</v>
@@ -5452,6 +5570,7 @@
         <v>157</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>179</v>
@@ -5485,6 +5604,7 @@
         <v>183</v>
       </c>
     </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>184</v>
@@ -5845,6 +5965,7 @@
         <v>191</v>
       </c>
     </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>224</v>
@@ -5917,6 +6038,7 @@
         <v>237</v>
       </c>
     </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>238</v>
@@ -6667,6 +6789,7 @@
         <v>240</v>
       </c>
     </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>309</v>
@@ -6703,6 +6826,7 @@
         <v>315</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>316</v>
@@ -6919,6 +7043,7 @@
         <v>339</v>
       </c>
     </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>343</v>
@@ -8107,6 +8232,7 @@
         <v>404</v>
       </c>
     </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>405</v>
@@ -10333,6 +10459,7 @@
         <v>552</v>
       </c>
     </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>553</v>
@@ -10981,6 +11108,7 @@
         <v>593</v>
       </c>
     </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>594</v>
@@ -11299,6 +11427,7 @@
         <v>605</v>
       </c>
     </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>617</v>
@@ -11335,6 +11464,7 @@
         <v>621</v>
       </c>
     </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>622</v>
@@ -11983,6 +12113,7 @@
         <v>638</v>
       </c>
     </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>689</v>
@@ -12847,6 +12978,7 @@
         <v>703</v>
       </c>
     </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>751</v>
@@ -13060,6 +13192,7 @@
         <v>593</v>
       </c>
     </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>752</v>
@@ -13204,6 +13337,7 @@
         <v>30</v>
       </c>
     </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>767</v>
@@ -13417,6 +13551,7 @@
         <v>772</v>
       </c>
     </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>784</v>
@@ -13453,6 +13588,7 @@
         <v>786</v>
       </c>
     </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>787</v>
@@ -13489,6 +13625,7 @@
         <v>593</v>
       </c>
     </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>793</v>
@@ -13777,6 +13914,7 @@
         <v>812</v>
       </c>
     </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>819</v>
@@ -13993,6 +14131,7 @@
         <v>30</v>
       </c>
     </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>835</v>
@@ -14137,6 +14276,7 @@
         <v>691</v>
       </c>
     </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>837</v>
@@ -14281,6 +14421,7 @@
         <v>593</v>
       </c>
     </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>854</v>
@@ -18094,12 +18235,47 @@
         <v>812</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E421" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F421" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G421" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H421" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I421" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J421" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K421" s="0" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>23</v>
@@ -18108,70 +18284,68 @@
         <v>137</v>
       </c>
       <c r="E422" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F422" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G422" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H422" s="0" t="s">
         <v>1114</v>
       </c>
-      <c r="F422" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="G422" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H422" s="0" t="s">
-        <v>797</v>
-      </c>
       <c r="I422" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J422" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K422" s="0" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F423" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H423" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I423" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="K422" s="0" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C423" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D423" s="0" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E423" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F423" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="G423" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H423" s="0" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I423" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="J423" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="K423" s="0" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>838</v>
+        <v>1123</v>
       </c>
       <c r="C424" s="0" t="s">
         <v>23</v>
@@ -18180,34 +18354,33 @@
         <v>137</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>839</v>
+        <v>1124</v>
       </c>
       <c r="F424" s="0" t="s">
         <v>139</v>
       </c>
       <c r="G424" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>0</v>
       </c>
       <c r="H424" s="0" t="s">
-        <v>840</v>
+        <v>1114</v>
       </c>
       <c r="I424" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J424" s="0" t="s">
-        <v>841</v>
+        <v>1125</v>
       </c>
       <c r="K424" s="0" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>842</v>
+        <v>1126</v>
       </c>
       <c r="C425" s="0" t="s">
         <v>23</v>
@@ -18216,34 +18389,33 @@
         <v>137</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>843</v>
+        <v>1127</v>
       </c>
       <c r="F425" s="0" t="s">
         <v>139</v>
       </c>
       <c r="G425" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>0</v>
       </c>
       <c r="H425" s="0" t="s">
-        <v>844</v>
+        <v>1114</v>
       </c>
       <c r="I425" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J425" s="0" t="s">
-        <v>845</v>
+        <v>1128</v>
       </c>
       <c r="K425" s="0" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>846</v>
+        <v>1129</v>
       </c>
       <c r="C426" s="0" t="s">
         <v>23</v>
@@ -18252,34 +18424,33 @@
         <v>137</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>847</v>
+        <v>1130</v>
       </c>
       <c r="F426" s="0" t="s">
         <v>139</v>
       </c>
       <c r="G426" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>0</v>
       </c>
       <c r="H426" s="0" t="s">
-        <v>848</v>
+        <v>1114</v>
       </c>
       <c r="I426" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J426" s="0" t="s">
-        <v>849</v>
+        <v>1131</v>
       </c>
       <c r="K426" s="0" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="C427" s="0" t="s">
         <v>23</v>
@@ -18288,1399 +18459,1314 @@
         <v>137</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="F427" s="0" t="s">
         <v>139</v>
       </c>
       <c r="G427" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="H427" s="0" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="I427" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J427" s="0" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="K427" s="0" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>1130</v>
+        <v>345</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>171</v>
+        <v>509</v>
       </c>
       <c r="G428" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
         <v>0</v>
       </c>
       <c r="H428" s="0" t="s">
-        <v>940</v>
+        <v>1114</v>
       </c>
       <c r="I428" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J428" s="0" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="K428" s="0" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D429" s="0" t="s">
-        <v>1134</v>
+        <v>345</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>171</v>
+        <v>509</v>
       </c>
       <c r="G429" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H429" s="0" t="s">
-        <v>940</v>
+        <v>1114</v>
       </c>
       <c r="I429" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J429" s="0" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="K429" s="0" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>1138</v>
+        <v>33</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="G430" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="H430" s="0" t="s">
-        <v>940</v>
+        <v>1114</v>
       </c>
       <c r="I430" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J430" s="0" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="K430" s="0" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>1142</v>
+        <v>33</v>
       </c>
       <c r="E431" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="G431" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
         <v>0</v>
       </c>
       <c r="H431" s="0" t="s">
-        <v>940</v>
+        <v>1114</v>
       </c>
       <c r="I431" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J431" s="0" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="K431" s="0" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>1112</v>
+        <v>854</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>1146</v>
+        <v>33</v>
       </c>
       <c r="E432" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>171</v>
+        <v>509</v>
       </c>
       <c r="G432" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
         <v>0</v>
       </c>
       <c r="H432" s="0" t="s">
-        <v>940</v>
+        <v>1114</v>
       </c>
       <c r="I432" s="0" t="s">
-        <v>18</v>
+        <v>1115</v>
       </c>
       <c r="J432" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="K432" s="0" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B433" s="0" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="C433" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D433" s="0" t="s">
+      <c r="B435" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="E433" s="0" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F433" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="G433" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H433" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="I433" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J433" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="K433" s="0" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C434" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D434" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E434" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F434" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G434" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H434" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="I434" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J434" s="0" t="s">
-        <v>1156</v>
-      </c>
-      <c r="K434" s="0" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>1158</v>
-      </c>
       <c r="C435" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D435" s="0" t="s">
         <v>137</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>139</v>
+        <v>509</v>
       </c>
       <c r="G435" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154d00de9ab9aff72373a673df10946a.html","web")</f>
         <v>0</v>
       </c>
       <c r="H435" s="0" t="s">
-        <v>940</v>
+        <v>797</v>
       </c>
       <c r="I435" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J435" s="0" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="K435" s="0" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>1112</v>
+        <v>1150</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D436" s="0" t="s">
-        <v>137</v>
+        <v>1156</v>
       </c>
       <c r="E436" s="0" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="G436" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H436" s="0" t="s">
-        <v>940</v>
+        <v>1158</v>
       </c>
       <c r="I436" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J436" s="0" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="K436" s="0" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="F437" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G437" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H437" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="I437" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J437" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="K437" s="0" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E438" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="F438" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G438" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H438" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="I438" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J438" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="K438" s="0" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="F439" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G439" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H439" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="I439" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J439" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="K439" s="0" t="s">
+        <v>1161</v>
+      </c>
+    </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E440" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F440" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G440" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H440" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="B440" s="0" t="s">
+      <c r="I440" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J440" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="C440" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D440" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E440" s="0" t="s">
+      <c r="K440" s="0" t="s">
         <v>1166</v>
       </c>
-      <c r="F440" s="0" t="s">
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B441" s="0" t="s">
         <v>1167</v>
       </c>
-      <c r="G440" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H440" s="2" t="s">
+      <c r="C441" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D441" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="I440" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="J440" s="0" t="s">
+      <c r="E441" s="0" t="s">
         <v>1169</v>
       </c>
-      <c r="K440" s="0" t="s">
+      <c r="F441" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G441" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H441" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I441" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J441" s="0" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K441" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B442" s="0" t="s">
         <v>1171</v>
       </c>
-      <c r="B442" s="0" t="s">
+      <c r="C442" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D442" s="0" t="s">
         <v>1172</v>
       </c>
-      <c r="C442" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D442" s="0" t="s">
+      <c r="E442" s="0" t="s">
         <v>1173</v>
       </c>
-      <c r="E442" s="0" t="s">
+      <c r="F442" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G442" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H442" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I442" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J442" s="0" t="s">
         <v>1174</v>
       </c>
-      <c r="F442" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G442" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H442" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I442" s="0" t="s">
+      <c r="K442" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B443" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="J442" s="0" t="s">
+      <c r="C443" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D443" s="0" t="s">
         <v>1176</v>
       </c>
-      <c r="K442" s="0" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E443" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F443" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G443" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H443" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I443" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J443" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K443" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E444" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F444" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G444" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H444" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I444" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J444" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K444" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E445" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F445" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G445" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H445" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I445" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J445" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K445" s="0" t="s">
+        <v>1187</v>
+      </c>
+    </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E446" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F446" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G446" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H446" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I446" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J446" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K446" s="0" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E447" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F447" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G447" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H447" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I447" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J447" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K447" s="0" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E448" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F448" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G448" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H448" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I448" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J448" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K448" s="0" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E449" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F449" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G449" s="0" t="n">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="H449" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I449" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J449" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K449" s="0" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F453" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G453" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I453" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="J453" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K453" s="0" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C455" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F455" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G455" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I455" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J455" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K455" s="0" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B446" s="0" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C446" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D446" s="0" t="s">
+      <c r="B459" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D459" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="E446" s="0" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F446" s="0" t="s">
+      <c r="E459" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F459" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="G446" s="0" t="str">
+      <c r="G459" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H446" s="0" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I446" s="0" t="s">
+      <c r="H459" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I459" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="J446" s="0" t="s">
-        <v>1178</v>
-      </c>
-      <c r="K446" s="0" t="s">
+      <c r="J459" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K459" s="0" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B447" s="0" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C447" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D447" s="0" t="s">
+      <c r="B460" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D460" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="E447" s="0" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F447" s="0" t="s">
+      <c r="E460" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F460" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="G447" s="0" t="str">
+      <c r="G460" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H447" s="0" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I447" s="0" t="s">
+      <c r="H460" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I460" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="J447" s="0" t="s">
-        <v>1183</v>
-      </c>
-      <c r="K447" s="0" t="s">
+      <c r="J460" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K460" s="0" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B448" s="0" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C448" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D448" s="0" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E448" s="0" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F448" s="0" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G448" s="0" t="str">
+      <c r="B461" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C461" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D461" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F461" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G461" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21ef5e4c-b894-11e6-a189-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H448" s="0" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I448" s="0" t="s">
+      <c r="H461" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I461" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="J448" s="0" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K448" s="0" t="s">
+      <c r="J461" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="K461" s="0" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B449" s="0" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C449" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D449" s="0" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E449" s="0" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F449" s="0" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G449" s="0" t="str">
+      <c r="B462" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C462" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D462" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E462" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F462" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G462" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2260e24c-b894-11e6-a189-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H449" s="0" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I449" s="0" t="s">
+      <c r="H462" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I462" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="J449" s="0" t="s">
-        <v>1193</v>
-      </c>
-      <c r="K449" s="0" t="s">
+      <c r="J462" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K462" s="0" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B450" s="0" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C450" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D450" s="0" t="s">
+      <c r="B463" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D463" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="E450" s="0" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F450" s="0" t="s">
+      <c r="E463" s="0" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F463" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G450" s="0" t="str">
+      <c r="G463" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H450" s="0" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I450" s="0" t="s">
+      <c r="H463" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I463" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="J450" s="0" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K450" s="0" t="s">
+      <c r="J463" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K463" s="0" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B451" s="0" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C451" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D451" s="0" t="s">
+      <c r="B464" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D464" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="E451" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F451" s="0" t="s">
+      <c r="E464" s="0" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F464" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G451" s="0" t="str">
+      <c r="G464" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5e49c0b73ac161d5e5dd05173416c400.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H451" s="0" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I451" s="0" t="s">
+      <c r="H464" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I464" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="J451" s="0" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K451" s="0" t="s">
+      <c r="J464" s="0" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K464" s="0" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B452" s="0" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C452" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D452" s="0" t="s">
+      <c r="B465" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D465" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="E452" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F452" s="0" t="s">
+      <c r="E465" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F465" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G452" s="0" t="str">
+      <c r="G465" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H452" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I452" s="0" t="s">
+      <c r="H465" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I465" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="J452" s="0" t="s">
+      <c r="J465" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K465" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D467" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E467" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F467" s="0" t="s">
         <v>1205</v>
       </c>
-      <c r="K452" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C454" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D454" s="0" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E454" s="0" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F454" s="0" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G454" s="0" t="str">
+      <c r="G467" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H454" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I454" s="0" t="s">
+      <c r="H467" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I467" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="J454" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="K454" s="0" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C455" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D455" s="0" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E455" s="0" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F455" s="0" t="s">
+      <c r="J467" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K467" s="0" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E468" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F468" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G455" s="0" t="str">
+      <c r="G468" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H455" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I455" s="0" t="s">
+      <c r="H468" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I468" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="J455" s="0" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K455" s="0" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C456" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D456" s="0" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E456" s="0" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F456" s="0" t="s">
+      <c r="J468" s="0" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K468" s="0" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F469" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G456" s="0" t="str">
+      <c r="G469" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H456" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I456" s="0" t="s">
+      <c r="H469" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I469" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="J456" s="0" t="s">
-        <v>1217</v>
-      </c>
-      <c r="K456" s="0" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
+      <c r="J469" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K469" s="0" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B458" s="0" t="s">
+      <c r="B471" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C458" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D458" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E458" s="0" t="s">
+      <c r="C471" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E471" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="F458" s="0" t="s">
+      <c r="F471" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="G458" s="0" t="str">
+      <c r="G471" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bcfeacf77d49ef51a6ee66a1ab0ebcb4.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H458" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I458" s="0" t="s">
+      <c r="H471" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I471" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J458" s="0" t="s">
+      <c r="J471" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="K458" s="0" t="s">
+      <c r="K471" s="0" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B459" s="0" t="s">
+      <c r="B472" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C459" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D459" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E459" s="0" t="s">
+      <c r="C472" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E472" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="F459" s="0" t="s">
+      <c r="F472" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="G459" s="0" t="str">
+      <c r="G472" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c323f38340e4846931ad4891232d839d.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H459" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I459" s="0" t="s">
+      <c r="H472" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I472" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J459" s="0" t="s">
+      <c r="J472" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="K459" s="0" t="s">
+      <c r="K472" s="0" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B460" s="0" t="s">
+      <c r="B473" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C460" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D460" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E460" s="0" t="s">
+      <c r="C473" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E473" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="F460" s="0" t="s">
+      <c r="F473" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="G460" s="0" t="str">
+      <c r="G473" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c432bfbfc0e7f4403f91af39736ff61c.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H460" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I460" s="0" t="s">
+      <c r="H473" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I473" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J460" s="0" t="s">
+      <c r="J473" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="K460" s="0" t="s">
+      <c r="K473" s="0" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B461" s="0" t="s">
+      <c r="B474" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="C461" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D461" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E461" s="0" t="s">
+      <c r="C474" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E474" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="F461" s="0" t="s">
+      <c r="F474" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="G461" s="0" t="str">
+      <c r="G474" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/eb9ac643cd9c73cae960d6d2db7b901d.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H461" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I461" s="0" t="s">
+      <c r="H474" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I474" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J461" s="0" t="s">
+      <c r="J474" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="K461" s="0" t="s">
+      <c r="K474" s="0" t="s">
         <v>703</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C463" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D463" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E463" s="0" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F463" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="G463" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712494ba-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H463" s="0" t="s">
-        <v>1222</v>
-      </c>
-      <c r="I463" s="0" t="s">
-        <v>1223</v>
-      </c>
-      <c r="J463" s="0" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K463" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C464" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D464" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E464" s="0" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F464" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="G464" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913462e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H464" s="0" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I464" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J464" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="K464" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C465" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D465" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E465" s="0" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F465" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G465" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917ca14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H465" s="0" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I465" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J465" s="0" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K465" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C466" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D466" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E466" s="0" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F466" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G466" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f541a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H466" s="0" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I466" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J466" s="0" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K466" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C467" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D467" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E467" s="0" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F467" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G467" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171af6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H467" s="0" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I467" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J467" s="0" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K467" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C468" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D468" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E468" s="0" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F468" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G468" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591768a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H468" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I468" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J468" s="0" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K468" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C469" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D469" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E469" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F469" s="0" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G469" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e05c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H469" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I469" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J469" s="0" t="s">
-        <v>1248</v>
-      </c>
-      <c r="K469" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C470" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D470" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E470" s="0" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F470" s="0" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G470" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e034e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H470" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I470" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J470" s="0" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K470" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C471" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D471" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E471" s="0" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F471" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="G471" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148822-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H471" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I471" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J471" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K471" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C472" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D472" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E472" s="0" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F472" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="G472" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591313de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H472" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I472" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J472" s="0" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K472" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C473" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D473" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E473" s="0" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F473" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="G473" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e536c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H473" s="0" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I473" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J473" s="0" t="s">
-        <v>1261</v>
-      </c>
-      <c r="K473" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C474" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D474" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E474" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F474" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="G474" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eaf60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H474" s="0" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I474" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J474" s="0" t="s">
-        <v>1265</v>
-      </c>
-      <c r="K474" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="C475" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D475" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E475" s="0" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F475" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G475" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H475" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I475" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J475" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="K475" s="0" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19688,7 +19774,7 @@
         <v>793</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="C476" s="0" t="s">
         <v>23</v>
@@ -19697,26 +19783,26 @@
         <v>137</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="G476" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e3260-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712494ba-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
         <v>web</v>
       </c>
       <c r="H476" s="0" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="I476" s="0" t="s">
-        <v>1229</v>
+        <v>1261</v>
       </c>
       <c r="J476" s="0" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="K476" s="0" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19724,7 +19810,7 @@
         <v>793</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="C477" s="0" t="s">
         <v>23</v>
@@ -19733,26 +19819,26 @@
         <v>137</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="G477" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917ed1e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913462e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H477" s="0" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="I477" s="0" t="s">
-        <v>1229</v>
+        <v>1267</v>
       </c>
       <c r="J477" s="0" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="K477" s="0" t="s">
-        <v>1225</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19760,7 +19846,7 @@
         <v>793</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>225</v>
+        <v>1269</v>
       </c>
       <c r="C478" s="0" t="s">
         <v>23</v>
@@ -19769,48 +19855,496 @@
         <v>137</v>
       </c>
       <c r="E478" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F478" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G478" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917ca14-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H478" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I478" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J478" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K478" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D479" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E479" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F479" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G479" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f541a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H479" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I479" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J479" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K479" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D480" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E480" s="0" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F480" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G480" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59171af6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H480" s="0" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I480" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J480" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K480" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D481" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E481" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F481" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G481" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591768a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H481" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I481" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J481" s="0" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K481" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D482" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E482" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F482" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G482" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e05c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H482" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I482" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J482" s="0" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K482" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D483" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E483" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F483" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G483" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e034e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H483" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I483" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J483" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K483" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D484" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E484" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F484" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G484" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59148822-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H484" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I484" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J484" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K484" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D485" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E485" s="0" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F485" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G485" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591313de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H485" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I485" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J485" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K485" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D486" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E486" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F486" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G486" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e536c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H486" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I486" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J486" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K486" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E487" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F487" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G487" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590eaf60-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H487" s="0" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I487" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J487" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K487" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>904</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E488" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F488" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G488" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H488" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I488" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J488" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="K488" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D489" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E489" s="0" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F489" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G489" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e3260-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H489" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I489" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J489" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K489" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D490" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E490" s="0" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F490" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G490" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917ed1e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H490" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I490" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J490" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K490" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C491" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D491" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E491" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="F478" s="0" t="s">
+      <c r="F491" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="G478" s="0" t="str">
+      <c r="G491" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51e0588121783d77407236e0d2eb5d14.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H478" s="0" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I478" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J478" s="0" t="s">
+      <c r="H491" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I491" s="0" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J491" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K478" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K491" s="0" t="s">
+        <v>1263</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="1405">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -3977,6 +3977,264 @@
   </si>
   <si>
     <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IyrAnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelCellAreai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cell area of the ice sheet model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xant yant time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Grid Cell Covered with Glacier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xant yant time typegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grounded Ice Sheet  Area Fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of grid cell covered by grounded ice sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alevhalf spectband</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in IFS: All Up and downwelling radiation is only at the TOA and the surface available in IFS standard output. In IFS it is not possible to distinguish output in spectral intervals. Note here also global area and time averages are asked. Or maybe output at a certain diagnostic time step is meant? (No grib code available on table 128 -  Grib 1 for different spectral bands). Would it be possible to output 2 spectral bands: UV and NIR both of them diffuse and parallel. We need to ask expert of the radiation code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swtoafluxaerocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortwave flux due to volcanic aerosols at TOA under clear sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available, because it is not available in IFS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downwelling shortwave flux due to volcanic aerosols at TOA under clear sky to be diagnosed through double radiation call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lwtoafluxaerocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longwave flux due to volcanic aerosols at TOA under clear sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downwelling longwave flux due to volcanic aerosols at TOA under clear sky to be diagnosed through double radiation call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aod550volso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol optical depth at 550 nm due to stratospheric volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerosol optical depth at 550 nm due to stratospheric volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6hrZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmswaero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude alevel time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonal mean shortwave heating rate due to volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortwave heating rate due to volcanic aerosols to be diagnosed through double radiation call, zonal average values required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmlwaero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonal mean longwave heating rate due to volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longwave heating rate due to volcanic aerosols to be diagnosed through double radiation call, zonal average values required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfdsnb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward heat flux at snow base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in IFS output, however it is computed in H-TESSEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs, Andrea, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat flux from snow into the ice or land under the snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS3MIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat transferred to snowpack by rainfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat transferred to a snow cover by rain..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Water Evaporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'Water' means water in all phases, including frozen i.e. ice and snow. Evaporation is the conversion of liquid or solid into vapor. (The conversion of solid alone into vapor is called 'sublimation'). The quantity with standard name surface_water_evaporation_flux does not include transpiration from vegetation. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. Unless indicated in the cell_methods attribute, a quantity is assumed to apply to the whole area of each horizontal grid box. Previously, the qualifier where_type was used to specify that the quantity applies only to the part of the grid box of the named type. Names containing the where_type qualifier are deprecated and newly created data should use the cell_methods attribute to indicate the horizontal area to which the quantity applies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sblnosn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublimation of the snow free area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'tendency_of_X' means derivative of X with respect to time. 'Content' indicates a quantity per unit area. The 'atmosphere content' of a quantity refers to the vertical integral from the surface to the top of the atmosphere. For the content between specified levels in the atmosphere, standard names including content_of_atmosphere_layer are used. Atmosphere water vapor content is sometimes referred to as 'precipitable water', although this term does not imply the water could all be precipitated. The specification of a physical process by the phrase due_to_process means that the quantity named is a single term in a sum of terms which together compose the general quantity named by omitting the phrase. Sublimation is the conversion of solid into vapor. Unless indicated in the cell_methods attribute, a quantity is assumed to apply to the whole area of each horizontal grid box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snrefr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-freezing of water in the snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. The surface called 'surface' means the lower boundary of the atmosphere. 'Surface snow and ice refreezing flux' means the mass flux of surface  meltwater which refreezes within the snow or firn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qgwr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundwater recharge from soil layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not represented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. Groundwater is subsurface water below the depth of the water table. The quantity with standard name liquid_water_mass_flux_from_soil_to_groundwater is the downward flux of liquid water within soil at the depth of the water table, or downward flux from the base of the soil model if the water table depth is greater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outflow of River Water from Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Inflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflow of River Water into Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in Groundwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'change_over_time_in_X' means change in a quantity X over a time-interval, which should be defined by the bounds of the time coordinate. 'Water' means water in all phases. Groundwater is subsurface water below the depth of the water table. 'Amount' means mass per unit area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drivw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in River Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'change_over_time_in_X' means change in a quantity X over a time-interval, which should be defined by the bounds of the time coordinate. 'Water' means water in all phases. 'River' refers to the water in the fluvial system (stream and floodplain). 'Amount' means mass per unit area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snwc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE intercepted by the vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no represented: equal to zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total water mass of the snowpack (liquid or frozen), averaged over a grid cell and interecepted by the canopy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Water Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not represented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total liquid water storage, other than soil, snow or interception storage (i.e. lakes, river channel or depression storage).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water table depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prrsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of rainfall on snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of the grid averaged rainfall which falls on the snow pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsnsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of snowfall (including hail and graupel) on snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of the snowfall which falls on the snow pack</t>
   </si>
 </sst>
 </file>
@@ -4066,7 +4324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4081,6 +4339,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4100,13 +4362,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K485"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A459" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H485" activeCellId="0" sqref="H485:I485"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C492" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H508" activeCellId="0" sqref="H508:I523"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -20069,7 +20331,6 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
         <v>1294</v>
@@ -20245,6 +20506,1008 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E488" s="0" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F488" s="0" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G488" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H488" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I488" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J488" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K488" s="0" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D489" s="0" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E489" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F489" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G489" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I489" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J489" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K489" s="0" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D490" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E490" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F490" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G490" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H490" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I490" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J490" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K490" s="0" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D493" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E493" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F493" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G493" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H493" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I493" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J493" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="K493" s="0" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D494" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E494" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F494" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G494" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I494" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J494" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="K494" s="0" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D495" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E495" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F495" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G495" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H495" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I495" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J495" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="K495" s="0" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D496" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E496" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F496" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G496" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I496" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J496" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="K496" s="0" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E499" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F499" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G499" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914e34e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H499" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I499" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J499" s="0" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K499" s="0" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D500" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E500" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F500" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G500" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1586-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H500" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I500" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J500" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K500" s="0" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D502" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="E502" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F502" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="G502" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c6e8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H502" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I502" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J502" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K502" s="0" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D504" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E504" s="0" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F504" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G504" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d64f2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H504" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I504" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J504" s="0" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K504" s="0" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E505" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F505" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="G505" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d0c6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H505" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I505" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J505" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K505" s="0" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D508" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E508" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F508" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H508" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I508" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J508" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K508" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B509" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D509" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E509" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F509" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H509" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I509" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J509" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K509" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B510" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D510" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E510" s="0" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F510" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H510" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I510" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J510" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K510" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E511" s="0" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F511" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H511" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I511" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J511" s="0" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K511" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D512" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F512" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H512" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I512" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J512" s="0" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K512" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D513" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E513" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F513" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H513" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I513" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J513" s="0" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K513" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D514" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E514" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F514" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H514" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I514" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J514" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K514" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D515" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E515" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F515" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H515" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I515" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J515" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K515" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E516" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F516" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="G516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H516" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I516" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J516" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K516" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E517" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F517" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="G517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H517" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I517" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J517" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K517" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D518" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E518" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F518" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="G518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H518" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I518" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J518" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K518" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E519" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F519" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="G519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H519" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I519" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J519" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K519" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B520" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C520" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D520" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E520" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F520" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I520" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J520" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K520" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D521" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E521" s="0" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F521" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H521" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I521" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J521" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K521" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B522" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D522" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E522" s="0" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F522" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I522" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J522" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K522" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E523" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F523" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H523" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I523" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J523" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="K523" s="0" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4759" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4769" uniqueCount="1411">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4052,6 +4052,24 @@
   </si>
   <si>
     <t xml:space="preserve">aerosol optical depth at 550 nm due to stratospheric volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time lambda550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol extinction coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though available for 6hrLev  tm5 code name = ec550aer this variable is not available for Emon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol Extinction at 550nm</t>
   </si>
   <si>
     <t xml:space="preserve">E6hrZ</t>
@@ -4364,8 +4382,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C492" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H508" activeCellId="0" sqref="H508:I523"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B484" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H504" activeCellId="0" sqref="H504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4379,7 +4397,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -20863,146 +20881,112 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
+    <row r="504" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B504" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="B504" s="0" t="s">
+      <c r="C504" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D504" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="C504" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D504" s="0" t="s">
+      <c r="E504" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="E504" s="0" t="s">
+      <c r="F504" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="F504" s="0" t="s">
+      <c r="G504" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be9cffbb781e32b0bc311b22fa5c0322.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H504" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I504" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J504" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K504" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D506" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E506" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F506" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G504" s="0" t="str">
+      <c r="G506" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d64f2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H504" s="4" t="s">
+      <c r="H506" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="I504" s="4" t="s">
+      <c r="I506" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="J504" s="0" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K504" s="0" t="s">
+      <c r="J506" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K506" s="0" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="0" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B505" s="0" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C505" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D505" s="0" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E505" s="0" t="s">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
         <v>1350</v>
       </c>
-      <c r="F505" s="0" t="s">
+      <c r="B507" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E507" s="0" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F507" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="G505" s="0" t="str">
+      <c r="G507" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d0c6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H505" s="4" t="s">
+      <c r="H507" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="I505" s="4" t="s">
+      <c r="I507" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="J505" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="K505" s="0" t="s">
+      <c r="J507" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K507" s="0" t="s">
         <v>1337</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C508" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D508" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E508" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F508" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="G508" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H508" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I508" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="J508" s="0" t="s">
-        <v>1356</v>
-      </c>
-      <c r="K508" s="0" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C509" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D509" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E509" s="0" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F509" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="G509" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H509" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I509" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J509" s="0" t="s">
-        <v>1361</v>
-      </c>
-      <c r="K509" s="0" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21010,7 +20994,7 @@
         <v>890</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C510" s="0" t="s">
         <v>31</v>
@@ -21019,25 +21003,25 @@
         <v>171</v>
       </c>
       <c r="E510" s="0" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F510" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H510" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I510" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J510" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K510" s="0" t="s">
         <v>1363</v>
-      </c>
-      <c r="F510" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="G510" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H510" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="I510" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J510" s="0" t="s">
-        <v>1365</v>
-      </c>
-      <c r="K510" s="0" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21045,7 +21029,7 @@
         <v>890</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C511" s="0" t="s">
         <v>31</v>
@@ -21054,25 +21038,25 @@
         <v>171</v>
       </c>
       <c r="E511" s="0" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="G511" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H511" s="3" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="I511" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J511" s="0" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="K511" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21080,7 +21064,7 @@
         <v>890</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C512" s="0" t="s">
         <v>31</v>
@@ -21089,7 +21073,7 @@
         <v>171</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F512" s="0" t="s">
         <v>173</v>
@@ -21098,7 +21082,7 @@
         <v>0</v>
       </c>
       <c r="H512" s="3" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="I512" s="3" t="s">
         <v>1012</v>
@@ -21107,7 +21091,7 @@
         <v>1371</v>
       </c>
       <c r="K512" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21133,16 +21117,16 @@
         <v>0</v>
       </c>
       <c r="H513" s="3" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I513" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J513" s="0" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="K513" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21150,7 +21134,7 @@
         <v>890</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C514" s="0" t="s">
         <v>31</v>
@@ -21159,25 +21143,25 @@
         <v>171</v>
       </c>
       <c r="E514" s="0" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>1378</v>
+        <v>173</v>
       </c>
       <c r="G514" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H514" s="3" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="I514" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J514" s="0" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="K514" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21185,7 +21169,7 @@
         <v>890</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C515" s="0" t="s">
         <v>31</v>
@@ -21194,25 +21178,25 @@
         <v>171</v>
       </c>
       <c r="E515" s="0" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F515" s="0" t="s">
-        <v>1378</v>
+        <v>173</v>
       </c>
       <c r="G515" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H515" s="3" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="I515" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J515" s="0" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="K515" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21220,7 +21204,7 @@
         <v>890</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>31</v>
@@ -21229,16 +21213,16 @@
         <v>171</v>
       </c>
       <c r="E516" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F516" s="0" t="s">
         <v>1384</v>
       </c>
-      <c r="F516" s="0" t="s">
-        <v>894</v>
-      </c>
       <c r="G516" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="I516" s="3" t="s">
         <v>1012</v>
@@ -21247,7 +21231,7 @@
         <v>1385</v>
       </c>
       <c r="K516" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21267,13 +21251,13 @@
         <v>1387</v>
       </c>
       <c r="F517" s="0" t="s">
-        <v>894</v>
+        <v>1384</v>
       </c>
       <c r="G517" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H517" s="3" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="I517" s="3" t="s">
         <v>1012</v>
@@ -21282,7 +21266,7 @@
         <v>1388</v>
       </c>
       <c r="K517" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21308,16 +21292,16 @@
         <v>0</v>
       </c>
       <c r="H518" s="3" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="I518" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J518" s="0" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="K518" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21325,7 +21309,7 @@
         <v>890</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C519" s="0" t="s">
         <v>31</v>
@@ -21334,7 +21318,7 @@
         <v>171</v>
       </c>
       <c r="E519" s="0" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F519" s="0" t="s">
         <v>894</v>
@@ -21343,16 +21327,16 @@
         <v>0</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="I519" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J519" s="0" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="K519" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21360,7 +21344,7 @@
         <v>890</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1005</v>
+        <v>1395</v>
       </c>
       <c r="C520" s="0" t="s">
         <v>31</v>
@@ -21369,25 +21353,25 @@
         <v>171</v>
       </c>
       <c r="E520" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F520" s="0" t="s">
+        <v>894</v>
+      </c>
+      <c r="G520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" s="3" t="s">
         <v>1397</v>
-      </c>
-      <c r="F520" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G520" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H520" s="3" t="s">
-        <v>1374</v>
       </c>
       <c r="I520" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J520" s="0" t="s">
-        <v>1008</v>
+        <v>1398</v>
       </c>
       <c r="K520" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21395,7 +21379,7 @@
         <v>890</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C521" s="0" t="s">
         <v>31</v>
@@ -21404,25 +21388,25 @@
         <v>171</v>
       </c>
       <c r="E521" s="0" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>31</v>
+        <v>894</v>
       </c>
       <c r="G521" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="I521" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J521" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="K521" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21430,7 +21414,7 @@
         <v>890</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1402</v>
+        <v>1005</v>
       </c>
       <c r="C522" s="0" t="s">
         <v>31</v>
@@ -21442,22 +21426,22 @@
         <v>1403</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G522" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="I522" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J522" s="0" t="s">
-        <v>1404</v>
+        <v>1008</v>
       </c>
       <c r="K522" s="0" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21465,7 +21449,7 @@
         <v>890</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>260</v>
+        <v>1404</v>
       </c>
       <c r="C523" s="0" t="s">
         <v>31</v>
@@ -21474,29 +21458,97 @@
         <v>171</v>
       </c>
       <c r="E523" s="0" t="s">
-        <v>261</v>
+        <v>1405</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="G523" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="I523" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="J523" s="0" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K523" s="0" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E524" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F524" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H524" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I524" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J524" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K524" s="0" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B525" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D525" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E525" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F525" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I525" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J525" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="K523" s="0" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K525" s="0" t="s">
+        <v>1363</v>
+      </c>
+    </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -4731,10 +4731,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1026"/>
+  <dimension ref="A1:K1027"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1005" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1026" activeCellId="0" sqref="H1026"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A946" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A965" activeCellId="0" sqref="965:1027"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39706,7 +39706,7 @@
       </c>
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1024" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1024" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="3" t="s">
         <v>712</v>
       </c>
@@ -39742,7 +39742,8 @@
         <v>717</v>
       </c>
     </row>
-    <row r="1026" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1026" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="3" t="s">
         <v>381</v>
       </c>
@@ -39778,6 +39779,7 @@
         <v>387</v>
       </c>
     </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9747" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10237" uniqueCount="1721">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4619,6 +4619,570 @@
   </si>
   <si>
     <t xml:space="preserve">Temperature of upper boundary of the liquid ocean, including temperatures below sea-ice and floating ice shelves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cloud Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 248.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover, including both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Cloud Liquid Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 246.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes both large-scale and convective cloud. Calculate as the mass of cloud liquid water in the grid cell divided by the mass of air (including the water in all phases) in the grid cells. Precipitating hydrometeors are included ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Cloud Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 247.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes both large-scale and convective cloud. This is calculated as the mass of cloud ice in the grid cell divided by the mass of air (including the water in all phases) in the grid cell. It includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 130.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 131.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonal wind (positive in a eastward direction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">va</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 132.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meridional wind (positive in a northward direction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 133.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific humidity is the mass fraction of water vapor in (moist) air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 157.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega (=dp/dt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 135.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega (vertical velocity in pressure coordinates, positive downwards)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopotential Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 129.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopotential is the sum of the specific gravitational potential energy relative to the geoid and the specific centripetal potential energy. Geopotential height is the geopotential divided by the standard acceleration due to gravity. It is numerically similar to the altitude (or geometric height) and not to the quantity with standard name height, which is relative to the surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure at Model Full-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 54.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air pressure on model levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm5 code name = phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site time1 height2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 167.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near-surface (usually, 2 meter) air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 139.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Level Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 151.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Air Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm5 code name = ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface pressure (not mean sea-level pressure), 2-D field to calculate the 3-D pressure field from hybrid coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site time1 height10m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Near-Surface Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 165.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward component of the near-surface (usually, 10 meters)  wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Near-Surface Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 166.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward component of the near surface wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfcWind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Wind Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 214.128, expression = sqrt(sqr(var165)+sqr(var166))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near-surface (usually, 10 meters) wind speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 80.129, expression = 100.*exp(17.62*((var168-273.15)/(var168-30.03)-(var167-273.15)/(var167-30.03)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 81.129, expression = 1./(1.+1.608*(var134*exp(-17.62*(var168-273.15)/(var168-30.03))/611.-1.))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-surface (usually, 2 meter) specific humidity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 228.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes both liquid and solid phases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowfall Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 144.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At surface; includes precipitation of all forms of water in the solid phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 143.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective precipitation at surface; includes both liquid and solid phases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evspsbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation Including Sublimation and Transpiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 182.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation at surface (also known as evapotranspiration): flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Snow and Ice Sublimation Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 44.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snow and ice sublimation flux is the loss of snow and ice mass per unit area from the surface resulting from their direct conversion to water vapor that enters the atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downward Eastward Wind Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 180.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward eastward wind stress at the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downward Northward Wind Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 181.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward northward wind stress at the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upward Latent Heat Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 147.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upward Sensible Heat Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 146.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 175.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'longwave' means longwave radiation. Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'. In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 96.129, expression = var177-var175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 169.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface solar irradiance for UV calculations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 95.129, expression = var176-var169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 102.129, expression = var210-var176+var169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface solar irradiance clear sky for UV calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsuscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Clear-sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rldscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Clear-Sky Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 104.129, expression = var211-var177+var175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface downwelling clear-sky longwave radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Incident Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 212.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortwave radiation incident at the top of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 97.129, expression = var178-var212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the top of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 179.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the top of the atmosphere (to be compared with satellite measurements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 209.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upwelling clear-sky longwave radiation at top of atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 103.129, expression = var208-var212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated in the absence of clouds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Vapor Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 137.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertically integrated through the atmospheric column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 164.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cloud area fraction for the whole atmospheric column, as seen from the surface or the top of the atmosphere. Includes both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clwvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condensed Water Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 116.129, expression = var78+var79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass of condensed (liquid + ice) water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Water Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 79.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass of ice water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating frozen hydrometeors ONLY if the precipitating hydrometeor affects the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 98.129, expression = var178+var179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model : I.e., at the top of that portion of the atmosphere where dynamics are explicitly treated by the model. This is reported only if it differs from the net downward radiative flux at the top of the atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpjg code name = fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpjg code name = fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
   </si>
 </sst>
 </file>
@@ -4746,10 +5310,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1029"/>
+  <dimension ref="A1:K1080"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A997" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A967" activeCellId="0" sqref="967:1030"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1049" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1017" activeCellId="1" sqref="1031:1080 A1017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4763,7 +5327,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -39868,6 +40432,1771 @@
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1032" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C1032" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1032" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1032" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F1032" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1032" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e0ecf1c1305c1bdc69bee0e7ba1e2e03.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1032" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I1032" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1032" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K1032" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1033" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C1033" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1033" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1033" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F1033" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G1033" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2b3318a73839edfafa9d46864aadc.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1033" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I1033" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1033" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K1033" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1034" s="0" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C1034" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1034" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1034" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F1034" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G1034" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dd916e3e2eca18cda5d9f81749d0c91c.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1034" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I1034" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1034" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K1034" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1035" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1035" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1035" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1035" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F1035" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1035" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b9c3eb96337c69c1c4a5aab1317f5563.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1035" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="I1035" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1035" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K1035" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C1036" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1036" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1036" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F1036" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1036" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21db90c0a12448299f855fdab60930d4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1036" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I1036" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1036" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="K1036" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1037" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1037" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1037" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1037" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F1037" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1037" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2dedcb347c18e132a2f4d625abf94585.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1037" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I1037" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1037" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K1037" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1038" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1038" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1038" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1038" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F1038" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1038" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53f4724d228998d54191c73352532ce3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1038" s="0" t="s">
+        <v>1558</v>
+      </c>
+      <c r="I1038" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1038" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K1038" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1039" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C1039" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1039" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1039" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F1039" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1039" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cc6766c2d001a58d18dfe7f60fd5e66.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1039" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I1039" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1039" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="K1039" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1040" s="0" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C1040" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1040" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1040" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F1040" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G1040" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51fb29dd55442361fa9c5dbe23aca9c6.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1040" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I1040" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1040" s="0" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K1040" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1041" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C1041" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1041" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1041" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F1041" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1041" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/28e774ec0ecd561a6a3d437e6c443a6b.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1041" s="0" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I1041" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1041" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K1041" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1042" s="0" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1042" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1042" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1042" s="0" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F1042" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1042" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7a107875bd58c5e655e8f87152a3bad7.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1042" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I1042" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1042" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K1042" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1043" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1043" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1043" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1043" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F1043" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1043" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1043" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I1043" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1043" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K1043" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1044" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C1044" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1044" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E1044" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F1044" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1044" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5c4978e802ba55d5a298cf1b3bdc2b3a.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1044" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I1044" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1044" s="0" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K1044" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1045" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C1045" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1045" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1045" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F1045" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1045" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90c49fce92dc1f21647dad07d1342843.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1045" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I1045" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1045" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K1045" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1046" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C1046" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1046" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1046" s="0" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F1046" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1046" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3d23c359f44d6a153c4dcab9e07d7cb6.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1046" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I1046" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1046" s="0" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K1046" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1047" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1047" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1047" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1047" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F1047" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1047" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8c9504d28596e05586c8e193082ac617.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1047" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I1047" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1047" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K1047" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1048" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C1048" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1048" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E1048" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F1048" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1048" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e72b243a2a1c8691ab0168d8b62534c2.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1048" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I1048" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1048" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K1048" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1049" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C1049" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1049" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E1049" s="0" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F1049" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1049" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b1cd51f370e346ecb20f1e80cb6ea4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1049" s="0" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I1049" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1049" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K1049" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1050" s="0" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C1050" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1050" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E1050" s="0" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F1050" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1050" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b97609a32d53dff5b8e73729e4f258b.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1050" s="0" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I1050" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1050" s="0" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K1050" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1051" s="0" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1051" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1051" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E1051" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F1051" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1051" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c75f684ec69602e9de82b48e53afb2cc.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1051" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I1051" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1051" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="K1051" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1052" s="0" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1052" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1052" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E1052" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F1052" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1052" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebfefc2ab8716ef597b128171b275945.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1052" s="0" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I1052" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1052" s="0" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1052" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1053" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1053" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1053" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1053" s="0" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F1053" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1053" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62f26742cf240c1b5169a5cd511196b6.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1053" s="0" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I1053" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1053" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K1053" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1054" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1054" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1054" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1054" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F1054" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1054" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/051919eddec810e292c883205c944ceb.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1054" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I1054" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1054" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K1054" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1055" s="0" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C1055" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1055" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1055" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F1055" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1055" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa2bea81f238ad8f2c35a7e16ad97801.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1055" s="0" t="s">
+        <v>1623</v>
+      </c>
+      <c r="I1055" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1055" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K1055" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1056" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C1056" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1056" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1056" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F1056" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1056" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/089961a3af4d54d5fb045cf3750e760c.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1056" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I1056" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1056" s="0" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K1056" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1057" s="0" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C1057" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1057" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1057" s="0" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F1057" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1057" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3a8e1636a31c82fbdd9a1ae45ab3be7d.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1057" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I1057" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1057" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="K1057" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1058" s="0" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C1058" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1058" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1058" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F1058" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1058" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3abb7c5b4c4650e9d17a8439004aebea.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1058" s="0" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I1058" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1058" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K1058" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1059" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C1059" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1059" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1059" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F1059" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1059" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd10cebbde1593b65e5220911f9a997c.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1059" s="0" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I1059" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1059" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K1059" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1060" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1060" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1060" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1060" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F1060" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1060" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/95cbf6ac889c8fe7d92e20e8c34960d1.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1060" s="0" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I1060" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1060" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K1060" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1061" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C1061" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1061" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1061" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F1061" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1061" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a13ed886b17e20cdae8b89b9ff8e4610.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1061" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I1061" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1061" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K1061" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1062" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C1062" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1062" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1062" s="0" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F1062" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1062" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70d7d6fc0e9c2f14624a0270bf2b99b9.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1062" s="0" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I1062" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1062" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K1062" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1063" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1063" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1063" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1063" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F1063" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1063" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89027ee0079acb709750ddeac1c08899.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1063" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I1063" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1063" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K1063" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1064" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1064" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1064" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1064" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F1064" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1064" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e7b9f984d3bba15daccaaa18039a85d.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1064" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I1064" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1064" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K1064" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1065" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C1065" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1065" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1065" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F1065" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1065" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70bf79db957daa3b82413da949233ac7.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1065" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I1065" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1065" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K1065" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1066" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C1066" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1066" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1066" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F1066" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1066" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d0a35d5c99a0aa93ad4069cfe83bf748.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1066" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I1066" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1066" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K1066" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1067" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1067" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1067" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1067" s="0" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F1067" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1067" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e2.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1067" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I1067" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1067" s="0" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K1067" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1068" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C1068" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1068" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1068" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F1068" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1068" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7b2d1e1a3ece1169d8ac61af4b758ed2.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1068" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I1068" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1068" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K1068" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1069" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C1069" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1069" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1069" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F1069" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1069" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a21e250a10f96b1c1ad6d742206a157e.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1069" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I1069" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1069" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K1069" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1070" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1070" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1070" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1070" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F1070" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1070" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b907fef85d4c9571a9457ee1b259bb8f.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1070" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I1070" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1070" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K1070" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1071" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1071" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1071" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1071" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F1071" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1071" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/63345d9732c72b97ca395f24ce2d6642.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1071" s="0" t="s">
+        <v>1683</v>
+      </c>
+      <c r="I1071" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1071" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K1071" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1072" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C1072" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1072" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1072" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F1072" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1072" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/921b8b8f6620826567d9324314c70410.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1072" s="0" t="s">
+        <v>1687</v>
+      </c>
+      <c r="I1072" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1072" s="0" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K1072" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1073" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C1073" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1073" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1073" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F1073" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1073" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/12e0369ff0ba1a6f1a84e0d9565d4b07.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1073" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I1073" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1073" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K1073" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1074" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1074" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1074" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1074" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F1074" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1074" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc637f1c75e58be8a6e4112411a00f36.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1074" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I1074" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1074" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K1074" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1075" s="0" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1075" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1075" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1075" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F1075" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1075" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c2249d424dde72f8616d42870a9d425.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1075" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I1075" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1075" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K1075" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1076" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1076" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1076" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1076" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F1076" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1076" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a1dd605b563e9f09c718a5ba9cb9cc.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1076" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I1076" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1076" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K1076" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1077" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1077" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1077" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1077" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F1077" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1077" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/73c496f5669cc122cf1cddfe4df2a27a.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1077" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I1077" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1077" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K1077" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1078" s="0" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1078" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1078" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1078" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F1078" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1078" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26328c46dfcc65d454b6fd4c52ccb48f.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1078" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I1078" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1078" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K1078" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1079" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1079" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1079" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1079" s="0" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F1079" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1079" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1079" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I1079" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1079" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K1079" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1080" s="0" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1080" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1080" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1080" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F1080" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1080" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1080" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I1080" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1080" s="0" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K1080" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10237" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9747" uniqueCount="1533">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4619,570 +4619,6 @@
   </si>
   <si>
     <t xml:space="preserve">Temperature of upper boundary of the liquid ocean, including temperatures below sea-ice and floating ice shelves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cloud Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 248.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover, including both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Cloud Liquid Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 246.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes both large-scale and convective cloud. Calculate as the mass of cloud liquid water in the grid cell divided by the mass of air (including the water in all phases) in the grid cells. Precipitating hydrometeors are included ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Cloud Ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 247.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes both large-scale and convective cloud. This is calculated as the mass of cloud ice in the grid cell divided by the mass of air (including the water in all phases) in the grid cell. It includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 130.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 131.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonal wind (positive in a eastward direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">va</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 132.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meridional wind (positive in a northward direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 133.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific humidity is the mass fraction of water vapor in (moist) air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 157.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega (=dp/dt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 135.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega (vertical velocity in pressure coordinates, positive downwards)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopotential Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 129.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopotential is the sum of the specific gravitational potential energy relative to the geoid and the specific centripetal potential energy. Geopotential height is the geopotential divided by the standard acceleration due to gravity. It is numerically similar to the altitude (or geometric height) and not to the quantity with standard name height, which is relative to the surface.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pfull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure at Model Full-Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 54.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air pressure on model levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm5 code name = phalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site time1 height2m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 167.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">near-surface (usually, 2 meter) air temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 139.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea Level Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 151.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Air Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm5 code name = ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface pressure (not mean sea-level pressure), 2-D field to calculate the 3-D pressure field from hybrid coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site time1 height10m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Near-Surface Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 165.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward component of the near-surface (usually, 10 meters)  wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Near-Surface Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 166.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward component of the near surface wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfcWind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Wind Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 214.128, expression = sqrt(sqr(var165)+sqr(var166))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">near-surface (usually, 10 meters) wind speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 80.129, expression = 100.*exp(17.62*((var168-273.15)/(var168-30.03)-(var167-273.15)/(var167-30.03)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 81.129, expression = 1./(1.+1.608*(var134*exp(-17.62*(var168-273.15)/(var168-30.03))/611.-1.))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-surface (usually, 2 meter) specific humidity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 228.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">includes both liquid and solid phases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowfall Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 144.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At surface; includes precipitation of all forms of water in the solid phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 143.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective precipitation at surface; includes both liquid and solid phases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evspsbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Including Sublimation and Transpiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 182.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation at surface (also known as evapotranspiration): flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Snow and Ice Sublimation Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 44.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The snow and ice sublimation flux is the loss of snow and ice mass per unit area from the surface resulting from their direct conversion to water vapor that enters the atmosphere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downward Eastward Wind Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 180.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward eastward wind stress at the surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downward Northward Wind Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 181.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward northward wind stress at the surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upward Latent Heat Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 147.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upward Sensible Heat Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 146.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 175.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'longwave' means longwave radiation. Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'. In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 96.129, expression = var177-var175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 169.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface solar irradiance for UV calculations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 95.129, expression = var176-var169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsdscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 102.129, expression = var210-var176+var169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface solar irradiance clear sky for UV calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsuscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Clear-sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rldscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Clear-Sky Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 104.129, expression = var211-var177+var175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface downwelling clear-sky longwave radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsdt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Incident Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 212.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortwave radiation incident at the top of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 97.129, expression = var178-var212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at the top of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 179.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at the top of the atmosphere (to be compared with satellite measurements)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 209.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upwelling clear-sky longwave radiation at top of atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsutcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 103.129, expression = var208-var212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated in the absence of clouds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Vapor Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 137.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertically integrated through the atmospheric column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 164.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cloud area fraction for the whole atmospheric column, as seen from the surface or the top of the atmosphere. Includes both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clwvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condensed Water Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 116.129, expression = var78+var79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass of condensed (liquid + ice) water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Water Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 79.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass of ice water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating frozen hydrometeors ONLY if the precipitating hydrometeor affects the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rtmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 98.129, expression = var178+var179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model : I.e., at the top of that portion of the atmosphere where dynamics are explicitly treated by the model. This is reported only if it differs from the net downward radiative flux at the top of the atmosphere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpjg code name = fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpjg code name = fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
   </si>
 </sst>
 </file>
@@ -5310,10 +4746,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1080"/>
+  <dimension ref="A1:K1029"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1049" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1017" activeCellId="1" sqref="1031:1080 A1017"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A997" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A967" activeCellId="0" sqref="967:1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5327,7 +4763,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -40432,1771 +39868,6 @@
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1032" s="0" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C1032" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1032" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1032" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F1032" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1032" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e0ecf1c1305c1bdc69bee0e7ba1e2e03.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1032" s="0" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I1032" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1032" s="0" t="s">
-        <v>1536</v>
-      </c>
-      <c r="K1032" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1033" s="0" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C1033" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1033" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1033" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F1033" s="0" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G1033" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2b3318a73839edfafa9d46864aadc.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1033" s="0" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I1033" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1033" s="0" t="s">
-        <v>1540</v>
-      </c>
-      <c r="K1033" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1034" s="0" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C1034" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1034" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1034" s="0" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F1034" s="0" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G1034" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dd916e3e2eca18cda5d9f81749d0c91c.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1034" s="0" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I1034" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1034" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="K1034" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1035" s="0" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C1035" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1035" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1035" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F1035" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1035" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b9c3eb96337c69c1c4a5aab1317f5563.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1035" s="0" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I1035" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1035" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="K1035" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1036" s="0" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C1036" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1036" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1036" s="0" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F1036" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1036" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21db90c0a12448299f855fdab60930d4.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1036" s="0" t="s">
-        <v>1550</v>
-      </c>
-      <c r="I1036" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1036" s="0" t="s">
-        <v>1551</v>
-      </c>
-      <c r="K1036" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1037" s="0" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C1037" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1037" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1037" s="0" t="s">
-        <v>1553</v>
-      </c>
-      <c r="F1037" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1037" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2dedcb347c18e132a2f4d625abf94585.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1037" s="0" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I1037" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1037" s="0" t="s">
-        <v>1555</v>
-      </c>
-      <c r="K1037" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1038" s="0" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C1038" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1038" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1038" s="0" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F1038" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1038" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53f4724d228998d54191c73352532ce3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1038" s="0" t="s">
-        <v>1558</v>
-      </c>
-      <c r="I1038" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1038" s="0" t="s">
-        <v>1559</v>
-      </c>
-      <c r="K1038" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1039" s="0" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C1039" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1039" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1039" s="0" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F1039" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1039" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cc6766c2d001a58d18dfe7f60fd5e66.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1039" s="0" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I1039" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1039" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="K1039" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1040" s="0" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C1040" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1040" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1040" s="0" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F1040" s="0" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G1040" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51fb29dd55442361fa9c5dbe23aca9c6.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1040" s="0" t="s">
-        <v>1566</v>
-      </c>
-      <c r="I1040" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1040" s="0" t="s">
-        <v>1567</v>
-      </c>
-      <c r="K1040" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1041" s="0" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C1041" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1041" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1041" s="0" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F1041" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1041" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/28e774ec0ecd561a6a3d437e6c443a6b.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1041" s="0" t="s">
-        <v>1570</v>
-      </c>
-      <c r="I1041" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1041" s="0" t="s">
-        <v>1571</v>
-      </c>
-      <c r="K1041" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1042" s="0" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C1042" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1042" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1042" s="0" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F1042" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1042" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7a107875bd58c5e655e8f87152a3bad7.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1042" s="0" t="s">
-        <v>1574</v>
-      </c>
-      <c r="I1042" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1042" s="0" t="s">
-        <v>1575</v>
-      </c>
-      <c r="K1042" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1043" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1043" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C1043" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1043" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1043" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F1043" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1043" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1043" s="0" t="s">
-        <v>1576</v>
-      </c>
-      <c r="I1043" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1043" s="0" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K1043" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1044" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1044" s="0" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C1044" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1044" s="0" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E1044" s="0" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F1044" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1044" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5c4978e802ba55d5a298cf1b3bdc2b3a.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1044" s="0" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I1044" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1044" s="0" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K1044" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1045" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1045" s="0" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C1045" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1045" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1045" s="0" t="s">
-        <v>1583</v>
-      </c>
-      <c r="F1045" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1045" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90c49fce92dc1f21647dad07d1342843.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1045" s="0" t="s">
-        <v>1584</v>
-      </c>
-      <c r="I1045" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1045" s="0" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K1045" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1046" s="0" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C1046" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1046" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1046" s="0" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F1046" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1046" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3d23c359f44d6a153c4dcab9e07d7cb6.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1046" s="0" t="s">
-        <v>1588</v>
-      </c>
-      <c r="I1046" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1046" s="0" t="s">
-        <v>1587</v>
-      </c>
-      <c r="K1046" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1047" s="0" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C1047" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1047" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1047" s="0" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F1047" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1047" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8c9504d28596e05586c8e193082ac617.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1047" s="0" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I1047" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1047" s="0" t="s">
-        <v>1592</v>
-      </c>
-      <c r="K1047" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1048" s="0" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C1048" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1048" s="0" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E1048" s="0" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F1048" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1048" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e72b243a2a1c8691ab0168d8b62534c2.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1048" s="0" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I1048" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1048" s="0" t="s">
-        <v>1597</v>
-      </c>
-      <c r="K1048" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1049" s="0" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C1049" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1049" s="0" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E1049" s="0" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F1049" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1049" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b1cd51f370e346ecb20f1e80cb6ea4.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1049" s="0" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I1049" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1049" s="0" t="s">
-        <v>1601</v>
-      </c>
-      <c r="K1049" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1050" s="0" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C1050" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1050" s="0" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E1050" s="0" t="s">
-        <v>1603</v>
-      </c>
-      <c r="F1050" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1050" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b97609a32d53dff5b8e73729e4f258b.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1050" s="0" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I1050" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1050" s="0" t="s">
-        <v>1605</v>
-      </c>
-      <c r="K1050" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1051" s="0" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C1051" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1051" s="0" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E1051" s="0" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F1051" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1051" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c75f684ec69602e9de82b48e53afb2cc.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1051" s="0" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I1051" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1051" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="K1051" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1052" s="0" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C1052" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1052" s="0" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E1052" s="0" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F1052" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1052" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebfefc2ab8716ef597b128171b275945.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1052" s="0" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I1052" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1052" s="0" t="s">
-        <v>1612</v>
-      </c>
-      <c r="K1052" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1053" s="0" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C1053" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1053" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1053" s="0" t="s">
-        <v>1614</v>
-      </c>
-      <c r="F1053" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1053" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62f26742cf240c1b5169a5cd511196b6.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1053" s="0" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I1053" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1053" s="0" t="s">
-        <v>1616</v>
-      </c>
-      <c r="K1053" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1054" s="0" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C1054" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1054" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1054" s="0" t="s">
-        <v>1618</v>
-      </c>
-      <c r="F1054" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1054" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/051919eddec810e292c883205c944ceb.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1054" s="0" t="s">
-        <v>1619</v>
-      </c>
-      <c r="I1054" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1054" s="0" t="s">
-        <v>1620</v>
-      </c>
-      <c r="K1054" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1055" s="0" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C1055" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1055" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1055" s="0" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F1055" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1055" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa2bea81f238ad8f2c35a7e16ad97801.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1055" s="0" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I1055" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1055" s="0" t="s">
-        <v>1624</v>
-      </c>
-      <c r="K1055" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1056" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1056" s="0" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C1056" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1056" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1056" s="0" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F1056" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1056" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/089961a3af4d54d5fb045cf3750e760c.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1056" s="0" t="s">
-        <v>1627</v>
-      </c>
-      <c r="I1056" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1056" s="0" t="s">
-        <v>1628</v>
-      </c>
-      <c r="K1056" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1057" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1057" s="0" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C1057" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1057" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1057" s="0" t="s">
-        <v>1630</v>
-      </c>
-      <c r="F1057" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1057" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3a8e1636a31c82fbdd9a1ae45ab3be7d.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1057" s="0" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I1057" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1057" s="0" t="s">
-        <v>1632</v>
-      </c>
-      <c r="K1057" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1058" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1058" s="0" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C1058" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1058" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1058" s="0" t="s">
-        <v>1634</v>
-      </c>
-      <c r="F1058" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1058" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3abb7c5b4c4650e9d17a8439004aebea.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1058" s="0" t="s">
-        <v>1635</v>
-      </c>
-      <c r="I1058" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1058" s="0" t="s">
-        <v>1636</v>
-      </c>
-      <c r="K1058" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1059" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1059" s="0" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C1059" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1059" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1059" s="0" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F1059" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1059" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd10cebbde1593b65e5220911f9a997c.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1059" s="0" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I1059" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1059" s="0" t="s">
-        <v>1640</v>
-      </c>
-      <c r="K1059" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1060" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1060" s="0" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C1060" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1060" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1060" s="0" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F1060" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1060" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/95cbf6ac889c8fe7d92e20e8c34960d1.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1060" s="0" t="s">
-        <v>1643</v>
-      </c>
-      <c r="I1060" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1060" s="0" t="s">
-        <v>1220</v>
-      </c>
-      <c r="K1060" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1061" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1061" s="0" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C1061" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1061" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1061" s="0" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F1061" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1061" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a13ed886b17e20cdae8b89b9ff8e4610.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1061" s="0" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I1061" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1061" s="0" t="s">
-        <v>1647</v>
-      </c>
-      <c r="K1061" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1062" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1062" s="0" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C1062" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1062" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1062" s="0" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F1062" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1062" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70d7d6fc0e9c2f14624a0270bf2b99b9.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1062" s="0" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I1062" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1062" s="0" t="s">
-        <v>1651</v>
-      </c>
-      <c r="K1062" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1063" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1063" s="0" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C1063" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1063" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1063" s="0" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F1063" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1063" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89027ee0079acb709750ddeac1c08899.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1063" s="0" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I1063" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1063" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="K1063" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1064" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1064" s="0" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C1064" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1064" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1064" s="0" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F1064" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1064" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e7b9f984d3bba15daccaaa18039a85d.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1064" s="0" t="s">
-        <v>1657</v>
-      </c>
-      <c r="I1064" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1064" s="0" t="s">
-        <v>1658</v>
-      </c>
-      <c r="K1064" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1065" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1065" s="0" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C1065" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1065" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1065" s="0" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F1065" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1065" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70bf79db957daa3b82413da949233ac7.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1065" s="0" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I1065" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1065" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="K1065" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1066" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1066" s="0" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C1066" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1066" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1066" s="0" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F1066" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1066" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d0a35d5c99a0aa93ad4069cfe83bf748.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1066" s="0" t="s">
-        <v>1664</v>
-      </c>
-      <c r="I1066" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1066" s="0" t="s">
-        <v>1665</v>
-      </c>
-      <c r="K1066" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1067" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1067" s="0" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C1067" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1067" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1067" s="0" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F1067" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1067" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e2.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1067" s="0" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I1067" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1067" s="0" t="s">
-        <v>1668</v>
-      </c>
-      <c r="K1067" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1068" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1068" s="0" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C1068" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1068" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1068" s="0" t="s">
-        <v>1670</v>
-      </c>
-      <c r="F1068" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1068" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7b2d1e1a3ece1169d8ac61af4b758ed2.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1068" s="0" t="s">
-        <v>1671</v>
-      </c>
-      <c r="I1068" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1068" s="0" t="s">
-        <v>1672</v>
-      </c>
-      <c r="K1068" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1069" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1069" s="0" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C1069" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1069" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1069" s="0" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F1069" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1069" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a21e250a10f96b1c1ad6d742206a157e.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1069" s="0" t="s">
-        <v>1675</v>
-      </c>
-      <c r="I1069" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1069" s="0" t="s">
-        <v>1676</v>
-      </c>
-      <c r="K1069" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1070" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1070" s="0" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1070" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1070" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1070" s="0" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F1070" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1070" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b907fef85d4c9571a9457ee1b259bb8f.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1070" s="0" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I1070" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1070" s="0" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K1070" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1071" s="0" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C1071" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1071" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1071" s="0" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F1071" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1071" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/63345d9732c72b97ca395f24ce2d6642.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1071" s="0" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I1071" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1071" s="0" t="s">
-        <v>1684</v>
-      </c>
-      <c r="K1071" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1072" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1072" s="0" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C1072" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1072" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1072" s="0" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F1072" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1072" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/921b8b8f6620826567d9324314c70410.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1072" s="0" t="s">
-        <v>1687</v>
-      </c>
-      <c r="I1072" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1072" s="0" t="s">
-        <v>1688</v>
-      </c>
-      <c r="K1072" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1073" s="0" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C1073" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1073" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1073" s="0" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F1073" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1073" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/12e0369ff0ba1a6f1a84e0d9565d4b07.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1073" s="0" t="s">
-        <v>1691</v>
-      </c>
-      <c r="I1073" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1073" s="0" t="s">
-        <v>1692</v>
-      </c>
-      <c r="K1073" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1074" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1074" s="0" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C1074" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1074" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1074" s="0" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F1074" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="G1074" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc637f1c75e58be8a6e4112411a00f36.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1074" s="0" t="s">
-        <v>1695</v>
-      </c>
-      <c r="I1074" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1074" s="0" t="s">
-        <v>1696</v>
-      </c>
-      <c r="K1074" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1075" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1075" s="0" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C1075" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1075" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1075" s="0" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F1075" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1075" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c2249d424dde72f8616d42870a9d425.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1075" s="0" t="s">
-        <v>1699</v>
-      </c>
-      <c r="I1075" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1075" s="0" t="s">
-        <v>1700</v>
-      </c>
-      <c r="K1075" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1076" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1076" s="0" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C1076" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1076" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1076" s="0" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F1076" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="G1076" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a1dd605b563e9f09c718a5ba9cb9cc.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1076" s="0" t="s">
-        <v>1703</v>
-      </c>
-      <c r="I1076" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1076" s="0" t="s">
-        <v>1704</v>
-      </c>
-      <c r="K1076" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1077" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1077" s="0" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C1077" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1077" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1077" s="0" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F1077" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="G1077" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/73c496f5669cc122cf1cddfe4df2a27a.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1077" s="0" t="s">
-        <v>1707</v>
-      </c>
-      <c r="I1077" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1077" s="0" t="s">
-        <v>1708</v>
-      </c>
-      <c r="K1077" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1078" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1078" s="0" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C1078" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1078" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1078" s="0" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F1078" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1078" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26328c46dfcc65d454b6fd4c52ccb48f.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1078" s="0" t="s">
-        <v>1711</v>
-      </c>
-      <c r="I1078" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1078" s="0" t="s">
-        <v>1712</v>
-      </c>
-      <c r="K1078" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1079" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1079" s="0" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C1079" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1079" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1079" s="0" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1079" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1079" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1079" s="0" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I1079" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1079" s="0" t="s">
-        <v>1716</v>
-      </c>
-      <c r="K1079" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1080" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1080" s="0" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C1080" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1080" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1080" s="0" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F1080" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1080" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1080" s="0" t="s">
-        <v>1719</v>
-      </c>
-      <c r="I1080" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1080" s="0" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K1080" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10237" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10227" uniqueCount="1716">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4604,21 +4604,6 @@
   </si>
   <si>
     <t xml:space="preserve">Air pressure on model half-levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea Surface Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 3hr tos for an AMIP run needs to be taken from NEMO. The confusing thing here is that the request asks for tos from the ocean grid cell. Therefore ignore this variable for this table for AMIP? #389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature of upper boundary of the liquid ocean, including temperatures below sea-ice and floating ice shelves.</t>
   </si>
   <si>
     <t xml:space="preserve">cl</t>
@@ -5310,10 +5295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1080"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1049" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1017" activeCellId="1" sqref="1031:1080 A1017"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B284" activeCellId="0" sqref="B284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40394,51 +40379,86 @@
       </c>
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1028" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1028" s="3" t="s">
+    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1030" s="0" t="s">
         <v>1528</v>
       </c>
-      <c r="C1028" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1028" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="E1028" s="3" t="s">
+      <c r="C1030" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1030" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1030" s="0" t="s">
         <v>1529</v>
       </c>
-      <c r="F1028" s="3" t="s">
+      <c r="F1030" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1030" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e0ecf1c1305c1bdc69bee0e7ba1e2e03.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1030" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="G1028" s="3" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/0e5d376315a376cd2b1e37f440fe43d3.html","web")</f>
+      <c r="I1030" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J1030" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K1030" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1031" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C1031" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1031" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1031" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F1031" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G1031" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2b3318a73839edfafa9d46864aadc.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1028" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I1028" s="3" t="s">
+      <c r="H1031" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I1031" s="0" t="s">
         <v>1526</v>
       </c>
-      <c r="J1028" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="K1028" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J1031" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K1031" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
         <v>303</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>31</v>
@@ -40447,23 +40467,23 @@
         <v>334</v>
       </c>
       <c r="E1032" s="0" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="F1032" s="0" t="s">
-        <v>24</v>
+        <v>1036</v>
       </c>
       <c r="G1032" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e0ecf1c1305c1bdc69bee0e7ba1e2e03.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dd916e3e2eca18cda5d9f81749d0c91c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1032" s="0" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="I1032" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1032" s="0" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="K1032" s="0" t="s">
         <v>305</v>
@@ -40474,7 +40494,7 @@
         <v>303</v>
       </c>
       <c r="B1033" s="0" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>31</v>
@@ -40483,23 +40503,23 @@
         <v>334</v>
       </c>
       <c r="E1033" s="0" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="F1033" s="0" t="s">
-        <v>1036</v>
+        <v>838</v>
       </c>
       <c r="G1033" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2b3318a73839edfafa9d46864aadc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b9c3eb96337c69c1c4a5aab1317f5563.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1033" s="0" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="I1033" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1033" s="0" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="K1033" s="0" t="s">
         <v>305</v>
@@ -40510,7 +40530,7 @@
         <v>303</v>
       </c>
       <c r="B1034" s="0" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>31</v>
@@ -40519,23 +40539,23 @@
         <v>334</v>
       </c>
       <c r="E1034" s="0" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="F1034" s="0" t="s">
-        <v>1036</v>
+        <v>252</v>
       </c>
       <c r="G1034" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dd916e3e2eca18cda5d9f81749d0c91c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21db90c0a12448299f855fdab60930d4.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1034" s="0" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="I1034" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1034" s="0" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="K1034" s="0" t="s">
         <v>305</v>
@@ -40546,7 +40566,7 @@
         <v>303</v>
       </c>
       <c r="B1035" s="0" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C1035" s="0" t="s">
         <v>31</v>
@@ -40555,23 +40575,23 @@
         <v>334</v>
       </c>
       <c r="E1035" s="0" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="F1035" s="0" t="s">
-        <v>838</v>
+        <v>252</v>
       </c>
       <c r="G1035" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b9c3eb96337c69c1c4a5aab1317f5563.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2dedcb347c18e132a2f4d625abf94585.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1035" s="0" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="I1035" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1035" s="0" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="K1035" s="0" t="s">
         <v>305</v>
@@ -40582,7 +40602,7 @@
         <v>303</v>
       </c>
       <c r="B1036" s="0" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="C1036" s="0" t="s">
         <v>31</v>
@@ -40591,23 +40611,23 @@
         <v>334</v>
       </c>
       <c r="E1036" s="0" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="F1036" s="0" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G1036" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21db90c0a12448299f855fdab60930d4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53f4724d228998d54191c73352532ce3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1036" s="0" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="I1036" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1036" s="0" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="K1036" s="0" t="s">
         <v>305</v>
@@ -40618,7 +40638,7 @@
         <v>303</v>
       </c>
       <c r="B1037" s="0" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="C1037" s="0" t="s">
         <v>31</v>
@@ -40627,23 +40647,23 @@
         <v>334</v>
       </c>
       <c r="E1037" s="0" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="F1037" s="0" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="G1037" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2dedcb347c18e132a2f4d625abf94585.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cc6766c2d001a58d18dfe7f60fd5e66.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1037" s="0" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="I1037" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1037" s="0" t="s">
-        <v>1555</v>
+        <v>999</v>
       </c>
       <c r="K1037" s="0" t="s">
         <v>305</v>
@@ -40654,7 +40674,7 @@
         <v>303</v>
       </c>
       <c r="B1038" s="0" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>31</v>
@@ -40663,23 +40683,23 @@
         <v>334</v>
       </c>
       <c r="E1038" s="0" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="F1038" s="0" t="s">
-        <v>31</v>
+        <v>1560</v>
       </c>
       <c r="G1038" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53f4724d228998d54191c73352532ce3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51fb29dd55442361fa9c5dbe23aca9c6.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1038" s="0" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="I1038" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1038" s="0" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="K1038" s="0" t="s">
         <v>305</v>
@@ -40690,7 +40710,7 @@
         <v>303</v>
       </c>
       <c r="B1039" s="0" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="C1039" s="0" t="s">
         <v>31</v>
@@ -40699,23 +40719,23 @@
         <v>334</v>
       </c>
       <c r="E1039" s="0" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="F1039" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G1039" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cc6766c2d001a58d18dfe7f60fd5e66.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/28e774ec0ecd561a6a3d437e6c443a6b.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1039" s="0" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="I1039" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1039" s="0" t="s">
-        <v>999</v>
+        <v>1566</v>
       </c>
       <c r="K1039" s="0" t="s">
         <v>305</v>
@@ -40726,7 +40746,7 @@
         <v>303</v>
       </c>
       <c r="B1040" s="0" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="C1040" s="0" t="s">
         <v>31</v>
@@ -40735,23 +40755,23 @@
         <v>334</v>
       </c>
       <c r="E1040" s="0" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="F1040" s="0" t="s">
-        <v>1565</v>
+        <v>219</v>
       </c>
       <c r="G1040" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51fb29dd55442361fa9c5dbe23aca9c6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7a107875bd58c5e655e8f87152a3bad7.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1040" s="0" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="I1040" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1040" s="0" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="K1040" s="0" t="s">
         <v>305</v>
@@ -40762,32 +40782,32 @@
         <v>303</v>
       </c>
       <c r="B1041" s="0" t="s">
-        <v>1568</v>
+        <v>1522</v>
       </c>
       <c r="C1041" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1041" s="0" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="E1041" s="0" t="s">
-        <v>1569</v>
+        <v>1524</v>
       </c>
       <c r="F1041" s="0" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="G1041" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/28e774ec0ecd561a6a3d437e6c443a6b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1041" s="0" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="I1041" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1041" s="0" t="s">
-        <v>1571</v>
+        <v>1527</v>
       </c>
       <c r="K1041" s="0" t="s">
         <v>305</v>
@@ -40804,26 +40824,26 @@
         <v>31</v>
       </c>
       <c r="D1042" s="0" t="s">
-        <v>334</v>
+        <v>1573</v>
       </c>
       <c r="E1042" s="0" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="F1042" s="0" t="s">
-        <v>219</v>
+        <v>838</v>
       </c>
       <c r="G1042" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7a107875bd58c5e655e8f87152a3bad7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5c4978e802ba55d5a298cf1b3bdc2b3a.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1042" s="0" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="I1042" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1042" s="0" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="K1042" s="0" t="s">
         <v>305</v>
@@ -40834,32 +40854,32 @@
         <v>303</v>
       </c>
       <c r="B1043" s="0" t="s">
-        <v>1522</v>
+        <v>1577</v>
       </c>
       <c r="C1043" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1043" s="0" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="E1043" s="0" t="s">
-        <v>1524</v>
+        <v>1578</v>
       </c>
       <c r="F1043" s="0" t="s">
-        <v>219</v>
+        <v>838</v>
       </c>
       <c r="G1043" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90c49fce92dc1f21647dad07d1342843.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1043" s="0" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="I1043" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1043" s="0" t="s">
-        <v>1527</v>
+        <v>1580</v>
       </c>
       <c r="K1043" s="0" t="s">
         <v>305</v>
@@ -40870,32 +40890,32 @@
         <v>303</v>
       </c>
       <c r="B1044" s="0" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="C1044" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1044" s="0" t="s">
-        <v>1578</v>
+        <v>367</v>
       </c>
       <c r="E1044" s="0" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="F1044" s="0" t="s">
-        <v>838</v>
+        <v>219</v>
       </c>
       <c r="G1044" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5c4978e802ba55d5a298cf1b3bdc2b3a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3d23c359f44d6a153c4dcab9e07d7cb6.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1044" s="0" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="I1044" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1044" s="0" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="K1044" s="0" t="s">
         <v>305</v>
@@ -40906,7 +40926,7 @@
         <v>303</v>
       </c>
       <c r="B1045" s="0" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="C1045" s="0" t="s">
         <v>31</v>
@@ -40915,23 +40935,23 @@
         <v>367</v>
       </c>
       <c r="E1045" s="0" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="F1045" s="0" t="s">
-        <v>838</v>
+        <v>219</v>
       </c>
       <c r="G1045" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90c49fce92dc1f21647dad07d1342843.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8c9504d28596e05586c8e193082ac617.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1045" s="0" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="I1045" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1045" s="0" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="K1045" s="0" t="s">
         <v>305</v>
@@ -40942,32 +40962,32 @@
         <v>303</v>
       </c>
       <c r="B1046" s="0" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="C1046" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1046" s="0" t="s">
-        <v>367</v>
+        <v>1589</v>
       </c>
       <c r="E1046" s="0" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="F1046" s="0" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G1046" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3d23c359f44d6a153c4dcab9e07d7cb6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e72b243a2a1c8691ab0168d8b62534c2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1046" s="0" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="I1046" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1046" s="0" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="K1046" s="0" t="s">
         <v>305</v>
@@ -40978,32 +40998,32 @@
         <v>303</v>
       </c>
       <c r="B1047" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C1047" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1047" s="0" t="s">
         <v>1589</v>
       </c>
-      <c r="C1047" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1047" s="0" t="s">
-        <v>367</v>
-      </c>
       <c r="E1047" s="0" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="F1047" s="0" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G1047" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8c9504d28596e05586c8e193082ac617.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b1cd51f370e346ecb20f1e80cb6ea4.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1047" s="0" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="I1047" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1047" s="0" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="K1047" s="0" t="s">
         <v>305</v>
@@ -41014,32 +41034,32 @@
         <v>303</v>
       </c>
       <c r="B1048" s="0" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="C1048" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1048" s="0" t="s">
-        <v>1594</v>
+        <v>1589</v>
       </c>
       <c r="E1048" s="0" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="F1048" s="0" t="s">
         <v>252</v>
       </c>
       <c r="G1048" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e72b243a2a1c8691ab0168d8b62534c2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b97609a32d53dff5b8e73729e4f258b.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1048" s="0" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="I1048" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1048" s="0" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="K1048" s="0" t="s">
         <v>305</v>
@@ -41050,32 +41070,32 @@
         <v>303</v>
       </c>
       <c r="B1049" s="0" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="C1049" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1049" s="0" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="E1049" s="0" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="F1049" s="0" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="G1049" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b1cd51f370e346ecb20f1e80cb6ea4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c75f684ec69602e9de82b48e53afb2cc.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1049" s="0" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="I1049" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1049" s="0" t="s">
-        <v>1601</v>
+        <v>999</v>
       </c>
       <c r="K1049" s="0" t="s">
         <v>305</v>
@@ -41086,32 +41106,32 @@
         <v>303</v>
       </c>
       <c r="B1050" s="0" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C1050" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1050" s="0" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="E1050" s="0" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="F1050" s="0" t="s">
-        <v>252</v>
+        <v>31</v>
       </c>
       <c r="G1050" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b97609a32d53dff5b8e73729e4f258b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebfefc2ab8716ef597b128171b275945.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1050" s="0" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="I1050" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1050" s="0" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="K1050" s="0" t="s">
         <v>305</v>
@@ -41122,32 +41142,32 @@
         <v>303</v>
       </c>
       <c r="B1051" s="0" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="C1051" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1051" s="0" t="s">
-        <v>1578</v>
+        <v>367</v>
       </c>
       <c r="E1051" s="0" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="F1051" s="0" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="G1051" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c75f684ec69602e9de82b48e53afb2cc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62f26742cf240c1b5169a5cd511196b6.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1051" s="0" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="I1051" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1051" s="0" t="s">
-        <v>999</v>
+        <v>1611</v>
       </c>
       <c r="K1051" s="0" t="s">
         <v>305</v>
@@ -41158,32 +41178,32 @@
         <v>303</v>
       </c>
       <c r="B1052" s="0" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="C1052" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1052" s="0" t="s">
-        <v>1578</v>
+        <v>367</v>
       </c>
       <c r="E1052" s="0" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="F1052" s="0" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="G1052" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebfefc2ab8716ef597b128171b275945.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/051919eddec810e292c883205c944ceb.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1052" s="0" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="I1052" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1052" s="0" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="K1052" s="0" t="s">
         <v>305</v>
@@ -41194,7 +41214,7 @@
         <v>303</v>
       </c>
       <c r="B1053" s="0" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="C1053" s="0" t="s">
         <v>31</v>
@@ -41203,23 +41223,23 @@
         <v>367</v>
       </c>
       <c r="E1053" s="0" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="F1053" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G1053" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62f26742cf240c1b5169a5cd511196b6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa2bea81f238ad8f2c35a7e16ad97801.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1053" s="0" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="I1053" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1053" s="0" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="K1053" s="0" t="s">
         <v>305</v>
@@ -41230,7 +41250,7 @@
         <v>303</v>
       </c>
       <c r="B1054" s="0" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="C1054" s="0" t="s">
         <v>31</v>
@@ -41239,23 +41259,23 @@
         <v>367</v>
       </c>
       <c r="E1054" s="0" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="F1054" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G1054" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/051919eddec810e292c883205c944ceb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/089961a3af4d54d5fb045cf3750e760c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1054" s="0" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="I1054" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1054" s="0" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="K1054" s="0" t="s">
         <v>305</v>
@@ -41266,7 +41286,7 @@
         <v>303</v>
       </c>
       <c r="B1055" s="0" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="C1055" s="0" t="s">
         <v>31</v>
@@ -41275,23 +41295,23 @@
         <v>367</v>
       </c>
       <c r="E1055" s="0" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="F1055" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G1055" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa2bea81f238ad8f2c35a7e16ad97801.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3a8e1636a31c82fbdd9a1ae45ab3be7d.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1055" s="0" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="I1055" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1055" s="0" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="K1055" s="0" t="s">
         <v>305</v>
@@ -41302,7 +41322,7 @@
         <v>303</v>
       </c>
       <c r="B1056" s="0" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="C1056" s="0" t="s">
         <v>31</v>
@@ -41311,23 +41331,23 @@
         <v>367</v>
       </c>
       <c r="E1056" s="0" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="F1056" s="0" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G1056" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/089961a3af4d54d5fb045cf3750e760c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3abb7c5b4c4650e9d17a8439004aebea.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1056" s="0" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="I1056" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1056" s="0" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="K1056" s="0" t="s">
         <v>305</v>
@@ -41338,7 +41358,7 @@
         <v>303</v>
       </c>
       <c r="B1057" s="0" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="C1057" s="0" t="s">
         <v>31</v>
@@ -41347,23 +41367,23 @@
         <v>367</v>
       </c>
       <c r="E1057" s="0" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="F1057" s="0" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G1057" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3a8e1636a31c82fbdd9a1ae45ab3be7d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd10cebbde1593b65e5220911f9a997c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1057" s="0" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="I1057" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1057" s="0" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="K1057" s="0" t="s">
         <v>305</v>
@@ -41374,7 +41394,7 @@
         <v>303</v>
       </c>
       <c r="B1058" s="0" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="C1058" s="0" t="s">
         <v>31</v>
@@ -41383,23 +41403,23 @@
         <v>367</v>
       </c>
       <c r="E1058" s="0" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="F1058" s="0" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="G1058" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3abb7c5b4c4650e9d17a8439004aebea.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/95cbf6ac889c8fe7d92e20e8c34960d1.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1058" s="0" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="I1058" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1058" s="0" t="s">
-        <v>1636</v>
+        <v>1220</v>
       </c>
       <c r="K1058" s="0" t="s">
         <v>305</v>
@@ -41410,7 +41430,7 @@
         <v>303</v>
       </c>
       <c r="B1059" s="0" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="C1059" s="0" t="s">
         <v>31</v>
@@ -41419,23 +41439,23 @@
         <v>367</v>
       </c>
       <c r="E1059" s="0" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="F1059" s="0" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="G1059" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd10cebbde1593b65e5220911f9a997c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a13ed886b17e20cdae8b89b9ff8e4610.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1059" s="0" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="I1059" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1059" s="0" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="K1059" s="0" t="s">
         <v>305</v>
@@ -41446,7 +41466,7 @@
         <v>303</v>
       </c>
       <c r="B1060" s="0" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="C1060" s="0" t="s">
         <v>31</v>
@@ -41455,23 +41475,23 @@
         <v>367</v>
       </c>
       <c r="E1060" s="0" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="F1060" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1060" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/95cbf6ac889c8fe7d92e20e8c34960d1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70d7d6fc0e9c2f14624a0270bf2b99b9.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1060" s="0" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="I1060" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1060" s="0" t="s">
-        <v>1220</v>
+        <v>1646</v>
       </c>
       <c r="K1060" s="0" t="s">
         <v>305</v>
@@ -41482,7 +41502,7 @@
         <v>303</v>
       </c>
       <c r="B1061" s="0" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="C1061" s="0" t="s">
         <v>31</v>
@@ -41491,23 +41511,23 @@
         <v>367</v>
       </c>
       <c r="E1061" s="0" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="F1061" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1061" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a13ed886b17e20cdae8b89b9ff8e4610.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89027ee0079acb709750ddeac1c08899.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1061" s="0" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="I1061" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1061" s="0" t="s">
-        <v>1647</v>
+        <v>1229</v>
       </c>
       <c r="K1061" s="0" t="s">
         <v>305</v>
@@ -41518,7 +41538,7 @@
         <v>303</v>
       </c>
       <c r="B1062" s="0" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="C1062" s="0" t="s">
         <v>31</v>
@@ -41527,23 +41547,23 @@
         <v>367</v>
       </c>
       <c r="E1062" s="0" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="F1062" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1062" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70d7d6fc0e9c2f14624a0270bf2b99b9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e7b9f984d3bba15daccaaa18039a85d.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1062" s="0" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="I1062" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1062" s="0" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="K1062" s="0" t="s">
         <v>305</v>
@@ -41554,7 +41574,7 @@
         <v>303</v>
       </c>
       <c r="B1063" s="0" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C1063" s="0" t="s">
         <v>31</v>
@@ -41563,23 +41583,23 @@
         <v>367</v>
       </c>
       <c r="E1063" s="0" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="F1063" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1063" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89027ee0079acb709750ddeac1c08899.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70bf79db957daa3b82413da949233ac7.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1063" s="0" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="I1063" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1063" s="0" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="K1063" s="0" t="s">
         <v>305</v>
@@ -41590,7 +41610,7 @@
         <v>303</v>
       </c>
       <c r="B1064" s="0" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C1064" s="0" t="s">
         <v>31</v>
@@ -41599,23 +41619,23 @@
         <v>367</v>
       </c>
       <c r="E1064" s="0" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="F1064" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1064" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e7b9f984d3bba15daccaaa18039a85d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d0a35d5c99a0aa93ad4069cfe83bf748.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1064" s="0" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="I1064" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1064" s="0" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="K1064" s="0" t="s">
         <v>305</v>
@@ -41626,7 +41646,7 @@
         <v>303</v>
       </c>
       <c r="B1065" s="0" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="C1065" s="0" t="s">
         <v>31</v>
@@ -41635,23 +41655,23 @@
         <v>367</v>
       </c>
       <c r="E1065" s="0" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="F1065" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1065" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70bf79db957daa3b82413da949233ac7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1065" s="0" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="I1065" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1065" s="0" t="s">
-        <v>1226</v>
+        <v>1663</v>
       </c>
       <c r="K1065" s="0" t="s">
         <v>305</v>
@@ -41662,7 +41682,7 @@
         <v>303</v>
       </c>
       <c r="B1066" s="0" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="C1066" s="0" t="s">
         <v>31</v>
@@ -41671,23 +41691,23 @@
         <v>367</v>
       </c>
       <c r="E1066" s="0" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="F1066" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1066" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d0a35d5c99a0aa93ad4069cfe83bf748.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7b2d1e1a3ece1169d8ac61af4b758ed2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1066" s="0" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="I1066" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1066" s="0" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="K1066" s="0" t="s">
         <v>305</v>
@@ -41698,7 +41718,7 @@
         <v>303</v>
       </c>
       <c r="B1067" s="0" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C1067" s="0" t="s">
         <v>31</v>
@@ -41707,23 +41727,23 @@
         <v>367</v>
       </c>
       <c r="E1067" s="0" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="F1067" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1067" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a21e250a10f96b1c1ad6d742206a157e.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1067" s="0" t="s">
-        <v>1661</v>
+        <v>1670</v>
       </c>
       <c r="I1067" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1067" s="0" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="K1067" s="0" t="s">
         <v>305</v>
@@ -41734,7 +41754,7 @@
         <v>303</v>
       </c>
       <c r="B1068" s="0" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="C1068" s="0" t="s">
         <v>31</v>
@@ -41743,23 +41763,23 @@
         <v>367</v>
       </c>
       <c r="E1068" s="0" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="F1068" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1068" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7b2d1e1a3ece1169d8ac61af4b758ed2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b907fef85d4c9571a9457ee1b259bb8f.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1068" s="0" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="I1068" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1068" s="0" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="K1068" s="0" t="s">
         <v>305</v>
@@ -41770,7 +41790,7 @@
         <v>303</v>
       </c>
       <c r="B1069" s="0" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="C1069" s="0" t="s">
         <v>31</v>
@@ -41779,23 +41799,23 @@
         <v>367</v>
       </c>
       <c r="E1069" s="0" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="F1069" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1069" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a21e250a10f96b1c1ad6d742206a157e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/63345d9732c72b97ca395f24ce2d6642.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1069" s="0" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="I1069" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1069" s="0" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="K1069" s="0" t="s">
         <v>305</v>
@@ -41806,7 +41826,7 @@
         <v>303</v>
       </c>
       <c r="B1070" s="0" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="C1070" s="0" t="s">
         <v>31</v>
@@ -41815,23 +41835,23 @@
         <v>367</v>
       </c>
       <c r="E1070" s="0" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="F1070" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1070" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b907fef85d4c9571a9457ee1b259bb8f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/921b8b8f6620826567d9324314c70410.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1070" s="0" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="I1070" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1070" s="0" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="K1070" s="0" t="s">
         <v>305</v>
@@ -41842,7 +41862,7 @@
         <v>303</v>
       </c>
       <c r="B1071" s="0" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="C1071" s="0" t="s">
         <v>31</v>
@@ -41851,23 +41871,23 @@
         <v>367</v>
       </c>
       <c r="E1071" s="0" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="F1071" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1071" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/63345d9732c72b97ca395f24ce2d6642.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/12e0369ff0ba1a6f1a84e0d9565d4b07.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1071" s="0" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="I1071" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1071" s="0" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="K1071" s="0" t="s">
         <v>305</v>
@@ -41878,7 +41898,7 @@
         <v>303</v>
       </c>
       <c r="B1072" s="0" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="C1072" s="0" t="s">
         <v>31</v>
@@ -41887,23 +41907,23 @@
         <v>367</v>
       </c>
       <c r="E1072" s="0" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="F1072" s="0" t="s">
-        <v>308</v>
+        <v>965</v>
       </c>
       <c r="G1072" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/921b8b8f6620826567d9324314c70410.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc637f1c75e58be8a6e4112411a00f36.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1072" s="0" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="I1072" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1072" s="0" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="K1072" s="0" t="s">
         <v>305</v>
@@ -41914,7 +41934,7 @@
         <v>303</v>
       </c>
       <c r="B1073" s="0" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C1073" s="0" t="s">
         <v>31</v>
@@ -41923,23 +41943,23 @@
         <v>367</v>
       </c>
       <c r="E1073" s="0" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="F1073" s="0" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="G1073" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/12e0369ff0ba1a6f1a84e0d9565d4b07.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c2249d424dde72f8616d42870a9d425.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1073" s="0" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="I1073" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1073" s="0" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="K1073" s="0" t="s">
         <v>305</v>
@@ -41950,7 +41970,7 @@
         <v>303</v>
       </c>
       <c r="B1074" s="0" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="C1074" s="0" t="s">
         <v>31</v>
@@ -41959,23 +41979,23 @@
         <v>367</v>
       </c>
       <c r="E1074" s="0" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="F1074" s="0" t="s">
         <v>965</v>
       </c>
       <c r="G1074" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc637f1c75e58be8a6e4112411a00f36.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a1dd605b563e9f09c718a5ba9cb9cc.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1074" s="0" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="I1074" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1074" s="0" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="K1074" s="0" t="s">
         <v>305</v>
@@ -41986,7 +42006,7 @@
         <v>303</v>
       </c>
       <c r="B1075" s="0" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="C1075" s="0" t="s">
         <v>31</v>
@@ -41995,23 +42015,23 @@
         <v>367</v>
       </c>
       <c r="E1075" s="0" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="F1075" s="0" t="s">
-        <v>24</v>
+        <v>965</v>
       </c>
       <c r="G1075" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c2249d424dde72f8616d42870a9d425.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/73c496f5669cc122cf1cddfe4df2a27a.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1075" s="0" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="I1075" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1075" s="0" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="K1075" s="0" t="s">
         <v>305</v>
@@ -42022,7 +42042,7 @@
         <v>303</v>
       </c>
       <c r="B1076" s="0" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="C1076" s="0" t="s">
         <v>31</v>
@@ -42031,23 +42051,23 @@
         <v>367</v>
       </c>
       <c r="E1076" s="0" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="F1076" s="0" t="s">
-        <v>965</v>
+        <v>308</v>
       </c>
       <c r="G1076" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a1dd605b563e9f09c718a5ba9cb9cc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26328c46dfcc65d454b6fd4c52ccb48f.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1076" s="0" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="I1076" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1076" s="0" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="K1076" s="0" t="s">
         <v>305</v>
@@ -42058,7 +42078,7 @@
         <v>303</v>
       </c>
       <c r="B1077" s="0" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C1077" s="0" t="s">
         <v>31</v>
@@ -42067,23 +42087,23 @@
         <v>367</v>
       </c>
       <c r="E1077" s="0" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="F1077" s="0" t="s">
-        <v>965</v>
+        <v>196</v>
       </c>
       <c r="G1077" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/73c496f5669cc122cf1cddfe4df2a27a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1077" s="0" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="I1077" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1077" s="0" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="K1077" s="0" t="s">
         <v>305</v>
@@ -42094,7 +42114,7 @@
         <v>303</v>
       </c>
       <c r="B1078" s="0" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C1078" s="0" t="s">
         <v>31</v>
@@ -42103,100 +42123,30 @@
         <v>367</v>
       </c>
       <c r="E1078" s="0" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="F1078" s="0" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="G1078" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26328c46dfcc65d454b6fd4c52ccb48f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1078" s="0" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="I1078" s="0" t="s">
         <v>1526</v>
       </c>
       <c r="J1078" s="0" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="K1078" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1079" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1079" s="0" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C1079" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1079" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1079" s="0" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F1079" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1079" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1079" s="0" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I1079" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1079" s="0" t="s">
-        <v>1716</v>
-      </c>
-      <c r="K1079" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1080" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1080" s="0" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C1080" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1080" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1080" s="0" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F1080" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1080" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1080" s="0" t="s">
-        <v>1719</v>
-      </c>
-      <c r="I1080" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1080" s="0" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K1080" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10227" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10197" uniqueCount="1714">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4030,30 +4030,1128 @@
     <t xml:space="preserve">AerChemMIP,C4MIP,CFMIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
   </si>
   <si>
+    <t xml:space="preserve">fVegSoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Carbon Mass Flux from Vegetation Directly to Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can not be produced by LPJ-GUESS: No process that does this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon mass flux per unit area from vegetation directly into soil, without intermediate conversion to litter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,C4MIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeFracPrimDec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time typepdec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cover by Primary Deciduous Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of the entire grid cell  that is covered by total primary deciduous trees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeFracPrimEver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time typepever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cover by Primary Evergreen Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of entire grid cell  that is covered by primary evergreen trees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeFracSecDec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time typesdec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cover by Secondary Deciduous Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of entire grid cell  that is covered by secondary deciduous trees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeFracSecEver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time typesever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cover by Secondary Evergreen Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of entire grid cell  that is covered by secondary evergreen trees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3PftFrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time typec3pft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cover by C3 Plant Functional Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of entire grid cell  that is covered by C3 PFTs (including grass, crops, and trees).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4PftFrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude time typec4pft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cover by C4 Plant Functional Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of entire grid cell  that is covered by C4 PFTs (including grass and crops).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nppLeaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux Due to NPP Allocation to Leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the rate of carbon uptake by leaves due to NPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,C4MIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,RFMIP,VIACSAB,VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nppWood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux Due to NPP Allocation to Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the rate of carbon uptake by wood due to NPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nppRoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux Due to NPP Allocation to Roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the rate of carbon uptake by roots due to NPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IfxAnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">areacellg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid-Cell Area for Ice Sheet Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We do not have an Antarctic ice sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrroLi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Ice Runoff Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IyrAnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelCellAreai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cell area of the ice sheet model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xant yant time typeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of Grid Cell Covered with Glacier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftgrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xant yant time typegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grounded Ice Sheet  Area Fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of grid cell covered by grounded ice sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alevhalf spectband</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in IFS: All Up and downwelling radiation is only at the TOA and the surface available in IFS standard output. In IFS it is not possible to distinguish output in spectral intervals. Note here also global area and time averages are asked. Or maybe output at a certain diagnostic time step is meant? (No grib code available on table 128 -  Grib 1 for different spectral bands). Would it be possible to output 2 spectral bands: UV and NIR both of them diffuse and parallel. We need to ask expert of the radiation code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swtoafluxaerocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortwave flux due to volcanic aerosols at TOA under clear sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available, because it is not available in IFS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downwelling shortwave flux due to volcanic aerosols at TOA under clear sky to be diagnosed through double radiation call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lwtoafluxaerocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longwave flux due to volcanic aerosols at TOA under clear sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downwelling longwave flux due to volcanic aerosols at TOA under clear sky to be diagnosed through double radiation call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aod550volso4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol optical depth at 550 nm due to stratospheric volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerosol optical depth at 550 nm due to stratospheric volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec550aer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevel time lambda550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol extinction coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though available for 6hrLev  tm5 code name = ec550aer this variable is not available for Emon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerosol Extinction at 550nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6hrZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmswaero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude alevel time1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonal mean shortwave heating rate due to volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortwave heating rate due to volcanic aerosols to be diagnosed through double radiation call, zonal average values required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zmlwaero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonal mean longwave heating rate due to volcanic aerosols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longwave heating rate due to volcanic aerosols to be diagnosed through double radiation call, zonal average values required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfdsnb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward heat flux at snow base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in IFS output, however it is computed in H-TESSEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gijs, Andrea, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat flux from snow into the ice or land under the snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS3MIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat transferred to snowpack by rainfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat transferred to a snow cover by rain..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Water Evaporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'Water' means water in all phases, including frozen i.e. ice and snow. Evaporation is the conversion of liquid or solid into vapor. (The conversion of solid alone into vapor is called 'sublimation'). The quantity with standard name surface_water_evaporation_flux does not include transpiration from vegetation. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. Unless indicated in the cell_methods attribute, a quantity is assumed to apply to the whole area of each horizontal grid box. Previously, the qualifier where_type was used to specify that the quantity applies only to the part of the grid box of the named type. Names containing the where_type qualifier are deprecated and newly created data should use the cell_methods attribute to indicate the horizontal area to which the quantity applies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sblnosn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublimation of the snow free area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'tendency_of_X' means derivative of X with respect to time. 'Content' indicates a quantity per unit area. The 'atmosphere content' of a quantity refers to the vertical integral from the surface to the top of the atmosphere. For the content between specified levels in the atmosphere, standard names including content_of_atmosphere_layer are used. Atmosphere water vapor content is sometimes referred to as 'precipitable water', although this term does not imply the water could all be precipitated. The specification of a physical process by the phrase due_to_process means that the quantity named is a single term in a sum of terms which together compose the general quantity named by omitting the phrase. Sublimation is the conversion of solid into vapor. Unless indicated in the cell_methods attribute, a quantity is assumed to apply to the whole area of each horizontal grid box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snrefr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-freezing of water in the snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. The surface called 'surface' means the lower boundary of the atmosphere. 'Surface snow and ice refreezing flux' means the mass flux of surface  meltwater which refreezes within the snow or firn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qgwr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundwater recharge from soil layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not represented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. Groundwater is subsurface water below the depth of the water table. The quantity with standard name liquid_water_mass_flux_from_soil_to_groundwater is the downward flux of liquid water within soil at the depth of the water table, or downward flux from the base of the soil model if the water table depth is greater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Discharge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outflow of River Water from Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Inflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflow of River Water into Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in Groundwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'change_over_time_in_X' means change in a quantity X over a time-interval, which should be defined by the bounds of the time coordinate. 'Water' means water in all phases. Groundwater is subsurface water below the depth of the water table. 'Amount' means mass per unit area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drivw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in River Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phrase 'change_over_time_in_X' means change in a quantity X over a time-interval, which should be defined by the bounds of the time coordinate. 'Water' means water in all phases. 'River' refers to the water in the fluvial system (stream and floodplain). 'Amount' means mass per unit area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snwc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE intercepted by the vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no represented: equal to zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total water mass of the snowpack (liquid or frozen), averaged over a grid cell and interecepted by the canopy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Water Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not represented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total liquid water storage, other than soil, snow or interception storage (i.e. lakes, river channel or depression storage).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water table depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prrsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of rainfall on snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of the grid averaged rainfall which falls on the snow pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsnsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraction of snowfall (including hail and graupel) on snow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fraction of the snowfall which falls on the snow pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternatively, just estimating the delta T per month. No direct grib code for the totoal T-tendency found. In IFS from Cycle 39R1: add all the T-Tendencies: grib 128.93 + 128.95 + 128.98 + 128.102 + 128.105 + 128.109. But with IFS cycle 36 the T-tendency of gravity wave drag grib 128.102 is bugged until Cycle 39R1. This has been checked by Gijs with ECMWF: https://software.ecmwf.int/wiki/pages/viewpage.action?pageId=97384581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: T-tendency from radiation: grib 128.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: T-tendency from convection : grib 128.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available in IFS: q-tendency from convection: grib 128.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees_east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This site lon,lat is specifed by the experiment we guess, and should be available in the netcdf file. So far it doesn't seem to be specified in the data request: in the CMIP6_coordinate.json table file the requested": "" is empty for site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degrees_north</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevhalf time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure on Model Half-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pressure on vertical staggered levels in IFS #385.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air pressure on model half-levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cloud Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 248.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover, including both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Cloud Liquid Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 246.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes both large-scale and convective cloud. Calculate as the mass of cloud liquid water in the grid cell divided by the mass of air (including the water in all phases) in the grid cells. Precipitating hydrometeors are included ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Cloud Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 247.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes both large-scale and convective cloud. This is calculated as the mass of cloud ice in the grid cell divided by the mass of air (including the water in all phases) in the grid cell. It includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 130.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 131.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonal wind (positive in a eastward direction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">va</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 132.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meridional wind (positive in a northward direction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 133.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific humidity is the mass fraction of water vapor in (moist) air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 157.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega (=dp/dt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 135.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega (vertical velocity in pressure coordinates, positive downwards)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopotential Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 129.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopotential is the sum of the specific gravitational potential energy relative to the geoid and the specific centripetal potential energy. Geopotential height is the geopotential divided by the standard acceleration due to gravity. It is numerically similar to the altitude (or geometric height) and not to the quantity with standard name height, which is relative to the surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure at Model Full-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 54.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air pressure on model levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm5 code name = phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site time1 height2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 167.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near-surface (usually, 2 meter) air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 139.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Level Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 151.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Air Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm5 code name = ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface pressure (not mean sea-level pressure), 2-D field to calculate the 3-D pressure field from hybrid coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site time1 height10m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Near-Surface Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 165.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward component of the near-surface (usually, 10 meters)  wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Near-Surface Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 166.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward component of the near surface wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfcWind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Wind Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 214.128, expression = sqrt(sqr(var165)+sqr(var166))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near-surface (usually, 10 meters) wind speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 80.129, expression = 100.*exp(17.62*((var168-273.15)/(var168-30.03)-(var167-273.15)/(var167-30.03)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 81.129, expression = 1./(1.+1.608*(var134*exp(-17.62*(var168-273.15)/(var168-30.03))/611.-1.))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-surface (usually, 2 meter) specific humidity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 228.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes both liquid and solid phases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowfall Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 144.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At surface; includes precipitation of all forms of water in the solid phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 143.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective precipitation at surface; includes both liquid and solid phases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evspsbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation Including Sublimation and Transpiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 182.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation at surface (also known as evapotranspiration): flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Snow and Ice Sublimation Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 44.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snow and ice sublimation flux is the loss of snow and ice mass per unit area from the surface resulting from their direct conversion to water vapor that enters the atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downward Eastward Wind Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 180.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward eastward wind stress at the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downward Northward Wind Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 181.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward northward wind stress at the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upward Latent Heat Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 147.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upward Sensible Heat Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 146.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 175.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'longwave' means longwave radiation. Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'. In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 96.129, expression = var177-var175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 169.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface solar irradiance for UV calculations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 95.129, expression = var176-var169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 102.129, expression = var210-var176+var169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface solar irradiance clear sky for UV calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsuscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Clear-sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rldscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Clear-Sky Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 104.129, expression = var211-var177+var175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface downwelling clear-sky longwave radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Incident Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 212.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortwave radiation incident at the top of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 97.129, expression = var178-var212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the top of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 179.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the top of the atmosphere (to be compared with satellite measurements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 209.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upwelling clear-sky longwave radiation at top of atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 103.129, expression = var208-var212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated in the absence of clouds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Vapor Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 137.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertically integrated through the atmospheric column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 164.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cloud area fraction for the whole atmospheric column, as seen from the surface or the top of the atmosphere. Includes both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clwvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condensed Water Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 116.129, expression = var78+var79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass of condensed (liquid + ice) water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Water Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 79.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass of ice water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating frozen hydrometeors ONLY if the precipitating hydrometeor affects the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 98.129, expression = var178+var179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model : I.e., at the top of that portion of the atmosphere where dynamics are explicitly treated by the model. This is reported only if it differs from the net downward radiative flux at the top of the atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpjg code name = fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpjg code name = fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">gpp</t>
   </si>
   <si>
     <t xml:space="preserve">Carbon Mass Flux out of Atmosphere Due to Gross Primary Production on Land</t>
   </si>
   <si>
-    <t xml:space="preserve">Can not be produced by LPJ-GUESS: Finest timestep in LPJ-GUESS is day, so GPP is already reported on that timestep</t>
+    <t xml:space="preserve">Can not be produced by LPJ-GUESS: Shotest timestep in LPJ-GUESS for this variable is one month currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind, Thomas</t>
   </si>
   <si>
     <t xml:space="preserve">The rate of synthesis of biomass from inorganic precursors by autotrophs ('producers') expressed as the mass of carbon which it contains. For example, photosynthesis in plants or phytoplankton. The producers also respire some of this biomass and the difference is referred to as the net primary production. </t>
   </si>
   <si>
-    <t xml:space="preserve">AerChemMIP,C4MIP,CDRMIP,CMIP,DCPP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,PAMIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
-  </si>
-  <si>
     <t xml:space="preserve">ra</t>
   </si>
   <si>
     <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Autotrophic (Plant) Respiration on Land</t>
   </si>
   <si>
-    <t xml:space="preserve">Can not be produced by LPJ-GUESS: Finest timestep in LPJ-GUESS is day, so RA is already reported on that timestep</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to autotrophic respiration on land (respiration by producers) [see rh for heterotrophic production]</t>
   </si>
   <si>
@@ -4063,1117 +5161,7 @@
     <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to Heterotrophic Respiration on Land</t>
   </si>
   <si>
-    <t xml:space="preserve">Can not be produced by LPJ-GUESS: Finest timestep in LPJ-GUESS is day, so RH is already reported on that timestep</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to heterotrophic respiration on land (respiration by consumers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fVegSoil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Carbon Mass Flux from Vegetation Directly to Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can not be produced by LPJ-GUESS: No process that does this</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon mass flux per unit area from vegetation directly into soil, without intermediate conversion to litter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,C4MIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeFracPrimDec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typepdec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cover by Primary Deciduous Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of the entire grid cell  that is covered by total primary deciduous trees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeFracPrimEver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typepever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cover by Primary Evergreen Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of entire grid cell  that is covered by primary evergreen trees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeFracSecDec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typesdec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cover by Secondary Deciduous Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of entire grid cell  that is covered by secondary deciduous trees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeFracSecEver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typesever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cover by Secondary Evergreen Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of entire grid cell  that is covered by secondary evergreen trees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3PftFrac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typec3pft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cover by C3 Plant Functional Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of entire grid cell  that is covered by C3 PFTs (including grass, crops, and trees).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c4PftFrac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude time typec4pft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cover by C4 Plant Functional Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of entire grid cell  that is covered by C4 PFTs (including grass and crops).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nppLeaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux Due to NPP Allocation to Leaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the rate of carbon uptake by leaves due to NPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AerChemMIP,C4MIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,RFMIP,VIACSAB,VolMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nppWood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux Due to NPP Allocation to Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the rate of carbon uptake by wood due to NPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nppRoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux Due to NPP Allocation to Roots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the rate of carbon uptake by roots due to NPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IfxAnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areacellg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid-Cell Area for Ice Sheet Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We do not have an Antarctic ice sheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of the target grid (not the interpolated area of the source grid).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrroLi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Ice Runoff Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runoff flux over land ice is the difference between any available liquid water in the snowpack less any refreezing. Computed as the sum of rainfall and melt of snow or ice less any refreezing or water retained in the snowpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IyrAnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelCellAreai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cell area of the ice sheet model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horizontal area of ice-sheet grid cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sftgif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xant yant time typeli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of Grid Cell Covered with Glacier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of grid cell covered by land ice (ice sheet, ice shelf, ice cap, glacier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sftgrf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xant yant time typegis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grounded Ice Sheet  Area Fraction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of grid cell covered by grounded ice sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alevhalf spectband</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in IFS: All Up and downwelling radiation is only at the TOA and the surface available in IFS standard output. In IFS it is not possible to distinguish output in spectral intervals. Note here also global area and time averages are asked. Or maybe output at a certain diagnostic time step is meant? (No grib code available on table 128 -  Grib 1 for different spectral bands). Would it be possible to output 2 spectral bands: UV and NIR both of them diffuse and parallel. We need to ask expert of the radiation code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swtoafluxaerocs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortwave flux due to volcanic aerosols at TOA under clear sky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available, because it is not available in IFS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downwelling shortwave flux due to volcanic aerosols at TOA under clear sky to be diagnosed through double radiation call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VolMIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lwtoafluxaerocs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longwave flux due to volcanic aerosols at TOA under clear sky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">downwelling longwave flux due to volcanic aerosols at TOA under clear sky to be diagnosed through double radiation call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aod550volso4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol optical depth at 550 nm due to stratospheric volcanic aerosols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerosol optical depth at 550 nm due to stratospheric volcanic aerosols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec550aer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevel time lambda550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol extinction coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Though available for 6hrLev  tm5 code name = ec550aer this variable is not available for Emon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aerosol Extinction at 550nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E6hrZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zmswaero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude alevel time1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonal mean shortwave heating rate due to volcanic aerosols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shortwave heating rate due to volcanic aerosols to be diagnosed through double radiation call, zonal average values required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zmlwaero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonal mean longwave heating rate due to volcanic aerosols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longwave heating rate due to volcanic aerosols to be diagnosed through double radiation call, zonal average values required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfdsnb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward heat flux at snow base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in IFS output, however it is computed in H-TESSEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gijs, Andrea, Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat flux from snow into the ice or land under the snow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS3MIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat transferred to snowpack by rainfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat transferred to a snow cover by rain..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Water Evaporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'Water' means water in all phases, including frozen i.e. ice and snow. Evaporation is the conversion of liquid or solid into vapor. (The conversion of solid alone into vapor is called 'sublimation'). The quantity with standard name surface_water_evaporation_flux does not include transpiration from vegetation. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. Unless indicated in the cell_methods attribute, a quantity is assumed to apply to the whole area of each horizontal grid box. Previously, the qualifier where_type was used to specify that the quantity applies only to the part of the grid box of the named type. Names containing the where_type qualifier are deprecated and newly created data should use the cell_methods attribute to indicate the horizontal area to which the quantity applies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sblnosn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sublimation of the snow free area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The phrase 'tendency_of_X' means derivative of X with respect to time. 'Content' indicates a quantity per unit area. The 'atmosphere content' of a quantity refers to the vertical integral from the surface to the top of the atmosphere. For the content between specified levels in the atmosphere, standard names including content_of_atmosphere_layer are used. Atmosphere water vapor content is sometimes referred to as 'precipitable water', although this term does not imply the water could all be precipitated. The specification of a physical process by the phrase due_to_process means that the quantity named is a single term in a sum of terms which together compose the general quantity named by omitting the phrase. Sublimation is the conversion of solid into vapor. Unless indicated in the cell_methods attribute, a quantity is assumed to apply to the whole area of each horizontal grid box.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snrefr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-freezing of water in the snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. The surface called 'surface' means the lower boundary of the atmosphere. 'Surface snow and ice refreezing flux' means the mass flux of surface  meltwater which refreezes within the snow or firn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qgwr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groundwater recharge from soil layer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not represented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics. Groundwater is subsurface water below the depth of the water table. The quantity with standard name liquid_water_mass_flux_from_soil_to_groundwater is the downward flux of liquid water within soil at the depth of the water table, or downward flux from the base of the soil model if the water table depth is greater.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Discharge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m3 s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outflow of River Water from Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Inflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflow of River Water into Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change in Groundwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The phrase 'change_over_time_in_X' means change in a quantity X over a time-interval, which should be defined by the bounds of the time coordinate. 'Water' means water in all phases. Groundwater is subsurface water below the depth of the water table. 'Amount' means mass per unit area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drivw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change in River Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The phrase 'change_over_time_in_X' means change in a quantity X over a time-interval, which should be defined by the bounds of the time coordinate. 'Water' means water in all phases. 'River' refers to the water in the fluvial system (stream and floodplain). 'Amount' means mass per unit area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snwc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWE intercepted by the vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no represented: equal to zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total water mass of the snowpack (liquid or frozen), averaged over a grid cell and interecepted by the canopy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Water Storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not represented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total liquid water storage, other than soil, snow or interception storage (i.e. lakes, river channel or depression storage).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water table depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prrsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of rainfall on snow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not available </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fraction of the grid averaged rainfall which falls on the snow pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prsnsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraction of snowfall (including hail and graupel) on snow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fraction of the snowfall which falls on the snow pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snow Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternatively, just estimating the delta T per month. No direct grib code for the totoal T-tendency found. In IFS from Cycle 39R1: add all the T-Tendencies: grib 128.93 + 128.95 + 128.98 + 128.102 + 128.105 + 128.109. But with IFS cycle 36 the T-tendency of gravity wave drag grib 128.102 is bugged until Cycle 39R1. This has been checked by Gijs with ECMWF: https://software.ecmwf.int/wiki/pages/viewpage.action?pageId=97384581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in IFS: T-tendency from radiation: grib 128.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tntc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in IFS: T-tendency from convection : grib 128.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in IFS: q-tendency from convection: grib 128.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees_east</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This site lon,lat is specifed by the experiment we guess, and should be available in the netcdf file. So far it doesn't seem to be specified in the data request: in the CMIP6_coordinate.json table file the requested": "" is empty for site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude is positive eastward; its units of degree_east (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_longitude should be used instead of longitude. Grid longitude is positive in the grid-eastward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">degrees_north</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevhalf time2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure on Model Half-Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pressure on vertical staggered levels in IFS #385.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air pressure on model half-levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cloud Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 248.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover, including both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Cloud Liquid Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 246.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes both large-scale and convective cloud. Calculate as the mass of cloud liquid water in the grid cell divided by the mass of air (including the water in all phases) in the grid cells. Precipitating hydrometeors are included ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Cloud Ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 247.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes both large-scale and convective cloud. This is calculated as the mass of cloud ice in the grid cell divided by the mass of air (including the water in all phases) in the grid cell. It includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 130.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 131.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonal wind (positive in a eastward direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">va</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 132.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meridional wind (positive in a northward direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 133.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific humidity is the mass fraction of water vapor in (moist) air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 157.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega (=dp/dt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 135.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega (vertical velocity in pressure coordinates, positive downwards)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopotential Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 129.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopotential is the sum of the specific gravitational potential energy relative to the geoid and the specific centripetal potential energy. Geopotential height is the geopotential divided by the standard acceleration due to gravity. It is numerically similar to the altitude (or geometric height) and not to the quantity with standard name height, which is relative to the surface.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pfull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure at Model Full-Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 54.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air pressure on model levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm5 code name = phalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site time1 height2m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 167.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">near-surface (usually, 2 meter) air temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 139.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea Level Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 151.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Air Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm5 code name = ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface pressure (not mean sea-level pressure), 2-D field to calculate the 3-D pressure field from hybrid coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site time1 height10m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Near-Surface Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 165.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward component of the near-surface (usually, 10 meters)  wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Near-Surface Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 166.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward component of the near surface wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfcWind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Wind Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 214.128, expression = sqrt(sqr(var165)+sqr(var166))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">near-surface (usually, 10 meters) wind speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 80.129, expression = 100.*exp(17.62*((var168-273.15)/(var168-30.03)-(var167-273.15)/(var167-30.03)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 81.129, expression = 1./(1.+1.608*(var134*exp(-17.62*(var168-273.15)/(var168-30.03))/611.-1.))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-surface (usually, 2 meter) specific humidity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 228.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">includes both liquid and solid phases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowfall Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 144.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At surface; includes precipitation of all forms of water in the solid phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 143.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective precipitation at surface; includes both liquid and solid phases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evspsbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Including Sublimation and Transpiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 182.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation at surface (also known as evapotranspiration): flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Snow and Ice Sublimation Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 44.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The snow and ice sublimation flux is the loss of snow and ice mass per unit area from the surface resulting from their direct conversion to water vapor that enters the atmosphere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downward Eastward Wind Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 180.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward eastward wind stress at the surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downward Northward Wind Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 181.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward northward wind stress at the surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upward Latent Heat Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 147.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upward Sensible Heat Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 146.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 175.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'longwave' means longwave radiation. Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'. In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 96.129, expression = var177-var175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 169.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface solar irradiance for UV calculations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 95.129, expression = var176-var169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsdscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 102.129, expression = var210-var176+var169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface solar irradiance clear sky for UV calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsuscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Clear-sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rldscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Clear-Sky Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 104.129, expression = var211-var177+var175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface downwelling clear-sky longwave radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsdt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Incident Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 212.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortwave radiation incident at the top of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 97.129, expression = var178-var212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at the top of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 179.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at the top of the atmosphere (to be compared with satellite measurements)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 209.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upwelling clear-sky longwave radiation at top of atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsutcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 103.129, expression = var208-var212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated in the absence of clouds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Vapor Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 137.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertically integrated through the atmospheric column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 164.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cloud area fraction for the whole atmospheric column, as seen from the surface or the top of the atmosphere. Includes both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clwvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condensed Water Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 116.129, expression = var78+var79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass of condensed (liquid + ice) water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Water Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 79.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass of ice water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating frozen hydrometeors ONLY if the precipitating hydrometeor affects the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rtmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 98.129, expression = var178+var179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model : I.e., at the top of that portion of the atmosphere where dynamics are explicitly treated by the model. This is reported only if it differs from the net downward radiative flux at the top of the atmosphere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpjg code name = fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpjg code name = fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can not be produced by LPJ-GUESS: Shotest timestep in LPJ-GUESS for this variable is one month currently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Warlind, Thomas</t>
   </si>
 </sst>
 </file>
@@ -5303,8 +5291,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1053" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A926" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A941" activeCellId="0" sqref="A941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38030,7 +38018,7 @@
         <v>196</v>
       </c>
       <c r="G941" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="H941" s="0" t="s">
@@ -38051,7 +38039,7 @@
         <v>1329</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="C942" s="0" t="s">
         <v>31</v>
@@ -38060,23 +38048,23 @@
         <v>194</v>
       </c>
       <c r="E942" s="0" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="F942" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G942" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="H942" s="0" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="I942" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J942" s="0" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="K942" s="0" t="s">
         <v>1340</v>
@@ -38087,35 +38075,35 @@
         <v>1329</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C943" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D943" s="0" t="s">
-        <v>194</v>
+        <v>1342</v>
       </c>
       <c r="E943" s="0" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="F943" s="0" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="G943" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
         <v>0</v>
       </c>
       <c r="H943" s="0" t="s">
-        <v>1347</v>
+        <v>1108</v>
       </c>
       <c r="I943" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J943" s="0" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="K943" s="0" t="s">
-        <v>1340</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38123,35 +38111,35 @@
         <v>1329</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="C944" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D944" s="0" t="s">
-        <v>194</v>
+        <v>1342</v>
       </c>
       <c r="E944" s="0" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="F944" s="0" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="G944" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
         <v>0</v>
       </c>
       <c r="H944" s="0" t="s">
-        <v>1351</v>
+        <v>1108</v>
       </c>
       <c r="I944" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J944" s="0" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="K944" s="0" t="s">
-        <v>1353</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38159,35 +38147,35 @@
         <v>1329</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C945" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D945" s="0" t="s">
-        <v>194</v>
+        <v>1346</v>
       </c>
       <c r="E945" s="0" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="F945" s="0" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="G945" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H945" s="0" t="s">
-        <v>1351</v>
+        <v>1108</v>
       </c>
       <c r="I945" s="0" t="s">
         <v>18</v>
       </c>
       <c r="J945" s="0" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="K945" s="0" t="s">
-        <v>1353</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38195,22 +38183,22 @@
         <v>1329</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="C946" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D946" s="0" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="E946" s="0" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="F946" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G946" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="H946" s="0" t="s">
@@ -38220,7 +38208,7 @@
         <v>18</v>
       </c>
       <c r="J946" s="0" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="K946" s="0" t="s">
         <v>1191</v>
@@ -38231,22 +38219,22 @@
         <v>1329</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="C947" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D947" s="0" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="E947" s="0" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="F947" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G947" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="H947" s="0" t="s">
@@ -38256,7 +38244,7 @@
         <v>18</v>
       </c>
       <c r="J947" s="0" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="K947" s="0" t="s">
         <v>1191</v>
@@ -38267,22 +38255,22 @@
         <v>1329</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="C948" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D948" s="0" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="E948" s="0" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="F948" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G948" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="H948" s="0" t="s">
@@ -38292,7 +38280,7 @@
         <v>18</v>
       </c>
       <c r="J948" s="0" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="K948" s="0" t="s">
         <v>1191</v>
@@ -38303,22 +38291,22 @@
         <v>1329</v>
       </c>
       <c r="B949" s="0" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="C949" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D949" s="0" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="E949" s="0" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="F949" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G949" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
         <v>0</v>
       </c>
       <c r="H949" s="0" t="s">
@@ -38328,7 +38316,7 @@
         <v>18</v>
       </c>
       <c r="J949" s="0" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="K949" s="0" t="s">
         <v>1191</v>
@@ -38339,22 +38327,22 @@
         <v>1329</v>
       </c>
       <c r="B950" s="0" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="C950" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D950" s="0" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="E950" s="0" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="F950" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G950" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
         <v>0</v>
       </c>
       <c r="H950" s="0" t="s">
@@ -38364,7 +38352,7 @@
         <v>18</v>
       </c>
       <c r="J950" s="0" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="K950" s="0" t="s">
         <v>1191</v>
@@ -38375,22 +38363,22 @@
         <v>1329</v>
       </c>
       <c r="B951" s="0" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="C951" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D951" s="0" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="E951" s="0" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="F951" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G951" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
         <v>0</v>
       </c>
       <c r="H951" s="0" t="s">
@@ -38400,10 +38388,10 @@
         <v>18</v>
       </c>
       <c r="J951" s="0" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="K951" s="0" t="s">
-        <v>1191</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38411,22 +38399,22 @@
         <v>1329</v>
       </c>
       <c r="B952" s="0" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="C952" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D952" s="0" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="E952" s="0" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="F952" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G952" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
         <v>0</v>
       </c>
       <c r="H952" s="0" t="s">
@@ -38436,10 +38424,10 @@
         <v>18</v>
       </c>
       <c r="J952" s="0" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="K952" s="0" t="s">
-        <v>1191</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38447,22 +38435,22 @@
         <v>1329</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C953" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D953" s="0" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="E953" s="0" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="F953" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G953" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H953" s="0" t="s">
@@ -38472,10 +38460,10 @@
         <v>18</v>
       </c>
       <c r="J953" s="0" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="K953" s="0" t="s">
-        <v>1191</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38483,22 +38471,22 @@
         <v>1329</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>1370</v>
+        <v>1362</v>
       </c>
       <c r="C954" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D954" s="0" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="E954" s="0" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="F954" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G954" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
         <v>0</v>
       </c>
       <c r="H954" s="0" t="s">
@@ -38508,10 +38496,10 @@
         <v>18</v>
       </c>
       <c r="J954" s="0" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="K954" s="0" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38519,22 +38507,22 @@
         <v>1329</v>
       </c>
       <c r="B955" s="0" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C955" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D955" s="0" t="s">
-        <v>1371</v>
+        <v>194</v>
       </c>
       <c r="E955" s="0" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="F955" s="0" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="G955" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
         <v>0</v>
       </c>
       <c r="H955" s="0" t="s">
@@ -38544,10 +38532,10 @@
         <v>18</v>
       </c>
       <c r="J955" s="0" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="K955" s="0" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38555,22 +38543,22 @@
         <v>1329</v>
       </c>
       <c r="B956" s="0" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="C956" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D956" s="0" t="s">
-        <v>1376</v>
+        <v>194</v>
       </c>
       <c r="E956" s="0" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="F956" s="0" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="G956" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
         <v>0</v>
       </c>
       <c r="H956" s="0" t="s">
@@ -38580,10 +38568,10 @@
         <v>18</v>
       </c>
       <c r="J956" s="0" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="K956" s="0" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38591,22 +38579,22 @@
         <v>1329</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="C957" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D957" s="0" t="s">
-        <v>1376</v>
+        <v>194</v>
       </c>
       <c r="E957" s="0" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="F957" s="0" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="G957" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
         <v>0</v>
       </c>
       <c r="H957" s="0" t="s">
@@ -38616,10 +38604,10 @@
         <v>18</v>
       </c>
       <c r="J957" s="0" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="K957" s="0" t="s">
-        <v>1374</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38627,7 +38615,7 @@
         <v>1329</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="C958" s="0" t="s">
         <v>13</v>
@@ -38636,13 +38624,13 @@
         <v>194</v>
       </c>
       <c r="E958" s="0" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="F958" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G958" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
         <v>0</v>
       </c>
       <c r="H958" s="0" t="s">
@@ -38652,10 +38640,10 @@
         <v>18</v>
       </c>
       <c r="J958" s="0" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="K958" s="0" t="s">
-        <v>1382</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38663,7 +38651,7 @@
         <v>1329</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="C959" s="0" t="s">
         <v>13</v>
@@ -38672,13 +38660,13 @@
         <v>194</v>
       </c>
       <c r="E959" s="0" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="F959" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G959" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
         <v>0</v>
       </c>
       <c r="H959" s="0" t="s">
@@ -38688,10 +38676,10 @@
         <v>18</v>
       </c>
       <c r="J959" s="0" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="K959" s="0" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38699,7 +38687,7 @@
         <v>1329</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="C960" s="0" t="s">
         <v>13</v>
@@ -38708,13 +38696,13 @@
         <v>194</v>
       </c>
       <c r="E960" s="0" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="F960" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G960" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
         <v>0</v>
       </c>
       <c r="H960" s="0" t="s">
@@ -38724,168 +38712,97 @@
         <v>18</v>
       </c>
       <c r="J960" s="0" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="K960" s="0" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B961" s="0" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C961" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D961" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E961" s="0" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F961" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G961" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H961" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I961" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J961" s="0" t="s">
-        <v>1385</v>
-      </c>
-      <c r="K961" s="0" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B962" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C962" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D962" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E962" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F962" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G962" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H962" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I962" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J962" s="0" t="s">
-        <v>1388</v>
-      </c>
-      <c r="K962" s="0" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B963" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C963" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D963" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E963" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F963" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G963" s="0" t="n">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="H963" s="0" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I963" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J963" s="0" t="s">
-        <v>1388</v>
-      </c>
-      <c r="K963" s="0" t="s">
-        <v>1382</v>
-      </c>
-    </row>
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B967" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C967" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D967" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E967" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F967" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G967" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H967" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I967" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J967" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K967" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="0" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B970" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C970" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D970" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E970" s="0" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F970" s="0" t="s">
-        <v>1392</v>
-      </c>
-      <c r="G970" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H970" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I970" s="3" t="s">
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="0" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B969" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C969" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D969" s="0" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E969" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F969" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G969" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H969" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I969" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="J970" s="0" t="s">
-        <v>1394</v>
-      </c>
-      <c r="K970" s="0" t="s">
+      <c r="J969" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K969" s="0" t="s">
         <v>215</v>
       </c>
     </row>
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>1327</v>
+        <v>1385</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="C972" s="0" t="s">
         <v>31</v>
@@ -38894,154 +38811,222 @@
         <v>1328</v>
       </c>
       <c r="E972" s="0" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="F972" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G972" s="0" t="n">
-        <v>0</v>
+        <v>1379</v>
+      </c>
+      <c r="G972" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
+        <v>web</v>
       </c>
       <c r="H972" s="2" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="I972" s="3" t="s">
         <v>371</v>
       </c>
       <c r="J972" s="0" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="K972" s="0" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="0" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B975" s="0" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C975" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D975" s="0" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E975" s="0" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F975" s="0" t="s">
-        <v>1392</v>
-      </c>
-      <c r="G975" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/865d0e00-53e6-11e6-b524-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H975" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="I975" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J975" s="0" t="s">
-        <v>1401</v>
-      </c>
-      <c r="K975" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="0" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B976" s="0" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C976" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D976" s="0" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E976" s="0" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F976" s="0" t="s">
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B973" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C973" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D973" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E973" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F973" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G976" s="0" t="str">
+      <c r="G973" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d2e309c6f25017442ad6c79c4f9eca.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H976" s="2" t="s">
+      <c r="H973" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I973" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J973" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K973" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B974" s="0" t="s">
         <v>1393</v>
       </c>
-      <c r="I976" s="3" t="s">
+      <c r="C974" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D974" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E974" s="0" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F974" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G974" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H974" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I974" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="J976" s="0" t="s">
-        <v>1405</v>
-      </c>
-      <c r="K976" s="0" t="s">
+      <c r="J974" s="0" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K974" s="0" t="s">
         <v>215</v>
       </c>
     </row>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B977" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C977" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D977" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E977" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F977" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G977" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H977" s="3" t="s">
         <v>1398</v>
       </c>
-      <c r="B977" s="0" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C977" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D977" s="0" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E977" s="0" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F977" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G977" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e5de4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H977" s="2" t="s">
-        <v>1393</v>
-      </c>
       <c r="I977" s="3" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="J977" s="0" t="s">
-        <v>1409</v>
+        <v>310</v>
       </c>
       <c r="K977" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B978" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C978" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D978" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E978" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F978" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G978" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H978" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I978" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J978" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="K978" s="0" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B979" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C979" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D979" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E979" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="F979" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G979" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H979" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I979" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J979" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="K979" s="0" t="s">
+        <v>856</v>
+      </c>
+    </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C980" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D980" s="0" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="E980" s="0" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F980" s="0" t="s">
         <v>308</v>
@@ -39050,352 +39035,352 @@
         <v>0</v>
       </c>
       <c r="H980" s="3" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="I980" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J980" s="0" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="K980" s="0" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B981" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C981" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D981" s="0" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E981" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="F981" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G981" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H981" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I981" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J981" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="K981" s="0" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B982" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C982" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D982" s="0" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E982" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="F982" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G982" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H982" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I982" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J982" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="K982" s="0" t="s">
-        <v>856</v>
-      </c>
-    </row>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>11</v>
+        <v>955</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>317</v>
+        <v>1399</v>
       </c>
       <c r="C983" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D983" s="0" t="s">
-        <v>1410</v>
+        <v>873</v>
       </c>
       <c r="E983" s="0" t="s">
-        <v>318</v>
+        <v>1400</v>
       </c>
       <c r="F983" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="G983" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H983" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I983" s="3" t="s">
-        <v>36</v>
+      <c r="G983" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914e34e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H983" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I983" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="J983" s="0" t="s">
-        <v>319</v>
+        <v>1402</v>
       </c>
       <c r="K983" s="0" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B984" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C984" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D984" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="E984" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F984" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G984" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1586-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H984" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I984" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J984" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K984" s="0" t="s">
+        <v>1403</v>
+      </c>
+    </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="C986" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D986" s="0" t="s">
-        <v>873</v>
+        <v>809</v>
       </c>
       <c r="E986" s="0" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="F986" s="0" t="s">
-        <v>308</v>
+        <v>750</v>
       </c>
       <c r="G986" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914e34e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c6e8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H986" s="4" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="I986" s="4" t="s">
         <v>743</v>
       </c>
       <c r="J986" s="0" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="K986" s="0" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="B987" s="0" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C987" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D987" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="E987" s="0" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F987" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G987" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1586-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H987" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I987" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J987" s="0" t="s">
-        <v>1419</v>
-      </c>
-      <c r="K987" s="0" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="B989" s="0" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C989" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D989" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="E989" s="0" t="s">
-        <v>1421</v>
-      </c>
-      <c r="F989" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="G989" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c6e8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H989" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I989" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J989" s="0" t="s">
-        <v>1422</v>
-      </c>
-      <c r="K989" s="0" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="991" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="988" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="B991" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C991" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D991" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E991" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F991" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="G991" s="3" t="str">
+      <c r="B988" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C988" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D988" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E988" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F988" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G988" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/be9cffbb781e32b0bc311b22fa5c0322.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H991" s="3" t="s">
-        <v>1427</v>
+      <c r="H988" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I988" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J988" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K988" s="3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B990" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C990" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D990" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E990" s="0" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F990" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="G990" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d64f2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H990" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I990" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J990" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K990" s="0" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B991" s="0" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C991" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D991" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E991" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F991" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="G991" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d0c6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H991" s="4" t="s">
+        <v>1401</v>
       </c>
       <c r="I991" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="J991" s="3" t="s">
-        <v>1428</v>
-      </c>
-      <c r="K991" s="3" t="s">
-        <v>1183</v>
+      <c r="J991" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K991" s="0" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="0" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B993" s="0" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C993" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D993" s="0" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E993" s="0" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F993" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="G993" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d64f2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H993" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I993" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J993" s="0" t="s">
-        <v>1433</v>
-      </c>
-      <c r="K993" s="0" t="s">
-        <v>1416</v>
-      </c>
-    </row>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B994" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C994" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D994" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E994" s="0" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F994" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G994" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H994" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I994" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J994" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K994" s="0" t="s">
         <v>1429</v>
       </c>
-      <c r="B994" s="0" t="s">
+    </row>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B995" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C995" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D995" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E995" s="0" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F995" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G995" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H995" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I995" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J995" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K995" s="0" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B996" s="0" t="s">
         <v>1434</v>
       </c>
-      <c r="C994" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D994" s="0" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E994" s="0" t="s">
+      <c r="C996" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D996" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E996" s="0" t="s">
         <v>1435</v>
       </c>
-      <c r="F994" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="G994" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d0c6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H994" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I994" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="J994" s="0" t="s">
+      <c r="F996" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G996" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H996" s="3" t="s">
         <v>1436</v>
       </c>
-      <c r="K994" s="0" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I996" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J996" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K996" s="0" t="s">
+        <v>1429</v>
+      </c>
+    </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
         <v>961</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C997" s="0" t="s">
         <v>31</v>
@@ -39404,25 +39389,25 @@
         <v>194</v>
       </c>
       <c r="E997" s="0" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F997" s="0" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="G997" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H997" s="3" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="I997" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J997" s="0" t="s">
         <v>1440</v>
       </c>
-      <c r="J997" s="0" t="s">
-        <v>1441</v>
-      </c>
       <c r="K997" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39430,7 +39415,7 @@
         <v>961</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C998" s="0" t="s">
         <v>31</v>
@@ -39439,25 +39424,25 @@
         <v>194</v>
       </c>
       <c r="E998" s="0" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="F998" s="0" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="G998" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H998" s="3" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="I998" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J998" s="0" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="K998" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39465,7 +39450,7 @@
         <v>961</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C999" s="0" t="s">
         <v>31</v>
@@ -39474,7 +39459,7 @@
         <v>194</v>
       </c>
       <c r="E999" s="0" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="F999" s="0" t="s">
         <v>196</v>
@@ -39483,16 +39468,16 @@
         <v>0</v>
       </c>
       <c r="H999" s="3" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="I999" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J999" s="0" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="K999" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39500,7 +39485,7 @@
         <v>961</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C1000" s="0" t="s">
         <v>31</v>
@@ -39509,25 +39494,25 @@
         <v>194</v>
       </c>
       <c r="E1000" s="0" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="F1000" s="0" t="s">
-        <v>196</v>
+        <v>1450</v>
       </c>
       <c r="G1000" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H1000" s="3" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="I1000" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1000" s="0" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="K1000" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39535,7 +39520,7 @@
         <v>961</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C1001" s="0" t="s">
         <v>31</v>
@@ -39544,25 +39529,25 @@
         <v>194</v>
       </c>
       <c r="E1001" s="0" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F1001" s="0" t="s">
-        <v>196</v>
+        <v>1450</v>
       </c>
       <c r="G1001" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H1001" s="3" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="I1001" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1001" s="0" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K1001" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39570,7 +39555,7 @@
         <v>961</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C1002" s="0" t="s">
         <v>31</v>
@@ -39579,25 +39564,25 @@
         <v>194</v>
       </c>
       <c r="E1002" s="0" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="F1002" s="0" t="s">
-        <v>196</v>
+        <v>965</v>
       </c>
       <c r="G1002" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H1002" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="I1002" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1002" s="0" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="K1002" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39605,7 +39590,7 @@
         <v>961</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="C1003" s="0" t="s">
         <v>31</v>
@@ -39614,25 +39599,25 @@
         <v>194</v>
       </c>
       <c r="E1003" s="0" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="F1003" s="0" t="s">
-        <v>1463</v>
+        <v>965</v>
       </c>
       <c r="G1003" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H1003" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="I1003" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1003" s="0" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="K1003" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39640,7 +39625,7 @@
         <v>961</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C1004" s="0" t="s">
         <v>31</v>
@@ -39649,25 +39634,25 @@
         <v>194</v>
       </c>
       <c r="E1004" s="0" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="F1004" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1004" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1004" s="3" t="s">
         <v>1463</v>
-      </c>
-      <c r="G1004" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1004" s="3" t="s">
-        <v>1459</v>
       </c>
       <c r="I1004" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1004" s="0" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="K1004" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39675,7 +39660,7 @@
         <v>961</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C1005" s="0" t="s">
         <v>31</v>
@@ -39684,7 +39669,7 @@
         <v>194</v>
       </c>
       <c r="E1005" s="0" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="F1005" s="0" t="s">
         <v>965</v>
@@ -39693,16 +39678,16 @@
         <v>0</v>
       </c>
       <c r="H1005" s="3" t="s">
-        <v>1459</v>
+        <v>1467</v>
       </c>
       <c r="I1005" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1005" s="0" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="K1005" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39710,7 +39695,7 @@
         <v>961</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1471</v>
+        <v>1071</v>
       </c>
       <c r="C1006" s="0" t="s">
         <v>31</v>
@@ -39719,25 +39704,25 @@
         <v>194</v>
       </c>
       <c r="E1006" s="0" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="F1006" s="0" t="s">
-        <v>965</v>
+        <v>16</v>
       </c>
       <c r="G1006" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H1006" s="3" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="I1006" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1006" s="0" t="s">
-        <v>1473</v>
+        <v>1074</v>
       </c>
       <c r="K1006" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39745,7 +39730,7 @@
         <v>961</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="C1007" s="0" t="s">
         <v>31</v>
@@ -39754,25 +39739,25 @@
         <v>194</v>
       </c>
       <c r="E1007" s="0" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="F1007" s="0" t="s">
-        <v>965</v>
+        <v>31</v>
       </c>
       <c r="G1007" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H1007" s="3" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="I1007" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1007" s="0" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="K1007" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39780,7 +39765,7 @@
         <v>961</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C1008" s="0" t="s">
         <v>31</v>
@@ -39789,25 +39774,25 @@
         <v>194</v>
       </c>
       <c r="E1008" s="0" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="F1008" s="0" t="s">
-        <v>965</v>
+        <v>31</v>
       </c>
       <c r="G1008" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H1008" s="3" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="I1008" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1008" s="0" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="K1008" s="0" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39815,7 +39800,7 @@
         <v>961</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1071</v>
+        <v>290</v>
       </c>
       <c r="C1009" s="0" t="s">
         <v>31</v>
@@ -39824,139 +39809,142 @@
         <v>194</v>
       </c>
       <c r="E1009" s="0" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="F1009" s="0" t="s">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="G1009" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H1009" s="3" t="s">
-        <v>1459</v>
+        <v>1472</v>
       </c>
       <c r="I1009" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="J1009" s="0" t="s">
-        <v>1074</v>
+        <v>295</v>
       </c>
       <c r="K1009" s="0" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="B1010" s="0" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C1010" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1010" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1010" s="0" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F1010" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1010" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1010" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I1010" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J1010" s="0" t="s">
-        <v>1486</v>
-      </c>
-      <c r="K1010" s="0" t="s">
-        <v>1442</v>
-      </c>
-    </row>
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>961</v>
+        <v>303</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="C1011" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1011" s="0" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="E1011" s="0" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="F1011" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1011" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1011" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I1011" s="3" t="s">
-        <v>1078</v>
+        <v>336</v>
+      </c>
+      <c r="G1011" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1011" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I1011" s="0" t="s">
+        <v>338</v>
       </c>
       <c r="J1011" s="0" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="K1011" s="0" t="s">
-        <v>1442</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="0" t="s">
-        <v>961</v>
+        <v>303</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>290</v>
+        <v>1481</v>
       </c>
       <c r="C1012" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1012" s="0" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="E1012" s="0" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="F1012" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1012" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1012" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1012" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1012" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I1012" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1012" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="K1012" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1013" s="0" t="s">
         <v>1485</v>
       </c>
-      <c r="I1012" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J1012" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="K1012" s="0" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C1013" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1013" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1013" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F1013" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1013" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1013" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I1013" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1013" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K1013" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
         <v>303</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C1014" s="0" t="s">
         <v>31</v>
@@ -39965,23 +39953,23 @@
         <v>334</v>
       </c>
       <c r="E1014" s="0" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="F1014" s="0" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="G1014" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1014" s="0" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="I1014" s="0" t="s">
         <v>338</v>
       </c>
       <c r="J1014" s="0" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="K1014" s="0" t="s">
         <v>305</v>
@@ -39992,7 +39980,7 @@
         <v>303</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C1015" s="0" t="s">
         <v>31</v>
@@ -40001,23 +39989,23 @@
         <v>334</v>
       </c>
       <c r="E1015" s="0" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F1015" s="0" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="G1015" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1015" s="0" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I1015" s="0" t="s">
         <v>338</v>
       </c>
       <c r="J1015" s="0" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="K1015" s="0" t="s">
         <v>305</v>
@@ -40028,7 +40016,7 @@
         <v>303</v>
       </c>
       <c r="B1016" s="0" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C1016" s="0" t="s">
         <v>31</v>
@@ -40037,23 +40025,23 @@
         <v>334</v>
       </c>
       <c r="E1016" s="0" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F1016" s="0" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="G1016" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1016" s="0" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="I1016" s="0" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="J1016" s="0" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="K1016" s="0" t="s">
         <v>305</v>
@@ -40064,32 +40052,32 @@
         <v>303</v>
       </c>
       <c r="B1017" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C1017" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1017" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E1017" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F1017" s="0" t="s">
         <v>1502</v>
       </c>
-      <c r="C1017" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1017" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1017" s="0" t="s">
+      <c r="G1017" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21ef5e4c-b894-11e6-a189-5404a60d96b5.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1017" s="0" t="s">
         <v>1503</v>
       </c>
-      <c r="F1017" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="G1017" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1017" s="0" t="s">
+      <c r="I1017" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1017" s="0" t="s">
         <v>1504</v>
-      </c>
-      <c r="I1017" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1017" s="0" t="s">
-        <v>1503</v>
       </c>
       <c r="K1017" s="0" t="s">
         <v>305</v>
@@ -40106,185 +40094,185 @@
         <v>31</v>
       </c>
       <c r="D1018" s="0" t="s">
-        <v>334</v>
+        <v>1500</v>
       </c>
       <c r="E1018" s="0" t="s">
         <v>1506</v>
       </c>
       <c r="F1018" s="0" t="s">
-        <v>350</v>
+        <v>1507</v>
       </c>
       <c r="G1018" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2260e24c-b894-11e6-a189-5404a60d96b5.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1018" s="0" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="I1018" s="0" t="s">
-        <v>338</v>
+        <v>226</v>
       </c>
       <c r="J1018" s="0" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
       <c r="K1018" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1019" s="0" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C1019" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1019" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1019" s="0" t="s">
+    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1020" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1020" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="F1019" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="G1019" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1019" s="0" t="s">
+      <c r="C1020" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1020" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="I1019" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1019" s="0" t="s">
+      <c r="E1020" s="3" t="s">
         <v>1511</v>
       </c>
-      <c r="K1019" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1020" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C1020" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1020" s="0" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E1020" s="0" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F1020" s="0" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G1020" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21ef5e4c-b894-11e6-a189-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1020" s="0" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I1020" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1020" s="0" t="s">
-        <v>1517</v>
-      </c>
-      <c r="K1020" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1021" s="0" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C1021" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1021" s="0" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E1021" s="0" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F1021" s="0" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G1021" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2260e24c-b894-11e6-a189-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1021" s="0" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I1021" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1021" s="0" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K1021" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1023" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1023" s="3" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C1023" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1023" s="3" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E1023" s="3" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F1023" s="3" t="s">
+      <c r="F1020" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G1023" s="3" t="str">
+      <c r="G1020" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1023" s="3" t="s">
+      <c r="H1020" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I1020" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1020" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K1020" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1024" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C1024" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1024" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1024" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F1024" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1024" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e0ecf1c1305c1bdc69bee0e7ba1e2e03.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1024" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I1024" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1024" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K1024" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1025" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C1025" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1025" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1025" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F1025" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G1025" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2b3318a73839edfafa9d46864aadc.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1025" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I1025" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1025" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K1025" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1026" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C1026" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1026" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1026" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F1026" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G1026" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dd916e3e2eca18cda5d9f81749d0c91c.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1026" s="0" t="s">
         <v>1525</v>
       </c>
-      <c r="I1023" s="3" t="s">
+      <c r="I1026" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1026" s="0" t="s">
         <v>1526</v>
       </c>
-      <c r="J1023" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K1023" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K1026" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
         <v>303</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C1027" s="0" t="s">
         <v>31</v>
@@ -40293,23 +40281,23 @@
         <v>334</v>
       </c>
       <c r="E1027" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F1027" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1027" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b9c3eb96337c69c1c4a5aab1317f5563.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1027" s="0" t="s">
         <v>1529</v>
       </c>
-      <c r="F1027" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1027" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e0ecf1c1305c1bdc69bee0e7ba1e2e03.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1027" s="0" t="s">
-        <v>1530</v>
-      </c>
       <c r="I1027" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1027" s="0" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K1027" s="0" t="s">
         <v>305</v>
@@ -40320,7 +40308,7 @@
         <v>303</v>
       </c>
       <c r="B1028" s="0" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C1028" s="0" t="s">
         <v>31</v>
@@ -40329,23 +40317,23 @@
         <v>334</v>
       </c>
       <c r="E1028" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F1028" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1028" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21db90c0a12448299f855fdab60930d4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1028" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I1028" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1028" s="0" t="s">
         <v>1533</v>
-      </c>
-      <c r="F1028" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G1028" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2b3318a73839edfafa9d46864aadc.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1028" s="0" t="s">
-        <v>1534</v>
-      </c>
-      <c r="I1028" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1028" s="0" t="s">
-        <v>1535</v>
       </c>
       <c r="K1028" s="0" t="s">
         <v>305</v>
@@ -40356,7 +40344,7 @@
         <v>303</v>
       </c>
       <c r="B1029" s="0" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C1029" s="0" t="s">
         <v>31</v>
@@ -40365,23 +40353,23 @@
         <v>334</v>
       </c>
       <c r="E1029" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F1029" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1029" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2dedcb347c18e132a2f4d625abf94585.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1029" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I1029" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1029" s="0" t="s">
         <v>1537</v>
-      </c>
-      <c r="F1029" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G1029" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dd916e3e2eca18cda5d9f81749d0c91c.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1029" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I1029" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1029" s="0" t="s">
-        <v>1539</v>
       </c>
       <c r="K1029" s="0" t="s">
         <v>305</v>
@@ -40392,7 +40380,7 @@
         <v>303</v>
       </c>
       <c r="B1030" s="0" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C1030" s="0" t="s">
         <v>31</v>
@@ -40401,20 +40389,20 @@
         <v>334</v>
       </c>
       <c r="E1030" s="0" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F1030" s="0" t="s">
-        <v>838</v>
+        <v>31</v>
       </c>
       <c r="G1030" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b9c3eb96337c69c1c4a5aab1317f5563.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53f4724d228998d54191c73352532ce3.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1030" s="0" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="I1030" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1030" s="0" t="s">
         <v>1541</v>
@@ -40428,7 +40416,7 @@
         <v>303</v>
       </c>
       <c r="B1031" s="0" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C1031" s="0" t="s">
         <v>31</v>
@@ -40437,23 +40425,23 @@
         <v>334</v>
       </c>
       <c r="E1031" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F1031" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1031" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cc6766c2d001a58d18dfe7f60fd5e66.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1031" s="0" t="s">
         <v>1544</v>
       </c>
-      <c r="F1031" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1031" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21db90c0a12448299f855fdab60930d4.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1031" s="0" t="s">
-        <v>1545</v>
-      </c>
       <c r="I1031" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1031" s="0" t="s">
-        <v>1546</v>
+        <v>999</v>
       </c>
       <c r="K1031" s="0" t="s">
         <v>305</v>
@@ -40464,7 +40452,7 @@
         <v>303</v>
       </c>
       <c r="B1032" s="0" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C1032" s="0" t="s">
         <v>31</v>
@@ -40473,23 +40461,23 @@
         <v>334</v>
       </c>
       <c r="E1032" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F1032" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G1032" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51fb29dd55442361fa9c5dbe23aca9c6.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1032" s="0" t="s">
         <v>1548</v>
       </c>
-      <c r="F1032" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1032" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2dedcb347c18e132a2f4d625abf94585.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1032" s="0" t="s">
+      <c r="I1032" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1032" s="0" t="s">
         <v>1549</v>
-      </c>
-      <c r="I1032" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1032" s="0" t="s">
-        <v>1550</v>
       </c>
       <c r="K1032" s="0" t="s">
         <v>305</v>
@@ -40500,7 +40488,7 @@
         <v>303</v>
       </c>
       <c r="B1033" s="0" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C1033" s="0" t="s">
         <v>31</v>
@@ -40509,23 +40497,23 @@
         <v>334</v>
       </c>
       <c r="E1033" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F1033" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1033" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/28e774ec0ecd561a6a3d437e6c443a6b.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1033" s="0" t="s">
         <v>1552</v>
       </c>
-      <c r="F1033" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1033" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53f4724d228998d54191c73352532ce3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1033" s="0" t="s">
+      <c r="I1033" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1033" s="0" t="s">
         <v>1553</v>
-      </c>
-      <c r="I1033" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1033" s="0" t="s">
-        <v>1554</v>
       </c>
       <c r="K1033" s="0" t="s">
         <v>305</v>
@@ -40536,7 +40524,7 @@
         <v>303</v>
       </c>
       <c r="B1034" s="0" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C1034" s="0" t="s">
         <v>31</v>
@@ -40545,23 +40533,23 @@
         <v>334</v>
       </c>
       <c r="E1034" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F1034" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1034" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7a107875bd58c5e655e8f87152a3bad7.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1034" s="0" t="s">
         <v>1556</v>
       </c>
-      <c r="F1034" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1034" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cc6766c2d001a58d18dfe7f60fd5e66.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1034" s="0" t="s">
+      <c r="I1034" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1034" s="0" t="s">
         <v>1557</v>
-      </c>
-      <c r="I1034" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1034" s="0" t="s">
-        <v>999</v>
       </c>
       <c r="K1034" s="0" t="s">
         <v>305</v>
@@ -40572,32 +40560,32 @@
         <v>303</v>
       </c>
       <c r="B1035" s="0" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1035" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1035" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1035" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F1035" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1035" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1035" s="0" t="s">
         <v>1558</v>
       </c>
-      <c r="C1035" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1035" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1035" s="0" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F1035" s="0" t="s">
-        <v>1560</v>
-      </c>
-      <c r="G1035" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51fb29dd55442361fa9c5dbe23aca9c6.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1035" s="0" t="s">
-        <v>1561</v>
-      </c>
       <c r="I1035" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1035" s="0" t="s">
-        <v>1562</v>
+        <v>1514</v>
       </c>
       <c r="K1035" s="0" t="s">
         <v>305</v>
@@ -40608,32 +40596,32 @@
         <v>303</v>
       </c>
       <c r="B1036" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C1036" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1036" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E1036" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F1036" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1036" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5c4978e802ba55d5a298cf1b3bdc2b3a.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1036" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I1036" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1036" s="0" t="s">
         <v>1563</v>
-      </c>
-      <c r="C1036" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1036" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1036" s="0" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F1036" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1036" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/28e774ec0ecd561a6a3d437e6c443a6b.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1036" s="0" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I1036" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1036" s="0" t="s">
-        <v>1566</v>
       </c>
       <c r="K1036" s="0" t="s">
         <v>305</v>
@@ -40644,32 +40632,32 @@
         <v>303</v>
       </c>
       <c r="B1037" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C1037" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1037" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1037" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F1037" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1037" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90c49fce92dc1f21647dad07d1342843.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1037" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I1037" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1037" s="0" t="s">
         <v>1567</v>
-      </c>
-      <c r="C1037" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1037" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1037" s="0" t="s">
-        <v>1568</v>
-      </c>
-      <c r="F1037" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1037" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7a107875bd58c5e655e8f87152a3bad7.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1037" s="0" t="s">
-        <v>1569</v>
-      </c>
-      <c r="I1037" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1037" s="0" t="s">
-        <v>1570</v>
       </c>
       <c r="K1037" s="0" t="s">
         <v>305</v>
@@ -40680,32 +40668,32 @@
         <v>303</v>
       </c>
       <c r="B1038" s="0" t="s">
-        <v>1522</v>
+        <v>1568</v>
       </c>
       <c r="C1038" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1038" s="0" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="E1038" s="0" t="s">
-        <v>1524</v>
+        <v>1569</v>
       </c>
       <c r="F1038" s="0" t="s">
         <v>219</v>
       </c>
       <c r="G1038" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3d23c359f44d6a153c4dcab9e07d7cb6.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1038" s="0" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I1038" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1038" s="0" t="s">
-        <v>1527</v>
+        <v>1569</v>
       </c>
       <c r="K1038" s="0" t="s">
         <v>305</v>
@@ -40716,32 +40704,32 @@
         <v>303</v>
       </c>
       <c r="B1039" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C1039" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1039" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1039" s="0" t="s">
         <v>1572</v>
       </c>
-      <c r="C1039" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1039" s="0" t="s">
+      <c r="F1039" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1039" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8c9504d28596e05586c8e193082ac617.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1039" s="0" t="s">
         <v>1573</v>
       </c>
-      <c r="E1039" s="0" t="s">
+      <c r="I1039" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1039" s="0" t="s">
         <v>1574</v>
-      </c>
-      <c r="F1039" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1039" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5c4978e802ba55d5a298cf1b3bdc2b3a.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1039" s="0" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I1039" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1039" s="0" t="s">
-        <v>1576</v>
       </c>
       <c r="K1039" s="0" t="s">
         <v>305</v>
@@ -40752,32 +40740,32 @@
         <v>303</v>
       </c>
       <c r="B1040" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C1040" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1040" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E1040" s="0" t="s">
         <v>1577</v>
       </c>
-      <c r="C1040" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1040" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1040" s="0" t="s">
+      <c r="F1040" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1040" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e72b243a2a1c8691ab0168d8b62534c2.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1040" s="0" t="s">
         <v>1578</v>
       </c>
-      <c r="F1040" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="G1040" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90c49fce92dc1f21647dad07d1342843.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1040" s="0" t="s">
+      <c r="I1040" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1040" s="0" t="s">
         <v>1579</v>
-      </c>
-      <c r="I1040" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1040" s="0" t="s">
-        <v>1580</v>
       </c>
       <c r="K1040" s="0" t="s">
         <v>305</v>
@@ -40788,32 +40776,32 @@
         <v>303</v>
       </c>
       <c r="B1041" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C1041" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1041" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E1041" s="0" t="s">
         <v>1581</v>
       </c>
-      <c r="C1041" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1041" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1041" s="0" t="s">
+      <c r="F1041" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1041" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b1cd51f370e346ecb20f1e80cb6ea4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1041" s="0" t="s">
         <v>1582</v>
       </c>
-      <c r="F1041" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1041" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3d23c359f44d6a153c4dcab9e07d7cb6.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1041" s="0" t="s">
+      <c r="I1041" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1041" s="0" t="s">
         <v>1583</v>
-      </c>
-      <c r="I1041" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1041" s="0" t="s">
-        <v>1582</v>
       </c>
       <c r="K1041" s="0" t="s">
         <v>305</v>
@@ -40830,23 +40818,23 @@
         <v>31</v>
       </c>
       <c r="D1042" s="0" t="s">
-        <v>367</v>
+        <v>1576</v>
       </c>
       <c r="E1042" s="0" t="s">
         <v>1585</v>
       </c>
       <c r="F1042" s="0" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="G1042" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8c9504d28596e05586c8e193082ac617.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b97609a32d53dff5b8e73729e4f258b.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1042" s="0" t="s">
         <v>1586</v>
       </c>
       <c r="I1042" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1042" s="0" t="s">
         <v>1587</v>
@@ -40866,26 +40854,26 @@
         <v>31</v>
       </c>
       <c r="D1043" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E1043" s="0" t="s">
         <v>1589</v>
       </c>
-      <c r="E1043" s="0" t="s">
+      <c r="F1043" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1043" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c75f684ec69602e9de82b48e53afb2cc.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1043" s="0" t="s">
         <v>1590</v>
       </c>
-      <c r="F1043" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1043" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e72b243a2a1c8691ab0168d8b62534c2.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1043" s="0" t="s">
-        <v>1591</v>
-      </c>
       <c r="I1043" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1043" s="0" t="s">
-        <v>1592</v>
+        <v>999</v>
       </c>
       <c r="K1043" s="0" t="s">
         <v>305</v>
@@ -40896,32 +40884,32 @@
         <v>303</v>
       </c>
       <c r="B1044" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C1044" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1044" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E1044" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F1044" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1044" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebfefc2ab8716ef597b128171b275945.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1044" s="0" t="s">
         <v>1593</v>
       </c>
-      <c r="C1044" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1044" s="0" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E1044" s="0" t="s">
+      <c r="I1044" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1044" s="0" t="s">
         <v>1594</v>
-      </c>
-      <c r="F1044" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1044" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b1cd51f370e346ecb20f1e80cb6ea4.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1044" s="0" t="s">
-        <v>1595</v>
-      </c>
-      <c r="I1044" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1044" s="0" t="s">
-        <v>1596</v>
       </c>
       <c r="K1044" s="0" t="s">
         <v>305</v>
@@ -40932,32 +40920,32 @@
         <v>303</v>
       </c>
       <c r="B1045" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C1045" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1045" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1045" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F1045" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1045" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62f26742cf240c1b5169a5cd511196b6.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1045" s="0" t="s">
         <v>1597</v>
       </c>
-      <c r="C1045" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1045" s="0" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E1045" s="0" t="s">
+      <c r="I1045" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1045" s="0" t="s">
         <v>1598</v>
-      </c>
-      <c r="F1045" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G1045" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b97609a32d53dff5b8e73729e4f258b.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1045" s="0" t="s">
-        <v>1599</v>
-      </c>
-      <c r="I1045" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1045" s="0" t="s">
-        <v>1600</v>
       </c>
       <c r="K1045" s="0" t="s">
         <v>305</v>
@@ -40968,32 +40956,32 @@
         <v>303</v>
       </c>
       <c r="B1046" s="0" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C1046" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1046" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1046" s="0" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F1046" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1046" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/051919eddec810e292c883205c944ceb.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1046" s="0" t="s">
         <v>1601</v>
       </c>
-      <c r="C1046" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1046" s="0" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E1046" s="0" t="s">
+      <c r="I1046" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1046" s="0" t="s">
         <v>1602</v>
-      </c>
-      <c r="F1046" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1046" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c75f684ec69602e9de82b48e53afb2cc.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1046" s="0" t="s">
-        <v>1603</v>
-      </c>
-      <c r="I1046" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1046" s="0" t="s">
-        <v>999</v>
       </c>
       <c r="K1046" s="0" t="s">
         <v>305</v>
@@ -41004,32 +40992,32 @@
         <v>303</v>
       </c>
       <c r="B1047" s="0" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1047" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1047" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1047" s="0" t="s">
         <v>1604</v>
       </c>
-      <c r="C1047" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1047" s="0" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E1047" s="0" t="s">
+      <c r="F1047" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1047" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa2bea81f238ad8f2c35a7e16ad97801.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1047" s="0" t="s">
         <v>1605</v>
       </c>
-      <c r="F1047" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1047" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebfefc2ab8716ef597b128171b275945.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1047" s="0" t="s">
+      <c r="I1047" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1047" s="0" t="s">
         <v>1606</v>
-      </c>
-      <c r="I1047" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1047" s="0" t="s">
-        <v>1607</v>
       </c>
       <c r="K1047" s="0" t="s">
         <v>305</v>
@@ -41040,7 +41028,7 @@
         <v>303</v>
       </c>
       <c r="B1048" s="0" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C1048" s="0" t="s">
         <v>31</v>
@@ -41049,23 +41037,23 @@
         <v>367</v>
       </c>
       <c r="E1048" s="0" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="F1048" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G1048" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62f26742cf240c1b5169a5cd511196b6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/089961a3af4d54d5fb045cf3750e760c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1048" s="0" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I1048" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1048" s="0" t="s">
         <v>1610</v>
-      </c>
-      <c r="I1048" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1048" s="0" t="s">
-        <v>1611</v>
       </c>
       <c r="K1048" s="0" t="s">
         <v>305</v>
@@ -41076,7 +41064,7 @@
         <v>303</v>
       </c>
       <c r="B1049" s="0" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1049" s="0" t="s">
         <v>31</v>
@@ -41085,23 +41073,23 @@
         <v>367</v>
       </c>
       <c r="E1049" s="0" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="F1049" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G1049" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/051919eddec810e292c883205c944ceb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3a8e1636a31c82fbdd9a1ae45ab3be7d.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1049" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I1049" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1049" s="0" t="s">
         <v>1614</v>
-      </c>
-      <c r="I1049" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1049" s="0" t="s">
-        <v>1615</v>
       </c>
       <c r="K1049" s="0" t="s">
         <v>305</v>
@@ -41112,7 +41100,7 @@
         <v>303</v>
       </c>
       <c r="B1050" s="0" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1050" s="0" t="s">
         <v>31</v>
@@ -41121,23 +41109,23 @@
         <v>367</v>
       </c>
       <c r="E1050" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F1050" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1050" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3abb7c5b4c4650e9d17a8439004aebea.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1050" s="0" t="s">
         <v>1617</v>
       </c>
-      <c r="F1050" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1050" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa2bea81f238ad8f2c35a7e16ad97801.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1050" s="0" t="s">
+      <c r="I1050" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1050" s="0" t="s">
         <v>1618</v>
-      </c>
-      <c r="I1050" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1050" s="0" t="s">
-        <v>1619</v>
       </c>
       <c r="K1050" s="0" t="s">
         <v>305</v>
@@ -41148,7 +41136,7 @@
         <v>303</v>
       </c>
       <c r="B1051" s="0" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C1051" s="0" t="s">
         <v>31</v>
@@ -41157,23 +41145,23 @@
         <v>367</v>
       </c>
       <c r="E1051" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F1051" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1051" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd10cebbde1593b65e5220911f9a997c.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1051" s="0" t="s">
         <v>1621</v>
       </c>
-      <c r="F1051" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1051" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/089961a3af4d54d5fb045cf3750e760c.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1051" s="0" t="s">
+      <c r="I1051" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1051" s="0" t="s">
         <v>1622</v>
-      </c>
-      <c r="I1051" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1051" s="0" t="s">
-        <v>1623</v>
       </c>
       <c r="K1051" s="0" t="s">
         <v>305</v>
@@ -41184,7 +41172,7 @@
         <v>303</v>
       </c>
       <c r="B1052" s="0" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C1052" s="0" t="s">
         <v>31</v>
@@ -41193,23 +41181,23 @@
         <v>367</v>
       </c>
       <c r="E1052" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F1052" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1052" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/95cbf6ac889c8fe7d92e20e8c34960d1.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1052" s="0" t="s">
         <v>1625</v>
       </c>
-      <c r="F1052" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1052" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3a8e1636a31c82fbdd9a1ae45ab3be7d.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1052" s="0" t="s">
-        <v>1626</v>
-      </c>
       <c r="I1052" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1052" s="0" t="s">
-        <v>1627</v>
+        <v>1208</v>
       </c>
       <c r="K1052" s="0" t="s">
         <v>305</v>
@@ -41220,7 +41208,7 @@
         <v>303</v>
       </c>
       <c r="B1053" s="0" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C1053" s="0" t="s">
         <v>31</v>
@@ -41229,23 +41217,23 @@
         <v>367</v>
       </c>
       <c r="E1053" s="0" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F1053" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1053" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a13ed886b17e20cdae8b89b9ff8e4610.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1053" s="0" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I1053" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1053" s="0" t="s">
         <v>1629</v>
-      </c>
-      <c r="F1053" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1053" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3abb7c5b4c4650e9d17a8439004aebea.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1053" s="0" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I1053" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1053" s="0" t="s">
-        <v>1631</v>
       </c>
       <c r="K1053" s="0" t="s">
         <v>305</v>
@@ -41256,7 +41244,7 @@
         <v>303</v>
       </c>
       <c r="B1054" s="0" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C1054" s="0" t="s">
         <v>31</v>
@@ -41265,23 +41253,23 @@
         <v>367</v>
       </c>
       <c r="E1054" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F1054" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1054" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70d7d6fc0e9c2f14624a0270bf2b99b9.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1054" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I1054" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1054" s="0" t="s">
         <v>1633</v>
-      </c>
-      <c r="F1054" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1054" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd10cebbde1593b65e5220911f9a997c.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1054" s="0" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I1054" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1054" s="0" t="s">
-        <v>1635</v>
       </c>
       <c r="K1054" s="0" t="s">
         <v>305</v>
@@ -41292,7 +41280,7 @@
         <v>303</v>
       </c>
       <c r="B1055" s="0" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C1055" s="0" t="s">
         <v>31</v>
@@ -41301,23 +41289,23 @@
         <v>367</v>
       </c>
       <c r="E1055" s="0" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="F1055" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1055" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/95cbf6ac889c8fe7d92e20e8c34960d1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89027ee0079acb709750ddeac1c08899.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1055" s="0" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="I1055" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1055" s="0" t="s">
-        <v>1208</v>
+        <v>1217</v>
       </c>
       <c r="K1055" s="0" t="s">
         <v>305</v>
@@ -41328,7 +41316,7 @@
         <v>303</v>
       </c>
       <c r="B1056" s="0" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C1056" s="0" t="s">
         <v>31</v>
@@ -41337,23 +41325,23 @@
         <v>367</v>
       </c>
       <c r="E1056" s="0" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="F1056" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1056" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a13ed886b17e20cdae8b89b9ff8e4610.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e7b9f984d3bba15daccaaa18039a85d.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1056" s="0" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="I1056" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1056" s="0" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="K1056" s="0" t="s">
         <v>305</v>
@@ -41364,7 +41352,7 @@
         <v>303</v>
       </c>
       <c r="B1057" s="0" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C1057" s="0" t="s">
         <v>31</v>
@@ -41373,23 +41361,23 @@
         <v>367</v>
       </c>
       <c r="E1057" s="0" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="F1057" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1057" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70d7d6fc0e9c2f14624a0270bf2b99b9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70bf79db957daa3b82413da949233ac7.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1057" s="0" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="I1057" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1057" s="0" t="s">
-        <v>1646</v>
+        <v>1214</v>
       </c>
       <c r="K1057" s="0" t="s">
         <v>305</v>
@@ -41400,7 +41388,7 @@
         <v>303</v>
       </c>
       <c r="B1058" s="0" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="C1058" s="0" t="s">
         <v>31</v>
@@ -41409,23 +41397,23 @@
         <v>367</v>
       </c>
       <c r="E1058" s="0" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="F1058" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1058" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89027ee0079acb709750ddeac1c08899.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d0a35d5c99a0aa93ad4069cfe83bf748.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1058" s="0" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="I1058" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1058" s="0" t="s">
-        <v>1217</v>
+        <v>1647</v>
       </c>
       <c r="K1058" s="0" t="s">
         <v>305</v>
@@ -41436,7 +41424,7 @@
         <v>303</v>
       </c>
       <c r="B1059" s="0" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C1059" s="0" t="s">
         <v>31</v>
@@ -41445,23 +41433,23 @@
         <v>367</v>
       </c>
       <c r="E1059" s="0" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F1059" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1059" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e7b9f984d3bba15daccaaa18039a85d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1059" s="0" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="I1059" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1059" s="0" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="K1059" s="0" t="s">
         <v>305</v>
@@ -41472,7 +41460,7 @@
         <v>303</v>
       </c>
       <c r="B1060" s="0" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C1060" s="0" t="s">
         <v>31</v>
@@ -41481,23 +41469,23 @@
         <v>367</v>
       </c>
       <c r="E1060" s="0" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="F1060" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1060" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70bf79db957daa3b82413da949233ac7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7b2d1e1a3ece1169d8ac61af4b758ed2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1060" s="0" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="I1060" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1060" s="0" t="s">
-        <v>1214</v>
+        <v>1654</v>
       </c>
       <c r="K1060" s="0" t="s">
         <v>305</v>
@@ -41508,7 +41496,7 @@
         <v>303</v>
       </c>
       <c r="B1061" s="0" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C1061" s="0" t="s">
         <v>31</v>
@@ -41517,23 +41505,23 @@
         <v>367</v>
       </c>
       <c r="E1061" s="0" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="F1061" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1061" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d0a35d5c99a0aa93ad4069cfe83bf748.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a21e250a10f96b1c1ad6d742206a157e.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1061" s="0" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="I1061" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1061" s="0" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="K1061" s="0" t="s">
         <v>305</v>
@@ -41544,7 +41532,7 @@
         <v>303</v>
       </c>
       <c r="B1062" s="0" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C1062" s="0" t="s">
         <v>31</v>
@@ -41553,23 +41541,23 @@
         <v>367</v>
       </c>
       <c r="E1062" s="0" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="F1062" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1062" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b907fef85d4c9571a9457ee1b259bb8f.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1062" s="0" t="s">
-        <v>1656</v>
+        <v>1661</v>
       </c>
       <c r="I1062" s="0" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="J1062" s="0" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K1062" s="0" t="s">
         <v>305</v>
@@ -41580,7 +41568,7 @@
         <v>303</v>
       </c>
       <c r="B1063" s="0" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C1063" s="0" t="s">
         <v>31</v>
@@ -41589,23 +41577,23 @@
         <v>367</v>
       </c>
       <c r="E1063" s="0" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F1063" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1063" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7b2d1e1a3ece1169d8ac61af4b758ed2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/63345d9732c72b97ca395f24ce2d6642.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1063" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I1063" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1063" s="0" t="s">
         <v>1666</v>
-      </c>
-      <c r="I1063" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1063" s="0" t="s">
-        <v>1667</v>
       </c>
       <c r="K1063" s="0" t="s">
         <v>305</v>
@@ -41616,7 +41604,7 @@
         <v>303</v>
       </c>
       <c r="B1064" s="0" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C1064" s="0" t="s">
         <v>31</v>
@@ -41625,23 +41613,23 @@
         <v>367</v>
       </c>
       <c r="E1064" s="0" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F1064" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1064" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a21e250a10f96b1c1ad6d742206a157e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/921b8b8f6620826567d9324314c70410.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1064" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I1064" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1064" s="0" t="s">
         <v>1670</v>
-      </c>
-      <c r="I1064" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1064" s="0" t="s">
-        <v>1671</v>
       </c>
       <c r="K1064" s="0" t="s">
         <v>305</v>
@@ -41652,7 +41640,7 @@
         <v>303</v>
       </c>
       <c r="B1065" s="0" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C1065" s="0" t="s">
         <v>31</v>
@@ -41661,23 +41649,23 @@
         <v>367</v>
       </c>
       <c r="E1065" s="0" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F1065" s="0" t="s">
         <v>308</v>
       </c>
       <c r="G1065" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b907fef85d4c9571a9457ee1b259bb8f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/12e0369ff0ba1a6f1a84e0d9565d4b07.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1065" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I1065" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1065" s="0" t="s">
         <v>1674</v>
-      </c>
-      <c r="I1065" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1065" s="0" t="s">
-        <v>1675</v>
       </c>
       <c r="K1065" s="0" t="s">
         <v>305</v>
@@ -41688,7 +41676,7 @@
         <v>303</v>
       </c>
       <c r="B1066" s="0" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C1066" s="0" t="s">
         <v>31</v>
@@ -41697,23 +41685,23 @@
         <v>367</v>
       </c>
       <c r="E1066" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F1066" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1066" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc637f1c75e58be8a6e4112411a00f36.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1066" s="0" t="s">
         <v>1677</v>
       </c>
-      <c r="F1066" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1066" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/63345d9732c72b97ca395f24ce2d6642.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1066" s="0" t="s">
+      <c r="I1066" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1066" s="0" t="s">
         <v>1678</v>
-      </c>
-      <c r="I1066" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1066" s="0" t="s">
-        <v>1679</v>
       </c>
       <c r="K1066" s="0" t="s">
         <v>305</v>
@@ -41724,7 +41712,7 @@
         <v>303</v>
       </c>
       <c r="B1067" s="0" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C1067" s="0" t="s">
         <v>31</v>
@@ -41733,23 +41721,23 @@
         <v>367</v>
       </c>
       <c r="E1067" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F1067" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1067" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c2249d424dde72f8616d42870a9d425.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1067" s="0" t="s">
         <v>1681</v>
       </c>
-      <c r="F1067" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1067" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/921b8b8f6620826567d9324314c70410.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1067" s="0" t="s">
+      <c r="I1067" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1067" s="0" t="s">
         <v>1682</v>
-      </c>
-      <c r="I1067" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1067" s="0" t="s">
-        <v>1683</v>
       </c>
       <c r="K1067" s="0" t="s">
         <v>305</v>
@@ -41760,7 +41748,7 @@
         <v>303</v>
       </c>
       <c r="B1068" s="0" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C1068" s="0" t="s">
         <v>31</v>
@@ -41769,23 +41757,23 @@
         <v>367</v>
       </c>
       <c r="E1068" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F1068" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1068" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a1dd605b563e9f09c718a5ba9cb9cc.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1068" s="0" t="s">
         <v>1685</v>
       </c>
-      <c r="F1068" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1068" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/12e0369ff0ba1a6f1a84e0d9565d4b07.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1068" s="0" t="s">
+      <c r="I1068" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1068" s="0" t="s">
         <v>1686</v>
-      </c>
-      <c r="I1068" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1068" s="0" t="s">
-        <v>1687</v>
       </c>
       <c r="K1068" s="0" t="s">
         <v>305</v>
@@ -41796,7 +41784,7 @@
         <v>303</v>
       </c>
       <c r="B1069" s="0" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C1069" s="0" t="s">
         <v>31</v>
@@ -41805,23 +41793,23 @@
         <v>367</v>
       </c>
       <c r="E1069" s="0" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F1069" s="0" t="s">
         <v>965</v>
       </c>
       <c r="G1069" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc637f1c75e58be8a6e4112411a00f36.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/73c496f5669cc122cf1cddfe4df2a27a.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1069" s="0" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I1069" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1069" s="0" t="s">
         <v>1690</v>
-      </c>
-      <c r="I1069" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1069" s="0" t="s">
-        <v>1691</v>
       </c>
       <c r="K1069" s="0" t="s">
         <v>305</v>
@@ -41832,7 +41820,7 @@
         <v>303</v>
       </c>
       <c r="B1070" s="0" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C1070" s="0" t="s">
         <v>31</v>
@@ -41841,23 +41829,23 @@
         <v>367</v>
       </c>
       <c r="E1070" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F1070" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1070" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26328c46dfcc65d454b6fd4c52ccb48f.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1070" s="0" t="s">
         <v>1693</v>
       </c>
-      <c r="F1070" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1070" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c2249d424dde72f8616d42870a9d425.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1070" s="0" t="s">
+      <c r="I1070" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1070" s="0" t="s">
         <v>1694</v>
-      </c>
-      <c r="I1070" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1070" s="0" t="s">
-        <v>1695</v>
       </c>
       <c r="K1070" s="0" t="s">
         <v>305</v>
@@ -41868,7 +41856,7 @@
         <v>303</v>
       </c>
       <c r="B1071" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C1071" s="0" t="s">
         <v>31</v>
@@ -41877,23 +41865,23 @@
         <v>367</v>
       </c>
       <c r="E1071" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1071" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1071" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1071" s="0" t="s">
         <v>1697</v>
       </c>
-      <c r="F1071" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="G1071" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a1dd605b563e9f09c718a5ba9cb9cc.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1071" s="0" t="s">
+      <c r="I1071" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1071" s="0" t="s">
         <v>1698</v>
-      </c>
-      <c r="I1071" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1071" s="0" t="s">
-        <v>1699</v>
       </c>
       <c r="K1071" s="0" t="s">
         <v>305</v>
@@ -41904,7 +41892,7 @@
         <v>303</v>
       </c>
       <c r="B1072" s="0" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C1072" s="0" t="s">
         <v>31</v>
@@ -41913,244 +41901,139 @@
         <v>367</v>
       </c>
       <c r="E1072" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F1072" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1072" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1072" s="0" t="s">
         <v>1701</v>
       </c>
-      <c r="F1072" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="G1072" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/73c496f5669cc122cf1cddfe4df2a27a.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1072" s="0" t="s">
+      <c r="I1072" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1072" s="0" t="s">
         <v>1702</v>
-      </c>
-      <c r="I1072" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1072" s="0" t="s">
-        <v>1703</v>
       </c>
       <c r="K1072" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1073" s="0" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C1073" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1073" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1073" s="0" t="s">
-        <v>1705</v>
-      </c>
-      <c r="F1073" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1073" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26328c46dfcc65d454b6fd4c52ccb48f.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1073" s="0" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I1073" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1073" s="0" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K1073" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
     <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="0" t="s">
-        <v>303</v>
+        <v>1016</v>
       </c>
       <c r="B1074" s="0" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="C1074" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1074" s="0" t="s">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="E1074" s="0" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="F1074" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G1074" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>web</v>
       </c>
       <c r="H1074" s="0" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="I1074" s="0" t="s">
-        <v>1526</v>
+        <v>1706</v>
       </c>
       <c r="J1074" s="0" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="K1074" s="0" t="s">
-        <v>305</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="0" t="s">
-        <v>303</v>
+        <v>1016</v>
       </c>
       <c r="B1075" s="0" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="C1075" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D1075" s="0" t="s">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="E1075" s="0" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="F1075" s="0" t="s">
         <v>196</v>
       </c>
       <c r="G1075" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1075" s="0" t="s">
-        <v>1714</v>
-      </c>
-      <c r="I1075" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J1075" s="0" t="s">
-        <v>1715</v>
-      </c>
-      <c r="K1075" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1077" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B1077" s="0" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C1077" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1077" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1077" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F1077" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1077" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H1077" s="0" t="s">
-        <v>1716</v>
-      </c>
-      <c r="I1077" s="0" t="s">
-        <v>1717</v>
-      </c>
-      <c r="J1077" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K1077" s="0" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1078" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B1078" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C1078" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1078" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1078" s="0" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F1078" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1078" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1078" s="0" t="s">
-        <v>1716</v>
-      </c>
-      <c r="I1078" s="0" t="s">
-        <v>1717</v>
-      </c>
-      <c r="J1078" s="0" t="s">
-        <v>1344</v>
-      </c>
-      <c r="K1078" s="0" t="s">
+      <c r="H1075" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I1075" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J1075" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K1075" s="0" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1079" s="0" t="s">
+    <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="0" t="s">
         <v>1016</v>
       </c>
-      <c r="B1079" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C1079" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1079" s="0" t="s">
+      <c r="B1076" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1076" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1076" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E1079" s="0" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F1079" s="0" t="s">
+      <c r="E1076" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1076" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G1079" s="0" t="str">
+      <c r="G1076" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1079" s="0" t="s">
-        <v>1716</v>
-      </c>
-      <c r="I1079" s="0" t="s">
-        <v>1717</v>
-      </c>
-      <c r="J1079" s="0" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K1079" s="0" t="s">
+      <c r="H1076" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I1076" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J1076" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K1076" s="0" t="s">
         <v>968</v>
       </c>
     </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10197" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10217" uniqueCount="1725">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -5162,6 +5162,39 @@
   </si>
   <si>
     <t xml:space="preserve">Carbon mass flux per unit area into atmosphere due to heterotrophic respiration on land (respiration by consumers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thkcello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean Model Cell Thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nemo code name = thkcello  but not constant in time in NEMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatic, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Thickness' means the vertical extent of a layer. 'Cell' refers to a model grid-cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMIP,DCPP,PAMIP,PMIP,VIACSAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masscello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean Grid-Cell Mass per Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nemo code name = masscello  but not constant in time in NEMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracer grid-cell mass per unit area used for computing tracer budgets. For Boussinesq models with static ocean grid cell thickness, masscello = rhozero*thickcello, where thickcello is static cell thickness and rhozero is constant Boussinesq reference density. More generally, masscello is time dependent and reported as part of Omon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMIP,OMIP</t>
   </si>
 </sst>
 </file>
@@ -5291,8 +5324,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A926" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A941" activeCellId="0" sqref="A941"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1052" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1078" activeCellId="0" sqref="H1078"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42031,6 +42064,78 @@
         <v>968</v>
       </c>
     </row>
+    <row r="1078" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1078" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1078" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1078" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="E1078" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F1078" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1078" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5aea9677ebbb40076a0e0b3b11fdb46f.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1078" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I1078" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J1078" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K1078" s="3" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1079" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1079" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1079" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="E1079" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F1079" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="G1079" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9122e7b627c429163fd0857dc366e14e.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1079" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I1079" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J1079" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="K1079" s="3" t="s">
+        <v>1724</v>
+      </c>
+    </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -19,8 +19,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1083" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">These ones are now manually added be will come later from the pre ignored</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10217" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10237" uniqueCount="1725">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -5324,8 +5348,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1052" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1078" activeCellId="0" sqref="H1078"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1055" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1083" activeCellId="0" sqref="B1083"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42136,6 +42160,78 @@
         <v>1724</v>
       </c>
     </row>
+    <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1083" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C1083" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1083" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1083" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F1083" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1083" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1083" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I1083" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1083" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K1083" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="B1084" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C1084" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1084" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1084" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F1084" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1084" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1084" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I1084" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1084" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K1084" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -42152,5 +42248,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10237" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10247" uniqueCount="1730">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -5219,6 +5219,21 @@
   </si>
   <si>
     <t xml:space="preserve">CMIP,OMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fHarvestToProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvested Biomass That Goes into Product Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in LPJ-GUESS, see ec-earth issue 633-21 and ece2cmor3 issue 446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Warlind, Lars, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be it food or wood harvest, any carbon that is subsequently stored is reported here</t>
   </si>
 </sst>
 </file>
@@ -5349,7 +5364,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1055" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1083" activeCellId="0" sqref="B1083"/>
+      <selection pane="topLeft" activeCell="A1086" activeCellId="0" sqref="A1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42232,6 +42247,42 @@
         <v>716</v>
       </c>
     </row>
+    <row r="1086" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B1086" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1086" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1086" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1086" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F1086" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1086" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1086" s="0" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I1086" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J1086" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K1086" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="B1083" authorId="0">
+    <comment ref="B1085" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10247" uniqueCount="1730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10257" uniqueCount="1735">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -5221,13 +5221,28 @@
     <t xml:space="preserve">CMIP,OMIP</t>
   </si>
   <si>
+    <t xml:space="preserve">mrros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Runoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not available in LPJ-GUESS, see ec-earth issue 633-21 and ece2cmor3 issue 446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lars, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total surface run off leaving the land portion of the grid cell (excluding drainage through the base of the soil model).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AerChemMIP,C4MIP,CDRMIP,CFMIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">fHarvestToProduct</t>
   </si>
   <si>
     <t xml:space="preserve">Harvested Biomass That Goes into Product Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not available in LPJ-GUESS, see ec-earth issue 633-21 and ece2cmor3 issue 446</t>
   </si>
   <si>
     <t xml:space="preserve">David Warlind, Lars, Thomas</t>
@@ -5243,7 +5258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5279,6 +5294,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5323,7 +5344,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5342,6 +5363,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5363,8 +5388,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1055" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1086" activeCellId="0" sqref="A1086"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1058" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1083" activeCellId="0" sqref="1083:1083"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42175,116 +42200,157 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1083" s="0" t="s">
+    <row r="1080" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1081" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1081" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1081" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1081" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1081" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F1081" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1081" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26a31ad76858198bd4d719aafeebe801.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1081" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I1081" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J1081" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K1081" s="3" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1082" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="0"/>
+    </row>
+    <row r="1083" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="0"/>
+    </row>
+    <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B1083" s="0" t="s">
+      <c r="B1085" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="C1083" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1083" s="0" t="s">
+      <c r="C1085" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1085" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E1083" s="0" t="s">
+      <c r="E1085" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="F1083" s="0" t="s">
+      <c r="F1085" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="G1083" s="0" t="str">
+      <c r="G1085" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1083" s="0" t="s">
+      <c r="H1085" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="I1083" s="0" t="s">
+      <c r="I1085" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="J1083" s="0" t="s">
+      <c r="J1085" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="K1083" s="0" t="s">
+      <c r="K1085" s="0" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1084" s="0" t="s">
+    <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="B1084" s="0" t="s">
+      <c r="B1086" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="C1084" s="0" t="s">
+      <c r="C1086" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D1084" s="0" t="s">
+      <c r="D1086" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E1084" s="0" t="s">
+      <c r="E1086" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="F1084" s="0" t="s">
+      <c r="F1086" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="G1084" s="0" t="str">
+      <c r="G1086" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1084" s="0" t="s">
+      <c r="H1086" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="I1084" s="0" t="s">
+      <c r="I1086" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="J1084" s="0" t="s">
+      <c r="J1086" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="K1084" s="0" t="s">
+      <c r="K1086" s="0" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="1086" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1086" s="3" t="s">
+    <row r="1088" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="B1086" s="3" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C1086" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1086" s="3" t="s">
+      <c r="B1088" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1088" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1088" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E1086" s="3" t="s">
-        <v>1726</v>
-      </c>
-      <c r="F1086" s="3" t="s">
+      <c r="E1088" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F1088" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G1086" s="3" t="str">
+      <c r="G1088" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1086" s="0" t="s">
+      <c r="H1088" s="0" t="s">
         <v>1727</v>
       </c>
-      <c r="I1086" s="0" t="s">
-        <v>1728</v>
-      </c>
-      <c r="J1086" s="3" t="s">
-        <v>1729</v>
-      </c>
-      <c r="K1086" s="3" t="s">
+      <c r="I1088" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J1088" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="K1088" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="B1085" authorId="0">
+    <comment ref="B1087" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10257" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10277" uniqueCount="1741">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -5237,6 +5237,24 @@
   </si>
   <si>
     <t xml:space="preserve">AerChemMIP,C4MIP,CDRMIP,CFMIP,CMIP,FAFMIP,GMMIP,GeoMIP,HighResMIP,LS3MIP,LUMIP,PMIP,RFMIP,VIACSAB,VolMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of O3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This combination is decided to be ignored in #440. tm5 code name = o3|ifs code name = 203.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommi, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o3Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This combination is decided to be ignored in #440. tm5 code name = o3Clim</t>
   </si>
   <si>
     <t xml:space="preserve">fHarvestToProduct</t>
@@ -5388,8 +5406,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1058" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1083" activeCellId="0" sqref="1083:1083"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1058" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1083" activeCellId="0" sqref="I1083:I1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42224,7 +42242,7 @@
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26a31ad76858198bd4d719aafeebe801.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1081" s="5" t="s">
+      <c r="H1081" s="3" t="s">
         <v>1727</v>
       </c>
       <c r="I1081" s="3" t="s">
@@ -42241,118 +42259,186 @@
       <c r="A1082" s="0"/>
     </row>
     <row r="1083" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1083" s="0"/>
-    </row>
-    <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1085" s="0" t="s">
+      <c r="A1083" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1083" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1083" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1083" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1083" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F1083" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1083" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1083" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I1083" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J1083" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="K1083" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1084" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1084" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1084" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1084" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E1084" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F1084" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1084" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1084" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I1084" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J1084" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="K1084" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B1085" s="0" t="s">
+      <c r="B1087" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="C1085" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1085" s="0" t="s">
+      <c r="C1087" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1087" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E1085" s="0" t="s">
+      <c r="E1087" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="F1085" s="0" t="s">
+      <c r="F1087" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="G1085" s="0" t="str">
+      <c r="G1087" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1085" s="0" t="s">
+      <c r="H1087" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="I1085" s="0" t="s">
+      <c r="I1087" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="J1085" s="0" t="s">
+      <c r="J1087" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="K1085" s="0" t="s">
+      <c r="K1087" s="0" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1086" s="0" t="s">
+    <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="B1086" s="0" t="s">
+      <c r="B1088" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="C1086" s="0" t="s">
+      <c r="C1088" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D1086" s="0" t="s">
+      <c r="D1088" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E1086" s="0" t="s">
+      <c r="E1088" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="F1086" s="0" t="s">
+      <c r="F1088" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="G1086" s="0" t="str">
+      <c r="G1088" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1086" s="0" t="s">
+      <c r="H1088" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="I1086" s="0" t="s">
+      <c r="I1088" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="J1086" s="0" t="s">
+      <c r="J1088" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="K1086" s="0" t="s">
+      <c r="K1088" s="0" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="1088" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1088" s="3" t="s">
+    <row r="1090" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="B1088" s="3" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C1088" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1088" s="3" t="s">
+      <c r="B1090" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1090" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1090" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E1088" s="3" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F1088" s="3" t="s">
+      <c r="E1090" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F1090" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G1088" s="3" t="str">
+      <c r="G1090" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1088" s="0" t="s">
+      <c r="H1090" s="0" t="s">
         <v>1727</v>
       </c>
-      <c r="I1088" s="0" t="s">
-        <v>1733</v>
-      </c>
-      <c r="J1088" s="3" t="s">
-        <v>1734</v>
-      </c>
-      <c r="K1088" s="3" t="s">
+      <c r="I1090" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J1090" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K1090" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="B1087" authorId="0">
+    <comment ref="B1091" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10277" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10297" uniqueCount="1746">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -5255,6 +5255,21 @@
   </si>
   <si>
     <t xml:space="preserve">This combination is decided to be ignored in #440. tm5 code name = o3Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4Clim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mole Fraction of CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This combination is decided to be ignored in #441 tm5 code name = ch4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4globalClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Mean Mole Fraction of CH4</t>
   </si>
   <si>
     <t xml:space="preserve">fHarvestToProduct</t>
@@ -5404,10 +5419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K1094"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1058" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1083" activeCellId="0" sqref="I1083:I1084"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1061" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1084" activeCellId="0" sqref="1084:1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42295,154 +42310,225 @@
       </c>
     </row>
     <row r="1084" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1084" s="3" t="s">
+      <c r="I1084" s="5"/>
+    </row>
+    <row r="1085" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B1084" s="3" t="s">
+      <c r="B1085" s="3" t="s">
         <v>1735</v>
       </c>
-      <c r="C1084" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1084" s="3" t="s">
+      <c r="C1085" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1085" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="E1084" s="3" t="s">
+      <c r="E1085" s="3" t="s">
         <v>1732</v>
       </c>
-      <c r="F1084" s="3" t="s">
+      <c r="F1085" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="G1084" s="3" t="str">
+      <c r="G1085" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1084" s="3" t="s">
+      <c r="H1085" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="I1084" s="5" t="s">
+      <c r="I1085" s="5" t="s">
         <v>1734</v>
       </c>
-      <c r="J1084" s="3" t="s">
+      <c r="J1085" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="K1084" s="3" t="s">
+      <c r="K1085" s="3" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1086" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1086" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1086" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E1086" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F1086" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1086" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1086" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I1086" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1086" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="K1086" s="0" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1087" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C1087" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1087" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="E1087" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F1087" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1087" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1087" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I1087" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J1087" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K1087" s="0" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1091" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B1087" s="0" t="s">
+      <c r="B1091" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="C1087" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1087" s="0" t="s">
+      <c r="C1091" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1091" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="E1087" s="0" t="s">
+      <c r="E1091" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="F1087" s="0" t="s">
+      <c r="F1091" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="G1087" s="0" t="str">
+      <c r="G1091" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1087" s="0" t="s">
+      <c r="H1091" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="I1087" s="0" t="s">
+      <c r="I1091" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="J1087" s="0" t="s">
+      <c r="J1091" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="K1087" s="0" t="s">
+      <c r="K1091" s="0" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1088" s="0" t="s">
+    <row r="1092" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="B1088" s="0" t="s">
+      <c r="B1092" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="C1088" s="0" t="s">
+      <c r="C1092" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D1088" s="0" t="s">
+      <c r="D1092" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="E1088" s="0" t="s">
+      <c r="E1092" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="F1088" s="0" t="s">
+      <c r="F1092" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="G1088" s="0" t="str">
+      <c r="G1092" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1088" s="0" t="s">
+      <c r="H1092" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="I1088" s="0" t="s">
+      <c r="I1092" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="J1088" s="0" t="s">
+      <c r="J1092" s="0" t="s">
         <v>1479</v>
       </c>
-      <c r="K1088" s="0" t="s">
+      <c r="K1092" s="0" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="1090" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1090" s="3" t="s">
+    <row r="1094" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="B1090" s="3" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C1090" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1090" s="3" t="s">
+      <c r="B1094" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1094" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1094" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E1090" s="3" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F1090" s="3" t="s">
+      <c r="E1094" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F1094" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G1090" s="3" t="str">
+      <c r="G1094" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H1090" s="0" t="s">
+      <c r="H1094" s="0" t="s">
         <v>1727</v>
       </c>
-      <c r="I1090" s="0" t="s">
-        <v>1739</v>
-      </c>
-      <c r="J1090" s="3" t="s">
-        <v>1740</v>
-      </c>
-      <c r="K1090" s="3" t="s">
+      <c r="I1094" s="0" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J1094" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K1094" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10297" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10317" uniqueCount="1750">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -5282,6 +5282,18 @@
   </si>
   <si>
     <t xml:space="preserve">be it food or wood harvest, any carbon that is subsequently stored is reported here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective Rainfall Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In #444 it is decided to ignore this variable. Availlable in IFS: Precip. flux from convection liquid grib 128.107, this is a 3D field so the surface field has to be extracted from this. So only level 91 needs to be outputted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective Rainfall rate</t>
   </si>
 </sst>
 </file>
@@ -5291,7 +5303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5327,12 +5339,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5377,7 +5383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5398,10 +5404,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -5419,10 +5421,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1094"/>
+  <dimension ref="A1:K1098"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1061" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1084" activeCellId="0" sqref="1084:1084"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1076" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1096" activeCellId="0" sqref="H1096:H1097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42299,7 +42301,7 @@
       <c r="H1083" s="3" t="s">
         <v>1733</v>
       </c>
-      <c r="I1083" s="5" t="s">
+      <c r="I1083" s="3" t="s">
         <v>1734</v>
       </c>
       <c r="J1083" s="3" t="s">
@@ -42309,9 +42311,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="1084" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1084" s="5"/>
-    </row>
+    <row r="1084" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1085" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="3" t="s">
         <v>717</v>
@@ -42338,7 +42338,7 @@
       <c r="H1085" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="I1085" s="5" t="s">
+      <c r="I1085" s="3" t="s">
         <v>1734</v>
       </c>
       <c r="J1085" s="3" t="s">
@@ -42529,6 +42529,79 @@
         <v>1031</v>
       </c>
     </row>
+    <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1096" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1096" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1096" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1096" s="0" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F1096" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1096" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1096" s="0" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I1096" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1096" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="K1096" s="0" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1097" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1097" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1097" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1097" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1097" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F1097" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1097" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H1097" s="0" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I1097" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1097" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="K1097" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/resources/list-of-ignored-cmpi6-requested-variables.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="B644" authorId="0">
+    <comment ref="B642" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5849" uniqueCount="1754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="1755">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -4513,58 +4513,643 @@
     <t xml:space="preserve">Snow Age</t>
   </si>
   <si>
+    <t xml:space="preserve">phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longitude latitude alevhalf time2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure on Model Half-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pressure on vertical staggered levels in IFS #385.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air pressure on model half-levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Cloud Cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 248.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage cloud cover, including both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Cloud Liquid Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 246.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes both large-scale and convective cloud. Calculate as the mass of cloud liquid water in the grid cell divided by the mass of air (including the water in all phases) in the grid cells. Precipitating hydrometeors are included ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Fraction of Cloud Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 247.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes both large-scale and convective cloud. This is calculated as the mass of cloud ice in the grid cell divided by the mass of air (including the water in all phases) in the grid cell. It includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 130.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 131.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonal wind (positive in a eastward direction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">va</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 132.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meridional wind (positive in a northward direction).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 133.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific humidity is the mass fraction of water vapor in (moist) air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 157.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega (=dp/dt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pa s-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 135.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega (vertical velocity in pressure coordinates, positive downwards)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopotential Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 129.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopotential is the sum of the specific gravitational potential energy relative to the geoid and the specific centripetal potential energy. Geopotential height is the geopotential divided by the standard acceleration due to gravity. It is numerically similar to the altitude (or geometric height) and not to the quantity with standard name height, which is relative to the surface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure at Model Full-Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 54.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air pressure on model levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm5 code name = phalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site time1 height2m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Air Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 167.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near-surface (usually, 2 meter) air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 139.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Level Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 151.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Air Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm5 code name = ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface pressure (not mean sea-level pressure), 2-D field to calculate the 3-D pressure field from hybrid coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site time1 height10m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward Near-Surface Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 165.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastward component of the near-surface (usually, 10 meters)  wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward Near-Surface Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 166.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northward component of the near surface wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfcWind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Wind Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 214.128, expression = sqrt(sqr(var165)+sqr(var166))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">near-surface (usually, 10 meters) wind speed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Relative Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 80.129, expression = 100.*exp(17.62*((var168-273.15)/(var168-30.03)-(var167-273.15)/(var167-30.03)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-Surface Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 81.129, expression = 1./(1.+1.608*(var134*exp(-17.62*(var168-273.15)/(var168-30.03))/611.-1.))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near-surface (usually, 2 meter) specific humidity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 228.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes both liquid and solid phases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snowfall Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 144.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At surface; includes precipitation of all forms of water in the solid phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective Precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 143.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convective precipitation at surface; includes both liquid and solid phases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evspsbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation Including Sublimation and Transpiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 182.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaporation at surface (also known as evapotranspiration): flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Snow and Ice Sublimation Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 44.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snow and ice sublimation flux is the loss of snow and ice mass per unit area from the surface resulting from their direct conversion to water vapor that enters the atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downward Eastward Wind Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 180.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward eastward wind stress at the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downward Northward Wind Stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 181.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downward northward wind stress at the surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upward Latent Heat Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 147.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upward Sensible Heat Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 146.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 175.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'longwave' means longwave radiation. Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'. In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 96.129, expression = var177-var175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 169.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface solar irradiance for UV calculations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 95.129, expression = var176-var169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 102.129, expression = var210-var176+var169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface solar irradiance clear sky for UV calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsuscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Upwelling Clear-sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rldscs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Downwelling Clear-Sky Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 104.129, expression = var211-var177+var175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface downwelling clear-sky longwave radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Incident Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 212.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortwave radiation incident at the top of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 97.129, expression = var178-var212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the top of the atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 179.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the top of the atmosphere (to be compared with satellite measurements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rlutcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky Longwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 209.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upwelling clear-sky longwave radiation at top of atmosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsutcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOA Outgoing Clear-Sky Shortwave Radiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 103.129, expression = var208-var212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated in the absence of clouds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Vapor Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 137.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertically integrated through the atmospheric column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cloud Cover Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 164.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total cloud area fraction for the whole atmospheric column, as seen from the surface or the top of the atmosphere. Includes both large-scale and convective cloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clwvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condensed Water Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 116.129, expression = var78+var79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass of condensed (liquid + ice) water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Water Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 79.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass of ice water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating frozen hydrometeors ONLY if the precipitating hydrometeor affects the calculation of radiative transfer in model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifs code name = 98.129, expression = var178+var179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model : I.e., at the top of that portion of the atmosphere where dynamics are explicitly treated by the model. This is reported only if it differs from the net downward radiative flux at the top of the atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpjg code name = fco2antt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpjg code name = fco2nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grib 126.94 + 126.99 + 126.106 + 126.110  Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.106                                                              Available in IFS: q-tendency from convection: grib 128.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnhusmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.99 + 126.106 + 126.110                      Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tntc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grib 126.105                                                              Available in IFS: T-tendency from convection : grib 128.105</t>
+  </si>
+  <si>
     <t xml:space="preserve">tntr</t>
   </si>
   <si>
     <t xml:space="preserve">Tendency of Air Temperature Due to Radiative Heating</t>
   </si>
   <si>
-    <t xml:space="preserve">Available in IFS: T-tendency from radiation: grib 128.95</t>
+    <t xml:space="preserve">grib 126.95                                                                Available in IFS: T-tendency from radiation: grib 128.95</t>
   </si>
   <si>
     <t xml:space="preserve">Tendency of Air Temperature due to Radiative Heating</t>
   </si>
   <si>
-    <t xml:space="preserve">tntc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Air Temperature Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in IFS: T-tendency from convection : grib 128.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendencies from cumulus convection scheme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding all the q-tendencies, thus: grib 128.94 + 128.99 + 128.106 + 128.110.  Alternatively, in IFS: just estimating the delta q per month. So far no direct grib code for the totoal q-tendency found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Convection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available in IFS: q-tendency from convection: grib 128.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnhusmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of Specific Humidity Due to Model Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding all the q-tendencies without advection, thus: grib 128.99 + 128.106 + 128.110.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendency of specific humidity due to model physics. This includes sources and sinks from parametrized moist physics (e.g. convection, boundary layer, stratiform condensation/evaporation, etc.) and excludes sources and sinks from resolved dynamics or from horizontal or vertical numerical diffusion not associated with model physics.  For example any diffusive mixing by the boundary layer scheme would be included.</t>
+    <t xml:space="preserve">web</t>
   </si>
   <si>
     <t xml:space="preserve">longitude</t>
@@ -4595,588 +5180,6 @@
   </si>
   <si>
     <t xml:space="preserve">Latitude is positive northward; its units of degree_north (or equivalent) indicate this explicitly. In a latitude-longitude system defined with respect to a rotated North Pole, the standard name of grid_latitude should be used instead of latitude. Grid latitude is positive in the grid-northward direction, but its units should be plain degree.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude latitude alevhalf time2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure on Model Half-Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No pressure on vertical staggered levels in IFS #385.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air pressure on model half-levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Cloud Cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 248.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage cloud cover, including both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Cloud Liquid Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 246.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes both large-scale and convective cloud. Calculate as the mass of cloud liquid water in the grid cell divided by the mass of air (including the water in all phases) in the grid cells. Precipitating hydrometeors are included ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Fraction of Cloud Ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 247.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes both large-scale and convective cloud. This is calculated as the mass of cloud ice in the grid cell divided by the mass of air (including the water in all phases) in the grid cell. It includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 130.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 131.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zonal wind (positive in a eastward direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">va</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 132.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meridional wind (positive in a northward direction).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 133.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific humidity is the mass fraction of water vapor in (moist) air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 157.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega (=dp/dt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pa s-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 135.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omega (vertical velocity in pressure coordinates, positive downwards)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopotential Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 129.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geopotential is the sum of the specific gravitational potential energy relative to the geoid and the specific centripetal potential energy. Geopotential height is the geopotential divided by the standard acceleration due to gravity. It is numerically similar to the altitude (or geometric height) and not to the quantity with standard name height, which is relative to the surface.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pfull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressure at Model Full-Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 54.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air pressure on model levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm5 code name = phalf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site time1 height2m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Air Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 167.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">near-surface (usually, 2 meter) air temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 139.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature of the lower boundary of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sea Level Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 151.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Air Pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm5 code name = ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface pressure (not mean sea-level pressure), 2-D field to calculate the 3-D pressure field from hybrid coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site time1 height10m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward Near-Surface Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 165.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastward component of the near-surface (usually, 10 meters)  wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward Near-Surface Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 166.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northward component of the near surface wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfcWind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Wind Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 214.128, expression = sqrt(sqr(var165)+sqr(var166))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">near-surface (usually, 10 meters) wind speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Relative Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 80.129, expression = 100.*exp(17.62*((var168-273.15)/(var168-30.03)-(var167-273.15)/(var167-30.03)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">huss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-Surface Specific Humidity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 81.129, expression = 1./(1.+1.608*(var134*exp(-17.62*(var168-273.15)/(var168-30.03))/611.-1.))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near-surface (usually, 2 meter) specific humidity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 228.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">includes both liquid and solid phases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prsn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snowfall Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 144.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At surface; includes precipitation of all forms of water in the solid phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective Precipitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 143.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convective precipitation at surface; includes both liquid and solid phases.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evspsbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Including Sublimation and Transpiration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 182.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation at surface (also known as evapotranspiration): flux of water into the atmosphere due to conversion of both liquid and solid phases to vapor (from underlying surface and vegetation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Snow and Ice Sublimation Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 44.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The snow and ice sublimation flux is the loss of snow and ice mass per unit area from the surface resulting from their direct conversion to water vapor that enters the atmosphere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downward Eastward Wind Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 180.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward eastward wind stress at the surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tauv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downward Northward Wind Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 181.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downward northward wind stress at the surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upward Latent Heat Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 147.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upward Sensible Heat Flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 146.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface sensible heat flux, also called turbulent heat flux, is the exchange of heat between the surface and the air by motion of air.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 175.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The surface called 'surface' means the lower boundary of the atmosphere. 'longwave' means longwave radiation. Downwelling radiation is radiation from above. It does not mean 'net downward'. When thought of as being incident on a surface, a radiative flux is sometimes called 'irradiance'. In addition, it is identical with the quantity measured by a cosine-collector light-meter and sometimes called 'vector irradiance'. In accordance with common usage in geophysical disciplines, 'flux' implies per unit area, called 'flux density' in physics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 96.129, expression = var177-var175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 169.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface solar irradiance for UV calculations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 95.129, expression = var176-var169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsdscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 102.129, expression = var210-var176+var169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface solar irradiance clear sky for UV calculations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsuscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Upwelling Clear-sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rldscs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Downwelling Clear-Sky Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 104.129, expression = var211-var177+var175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface downwelling clear-sky longwave radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsdt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Incident Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 212.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortwave radiation incident at the top of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 97.129, expression = var178-var212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at the top of the atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 179.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at the top of the atmosphere (to be compared with satellite measurements)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rlutcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky Longwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 209.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upwelling clear-sky longwave radiation at top of atmosphere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsutcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOA Outgoing Clear-Sky Shortwave Radiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 103.129, expression = var208-var212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculated in the absence of clouds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Vapor Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 137.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertically integrated through the atmospheric column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cloud Cover Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 164.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total cloud area fraction for the whole atmospheric column, as seen from the surface or the top of the atmosphere. Includes both large-scale and convective cloud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clwvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condensed Water Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 116.129, expression = var78+var79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass of condensed (liquid + ice) water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating hydrometeors ONLY if the precipitating hydrometeors affect the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice Water Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 79.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mass of ice water in the column divided by the area of the column (not just the area of the cloudy portion of the column). Includes precipitating frozen hydrometeors ONLY if the precipitating hydrometeor affects the calculation of radiative transfer in model.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rtmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifs code name = 98.129, expression = var178+var179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Downward Radiative Flux at Top of Model : I.e., at the top of that portion of the atmosphere where dynamics are explicitly treated by the model. This is reported only if it differs from the net downward radiative flux at the top of the atmosphere.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Mass Flux into Atmosphere Due to All Anthropogenic Emissions of CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpjg code name = fco2antt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is requested only for the emission-driven coupled carbon climate model runs.  Does not include natural fire sources but, includes all anthropogenic sources, including fossil fuel use, cement production, agricultural burning, and sources associated with anthropogenic land use change excluding forest regrowth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surface Carbon Mass Flux into the Atmosphere Due to Natural Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpjg code name = fco2nat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is what the atmosphere sees (on its own grid).  This field should be equivalent to the combined natural fluxes of carbon  that account for natural exchanges between the atmosphere and land (nep) or ocean (fgco2) reservoirs.</t>
   </si>
   <si>
     <t xml:space="preserve">gpp</t>
@@ -5433,13 +5436,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K655"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A505" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A514" activeCellId="0" sqref="514:655"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A553" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A565" activeCellId="0" sqref="A565"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -5450,7 +5453,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="200.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="80.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
@@ -5490,6 +5493,7 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
@@ -5562,6 +5566,7 @@
         <v>28</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>29</v>
@@ -5598,6 +5603,7 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>39</v>
@@ -7218,6 +7224,7 @@
         <v>208</v>
       </c>
     </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>209</v>
@@ -7254,6 +7261,7 @@
         <v>215</v>
       </c>
     </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>216</v>
@@ -7428,6 +7436,7 @@
         <v>222</v>
       </c>
     </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>243</v>
@@ -7461,6 +7470,7 @@
         <v>247</v>
       </c>
     </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>248</v>
@@ -7821,6 +7831,7 @@
         <v>255</v>
       </c>
     </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>288</v>
@@ -7929,6 +7940,7 @@
         <v>302</v>
       </c>
     </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>303</v>
@@ -8751,6 +8763,7 @@
         <v>305</v>
       </c>
     </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>384</v>
@@ -8787,6 +8800,7 @@
         <v>390</v>
       </c>
     </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>391</v>
@@ -9147,6 +9161,7 @@
         <v>435</v>
       </c>
     </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>436</v>
@@ -10371,6 +10386,7 @@
         <v>441</v>
       </c>
     </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>494</v>
@@ -13284,6 +13300,7 @@
         <v>673</v>
       </c>
     </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>677</v>
@@ -13932,6 +13949,7 @@
         <v>683</v>
       </c>
     </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>720</v>
@@ -14430,6 +14448,7 @@
         <v>755</v>
       </c>
     </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>756</v>
@@ -14502,6 +14521,7 @@
         <v>765</v>
       </c>
     </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>766</v>
@@ -15330,6 +15350,7 @@
         <v>781</v>
       </c>
     </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>845</v>
@@ -16338,6 +16359,7 @@
         <v>851</v>
       </c>
     </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>915</v>
@@ -16587,6 +16609,7 @@
         <v>866</v>
       </c>
     </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>916</v>
@@ -16731,6 +16754,7 @@
         <v>38</v>
       </c>
     </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>931</v>
@@ -16944,6 +16968,7 @@
         <v>936</v>
       </c>
     </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>949</v>
@@ -17013,6 +17038,7 @@
         <v>957</v>
       </c>
     </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>958</v>
@@ -17049,6 +17075,7 @@
         <v>711</v>
       </c>
     </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>964</v>
@@ -17445,6 +17472,7 @@
         <v>255</v>
       </c>
     </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>1003</v>
@@ -17697,6 +17725,7 @@
         <v>38</v>
       </c>
     </row>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
         <v>1018</v>
@@ -17877,6 +17906,7 @@
         <v>866</v>
       </c>
     </row>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
         <v>1019</v>
@@ -17949,6 +17979,7 @@
         <v>1027</v>
       </c>
     </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>1028</v>
@@ -22302,6 +22333,7 @@
         <v>1063</v>
       </c>
     </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
         <v>1339</v>
@@ -22338,6 +22370,7 @@
         <v>215</v>
       </c>
     </row>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
         <v>1341</v>
@@ -22734,12 +22767,6 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
         <v>1388</v>
@@ -22775,7 +22802,6 @@
         <v>215</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
         <v>1339</v>
@@ -22811,8 +22837,6 @@
         <v>215</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
         <v>1397</v>
@@ -22921,8 +22945,6 @@
         <v>215</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
         <v>11</v>
@@ -23063,8 +23085,6 @@
         <v>851</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
         <v>958</v>
@@ -23137,7 +23157,6 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
         <v>964</v>
@@ -23174,7 +23193,6 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="541" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="s">
         <v>1028</v>
@@ -23211,7 +23229,6 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
         <v>1428</v>
@@ -23284,8 +23301,6 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
         <v>964</v>
@@ -23846,113 +23861,40 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B564" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C564" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D564" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E564" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F564" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="G564" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+    <row r="564" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G564" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H564" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="I564" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="J564" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="K564" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B565" s="0" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C565" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D565" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E565" s="0" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F565" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="G565" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93a0ba1f23bfc41b720ea68951d28144.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H565" s="0" t="s">
-        <v>1491</v>
-      </c>
-      <c r="I565" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="J565" s="0" t="s">
+      <c r="H564" s="3" t="s">
         <v>1492</v>
       </c>
-      <c r="K565" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B566" s="0" t="s">
+      <c r="I564" s="3" t="s">
         <v>1493</v>
       </c>
-      <c r="C566" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D566" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="E566" s="0" t="s">
+      <c r="J564" s="3" t="s">
         <v>1494</v>
       </c>
-      <c r="F566" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="G566" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/52f043533a691ca5721460e316c3a328.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H566" s="0" t="s">
-        <v>1495</v>
-      </c>
-      <c r="I566" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J566" s="0" t="s">
-        <v>1496</v>
-      </c>
-      <c r="K566" s="0" t="s">
-        <v>305</v>
+      <c r="K564" s="3" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23960,7 +23902,7 @@
         <v>303</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="C567" s="0" t="s">
         <v>31</v>
@@ -23969,20 +23911,20 @@
         <v>312</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="G567" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e0ecf1c1305c1bdc69bee0e7ba1e2e03.html","web")</f>
         <v>web</v>
       </c>
       <c r="H567" s="0" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="I567" s="0" t="s">
-        <v>359</v>
+        <v>1493</v>
       </c>
       <c r="J567" s="0" t="s">
         <v>1498</v>
@@ -23996,7 +23938,7 @@
         <v>303</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>31</v>
@@ -24005,23 +23947,23 @@
         <v>312</v>
       </c>
       <c r="E568" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F568" s="0" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G568" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2b3318a73839edfafa9d46864aadc.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H568" s="0" t="s">
         <v>1501</v>
       </c>
-      <c r="F568" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="G568" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a1d576b3fc447c37d782926441428ffd.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H568" s="0" t="s">
+      <c r="I568" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J568" s="0" t="s">
         <v>1502</v>
-      </c>
-      <c r="I568" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="J568" s="0" t="s">
-        <v>1496</v>
       </c>
       <c r="K568" s="0" t="s">
         <v>305</v>
@@ -24044,17 +23986,17 @@
         <v>1504</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>357</v>
+        <v>1102</v>
       </c>
       <c r="G569" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e30ba1e2c19dcbd85faa176d4eae596.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dd916e3e2eca18cda5d9f81749d0c91c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H569" s="0" t="s">
         <v>1505</v>
       </c>
       <c r="I569" s="0" t="s">
-        <v>359</v>
+        <v>1493</v>
       </c>
       <c r="J569" s="0" t="s">
         <v>1506</v>
@@ -24074,26 +24016,26 @@
         <v>31</v>
       </c>
       <c r="D570" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E570" s="0" t="s">
         <v>1508</v>
       </c>
-      <c r="E570" s="0" t="s">
+      <c r="F570" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="G570" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b9c3eb96337c69c1c4a5aab1317f5563.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H570" s="0" t="s">
         <v>1509</v>
       </c>
-      <c r="F570" s="0" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G570" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21ef5e4c-b894-11e6-a189-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H570" s="0" t="s">
-        <v>1511</v>
-      </c>
       <c r="I570" s="0" t="s">
-        <v>226</v>
+        <v>1493</v>
       </c>
       <c r="J570" s="0" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="K570" s="0" t="s">
         <v>305</v>
@@ -24104,83 +24046,223 @@
         <v>303</v>
       </c>
       <c r="B571" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D571" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E571" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F571" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G571" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21db90c0a12448299f855fdab60930d4.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H571" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I571" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J571" s="0" t="s">
         <v>1513</v>
-      </c>
-      <c r="C571" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D571" s="0" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E571" s="0" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F571" s="0" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G571" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2260e24c-b894-11e6-a189-5404a60d96b5.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H571" s="0" t="s">
-        <v>1511</v>
-      </c>
-      <c r="I571" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="J571" s="0" t="s">
-        <v>1516</v>
       </c>
       <c r="K571" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="B573" s="3" t="s">
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D572" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E572" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F572" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G572" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2dedcb347c18e132a2f4d625abf94585.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H572" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I572" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J572" s="0" t="s">
         <v>1517</v>
       </c>
-      <c r="C573" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D573" s="3" t="s">
+      <c r="K572" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B573" s="0" t="s">
         <v>1518</v>
       </c>
-      <c r="E573" s="3" t="s">
+      <c r="C573" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D573" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E573" s="0" t="s">
         <v>1519</v>
       </c>
-      <c r="F573" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G573" s="3" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+      <c r="F573" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G573" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53f4724d228998d54191c73352532ce3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H573" s="3" t="s">
+      <c r="H573" s="0" t="s">
         <v>1520</v>
       </c>
-      <c r="I573" s="3" t="s">
+      <c r="I573" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J573" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="J573" s="3" t="s">
+      <c r="K573" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B574" s="0" t="s">
         <v>1522</v>
       </c>
-      <c r="K573" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C574" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D574" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E574" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F574" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G574" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cc6766c2d001a58d18dfe7f60fd5e66.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H574" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I574" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J574" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="K574" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D575" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E575" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F575" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G575" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51fb29dd55442361fa9c5dbe23aca9c6.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H575" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I575" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J575" s="0" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K575" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C576" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D576" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="E576" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F576" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G576" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/28e774ec0ecd561a6a3d437e6c443a6b.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H576" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I576" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J576" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K576" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
         <v>303</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1523</v>
+        <v>1534</v>
       </c>
       <c r="C577" s="0" t="s">
         <v>31</v>
@@ -24189,23 +24271,23 @@
         <v>312</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>1524</v>
+        <v>1535</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="G577" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e0ecf1c1305c1bdc69bee0e7ba1e2e03.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7a107875bd58c5e655e8f87152a3bad7.html","web")</f>
         <v>web</v>
       </c>
       <c r="H577" s="0" t="s">
-        <v>1525</v>
+        <v>1536</v>
       </c>
       <c r="I577" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J577" s="0" t="s">
-        <v>1526</v>
+        <v>1537</v>
       </c>
       <c r="K577" s="0" t="s">
         <v>305</v>
@@ -24216,32 +24298,32 @@
         <v>303</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1527</v>
+        <v>1489</v>
       </c>
       <c r="C578" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1528</v>
+        <v>1491</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>1102</v>
+        <v>219</v>
       </c>
       <c r="G578" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b2b3318a73839edfafa9d46864aadc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H578" s="0" t="s">
-        <v>1529</v>
+        <v>1538</v>
       </c>
       <c r="I578" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J578" s="0" t="s">
-        <v>1530</v>
+        <v>1494</v>
       </c>
       <c r="K578" s="0" t="s">
         <v>305</v>
@@ -24252,32 +24334,32 @@
         <v>303</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>312</v>
+        <v>1540</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>1532</v>
+        <v>1541</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>1102</v>
+        <v>841</v>
       </c>
       <c r="G579" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/dd916e3e2eca18cda5d9f81749d0c91c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5c4978e802ba55d5a298cf1b3bdc2b3a.html","web")</f>
         <v>web</v>
       </c>
       <c r="H579" s="0" t="s">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="I579" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J579" s="0" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="K579" s="0" t="s">
         <v>305</v>
@@ -24288,32 +24370,32 @@
         <v>303</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1535</v>
+        <v>1544</v>
       </c>
       <c r="C580" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>1536</v>
+        <v>1545</v>
       </c>
       <c r="F580" s="0" t="s">
         <v>841</v>
       </c>
       <c r="G580" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b9c3eb96337c69c1c4a5aab1317f5563.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90c49fce92dc1f21647dad07d1342843.html","web")</f>
         <v>web</v>
       </c>
       <c r="H580" s="0" t="s">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="I580" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J580" s="0" t="s">
-        <v>1536</v>
+        <v>1547</v>
       </c>
       <c r="K580" s="0" t="s">
         <v>305</v>
@@ -24324,32 +24406,32 @@
         <v>303</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1538</v>
+        <v>1548</v>
       </c>
       <c r="C581" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>1539</v>
+        <v>1549</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="G581" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/21db90c0a12448299f855fdab60930d4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3d23c359f44d6a153c4dcab9e07d7cb6.html","web")</f>
         <v>web</v>
       </c>
       <c r="H581" s="0" t="s">
-        <v>1540</v>
+        <v>1550</v>
       </c>
       <c r="I581" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J581" s="0" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="K581" s="0" t="s">
         <v>305</v>
@@ -24360,32 +24442,32 @@
         <v>303</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1542</v>
+        <v>1551</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>1543</v>
+        <v>1552</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="G582" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2dedcb347c18e132a2f4d625abf94585.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8c9504d28596e05586c8e193082ac617.html","web")</f>
         <v>web</v>
       </c>
       <c r="H582" s="0" t="s">
-        <v>1544</v>
+        <v>1553</v>
       </c>
       <c r="I582" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J582" s="0" t="s">
-        <v>1545</v>
+        <v>1554</v>
       </c>
       <c r="K582" s="0" t="s">
         <v>305</v>
@@ -24396,32 +24478,32 @@
         <v>303</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>1546</v>
+        <v>1555</v>
       </c>
       <c r="C583" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>312</v>
+        <v>1556</v>
       </c>
       <c r="E583" s="0" t="s">
-        <v>1547</v>
+        <v>1557</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="G583" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/53f4724d228998d54191c73352532ce3.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e72b243a2a1c8691ab0168d8b62534c2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H583" s="0" t="s">
-        <v>1548</v>
+        <v>1558</v>
       </c>
       <c r="I583" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J583" s="0" t="s">
-        <v>1549</v>
+        <v>1559</v>
       </c>
       <c r="K583" s="0" t="s">
         <v>305</v>
@@ -24432,32 +24514,32 @@
         <v>303</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1550</v>
+        <v>1560</v>
       </c>
       <c r="C584" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>312</v>
+        <v>1556</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>1551</v>
+        <v>1561</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="G584" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cc6766c2d001a58d18dfe7f60fd5e66.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b1cd51f370e346ecb20f1e80cb6ea4.html","web")</f>
         <v>web</v>
       </c>
       <c r="H584" s="0" t="s">
-        <v>1552</v>
+        <v>1562</v>
       </c>
       <c r="I584" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J584" s="0" t="s">
-        <v>975</v>
+        <v>1563</v>
       </c>
       <c r="K584" s="0" t="s">
         <v>305</v>
@@ -24468,32 +24550,32 @@
         <v>303</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1553</v>
+        <v>1564</v>
       </c>
       <c r="C585" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>312</v>
+        <v>1556</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>1555</v>
+        <v>283</v>
       </c>
       <c r="G585" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/51fb29dd55442361fa9c5dbe23aca9c6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b97609a32d53dff5b8e73729e4f258b.html","web")</f>
         <v>web</v>
       </c>
       <c r="H585" s="0" t="s">
-        <v>1556</v>
+        <v>1566</v>
       </c>
       <c r="I585" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J585" s="0" t="s">
-        <v>1557</v>
+        <v>1567</v>
       </c>
       <c r="K585" s="0" t="s">
         <v>305</v>
@@ -24504,32 +24586,32 @@
         <v>303</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>1558</v>
+        <v>1568</v>
       </c>
       <c r="C586" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>312</v>
+        <v>1540</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1559</v>
+        <v>1569</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G586" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/28e774ec0ecd561a6a3d437e6c443a6b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c75f684ec69602e9de82b48e53afb2cc.html","web")</f>
         <v>web</v>
       </c>
       <c r="H586" s="0" t="s">
-        <v>1560</v>
+        <v>1570</v>
       </c>
       <c r="I586" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J586" s="0" t="s">
-        <v>1561</v>
+        <v>975</v>
       </c>
       <c r="K586" s="0" t="s">
         <v>305</v>
@@ -24540,32 +24622,32 @@
         <v>303</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>1562</v>
+        <v>1571</v>
       </c>
       <c r="C587" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>312</v>
+        <v>1540</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>1563</v>
+        <v>1572</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="G587" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7a107875bd58c5e655e8f87152a3bad7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebfefc2ab8716ef597b128171b275945.html","web")</f>
         <v>web</v>
       </c>
       <c r="H587" s="0" t="s">
-        <v>1564</v>
+        <v>1573</v>
       </c>
       <c r="I587" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J587" s="0" t="s">
-        <v>1565</v>
+        <v>1574</v>
       </c>
       <c r="K587" s="0" t="s">
         <v>305</v>
@@ -24576,32 +24658,32 @@
         <v>303</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>1517</v>
+        <v>1575</v>
       </c>
       <c r="C588" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1519</v>
+        <v>1576</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="G588" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/154ab10964742eaff37de9cc5beef39c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62f26742cf240c1b5169a5cd511196b6.html","web")</f>
         <v>web</v>
       </c>
       <c r="H588" s="0" t="s">
-        <v>1566</v>
+        <v>1577</v>
       </c>
       <c r="I588" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J588" s="0" t="s">
-        <v>1522</v>
+        <v>1578</v>
       </c>
       <c r="K588" s="0" t="s">
         <v>305</v>
@@ -24612,32 +24694,32 @@
         <v>303</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>1567</v>
+        <v>1579</v>
       </c>
       <c r="C589" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>1568</v>
+        <v>304</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>841</v>
+        <v>137</v>
       </c>
       <c r="G589" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5c4978e802ba55d5a298cf1b3bdc2b3a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/051919eddec810e292c883205c944ceb.html","web")</f>
         <v>web</v>
       </c>
       <c r="H589" s="0" t="s">
-        <v>1570</v>
+        <v>1581</v>
       </c>
       <c r="I589" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J589" s="0" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="K589" s="0" t="s">
         <v>305</v>
@@ -24648,7 +24730,7 @@
         <v>303</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="C590" s="0" t="s">
         <v>31</v>
@@ -24657,23 +24739,23 @@
         <v>304</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>841</v>
+        <v>137</v>
       </c>
       <c r="G590" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90c49fce92dc1f21647dad07d1342843.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa2bea81f238ad8f2c35a7e16ad97801.html","web")</f>
         <v>web</v>
       </c>
       <c r="H590" s="0" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="I590" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J590" s="0" t="s">
-        <v>1575</v>
+        <v>1586</v>
       </c>
       <c r="K590" s="0" t="s">
         <v>305</v>
@@ -24684,7 +24766,7 @@
         <v>303</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="C591" s="0" t="s">
         <v>31</v>
@@ -24693,23 +24775,23 @@
         <v>304</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>1577</v>
+        <v>1588</v>
       </c>
       <c r="F591" s="0" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="G591" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3d23c359f44d6a153c4dcab9e07d7cb6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/089961a3af4d54d5fb045cf3750e760c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H591" s="0" t="s">
-        <v>1578</v>
+        <v>1589</v>
       </c>
       <c r="I591" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J591" s="0" t="s">
-        <v>1577</v>
+        <v>1590</v>
       </c>
       <c r="K591" s="0" t="s">
         <v>305</v>
@@ -24720,7 +24802,7 @@
         <v>303</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>1579</v>
+        <v>1591</v>
       </c>
       <c r="C592" s="0" t="s">
         <v>31</v>
@@ -24729,23 +24811,23 @@
         <v>304</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>1580</v>
+        <v>1592</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="G592" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8c9504d28596e05586c8e193082ac617.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3a8e1636a31c82fbdd9a1ae45ab3be7d.html","web")</f>
         <v>web</v>
       </c>
       <c r="H592" s="0" t="s">
-        <v>1581</v>
+        <v>1593</v>
       </c>
       <c r="I592" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J592" s="0" t="s">
-        <v>1582</v>
+        <v>1594</v>
       </c>
       <c r="K592" s="0" t="s">
         <v>305</v>
@@ -24756,32 +24838,32 @@
         <v>303</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>1583</v>
+        <v>1595</v>
       </c>
       <c r="C593" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>1584</v>
+        <v>304</v>
       </c>
       <c r="E593" s="0" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="F593" s="0" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="G593" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e72b243a2a1c8691ab0168d8b62534c2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3abb7c5b4c4650e9d17a8439004aebea.html","web")</f>
         <v>web</v>
       </c>
       <c r="H593" s="0" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
       <c r="I593" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J593" s="0" t="s">
-        <v>1587</v>
+        <v>1598</v>
       </c>
       <c r="K593" s="0" t="s">
         <v>305</v>
@@ -24792,32 +24874,32 @@
         <v>303</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>1588</v>
+        <v>1599</v>
       </c>
       <c r="C594" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>1584</v>
+        <v>304</v>
       </c>
       <c r="E594" s="0" t="s">
-        <v>1589</v>
+        <v>1600</v>
       </c>
       <c r="F594" s="0" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="G594" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/86b1cd51f370e346ecb20f1e80cb6ea4.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd10cebbde1593b65e5220911f9a997c.html","web")</f>
         <v>web</v>
       </c>
       <c r="H594" s="0" t="s">
-        <v>1590</v>
+        <v>1601</v>
       </c>
       <c r="I594" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J594" s="0" t="s">
-        <v>1591</v>
+        <v>1602</v>
       </c>
       <c r="K594" s="0" t="s">
         <v>305</v>
@@ -24828,32 +24910,32 @@
         <v>303</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>1592</v>
+        <v>1603</v>
       </c>
       <c r="C595" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>1584</v>
+        <v>304</v>
       </c>
       <c r="E595" s="0" t="s">
-        <v>1593</v>
+        <v>1604</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="G595" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4b97609a32d53dff5b8e73729e4f258b.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/95cbf6ac889c8fe7d92e20e8c34960d1.html","web")</f>
         <v>web</v>
       </c>
       <c r="H595" s="0" t="s">
-        <v>1594</v>
+        <v>1605</v>
       </c>
       <c r="I595" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J595" s="0" t="s">
-        <v>1595</v>
+        <v>1162</v>
       </c>
       <c r="K595" s="0" t="s">
         <v>305</v>
@@ -24864,32 +24946,32 @@
         <v>303</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>1596</v>
+        <v>1606</v>
       </c>
       <c r="C596" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>1568</v>
+        <v>304</v>
       </c>
       <c r="E596" s="0" t="s">
-        <v>1597</v>
+        <v>1607</v>
       </c>
       <c r="F596" s="0" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="G596" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c75f684ec69602e9de82b48e53afb2cc.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a13ed886b17e20cdae8b89b9ff8e4610.html","web")</f>
         <v>web</v>
       </c>
       <c r="H596" s="0" t="s">
-        <v>1598</v>
+        <v>1608</v>
       </c>
       <c r="I596" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J596" s="0" t="s">
-        <v>975</v>
+        <v>1609</v>
       </c>
       <c r="K596" s="0" t="s">
         <v>305</v>
@@ -24900,32 +24982,32 @@
         <v>303</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>1599</v>
+        <v>1610</v>
       </c>
       <c r="C597" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>1568</v>
+        <v>304</v>
       </c>
       <c r="E597" s="0" t="s">
-        <v>1600</v>
+        <v>1611</v>
       </c>
       <c r="F597" s="0" t="s">
-        <v>31</v>
+        <v>327</v>
       </c>
       <c r="G597" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ebfefc2ab8716ef597b128171b275945.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70d7d6fc0e9c2f14624a0270bf2b99b9.html","web")</f>
         <v>web</v>
       </c>
       <c r="H597" s="0" t="s">
-        <v>1601</v>
+        <v>1612</v>
       </c>
       <c r="I597" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J597" s="0" t="s">
-        <v>1602</v>
+        <v>1613</v>
       </c>
       <c r="K597" s="0" t="s">
         <v>305</v>
@@ -24936,7 +25018,7 @@
         <v>303</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>1603</v>
+        <v>1614</v>
       </c>
       <c r="C598" s="0" t="s">
         <v>31</v>
@@ -24945,23 +25027,23 @@
         <v>304</v>
       </c>
       <c r="E598" s="0" t="s">
-        <v>1604</v>
+        <v>1615</v>
       </c>
       <c r="F598" s="0" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="G598" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/62f26742cf240c1b5169a5cd511196b6.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89027ee0079acb709750ddeac1c08899.html","web")</f>
         <v>web</v>
       </c>
       <c r="H598" s="0" t="s">
-        <v>1605</v>
+        <v>1616</v>
       </c>
       <c r="I598" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J598" s="0" t="s">
-        <v>1606</v>
+        <v>1271</v>
       </c>
       <c r="K598" s="0" t="s">
         <v>305</v>
@@ -24972,7 +25054,7 @@
         <v>303</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>1607</v>
+        <v>1617</v>
       </c>
       <c r="C599" s="0" t="s">
         <v>31</v>
@@ -24981,23 +25063,23 @@
         <v>304</v>
       </c>
       <c r="E599" s="0" t="s">
-        <v>1608</v>
+        <v>1618</v>
       </c>
       <c r="F599" s="0" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="G599" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/051919eddec810e292c883205c944ceb.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e7b9f984d3bba15daccaaa18039a85d.html","web")</f>
         <v>web</v>
       </c>
       <c r="H599" s="0" t="s">
-        <v>1609</v>
+        <v>1619</v>
       </c>
       <c r="I599" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J599" s="0" t="s">
-        <v>1610</v>
+        <v>1620</v>
       </c>
       <c r="K599" s="0" t="s">
         <v>305</v>
@@ -25008,7 +25090,7 @@
         <v>303</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>1611</v>
+        <v>1621</v>
       </c>
       <c r="C600" s="0" t="s">
         <v>31</v>
@@ -25017,23 +25099,23 @@
         <v>304</v>
       </c>
       <c r="E600" s="0" t="s">
-        <v>1612</v>
+        <v>1622</v>
       </c>
       <c r="F600" s="0" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="G600" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/aa2bea81f238ad8f2c35a7e16ad97801.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70bf79db957daa3b82413da949233ac7.html","web")</f>
         <v>web</v>
       </c>
       <c r="H600" s="0" t="s">
-        <v>1613</v>
+        <v>1623</v>
       </c>
       <c r="I600" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J600" s="0" t="s">
-        <v>1614</v>
+        <v>1274</v>
       </c>
       <c r="K600" s="0" t="s">
         <v>305</v>
@@ -25044,7 +25126,7 @@
         <v>303</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>1615</v>
+        <v>1624</v>
       </c>
       <c r="C601" s="0" t="s">
         <v>31</v>
@@ -25053,23 +25135,23 @@
         <v>304</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>1616</v>
+        <v>1625</v>
       </c>
       <c r="F601" s="0" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="G601" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/089961a3af4d54d5fb045cf3750e760c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d0a35d5c99a0aa93ad4069cfe83bf748.html","web")</f>
         <v>web</v>
       </c>
       <c r="H601" s="0" t="s">
-        <v>1617</v>
+        <v>1626</v>
       </c>
       <c r="I601" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J601" s="0" t="s">
-        <v>1618</v>
+        <v>1627</v>
       </c>
       <c r="K601" s="0" t="s">
         <v>305</v>
@@ -25080,7 +25162,7 @@
         <v>303</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>1619</v>
+        <v>1628</v>
       </c>
       <c r="C602" s="0" t="s">
         <v>31</v>
@@ -25089,23 +25171,23 @@
         <v>304</v>
       </c>
       <c r="E602" s="0" t="s">
-        <v>1620</v>
+        <v>1629</v>
       </c>
       <c r="F602" s="0" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="G602" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3a8e1636a31c82fbdd9a1ae45ab3be7d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H602" s="0" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="I602" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J602" s="0" t="s">
-        <v>1622</v>
+        <v>1630</v>
       </c>
       <c r="K602" s="0" t="s">
         <v>305</v>
@@ -25116,7 +25198,7 @@
         <v>303</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>1623</v>
+        <v>1631</v>
       </c>
       <c r="C603" s="0" t="s">
         <v>31</v>
@@ -25125,23 +25207,23 @@
         <v>304</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>1624</v>
+        <v>1632</v>
       </c>
       <c r="F603" s="0" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="G603" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3abb7c5b4c4650e9d17a8439004aebea.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7b2d1e1a3ece1169d8ac61af4b758ed2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H603" s="0" t="s">
-        <v>1625</v>
+        <v>1633</v>
       </c>
       <c r="I603" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J603" s="0" t="s">
-        <v>1626</v>
+        <v>1634</v>
       </c>
       <c r="K603" s="0" t="s">
         <v>305</v>
@@ -25152,7 +25234,7 @@
         <v>303</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>1627</v>
+        <v>1635</v>
       </c>
       <c r="C604" s="0" t="s">
         <v>31</v>
@@ -25161,23 +25243,23 @@
         <v>304</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>1628</v>
+        <v>1636</v>
       </c>
       <c r="F604" s="0" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="G604" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bd10cebbde1593b65e5220911f9a997c.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a21e250a10f96b1c1ad6d742206a157e.html","web")</f>
         <v>web</v>
       </c>
       <c r="H604" s="0" t="s">
-        <v>1629</v>
+        <v>1637</v>
       </c>
       <c r="I604" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J604" s="0" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="K604" s="0" t="s">
         <v>305</v>
@@ -25188,7 +25270,7 @@
         <v>303</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>1631</v>
+        <v>1639</v>
       </c>
       <c r="C605" s="0" t="s">
         <v>31</v>
@@ -25197,23 +25279,23 @@
         <v>304</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
       <c r="F605" s="0" t="s">
         <v>327</v>
       </c>
       <c r="G605" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/95cbf6ac889c8fe7d92e20e8c34960d1.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b907fef85d4c9571a9457ee1b259bb8f.html","web")</f>
         <v>web</v>
       </c>
       <c r="H605" s="0" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
       <c r="I605" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J605" s="0" t="s">
-        <v>1162</v>
+        <v>1642</v>
       </c>
       <c r="K605" s="0" t="s">
         <v>305</v>
@@ -25224,7 +25306,7 @@
         <v>303</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>1634</v>
+        <v>1643</v>
       </c>
       <c r="C606" s="0" t="s">
         <v>31</v>
@@ -25233,23 +25315,23 @@
         <v>304</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>1635</v>
+        <v>1644</v>
       </c>
       <c r="F606" s="0" t="s">
         <v>327</v>
       </c>
       <c r="G606" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a13ed886b17e20cdae8b89b9ff8e4610.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/63345d9732c72b97ca395f24ce2d6642.html","web")</f>
         <v>web</v>
       </c>
       <c r="H606" s="0" t="s">
-        <v>1636</v>
+        <v>1645</v>
       </c>
       <c r="I606" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J606" s="0" t="s">
-        <v>1637</v>
+        <v>1646</v>
       </c>
       <c r="K606" s="0" t="s">
         <v>305</v>
@@ -25260,7 +25342,7 @@
         <v>303</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>1638</v>
+        <v>1647</v>
       </c>
       <c r="C607" s="0" t="s">
         <v>31</v>
@@ -25269,23 +25351,23 @@
         <v>304</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>1639</v>
+        <v>1648</v>
       </c>
       <c r="F607" s="0" t="s">
         <v>327</v>
       </c>
       <c r="G607" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70d7d6fc0e9c2f14624a0270bf2b99b9.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/921b8b8f6620826567d9324314c70410.html","web")</f>
         <v>web</v>
       </c>
       <c r="H607" s="0" t="s">
-        <v>1640</v>
+        <v>1649</v>
       </c>
       <c r="I607" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J607" s="0" t="s">
-        <v>1641</v>
+        <v>1650</v>
       </c>
       <c r="K607" s="0" t="s">
         <v>305</v>
@@ -25296,7 +25378,7 @@
         <v>303</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>1642</v>
+        <v>1651</v>
       </c>
       <c r="C608" s="0" t="s">
         <v>31</v>
@@ -25305,23 +25387,23 @@
         <v>304</v>
       </c>
       <c r="E608" s="0" t="s">
-        <v>1643</v>
+        <v>1652</v>
       </c>
       <c r="F608" s="0" t="s">
         <v>327</v>
       </c>
       <c r="G608" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89027ee0079acb709750ddeac1c08899.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/12e0369ff0ba1a6f1a84e0d9565d4b07.html","web")</f>
         <v>web</v>
       </c>
       <c r="H608" s="0" t="s">
-        <v>1644</v>
+        <v>1653</v>
       </c>
       <c r="I608" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J608" s="0" t="s">
-        <v>1271</v>
+        <v>1654</v>
       </c>
       <c r="K608" s="0" t="s">
         <v>305</v>
@@ -25332,7 +25414,7 @@
         <v>303</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="C609" s="0" t="s">
         <v>31</v>
@@ -25341,23 +25423,23 @@
         <v>304</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="F609" s="0" t="s">
-        <v>327</v>
+        <v>967</v>
       </c>
       <c r="G609" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6e7b9f984d3bba15daccaaa18039a85d.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc637f1c75e58be8a6e4112411a00f36.html","web")</f>
         <v>web</v>
       </c>
       <c r="H609" s="0" t="s">
-        <v>1647</v>
+        <v>1657</v>
       </c>
       <c r="I609" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J609" s="0" t="s">
-        <v>1648</v>
+        <v>1658</v>
       </c>
       <c r="K609" s="0" t="s">
         <v>305</v>
@@ -25368,7 +25450,7 @@
         <v>303</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>1649</v>
+        <v>1659</v>
       </c>
       <c r="C610" s="0" t="s">
         <v>31</v>
@@ -25377,23 +25459,23 @@
         <v>304</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="F610" s="0" t="s">
-        <v>327</v>
+        <v>16</v>
       </c>
       <c r="G610" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/70bf79db957daa3b82413da949233ac7.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c2249d424dde72f8616d42870a9d425.html","web")</f>
         <v>web</v>
       </c>
       <c r="H610" s="0" t="s">
-        <v>1651</v>
+        <v>1661</v>
       </c>
       <c r="I610" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J610" s="0" t="s">
-        <v>1274</v>
+        <v>1662</v>
       </c>
       <c r="K610" s="0" t="s">
         <v>305</v>
@@ -25404,7 +25486,7 @@
         <v>303</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>1652</v>
+        <v>1663</v>
       </c>
       <c r="C611" s="0" t="s">
         <v>31</v>
@@ -25413,23 +25495,23 @@
         <v>304</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1653</v>
+        <v>1664</v>
       </c>
       <c r="F611" s="0" t="s">
-        <v>327</v>
+        <v>967</v>
       </c>
       <c r="G611" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d0a35d5c99a0aa93ad4069cfe83bf748.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a1dd605b563e9f09c718a5ba9cb9cc.html","web")</f>
         <v>web</v>
       </c>
       <c r="H611" s="0" t="s">
-        <v>1654</v>
+        <v>1665</v>
       </c>
       <c r="I611" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J611" s="0" t="s">
-        <v>1655</v>
+        <v>1666</v>
       </c>
       <c r="K611" s="0" t="s">
         <v>305</v>
@@ -25440,7 +25522,7 @@
         <v>303</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>1656</v>
+        <v>1667</v>
       </c>
       <c r="C612" s="0" t="s">
         <v>31</v>
@@ -25449,23 +25531,23 @@
         <v>304</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1657</v>
+        <v>1668</v>
       </c>
       <c r="F612" s="0" t="s">
-        <v>327</v>
+        <v>967</v>
       </c>
       <c r="G612" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/90df05fe3dcd9fe0c9b48aaa74b5e9e2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/73c496f5669cc122cf1cddfe4df2a27a.html","web")</f>
         <v>web</v>
       </c>
       <c r="H612" s="0" t="s">
-        <v>1651</v>
+        <v>1669</v>
       </c>
       <c r="I612" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J612" s="0" t="s">
-        <v>1658</v>
+        <v>1670</v>
       </c>
       <c r="K612" s="0" t="s">
         <v>305</v>
@@ -25476,7 +25558,7 @@
         <v>303</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>1659</v>
+        <v>1671</v>
       </c>
       <c r="C613" s="0" t="s">
         <v>31</v>
@@ -25485,23 +25567,23 @@
         <v>304</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1660</v>
+        <v>1672</v>
       </c>
       <c r="F613" s="0" t="s">
         <v>327</v>
       </c>
       <c r="G613" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7b2d1e1a3ece1169d8ac61af4b758ed2.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26328c46dfcc65d454b6fd4c52ccb48f.html","web")</f>
         <v>web</v>
       </c>
       <c r="H613" s="0" t="s">
-        <v>1661</v>
+        <v>1673</v>
       </c>
       <c r="I613" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J613" s="0" t="s">
-        <v>1662</v>
+        <v>1674</v>
       </c>
       <c r="K613" s="0" t="s">
         <v>305</v>
@@ -25512,7 +25594,7 @@
         <v>303</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>1663</v>
+        <v>1675</v>
       </c>
       <c r="C614" s="0" t="s">
         <v>31</v>
@@ -25521,23 +25603,23 @@
         <v>304</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1664</v>
+        <v>1676</v>
       </c>
       <c r="F614" s="0" t="s">
-        <v>327</v>
+        <v>137</v>
       </c>
       <c r="G614" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a21e250a10f96b1c1ad6d742206a157e.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
         <v>web</v>
       </c>
       <c r="H614" s="0" t="s">
-        <v>1665</v>
+        <v>1677</v>
       </c>
       <c r="I614" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J614" s="0" t="s">
-        <v>1666</v>
+        <v>1678</v>
       </c>
       <c r="K614" s="0" t="s">
         <v>305</v>
@@ -25548,7 +25630,7 @@
         <v>303</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>1667</v>
+        <v>1679</v>
       </c>
       <c r="C615" s="0" t="s">
         <v>31</v>
@@ -25557,23 +25639,23 @@
         <v>304</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>1668</v>
+        <v>1680</v>
       </c>
       <c r="F615" s="0" t="s">
-        <v>327</v>
+        <v>137</v>
       </c>
       <c r="G615" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b907fef85d4c9571a9457ee1b259bb8f.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
         <v>web</v>
       </c>
       <c r="H615" s="0" t="s">
-        <v>1669</v>
+        <v>1681</v>
       </c>
       <c r="I615" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J615" s="0" t="s">
-        <v>1670</v>
+        <v>1682</v>
       </c>
       <c r="K615" s="0" t="s">
         <v>305</v>
@@ -25584,32 +25666,31 @@
         <v>303</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>1671</v>
+        <v>1683</v>
       </c>
       <c r="C616" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>1672</v>
+        <v>1684</v>
       </c>
       <c r="F616" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G616" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/63345d9732c72b97ca395f24ce2d6642.html","web")</f>
-        <v>web</v>
+        <v>357</v>
+      </c>
+      <c r="G616" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H616" s="0" t="s">
-        <v>1673</v>
+        <v>1685</v>
       </c>
       <c r="I616" s="0" t="s">
-        <v>1521</v>
+        <v>359</v>
       </c>
       <c r="J616" s="0" t="s">
-        <v>1674</v>
+        <v>1684</v>
       </c>
       <c r="K616" s="0" t="s">
         <v>305</v>
@@ -25620,32 +25701,31 @@
         <v>303</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>1675</v>
+        <v>1686</v>
       </c>
       <c r="C617" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E617" s="0" t="s">
-        <v>1676</v>
+        <v>1687</v>
       </c>
       <c r="F617" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G617" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/921b8b8f6620826567d9324314c70410.html","web")</f>
-        <v>web</v>
+        <v>357</v>
+      </c>
+      <c r="G617" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H617" s="0" t="s">
-        <v>1677</v>
+        <v>1688</v>
       </c>
       <c r="I617" s="0" t="s">
-        <v>1521</v>
+        <v>359</v>
       </c>
       <c r="J617" s="0" t="s">
-        <v>1678</v>
+        <v>1689</v>
       </c>
       <c r="K617" s="0" t="s">
         <v>305</v>
@@ -25656,32 +25736,31 @@
         <v>303</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>1679</v>
+        <v>1690</v>
       </c>
       <c r="C618" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E618" s="0" t="s">
-        <v>1680</v>
+        <v>1691</v>
       </c>
       <c r="F618" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G618" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/12e0369ff0ba1a6f1a84e0d9565d4b07.html","web")</f>
-        <v>web</v>
+        <v>357</v>
+      </c>
+      <c r="G618" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H618" s="0" t="s">
-        <v>1681</v>
+        <v>1692</v>
       </c>
       <c r="I618" s="0" t="s">
-        <v>1521</v>
+        <v>359</v>
       </c>
       <c r="J618" s="0" t="s">
-        <v>1682</v>
+        <v>1693</v>
       </c>
       <c r="K618" s="0" t="s">
         <v>305</v>
@@ -25692,32 +25771,31 @@
         <v>303</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>1683</v>
+        <v>1694</v>
       </c>
       <c r="C619" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E619" s="0" t="s">
-        <v>1684</v>
+        <v>1695</v>
       </c>
       <c r="F619" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="G619" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fc637f1c75e58be8a6e4112411a00f36.html","web")</f>
-        <v>web</v>
+        <v>370</v>
+      </c>
+      <c r="G619" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H619" s="0" t="s">
-        <v>1685</v>
+        <v>1696</v>
       </c>
       <c r="I619" s="0" t="s">
-        <v>1521</v>
+        <v>359</v>
       </c>
       <c r="J619" s="0" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="K619" s="0" t="s">
         <v>305</v>
@@ -25728,32 +25806,31 @@
         <v>303</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>1687</v>
+        <v>1697</v>
       </c>
       <c r="C620" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E620" s="0" t="s">
-        <v>1688</v>
+        <v>1698</v>
       </c>
       <c r="F620" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G620" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7c2249d424dde72f8616d42870a9d425.html","web")</f>
-        <v>web</v>
+        <v>370</v>
+      </c>
+      <c r="G620" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H620" s="0" t="s">
-        <v>1689</v>
+        <v>1699</v>
       </c>
       <c r="I620" s="0" t="s">
-        <v>1521</v>
+        <v>359</v>
       </c>
       <c r="J620" s="0" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="K620" s="0" t="s">
         <v>305</v>
@@ -25764,32 +25841,31 @@
         <v>303</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1691</v>
+        <v>368</v>
       </c>
       <c r="C621" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>1692</v>
+        <v>369</v>
       </c>
       <c r="F621" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="G621" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/80a1dd605b563e9f09c718a5ba9cb9cc.html","web")</f>
-        <v>web</v>
+        <v>370</v>
+      </c>
+      <c r="G621" s="0" t="s">
+        <v>1701</v>
       </c>
       <c r="H621" s="0" t="s">
-        <v>1693</v>
+        <v>371</v>
       </c>
       <c r="I621" s="0" t="s">
-        <v>1521</v>
+        <v>359</v>
       </c>
       <c r="J621" s="0" t="s">
-        <v>1694</v>
+        <v>369</v>
       </c>
       <c r="K621" s="0" t="s">
         <v>305</v>
@@ -25800,32 +25876,31 @@
         <v>303</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="C622" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>304</v>
+        <v>1703</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="F622" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="G622" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/73c496f5669cc122cf1cddfe4df2a27a.html","web")</f>
-        <v>web</v>
+        <v>1705</v>
+      </c>
+      <c r="G622" s="0" t="s">
+        <v>1701</v>
       </c>
       <c r="H622" s="0" t="s">
-        <v>1697</v>
+        <v>1706</v>
       </c>
       <c r="I622" s="0" t="s">
-        <v>1521</v>
+        <v>226</v>
       </c>
       <c r="J622" s="0" t="s">
-        <v>1698</v>
+        <v>1707</v>
       </c>
       <c r="K622" s="0" t="s">
         <v>305</v>
@@ -25836,116 +25911,78 @@
         <v>303</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>1699</v>
+        <v>1708</v>
       </c>
       <c r="C623" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>304</v>
+        <v>1703</v>
       </c>
       <c r="E623" s="0" t="s">
-        <v>1700</v>
+        <v>1709</v>
       </c>
       <c r="F623" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G623" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26328c46dfcc65d454b6fd4c52ccb48f.html","web")</f>
-        <v>web</v>
+        <v>1710</v>
+      </c>
+      <c r="G623" s="0" t="s">
+        <v>1701</v>
       </c>
       <c r="H623" s="0" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="I623" s="0" t="s">
-        <v>1521</v>
+        <v>226</v>
       </c>
       <c r="J623" s="0" t="s">
-        <v>1702</v>
+        <v>1711</v>
       </c>
       <c r="K623" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B624" s="0" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C624" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D624" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E624" s="0" t="s">
-        <v>1704</v>
-      </c>
-      <c r="F624" s="0" t="s">
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B626" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C626" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D626" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E626" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F626" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G624" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/cc1b9e3073d751143fe8ab63ca9fcc45.html","web")</f>
+      <c r="G626" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H624" s="0" t="s">
-        <v>1705</v>
-      </c>
-      <c r="I624" s="0" t="s">
-        <v>1521</v>
-      </c>
-      <c r="J624" s="0" t="s">
-        <v>1706</v>
-      </c>
-      <c r="K624" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B625" s="0" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C625" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D625" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E625" s="0" t="s">
-        <v>1708</v>
-      </c>
-      <c r="F625" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G625" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/299fb9d19040c4aa3862644286261ad2.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H625" s="0" t="s">
-        <v>1709</v>
-      </c>
-      <c r="I625" s="0" t="s">
-        <v>1521</v>
-      </c>
-      <c r="J625" s="0" t="s">
-        <v>1710</v>
-      </c>
-      <c r="K625" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H626" s="0" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I626" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J626" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K626" s="0" t="s">
+        <v>981</v>
+      </c>
+    </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
         <v>1019</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C627" s="0" t="s">
         <v>31</v>
@@ -25954,23 +25991,23 @@
         <v>135</v>
       </c>
       <c r="E627" s="0" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="F627" s="0" t="s">
         <v>137</v>
       </c>
       <c r="G627" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/89c4bb4f45a0182fc00a1b86b13241a5.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
         <v>web</v>
       </c>
       <c r="H627" s="0" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="I627" s="0" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J627" s="0" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="K627" s="0" t="s">
         <v>981</v>
@@ -25981,7 +26018,7 @@
         <v>1019</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="C628" s="0" t="s">
         <v>31</v>
@@ -25990,248 +26027,246 @@
         <v>135</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="F628" s="0" t="s">
         <v>137</v>
       </c>
       <c r="G628" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2d38bda3114d03f7543b8af88aadd03a.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
         <v>web</v>
       </c>
       <c r="H628" s="0" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="I628" s="0" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="J628" s="0" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="K628" s="0" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="0" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B629" s="0" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C629" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D629" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E629" s="0" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F629" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G629" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/93723bb54a2c43450d75403102e618ac.html","web")</f>
+    <row r="630" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G630" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5aea9677ebbb40076a0e0b3b11fdb46f.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H629" s="0" t="s">
-        <v>1713</v>
-      </c>
-      <c r="I629" s="0" t="s">
-        <v>1714</v>
-      </c>
-      <c r="J629" s="0" t="s">
-        <v>1721</v>
-      </c>
-      <c r="K629" s="0" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H630" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I630" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J630" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K630" s="3" t="s">
+        <v>1728</v>
+      </c>
+    </row>
     <row r="631" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="3" t="s">
         <v>949</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D631" s="3" t="s">
         <v>956</v>
       </c>
       <c r="E631" s="3" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="F631" s="3" t="s">
-        <v>24</v>
+        <v>967</v>
       </c>
       <c r="G631" s="3" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5aea9677ebbb40076a0e0b3b11fdb46f.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H631" s="3" t="s">
-        <v>1724</v>
-      </c>
-      <c r="I631" s="3" t="s">
-        <v>1725</v>
-      </c>
-      <c r="J631" s="3" t="s">
-        <v>1726</v>
-      </c>
-      <c r="K631" s="3" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="632" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="B632" s="3" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C632" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D632" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="E632" s="3" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F632" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="G632" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9122e7b627c429163fd0857dc366e14e.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H632" s="3" t="s">
-        <v>1730</v>
-      </c>
-      <c r="I632" s="3" t="s">
-        <v>1725</v>
-      </c>
-      <c r="J632" s="3" t="s">
+      <c r="H631" s="3" t="s">
         <v>1731</v>
       </c>
-      <c r="K632" s="3" t="s">
+      <c r="I631" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J631" s="3" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="633" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
+      <c r="K631" s="3" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="632" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="633" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="B634" s="3" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C634" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D634" s="3" t="s">
+      <c r="B633" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D633" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E634" s="3" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F634" s="3" t="s">
+      <c r="E633" s="3" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F633" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G634" s="3" t="str">
+      <c r="G633" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/26a31ad76858198bd4d719aafeebe801.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H634" s="3" t="s">
+      <c r="H633" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="I634" s="3" t="s">
-        <v>1735</v>
-      </c>
-      <c r="J634" s="3" t="s">
+      <c r="I633" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="K634" s="3" t="s">
+      <c r="J633" s="3" t="s">
         <v>1737</v>
       </c>
+      <c r="K633" s="3" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="634" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0"/>
     </row>
     <row r="635" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="0"/>
-    </row>
-    <row r="636" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="3" t="s">
+      <c r="A635" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="B636" s="3" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C636" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D636" s="3" t="s">
+      <c r="B635" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D635" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="E636" s="3" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F636" s="3" t="s">
+      <c r="E635" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F635" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="G636" s="3" t="str">
+      <c r="G635" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H636" s="3" t="s">
+      <c r="H635" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I635" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J635" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="K635" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="636" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="637" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E637" s="3" t="s">
         <v>1740</v>
       </c>
-      <c r="I636" s="3" t="s">
-        <v>1741</v>
-      </c>
-      <c r="J636" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="K636" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="637" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="B638" s="3" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C638" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D638" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="E638" s="3" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F638" s="3" t="s">
+      <c r="F637" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="G638" s="3" t="str">
+      <c r="G637" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1d4594c97188efd47935238a429e02e4.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H638" s="3" t="s">
-        <v>1743</v>
-      </c>
-      <c r="I638" s="3" t="s">
-        <v>1741</v>
-      </c>
-      <c r="J638" s="3" t="s">
+      <c r="H637" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I637" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J637" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="K638" s="3" t="s">
+      <c r="K637" s="3" t="s">
         <v>721</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B638" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C638" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D638" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="E638" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F638" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="G638" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H638" s="0" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I638" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J638" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="K638" s="0" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26239,296 +26274,306 @@
         <v>720</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="C639" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="E639" s="0" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="F639" s="0" t="s">
-        <v>714</v>
+        <v>752</v>
       </c>
       <c r="G639" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H639" s="0" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="I639" s="0" t="s">
-        <v>1521</v>
+        <v>1493</v>
       </c>
       <c r="J639" s="0" t="s">
-        <v>727</v>
+        <v>1749</v>
       </c>
       <c r="K639" s="0" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="B640" s="0" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C640" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D640" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="E640" s="0" t="s">
-        <v>1748</v>
-      </c>
-      <c r="F640" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="G640" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H640" s="0" t="s">
-        <v>1746</v>
-      </c>
-      <c r="I640" s="0" t="s">
-        <v>1521</v>
-      </c>
-      <c r="J640" s="0" t="s">
-        <v>1748</v>
-      </c>
-      <c r="K640" s="0" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B642" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C642" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D642" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E642" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="F642" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G642" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H642" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="I642" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="J642" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="K642" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="B643" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C643" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D643" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="E643" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="F643" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="G643" s="0" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <v>web</v>
+      </c>
+      <c r="H643" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="I643" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="J643" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="K643" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>436</v>
+        <v>915</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>368</v>
+        <v>1683</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>438</v>
+        <v>868</v>
       </c>
       <c r="E644" s="0" t="s">
-        <v>369</v>
+        <v>1684</v>
       </c>
       <c r="F644" s="0" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G644" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2a6093caf9e5cd42fb2fba6bdb73d6db.html","web")</f>
         <v>web</v>
       </c>
       <c r="H644" s="0" t="s">
-        <v>371</v>
+        <v>1685</v>
       </c>
       <c r="I644" s="0" t="s">
         <v>359</v>
       </c>
       <c r="J644" s="0" t="s">
-        <v>369</v>
+        <v>1684</v>
       </c>
       <c r="K644" s="0" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="B645" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C645" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D645" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="E645" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="F645" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="G645" s="0" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c8b1814845661bcad37910e70a59b285.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H645" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="I645" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="J645" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="K645" s="0" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="3" t="s">
+    <row r="646" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="B647" s="3" t="s">
+      <c r="B646" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="C647" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D647" s="3" t="s">
+      <c r="C646" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D646" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E647" s="3" t="s">
+      <c r="E646" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="F647" s="3" t="s">
+      <c r="F646" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G647" s="3" t="str">
+      <c r="G646" s="3" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H647" s="0" t="s">
+      <c r="H646" s="0" t="s">
         <v>1117</v>
       </c>
-      <c r="I647" s="0" t="s">
+      <c r="I646" s="0" t="s">
         <v>1118</v>
       </c>
-      <c r="J647" s="3" t="s">
+      <c r="J646" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="K647" s="3" t="s">
+      <c r="K646" s="3" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="0" t="s">
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="s">
         <v>1019</v>
       </c>
-      <c r="B649" s="0" t="s">
+      <c r="B648" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="C649" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D649" s="0" t="s">
+      <c r="C648" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D648" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E649" s="0" t="s">
+      <c r="E648" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="F649" s="0" t="s">
+      <c r="F648" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G649" s="0" t="str">
+      <c r="G648" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
+      <c r="H648" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I648" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J648" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="K648" s="0" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="649" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G649" s="3" t="str">
+        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>web</v>
+      </c>
       <c r="H649" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="I649" s="0" t="s">
+      <c r="I649" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J649" s="0" t="s">
+      <c r="J649" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="K649" s="0" t="s">
+      <c r="K649" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="650" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="B650" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C650" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D650" s="3" t="s">
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B652" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C652" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D652" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E650" s="3" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F650" s="3" t="s">
+      <c r="E652" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F652" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G650" s="3" t="str">
-        <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917e2ba-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>web</v>
-      </c>
-      <c r="H650" s="0" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I650" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J650" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="K650" s="3" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="B654" s="0" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C654" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D654" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E654" s="0" t="s">
-        <v>1751</v>
-      </c>
-      <c r="F654" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G654" s="0" t="str">
+      <c r="G652" s="0" t="str">
         <f aca="false">HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cab4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>web</v>
       </c>
-      <c r="H654" s="0" t="s">
-        <v>1752</v>
-      </c>
-      <c r="I654" s="0" t="s">
+      <c r="H652" s="0" t="s">
         <v>1753</v>
       </c>
-      <c r="J654" s="0" t="s">
+      <c r="I652" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J652" s="0" t="s">
         <v>759</v>
       </c>
-      <c r="K654" s="0" t="s">
+      <c r="K652" s="0" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+